--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DE61DD1A-F22D-7440-8A4E-6768A49A803E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{72652FDC-77F7-BF46-9629-F8DB58CAB3E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-19800" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="Fertility risks" sheetId="42" r:id="rId7"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId8"/>
-    <sheet name="Wasting incidence" sheetId="53" r:id="rId9"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId10"/>
-    <sheet name="IYCF target &amp; cost" sheetId="35" r:id="rId11"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId12"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId13"/>
-    <sheet name="Programs family planning" sheetId="54" r:id="rId14"/>
+    <sheet name="Programs birth age" sheetId="55" r:id="rId8"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId9"/>
+    <sheet name="Wasting incidence" sheetId="53" r:id="rId10"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId11"/>
+    <sheet name="IYCF target &amp; cost" sheetId="35" r:id="rId12"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId14"/>
+    <sheet name="Programs family planning" sheetId="54" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="abortion">'Baseline year population inputs'!$C$26</definedName>
@@ -153,6 +154,94 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Ruth</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> this age
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>made numbers up for effectiveness</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>Sam</author>
   </authors>
   <commentList>
@@ -193,7 +282,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -236,7 +325,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -289,7 +378,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -371,7 +460,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -414,7 +503,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -492,7 +581,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="238">
   <si>
     <t>year</t>
   </si>
@@ -1197,6 +1286,15 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>effectiveness</t>
+  </si>
+  <si>
+    <t>affected fraction</t>
+  </si>
+  <si>
+    <t>Outcome</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2329,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2428,6 +2526,14 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="726">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -4954,6 +5060,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513F474B-1986-A540-8A46-5EAC2952C8E8}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="54">
+        <f>'Nutritional status distribution'!C10 * 2.6</f>
+        <v>0.39</v>
+      </c>
+      <c r="C2" s="54">
+        <f>'Nutritional status distribution'!D10 * 2.6</f>
+        <v>0.39</v>
+      </c>
+      <c r="D2" s="54">
+        <f>'Nutritional status distribution'!E10 * 2.6</f>
+        <v>0.33540000000000003</v>
+      </c>
+      <c r="E2" s="54">
+        <f>'Nutritional status distribution'!F10 * 2.6</f>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="F2" s="54">
+        <f>'Nutritional status distribution'!G10 * 2.6</f>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="54">
+        <f>'Nutritional status distribution'!C11 * 2.6</f>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C3" s="54">
+        <f>'Nutritional status distribution'!D11 * 2.6</f>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="D3" s="54">
+        <f>'Nutritional status distribution'!E11 * 2.6</f>
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="E3" s="54">
+        <f>'Nutritional status distribution'!F11 * 2.6</f>
+        <v>0.10659999999999999</v>
+      </c>
+      <c r="F3" s="54">
+        <f>'Nutritional status distribution'!G11 * 2.6</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -5171,7 +5366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -5371,7 +5566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -7724,14 +7919,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -8533,7 +8728,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57701AF1-AC9D-D445-9C09-730772E263E4}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -8584,7 +8779,7 @@
         <v>0.8</v>
       </c>
       <c r="E2" s="94">
-        <f>C2*D2</f>
+        <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
@@ -8602,7 +8797,7 @@
         <v>1.9</v>
       </c>
       <c r="E3" s="94">
-        <f>C3*D3</f>
+        <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
@@ -8620,7 +8815,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="94">
-        <f>C4*D4</f>
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
@@ -8638,7 +8833,7 @@
         <v>0.7</v>
       </c>
       <c r="E5" s="94">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
@@ -8656,7 +8851,7 @@
         <v>0.7</v>
       </c>
       <c r="E6" s="94">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
@@ -8674,7 +8869,7 @@
         <v>0.9</v>
       </c>
       <c r="E7" s="94">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
@@ -8692,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="94">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8710,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="94">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8728,7 +8923,7 @@
         <v>0.6</v>
       </c>
       <c r="E10" s="94">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -10966,6 +11161,87 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369C79AA-E332-6842-B41C-7B52485E2941}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="94" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="94" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="94"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+      <c r="A1" s="107" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="109" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="107"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="94" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="105">
+        <f>'Fertility risks'!C2</f>
+        <v>0.15</v>
+      </c>
+      <c r="D2" s="105">
+        <f>'Fertility risks'!C3</f>
+        <v>0.03</v>
+      </c>
+      <c r="E2" s="105">
+        <f>'Fertility risks'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="104"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="105">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="105">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="105">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="104"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -11113,93 +11389,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513F474B-1986-A540-8A46-5EAC2952C8E8}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="54">
-        <f>'Nutritional status distribution'!C10 * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="C2" s="54">
-        <f>'Nutritional status distribution'!D10 * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="D2" s="54">
-        <f>'Nutritional status distribution'!E10 * 2.6</f>
-        <v>0.33540000000000003</v>
-      </c>
-      <c r="E2" s="54">
-        <f>'Nutritional status distribution'!F10 * 2.6</f>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="F2" s="54">
-        <f>'Nutritional status distribution'!G10 * 2.6</f>
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="54">
-        <f>'Nutritional status distribution'!C11 * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C3" s="54">
-        <f>'Nutritional status distribution'!D11 * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="D3" s="54">
-        <f>'Nutritional status distribution'!E11 * 2.6</f>
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="E3" s="54">
-        <f>'Nutritional status distribution'!F11 * 2.6</f>
-        <v>0.10659999999999999</v>
-      </c>
-      <c r="F3" s="54">
-        <f>'Nutritional status distribution'!G11 * 2.6</f>
-        <v>5.4600000000000003E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{72652FDC-77F7-BF46-9629-F8DB58CAB3E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3FA8A740-9914-534F-B67E-D74E338CFEE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-19800" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="961" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -8944,7 +8944,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -11167,7 +11167,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3FA8A740-9914-534F-B67E-D74E338CFEE8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E9B6A32-1CEB-534B-AE95-A154DB98B182}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="961" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="961" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,9 @@
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="Fertility risks" sheetId="42" r:id="rId7"/>
-    <sheet name="Programs birth age" sheetId="55" r:id="rId8"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId9"/>
-    <sheet name="Wasting incidence" sheetId="53" r:id="rId10"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId11"/>
-    <sheet name="IYCF target &amp; cost" sheetId="35" r:id="rId12"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId13"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId14"/>
-    <sheet name="Programs family planning" sheetId="54" r:id="rId15"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId8"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId9"/>
+    <sheet name="Programs family planning" sheetId="54" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="abortion">'Baseline year population inputs'!$C$26</definedName>
@@ -37,10 +32,20 @@
     <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$46</definedName>
     <definedName name="frac_maize">'Baseline year population inputs'!$C$14</definedName>
     <definedName name="frac_malaria_risk">'Baseline year population inputs'!$C$4</definedName>
+    <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
+    <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
+    <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
+    <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
+    <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Baseline year population inputs'!$C$48</definedName>
     <definedName name="frac_other_staples">'Baseline year population inputs'!$C$15</definedName>
     <definedName name="frac_PW_health_facility">'Baseline year population inputs'!$C$6</definedName>
     <definedName name="frac_rice">'Baseline year population inputs'!$C$12</definedName>
+    <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
+    <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
+    <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
+    <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
+    <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!$C$49</definedName>
     <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$11</definedName>
     <definedName name="frac_wheat">'Baseline year population inputs'!$C$13</definedName>
@@ -48,6 +53,7 @@
     <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="maternal_mortality">'Baseline year population inputs'!$C$25</definedName>
     <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$28</definedName>
+    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$6</definedName>
     <definedName name="preterm_AGA">'Baseline year population inputs'!$C$34</definedName>
     <definedName name="preterm_SGA">'Baseline year population inputs'!$C$33</definedName>
     <definedName name="school_attendance">'Baseline year population inputs'!$C$5</definedName>
@@ -114,138 +120,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{3CB8C2A1-4C22-D64F-B53D-2771BBF94B58}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Could be issue since not at top of column</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Ruth</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> this age
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>made numbers up for effectiveness</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -282,185 +157,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{1A209C80-E546-1347-B078-2ECB6F3EF3C8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 1.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-If user wants this, it must be checked for </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>all populations</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> b/c they are all targetted at once.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1.5*unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0.5* unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Totally fictional</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -503,7 +200,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -581,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="216">
   <si>
     <t>year</t>
   </si>
@@ -706,15 +403,6 @@
     <t>General population</t>
   </si>
   <si>
-    <t>Iron fortification of wheat flour</t>
-  </si>
-  <si>
-    <t>Iron fortification of maize</t>
-  </si>
-  <si>
-    <t>Iron fortification of rice</t>
-  </si>
-  <si>
     <t>non-pregnant WRA</t>
   </si>
   <si>
@@ -751,9 +439,6 @@
     <t>Iron and iodine fortification of salt</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Population data</t>
   </si>
   <si>
@@ -841,12 +526,6 @@
     <t>Zinc supplementation</t>
   </si>
   <si>
-    <t>saturation coverage</t>
-  </si>
-  <si>
-    <t>unit cost</t>
-  </si>
-  <si>
     <t>Cash transfers</t>
   </si>
   <si>
@@ -871,42 +550,6 @@
     <t>Treatment of SAM</t>
   </si>
   <si>
-    <t>Health facility</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Target population</t>
-  </si>
-  <si>
-    <t>IYCF package</t>
-  </si>
-  <si>
-    <t>IYCF 1</t>
-  </si>
-  <si>
-    <t>IYCF 2</t>
-  </si>
-  <si>
-    <t>IYCF 3</t>
-  </si>
-  <si>
-    <t>Mass media</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Package information</t>
-  </si>
-  <si>
-    <t>Target populations</t>
-  </si>
-  <si>
-    <t>Unit costs</t>
-  </si>
-  <si>
     <t>Family Planning</t>
   </si>
   <si>
@@ -919,18 +562,12 @@
     <t>Anaemia</t>
   </si>
   <si>
-    <t>baseline coverage</t>
-  </si>
-  <si>
     <t>Diarrhoea</t>
   </si>
   <si>
     <t>Diarrhoea incidence</t>
   </si>
   <si>
-    <t>Severe diarrhoea</t>
-  </si>
-  <si>
     <t>Neonatal diarrhoea</t>
   </si>
   <si>
@@ -1012,9 +649,6 @@
     <t>Birth age program</t>
   </si>
   <si>
-    <t>Calculated in model</t>
-  </si>
-  <si>
     <t>Fraction of pregnancies ending in spontaneous abortion</t>
   </si>
   <si>
@@ -1288,13 +922,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>effectiveness</t>
-  </si>
-  <si>
-    <t>affected fraction</t>
-  </si>
-  <si>
-    <t>Outcome</t>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +938,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1361,25 +992,6 @@
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1445,8 +1057,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1467,24 +1086,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1520,86 +1127,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="726">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2329,7 +1856,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2339,7 +1866,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2349,23 +1875,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2373,7 +1888,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2382,10 +1897,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2405,15 +1918,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2423,7 +1936,7 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2432,7 +1945,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2449,9 +1962,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2463,16 +1973,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2487,17 +1997,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2506,34 +2014,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="726">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -4688,365 +4183,369 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="36" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="31"/>
+    <col min="1" max="1" width="27.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="22" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+        <v>135</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
-        <v>57</v>
+      <c r="A2" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="41">
+      <c r="B3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="27">
         <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="40">
+      <c r="B4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="26">
         <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="40">
+      <c r="B5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="26">
         <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="41">
+      <c r="B6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="27">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="41">
+      <c r="B7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="27">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="41">
+      <c r="B8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="27">
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="31"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="40">
+      <c r="B11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="40">
+      <c r="B12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="26">
         <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="40">
+      <c r="B13" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="26">
         <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="B14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="26">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="43">
+      <c r="B15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="29">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>2.9999999999999957E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="31"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31" t="s">
-        <v>155</v>
+      <c r="A17" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="40">
+      <c r="B18" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="26">
         <v>0.29978973218277538</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="40">
+      <c r="B19" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="26">
         <v>0.52556568434139284</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="40">
+      <c r="B20" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="26">
         <v>0.16210210664201097</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="40">
+      <c r="B21" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="26">
         <v>1.2542476833820825E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="42">
+      <c r="B25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="28">
         <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="40">
+      <c r="B26" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="26">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="74">
+      <c r="B27" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="59">
         <v>25.36</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="75">
+      <c r="B28" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="28">
         <v>25.4</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="42">
+      <c r="B29" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="28">
         <v>34.68</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="42">
+      <c r="B30" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="28">
         <v>39.32</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="37"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="37"/>
+      <c r="A32" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="26">
         <v>3.1E-2</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="26">
         <v>0.109</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="26">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="29">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="37"/>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="37"/>
+      <c r="A38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="8">
+      <c r="B39" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="8">
+      <c r="B40" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="7">
         <v>2.4300000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="8">
+      <c r="B41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="7">
         <v>3.71</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="8">
+      <c r="B42" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="B43" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="7">
         <v>1.92</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="31" t="s">
-        <v>199</v>
+      <c r="A45" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="41">
+      <c r="B46" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="27">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="41">
+      <c r="B47" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="27">
         <v>0.42</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="41">
+      <c r="B48" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="27">
         <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="41">
+      <c r="B49" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="27">
         <v>0.1</v>
       </c>
     </row>
@@ -5060,521 +4559,2556 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513F474B-1986-A540-8A46-5EAC2952C8E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57701AF1-AC9D-D445-9C09-730772E263E4}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="67" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="67"/>
+    <col min="5" max="5" width="17.5" style="67" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="67"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="70">
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="69">
+        <v>0.09</v>
+      </c>
+      <c r="D2" s="67">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="67">
+        <f t="shared" ref="E2:E10" si="0">C2*D2</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="70">
+        <v>1</v>
+      </c>
+      <c r="C3" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="67">
+        <v>1.9</v>
+      </c>
+      <c r="E3" s="67">
+        <f t="shared" si="0"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="70">
+        <v>1</v>
+      </c>
+      <c r="C4" s="69">
+        <v>0.08</v>
+      </c>
+      <c r="D4" s="67">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="54">
-        <f>'Nutritional status distribution'!C10 * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="C2" s="54">
-        <f>'Nutritional status distribution'!D10 * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="D2" s="54">
-        <f>'Nutritional status distribution'!E10 * 2.6</f>
-        <v>0.33540000000000003</v>
-      </c>
-      <c r="E2" s="54">
-        <f>'Nutritional status distribution'!F10 * 2.6</f>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="F2" s="54">
-        <f>'Nutritional status distribution'!G10 * 2.6</f>
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="54">
-        <f>'Nutritional status distribution'!C11 * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C3" s="54">
-        <f>'Nutritional status distribution'!D11 * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="D3" s="54">
-        <f>'Nutritional status distribution'!E11 * 2.6</f>
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="E3" s="54">
-        <f>'Nutritional status distribution'!F11 * 2.6</f>
-        <v>0.10659999999999999</v>
-      </c>
-      <c r="F3" s="54">
-        <f>'Nutritional status distribution'!G11 * 2.6</f>
-        <v>5.4600000000000003E-2</v>
-      </c>
+      <c r="E4" s="67">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="70">
+        <v>1</v>
+      </c>
+      <c r="C5" s="69">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="67">
+        <f t="shared" si="0"/>
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="70">
+        <v>1</v>
+      </c>
+      <c r="C6" s="69">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="67">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="67">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="70">
+        <v>0.93</v>
+      </c>
+      <c r="C7" s="69">
+        <v>0.45</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="67">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="69">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="67">
+        <v>0</v>
+      </c>
+      <c r="E8" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="69">
+        <v>0.11</v>
+      </c>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="70">
+        <v>0.98</v>
+      </c>
+      <c r="C10" s="69">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="67">
+        <v>0.6</v>
+      </c>
+      <c r="E10" s="67">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="68"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
+    <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+      <selection activeCell="B49" sqref="B49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="36">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C2" s="37">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>0</v>
+      </c>
+      <c r="E2" s="37">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="C3" s="37">
+        <v>0</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0</v>
+      </c>
+      <c r="E3" s="37">
+        <v>0</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="36">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C4" s="37">
+        <v>0</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="C5" s="37">
+        <v>0</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
+        <v>0</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0</v>
+      </c>
+      <c r="D7" s="37">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0.127</v>
+      </c>
+      <c r="C8" s="37">
+        <v>0</v>
+      </c>
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="36">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C9" s="37">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="37">
+        <v>0</v>
+      </c>
+      <c r="C10" s="36">
+        <f>14.81% * 0.2</f>
+        <v>2.9620000000000004E-2</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="37">
+        <v>0</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.2883</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0.2883</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.2883</v>
+      </c>
+      <c r="F11" s="36">
+        <v>0.2883</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="37">
+        <v>0</v>
+      </c>
+      <c r="C12" s="36">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D12" s="36">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E12" s="36">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F12" s="36">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="37">
+        <v>0</v>
+      </c>
+      <c r="C13" s="36">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="D13" s="36">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="E13" s="36">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="F13" s="36">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="37">
+        <v>0</v>
+      </c>
+      <c r="C14" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D14" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E14" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F14" s="36">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="37">
+        <v>0</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0</v>
+      </c>
+      <c r="G16" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="37">
+        <v>0</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="37">
+        <v>0</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="37">
+        <v>0</v>
+      </c>
+      <c r="C19" s="37">
+        <v>0</v>
+      </c>
+      <c r="D19" s="37">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="38">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="37">
+        <v>0</v>
+      </c>
+      <c r="C20" s="37">
+        <v>0</v>
+      </c>
+      <c r="D20" s="37">
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="37">
+        <v>0</v>
+      </c>
+      <c r="C21" s="37">
+        <v>0</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0</v>
+      </c>
+      <c r="G21" s="38">
+        <v>0.25590000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="37">
+        <v>0</v>
+      </c>
+      <c r="C22" s="37">
+        <v>0</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0</v>
+      </c>
+      <c r="E22" s="37">
+        <v>0</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0</v>
+      </c>
+      <c r="G22" s="38">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="37">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37">
+        <v>0</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="37">
+        <v>0</v>
+      </c>
+      <c r="C24" s="37">
+        <v>0</v>
+      </c>
+      <c r="D24" s="37">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0</v>
+      </c>
+      <c r="G24" s="38">
+        <v>1.8100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="37">
+        <v>0</v>
+      </c>
+      <c r="C25" s="37">
+        <v>0</v>
+      </c>
+      <c r="D25" s="37">
+        <v>0</v>
+      </c>
+      <c r="E25" s="37">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37">
+        <v>0</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="37">
+        <v>0</v>
+      </c>
+      <c r="C26" s="37">
+        <v>0</v>
+      </c>
+      <c r="D26" s="37">
+        <v>0</v>
+      </c>
+      <c r="E26" s="37">
+        <v>0</v>
+      </c>
+      <c r="F26" s="37">
+        <v>0</v>
+      </c>
+      <c r="G26" s="38">
+        <v>0.15129999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="37">
+        <v>0</v>
+      </c>
+      <c r="C27" s="37">
+        <v>0</v>
+      </c>
+      <c r="D27" s="37">
+        <v>0</v>
+      </c>
+      <c r="E27" s="37">
+        <v>0</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0</v>
+      </c>
+      <c r="G27" s="38">
+        <v>0.36630000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="18" customWidth="1"/>
+    <col min="2" max="10" width="16.83203125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="14.5" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3095470</v>
+      </c>
+      <c r="C2" s="32">
+        <v>15402200</v>
+      </c>
+      <c r="D2" s="32">
+        <v>8785700</v>
+      </c>
+      <c r="E2" s="32">
+        <v>13889200</v>
+      </c>
+      <c r="F2" s="32">
+        <v>12671800</v>
+      </c>
+      <c r="G2" s="32">
+        <v>9362400</v>
+      </c>
+      <c r="H2" s="32">
+        <v>173766200</v>
+      </c>
+      <c r="I2" s="61">
+        <f t="shared" ref="I2:I15" si="0">D2+E2+F2+G2</f>
+        <v>44709100</v>
+      </c>
+      <c r="J2" s="33">
+        <f t="shared" ref="J2:J15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
+        <v>3650590.4685349194</v>
+      </c>
+      <c r="K2" s="62">
+        <f t="shared" ref="K2:K15" si="2">D2/I2</f>
+        <v>0.19650809343064388</v>
+      </c>
+      <c r="L2" s="33">
+        <f>I2-J2</f>
+        <v>41058509.531465083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3071259</v>
+      </c>
+      <c r="C3" s="32">
+        <v>15629400.000000002</v>
+      </c>
+      <c r="D3" s="32">
+        <v>8937400.0000000019</v>
+      </c>
+      <c r="E3" s="32">
+        <v>14228400.000000002</v>
+      </c>
+      <c r="F3" s="32">
+        <v>12949600</v>
+      </c>
+      <c r="G3" s="32">
+        <v>9576800</v>
+      </c>
+      <c r="H3" s="32">
+        <v>175848400</v>
+      </c>
+      <c r="I3" s="61">
+        <f t="shared" si="0"/>
+        <v>45692200</v>
+      </c>
+      <c r="J3" s="33">
+        <f t="shared" si="1"/>
+        <v>3622037.632993402</v>
+      </c>
+      <c r="K3" s="62">
+        <f t="shared" si="2"/>
+        <v>0.19560012431005733</v>
+      </c>
+      <c r="L3" s="33">
+        <f t="shared" ref="L3:L15" si="3">I3-J3</f>
+        <v>42070162.3670066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3045241</v>
+      </c>
+      <c r="C4" s="32">
+        <v>15856600.000000002</v>
+      </c>
+      <c r="D4" s="32">
+        <v>9089100.0000000019</v>
+      </c>
+      <c r="E4" s="32">
+        <v>14567600.000000002</v>
+      </c>
+      <c r="F4" s="32">
+        <v>13227400</v>
+      </c>
+      <c r="G4" s="32">
+        <v>9791200.0000000019</v>
+      </c>
+      <c r="H4" s="32">
+        <v>177930600</v>
+      </c>
+      <c r="I4" s="61">
+        <f t="shared" si="0"/>
+        <v>46675300</v>
+      </c>
+      <c r="J4" s="33">
+        <f t="shared" si="1"/>
+        <v>3591353.7424015561</v>
+      </c>
+      <c r="K4" s="62">
+        <f t="shared" si="2"/>
+        <v>0.19473040344679096</v>
+      </c>
+      <c r="L4" s="33">
+        <f t="shared" si="3"/>
+        <v>43083946.257598445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3017266</v>
+      </c>
+      <c r="C5" s="32">
+        <v>16083800.000000004</v>
+      </c>
+      <c r="D5" s="32">
+        <v>9240800.0000000037</v>
+      </c>
+      <c r="E5" s="32">
+        <v>14906800.000000004</v>
+      </c>
+      <c r="F5" s="32">
+        <v>13505200</v>
+      </c>
+      <c r="G5" s="32">
+        <v>10005600.000000004</v>
+      </c>
+      <c r="H5" s="32">
+        <v>180012800</v>
+      </c>
+      <c r="I5" s="61">
+        <f t="shared" si="0"/>
+        <v>47658400.000000015</v>
+      </c>
+      <c r="J5" s="33">
+        <f t="shared" si="1"/>
+        <v>3558361.8967828737</v>
+      </c>
+      <c r="K5" s="62">
+        <f t="shared" si="2"/>
+        <v>0.19389656387960991</v>
+      </c>
+      <c r="L5" s="33">
+        <f t="shared" si="3"/>
+        <v>44100038.10321714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2990677</v>
+      </c>
+      <c r="C6" s="32">
+        <v>16311000.000000004</v>
+      </c>
+      <c r="D6" s="32">
+        <v>9392500.0000000037</v>
+      </c>
+      <c r="E6" s="32">
+        <v>15246000.000000004</v>
+      </c>
+      <c r="F6" s="32">
+        <v>13783000</v>
+      </c>
+      <c r="G6" s="32">
+        <v>10220000.000000004</v>
+      </c>
+      <c r="H6" s="32">
+        <v>182095000</v>
+      </c>
+      <c r="I6" s="61">
+        <f t="shared" si="0"/>
+        <v>48641500.000000015</v>
+      </c>
+      <c r="J6" s="33">
+        <f t="shared" si="1"/>
+        <v>3527004.6069471212</v>
+      </c>
+      <c r="K6" s="62">
+        <f t="shared" si="2"/>
+        <v>0.1930964300031866</v>
+      </c>
+      <c r="L6" s="33">
+        <f t="shared" si="3"/>
+        <v>45114495.393052891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2962144</v>
+      </c>
+      <c r="C7" s="32">
+        <v>16190600.000000004</v>
+      </c>
+      <c r="D7" s="32">
+        <v>9004300.0000000037</v>
+      </c>
+      <c r="E7" s="32">
+        <v>15785700.000000004</v>
+      </c>
+      <c r="F7" s="32">
+        <v>13711700</v>
+      </c>
+      <c r="G7" s="32">
+        <v>10609600.000000004</v>
+      </c>
+      <c r="H7" s="32">
+        <v>183822800</v>
+      </c>
+      <c r="I7" s="61">
+        <f t="shared" si="0"/>
+        <v>49111300.000000015</v>
+      </c>
+      <c r="J7" s="33">
+        <f t="shared" si="1"/>
+        <v>3493354.6934158299</v>
+      </c>
+      <c r="K7" s="62">
+        <f t="shared" si="2"/>
+        <v>0.1833447699409301</v>
+      </c>
+      <c r="L7" s="33">
+        <f t="shared" si="3"/>
+        <v>45617945.306584187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2931643</v>
+      </c>
+      <c r="C8" s="32">
+        <v>16070200.000000004</v>
+      </c>
+      <c r="D8" s="32">
+        <v>8616100.0000000019</v>
+      </c>
+      <c r="E8" s="32">
+        <v>16325400.000000004</v>
+      </c>
+      <c r="F8" s="32">
+        <v>13640400</v>
+      </c>
+      <c r="G8" s="32">
+        <v>10999200.000000002</v>
+      </c>
+      <c r="H8" s="32">
+        <v>185550600</v>
+      </c>
+      <c r="I8" s="61">
+        <f t="shared" si="0"/>
+        <v>49581100.000000007</v>
+      </c>
+      <c r="J8" s="33">
+        <f t="shared" si="1"/>
+        <v>3457383.8521927581</v>
+      </c>
+      <c r="K8" s="62">
+        <f t="shared" si="2"/>
+        <v>0.17377791134121673</v>
+      </c>
+      <c r="L8" s="33">
+        <f t="shared" si="3"/>
+        <v>46123716.147807248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2899255</v>
+      </c>
+      <c r="C9" s="32">
+        <v>15949800.000000006</v>
+      </c>
+      <c r="D9" s="32">
+        <v>8227900.0000000019</v>
+      </c>
+      <c r="E9" s="32">
+        <v>16865100.000000004</v>
+      </c>
+      <c r="F9" s="32">
+        <v>13569100</v>
+      </c>
+      <c r="G9" s="32">
+        <v>11388800</v>
+      </c>
+      <c r="H9" s="32">
+        <v>187278400</v>
+      </c>
+      <c r="I9" s="61">
+        <f t="shared" si="0"/>
+        <v>50050900.000000007</v>
+      </c>
+      <c r="J9" s="33">
+        <f t="shared" si="1"/>
+        <v>3419187.609265219</v>
+      </c>
+      <c r="K9" s="62">
+        <f t="shared" si="2"/>
+        <v>0.16439065031797631</v>
+      </c>
+      <c r="L9" s="33">
+        <f t="shared" si="3"/>
+        <v>46631712.390734792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2865008</v>
+      </c>
+      <c r="C10" s="32">
+        <v>15829400.000000006</v>
+      </c>
+      <c r="D10" s="32">
+        <v>7839700.0000000019</v>
+      </c>
+      <c r="E10" s="32">
+        <v>17404800.000000004</v>
+      </c>
+      <c r="F10" s="32">
+        <v>13497800</v>
+      </c>
+      <c r="G10" s="32">
+        <v>11778400</v>
+      </c>
+      <c r="H10" s="32">
+        <v>189006200</v>
+      </c>
+      <c r="I10" s="61">
+        <f t="shared" si="0"/>
+        <v>50520700.000000007</v>
+      </c>
+      <c r="J10" s="33">
+        <f t="shared" si="1"/>
+        <v>3378798.9859621613</v>
+      </c>
+      <c r="K10" s="62">
+        <f t="shared" si="2"/>
+        <v>0.15517797655218554</v>
+      </c>
+      <c r="L10" s="33">
+        <f t="shared" si="3"/>
+        <v>47141901.014037848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2836142</v>
+      </c>
+      <c r="C11" s="32">
+        <v>15709000.000000006</v>
+      </c>
+      <c r="D11" s="32">
+        <v>7451500.0000000019</v>
+      </c>
+      <c r="E11" s="32">
+        <v>17944500</v>
+      </c>
+      <c r="F11" s="32">
+        <v>13426500</v>
+      </c>
+      <c r="G11" s="32">
+        <v>12168000</v>
+      </c>
+      <c r="H11" s="32">
+        <v>190734000</v>
+      </c>
+      <c r="I11" s="61">
+        <f t="shared" si="0"/>
+        <v>50990500</v>
+      </c>
+      <c r="J11" s="33">
+        <f t="shared" si="1"/>
+        <v>3344756.3544830228</v>
+      </c>
+      <c r="K11" s="62">
+        <f t="shared" si="2"/>
+        <v>0.1461350643747365</v>
+      </c>
+      <c r="L11" s="33">
+        <f t="shared" si="3"/>
+        <v>47645743.645516977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2805541</v>
+      </c>
+      <c r="C12" s="32">
+        <v>15358200.000000006</v>
+      </c>
+      <c r="D12" s="32">
+        <v>7411700.0000000019</v>
+      </c>
+      <c r="E12" s="32">
+        <v>17710400</v>
+      </c>
+      <c r="F12" s="32">
+        <v>13766300</v>
+      </c>
+      <c r="G12" s="32">
+        <v>12445000</v>
+      </c>
+      <c r="H12" s="32">
+        <v>192287600</v>
+      </c>
+      <c r="I12" s="61">
+        <f t="shared" si="0"/>
+        <v>51333400</v>
+      </c>
+      <c r="J12" s="33">
+        <f t="shared" si="1"/>
+        <v>3308667.5799422786</v>
+      </c>
+      <c r="K12" s="62">
+        <f t="shared" si="2"/>
+        <v>0.14438357872262508</v>
+      </c>
+      <c r="L12" s="33">
+        <f t="shared" si="3"/>
+        <v>48024732.420057721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2773236</v>
+      </c>
+      <c r="C13" s="32">
+        <v>15007400.000000007</v>
+      </c>
+      <c r="D13" s="32">
+        <v>7371900.0000000019</v>
+      </c>
+      <c r="E13" s="32">
+        <v>17476300</v>
+      </c>
+      <c r="F13" s="32">
+        <v>14106100</v>
+      </c>
+      <c r="G13" s="32">
+        <v>12722000</v>
+      </c>
+      <c r="H13" s="32">
+        <v>193841200</v>
+      </c>
+      <c r="I13" s="61">
+        <f t="shared" si="0"/>
+        <v>51676300</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" si="1"/>
+        <v>3270569.2216684073</v>
+      </c>
+      <c r="K13" s="62">
+        <f t="shared" si="2"/>
+        <v>0.14265533716616713</v>
+      </c>
+      <c r="L13" s="33">
+        <f t="shared" si="3"/>
+        <v>48405730.778331593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2739273</v>
+      </c>
+      <c r="C14" s="32">
+        <v>14656600.000000007</v>
+      </c>
+      <c r="D14" s="32">
+        <v>7332100.0000000009</v>
+      </c>
+      <c r="E14" s="32">
+        <v>17242200</v>
+      </c>
+      <c r="F14" s="32">
+        <v>14445900</v>
+      </c>
+      <c r="G14" s="32">
+        <v>12999000</v>
+      </c>
+      <c r="H14" s="32">
+        <v>195394800</v>
+      </c>
+      <c r="I14" s="61">
+        <f t="shared" si="0"/>
+        <v>52019200</v>
+      </c>
+      <c r="J14" s="33">
+        <f t="shared" si="1"/>
+        <v>3230515.5289875376</v>
+      </c>
+      <c r="K14" s="62">
+        <f t="shared" si="2"/>
+        <v>0.14094988004429135</v>
+      </c>
+      <c r="L14" s="33">
+        <f t="shared" si="3"/>
+        <v>48788684.471012466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2703670</v>
+      </c>
+      <c r="C15" s="32">
+        <v>14305800.000000007</v>
+      </c>
+      <c r="D15" s="32">
+        <v>7292300.0000000009</v>
+      </c>
+      <c r="E15" s="32">
+        <v>17008100</v>
+      </c>
+      <c r="F15" s="32">
+        <v>14785700</v>
+      </c>
+      <c r="G15" s="32">
+        <v>13276000</v>
+      </c>
+      <c r="H15" s="32">
+        <v>196948400</v>
+      </c>
+      <c r="I15" s="61">
+        <f t="shared" si="0"/>
+        <v>52362100</v>
+      </c>
+      <c r="J15" s="33">
+        <f t="shared" si="1"/>
+        <v>3188527.7298968509</v>
+      </c>
+      <c r="K15" s="62">
+        <f t="shared" si="2"/>
+        <v>0.139266759736527</v>
+      </c>
+      <c r="L15" s="33">
+        <f t="shared" si="3"/>
+        <v>49173572.270103149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="53">
+        <f>1-SUM(C3:C5)</f>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D2" s="53">
+        <f t="shared" ref="D2:G2" si="0">1-SUM(D3:D5)</f>
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E2" s="53">
+        <f t="shared" si="0"/>
+        <v>0.49</v>
+      </c>
+      <c r="F2" s="53">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G2" s="53">
+        <f t="shared" si="0"/>
+        <v>0.25349999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="42">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="D3" s="42">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E3" s="42">
+        <v>0.314</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0.33899999999999997</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.247</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D5" s="42">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E5" s="42">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G5" s="42">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="20"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="53">
+        <f t="shared" ref="C8:G8" si="1">1-SUM(C9:C11)</f>
+        <v>0.56800000000000006</v>
+      </c>
+      <c r="D8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.56800000000000006</v>
+      </c>
+      <c r="E8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="F8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="G8" s="53">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.23149999999999998</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.129</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="42">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D11" s="42">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E11" s="42">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F11" s="42">
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="G11" s="42">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="54">
+        <v>0.74</v>
+      </c>
+      <c r="F14" s="54">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G14" s="54">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H14" s="55">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="I14" s="55">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="J14" s="55">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="L14" s="55">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="M14" s="55">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="N14" s="55">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="O14" s="55">
+        <v>0.43469999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="53">
+        <f t="shared" ref="C15:O15" si="2">iron_deficiency_anaemia*C14</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D15" s="53">
+        <f t="shared" si="2"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.31079999999999997</v>
+      </c>
+      <c r="F15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.17934</v>
+      </c>
+      <c r="H15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.20222999999999999</v>
+      </c>
+      <c r="I15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.20222999999999999</v>
+      </c>
+      <c r="J15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.20222999999999999</v>
+      </c>
+      <c r="K15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.20222999999999999</v>
+      </c>
+      <c r="L15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.18257399999999999</v>
+      </c>
+      <c r="M15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.18257399999999999</v>
+      </c>
+      <c r="N15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.18257399999999999</v>
+      </c>
+      <c r="O15" s="53">
+        <f t="shared" si="2"/>
+        <v>0.18257399999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="7" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="42">
+        <v>0.80299999999999994</v>
+      </c>
+      <c r="D2" s="42">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E2" s="42">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F2" s="42">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="42">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D3" s="42">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E3" s="42">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F3" s="42">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="42">
+        <v>0.107</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0.37</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.879</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="53">
+        <f>1-SUM(C2:C4)</f>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="D5" s="53">
+        <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="E5" s="53">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999921E-2</v>
+      </c>
+      <c r="F5" s="53">
+        <f t="shared" si="0"/>
+        <v>6.899999999999995E-2</v>
+      </c>
+      <c r="G5" s="53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1">
+        <v>2010</v>
+      </c>
+      <c r="D1">
+        <v>2011</v>
+      </c>
+      <c r="E1">
+        <v>2012</v>
+      </c>
+      <c r="F1">
+        <v>2013</v>
+      </c>
+      <c r="G1">
+        <v>2014</v>
+      </c>
+      <c r="H1">
+        <v>2015</v>
+      </c>
+      <c r="I1">
+        <v>2016</v>
+      </c>
+      <c r="J1">
+        <v>2017</v>
+      </c>
+      <c r="K1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="48">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="C3" s="48">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="48">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="44" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="C7" s="48">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="91"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="92"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="92"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="92"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="92"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="91"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="92"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="92"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="92"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="92"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="91"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="92"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="92"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="92"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="92"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="23"/>
+      <c r="C8" s="48">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="48">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="48">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="50">
+        <f>SUM(C2:C10)</f>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="48">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="48">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="50">
+        <f>SUM(C13:C16)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3.71</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="40">
+        <f>frac_mam_1month * 2.6</f>
+        <v>0.39</v>
+      </c>
+      <c r="C3" s="40">
+        <f>frac_mam_1_5months * 2.6</f>
+        <v>0.39</v>
+      </c>
+      <c r="D3" s="40">
+        <f>frac_mam_6_11months * 2.6</f>
+        <v>0.33540000000000003</v>
+      </c>
+      <c r="E3" s="40">
+        <f>frac_mam_12_23months * 2.6</f>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="F3" s="40">
+        <f>frac_mam_24_59months * 2.6</f>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="40">
+        <f>frac_sam_1month * 2.6</f>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C4" s="40">
+        <f>frac_sam_1_5months * 2.6</f>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="D4" s="40">
+        <f>frac_sam_6_11months * 2.6</f>
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="E4" s="40">
+        <f>frac_sam_12_23months * 2.6</f>
+        <v>0.10659999999999999</v>
+      </c>
+      <c r="F4" s="40">
+        <f>frac_sam_24_59months * 2.6</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2">
-        <f>'Baseline year population inputs'!C6</f>
-        <v>0.5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>'Baseline year population inputs'!C7</f>
-        <v>0.3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <f>'Baseline year population inputs'!C7</f>
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f>'Baseline year population inputs'!C7</f>
-        <v>0.3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f>'Baseline year population inputs'!C7</f>
-        <v>0.3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D8">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D12" si="1">0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
+    <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5594,7 +7128,7 @@
         <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5612,36 +7146,36 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>85</v>
+      <c r="B2" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -5684,7 +7218,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="2">
@@ -5728,8 +7262,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="28" t="s">
-        <v>74</v>
+      <c r="B4" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -5737,11 +7271,11 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F4" s="80">
+      <c r="F4" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -5774,8 +7308,8 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="28" t="s">
-        <v>203</v>
+      <c r="B5" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -5783,11 +7317,11 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="63">
         <f>food_insecure*(1-frac_malaria_risk)</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="F5" s="80">
+      <c r="F5" s="63">
         <f>food_insecure*(1-frac_malaria_risk)</f>
         <v>0.32400000000000001</v>
       </c>
@@ -5820,8 +7354,8 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="28" t="s">
-        <v>204</v>
+      <c r="B6" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -5829,11 +7363,11 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="63">
         <f>food_insecure*frac_malaria_risk</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F6" s="80">
+      <c r="F6" s="63">
         <f>food_insecure*frac_malaria_risk</f>
         <v>3.5999999999999997E-2</v>
       </c>
@@ -5866,8 +7400,8 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="28" t="s">
-        <v>205</v>
+      <c r="B7" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -5875,15 +7409,15 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="63">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="63">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="63">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
@@ -5913,8 +7447,8 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="28" t="s">
-        <v>206</v>
+      <c r="B8" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -5922,15 +7456,15 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="63">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="F8" s="80">
+      <c r="F8" s="63">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="63">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
@@ -5960,25 +7494,25 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="29">
-        <v>0</v>
-      </c>
-      <c r="D9" s="80">
+      <c r="B9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -6008,22 +7542,22 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0</v>
-      </c>
-      <c r="D10" s="29">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
-        <v>1</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="B10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="2">
@@ -6052,22 +7586,22 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0</v>
-      </c>
-      <c r="D11" s="29">
-        <v>1</v>
-      </c>
-      <c r="E11" s="29">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29">
+      <c r="B11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
         <v>1</v>
       </c>
       <c r="H11" s="2">
@@ -6096,57 +7630,57 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="83">
-        <v>1</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-      <c r="I12" s="29">
-        <v>0</v>
-      </c>
-      <c r="J12" s="29">
-        <v>0</v>
-      </c>
-      <c r="K12" s="29">
-        <v>0</v>
-      </c>
-      <c r="L12" s="29">
-        <v>0</v>
-      </c>
-      <c r="M12" s="29">
-        <v>0</v>
-      </c>
-      <c r="N12" s="29">
-        <v>0</v>
-      </c>
-      <c r="O12" s="29">
+      <c r="B12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="66">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="71"/>
+      <c r="B13" s="56"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2">
@@ -6164,19 +7698,19 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="80">
+      <c r="H14" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="K14" s="80">
+      <c r="K14" s="63">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -6195,8 +7729,8 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="71" t="s">
-        <v>82</v>
+      <c r="B15" s="56" t="s">
+        <v>78</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -6213,19 +7747,19 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="64">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="I15" s="81">
+      <c r="I15" s="64">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="64">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="64">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
@@ -6243,8 +7777,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="71" t="s">
-        <v>83</v>
+      <c r="B16" s="56" t="s">
+        <v>79</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -6261,19 +7795,19 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="80">
+      <c r="H16" s="63">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I16" s="80">
+      <c r="I16" s="63">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="63">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="K16" s="80">
+      <c r="K16" s="63">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
@@ -6291,7 +7825,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2">
@@ -6309,19 +7843,19 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="81">
+      <c r="H17" s="64">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="I17" s="81">
+      <c r="I17" s="64">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="64">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K17" s="64">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
@@ -6339,8 +7873,8 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="28" t="s">
-        <v>84</v>
+      <c r="B18" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -6357,19 +7891,19 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="81">
+      <c r="H18" s="64">
         <f t="shared" ref="H18:K19" si="0">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I18" s="81">
+      <c r="I18" s="64">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="64">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="K18" s="81">
+      <c r="K18" s="64">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -6387,8 +7921,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="71" t="s">
-        <v>66</v>
+      <c r="B19" s="56" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -6405,19 +7939,19 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="81">
+      <c r="H19" s="64">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="I19" s="81">
+      <c r="I19" s="64">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="64">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="64">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -6435,14 +7969,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="71"/>
+      <c r="B20" s="56"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>67</v>
+        <v>42</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -6462,32 +7996,32 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="13">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-      <c r="L21" s="80">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*1*school_attendance</f>
         <v>0.114048</v>
       </c>
-      <c r="M21" s="80">
-        <v>0</v>
-      </c>
-      <c r="N21" s="80">
-        <v>0</v>
-      </c>
-      <c r="O21" s="80">
+      <c r="M21" s="63">
+        <v>0</v>
+      </c>
+      <c r="N21" s="63">
+        <v>0</v>
+      </c>
+      <c r="O21" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="71" t="s">
-        <v>68</v>
+      <c r="B22" s="56" t="s">
+        <v>64</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -6507,35 +8041,35 @@
       <c r="H22" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13">
-        <v>0</v>
-      </c>
-      <c r="L22" s="80">
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
         <v>0.1469664</v>
       </c>
-      <c r="M22" s="80">
+      <c r="M22" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="N22" s="80">
+      <c r="N22" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="71" t="s">
-        <v>69</v>
+      <c r="B23" s="56" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -6555,35 +8089,35 @@
       <c r="H23" s="2">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="80">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>6.2985600000000003E-2</v>
       </c>
-      <c r="M23" s="80">
+      <c r="M23" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N23" s="80">
+      <c r="N23" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O23" s="80">
+      <c r="O23" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="71" t="s">
-        <v>70</v>
+      <c r="B24" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -6603,32 +8137,32 @@
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13">
-        <v>0</v>
-      </c>
-      <c r="L24" s="80">
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*1*school_attendance</f>
         <v>0.20275200000000002</v>
       </c>
-      <c r="M24" s="80">
-        <v>0</v>
-      </c>
-      <c r="N24" s="80">
-        <v>0</v>
-      </c>
-      <c r="O24" s="80">
+      <c r="M24" s="63">
+        <v>0</v>
+      </c>
+      <c r="N24" s="63">
+        <v>0</v>
+      </c>
+      <c r="O24" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="71" t="s">
-        <v>71</v>
+      <c r="B25" s="56" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -6648,35 +8182,35 @@
       <c r="H25" s="2">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="80">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
         <v>0.18289152000000003</v>
       </c>
-      <c r="M25" s="80">
+      <c r="M25" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="N25" s="80">
+      <c r="N25" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="O25" s="80">
+      <c r="O25" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="71" t="s">
-        <v>72</v>
+      <c r="B26" s="56" t="s">
+        <v>68</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -6696,35 +8230,35 @@
       <c r="H26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="13">
-        <v>0</v>
-      </c>
-      <c r="L26" s="80">
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
         <v>7.8382080000000007E-2</v>
       </c>
-      <c r="M26" s="80">
+      <c r="M26" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="N26" s="80">
+      <c r="N26" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="O26" s="80">
+      <c r="O26" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="71" t="s">
-        <v>73</v>
+      <c r="B27" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -6744,36 +8278,36 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="80">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>0.11197440000000002</v>
       </c>
-      <c r="M27" s="80">
+      <c r="M27" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="N27" s="80">
+      <c r="N27" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="O27" s="80">
+      <c r="O27" s="63">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="71" t="s">
-        <v>75</v>
+      <c r="B28" s="56" t="s">
+        <v>71</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -6793,32 +8327,32 @@
       <c r="H28" s="2">
         <v>0</v>
       </c>
-      <c r="I28" s="13">
-        <v>0</v>
-      </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13">
-        <v>0</v>
-      </c>
-      <c r="L28" s="80">
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="63">
         <f>food_insecure*(frac_malaria_risk)*1*school_attendance</f>
         <v>1.2671999999999998E-2</v>
       </c>
-      <c r="M28" s="80">
-        <v>0</v>
-      </c>
-      <c r="N28" s="80">
-        <v>0</v>
-      </c>
-      <c r="O28" s="80">
+      <c r="M28" s="63">
+        <v>0</v>
+      </c>
+      <c r="N28" s="63">
+        <v>0</v>
+      </c>
+      <c r="O28" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="71" t="s">
-        <v>76</v>
+      <c r="B29" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -6838,35 +8372,35 @@
       <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
-        <v>0</v>
-      </c>
-      <c r="L29" s="80">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="63">
         <f>food_insecure*(frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
         <v>1.63296E-2</v>
       </c>
-      <c r="M29" s="80">
+      <c r="M29" s="63">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="N29" s="80">
+      <c r="N29" s="63">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="O29" s="80">
+      <c r="O29" s="63">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="71" t="s">
-        <v>77</v>
+      <c r="B30" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -6886,35 +8420,35 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="13">
-        <v>0</v>
-      </c>
-      <c r="L30" s="80">
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="63">
         <f>food_insecure*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>6.9983999999999992E-3</v>
       </c>
-      <c r="M30" s="80">
+      <c r="M30" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N30" s="80">
+      <c r="N30" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O30" s="80">
+      <c r="O30" s="63">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="71" t="s">
-        <v>78</v>
+      <c r="B31" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -6934,32 +8468,32 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="13">
-        <v>0</v>
-      </c>
-      <c r="K31" s="13">
-        <v>0</v>
-      </c>
-      <c r="L31" s="80">
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*1*school_attendance</f>
         <v>2.2527999999999999E-2</v>
       </c>
-      <c r="M31" s="80">
-        <v>0</v>
-      </c>
-      <c r="N31" s="80">
-        <v>0</v>
-      </c>
-      <c r="O31" s="80">
+      <c r="M31" s="63">
+        <v>0</v>
+      </c>
+      <c r="N31" s="63">
+        <v>0</v>
+      </c>
+      <c r="O31" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="71" t="s">
-        <v>79</v>
+      <c r="B32" s="56" t="s">
+        <v>75</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -6979,35 +8513,35 @@
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="13">
-        <v>0</v>
-      </c>
-      <c r="J32" s="13">
-        <v>0</v>
-      </c>
-      <c r="K32" s="13">
-        <v>0</v>
-      </c>
-      <c r="L32" s="80">
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
         <v>2.0321280000000001E-2</v>
       </c>
-      <c r="M32" s="80">
+      <c r="M32" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="N32" s="80">
+      <c r="N32" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="O32" s="80">
+      <c r="O32" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="71" t="s">
-        <v>80</v>
+      <c r="B33" s="56" t="s">
+        <v>76</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -7027,35 +8561,35 @@
       <c r="H33" s="2">
         <v>0</v>
       </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>0</v>
-      </c>
-      <c r="K33" s="13">
-        <v>0</v>
-      </c>
-      <c r="L33" s="80">
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
         <v>8.7091200000000007E-3</v>
       </c>
-      <c r="M33" s="80">
+      <c r="M33" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="N33" s="80">
+      <c r="N33" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="O33" s="80">
+      <c r="O33" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="71" t="s">
-        <v>81</v>
+      <c r="B34" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -7075,35 +8609,35 @@
       <c r="H34" s="2">
         <v>0</v>
       </c>
-      <c r="I34" s="13">
-        <v>0</v>
-      </c>
-      <c r="J34" s="13">
-        <v>0</v>
-      </c>
-      <c r="K34" s="13">
-        <v>0</v>
-      </c>
-      <c r="L34" s="80">
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>1.2441599999999999E-2</v>
       </c>
-      <c r="M34" s="80">
+      <c r="M34" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="N34" s="80">
+      <c r="N34" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="O34" s="80">
+      <c r="O34" s="63">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="71" t="s">
-        <v>108</v>
+      <c r="B35" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -7123,31 +8657,31 @@
       <c r="H35" s="2">
         <v>0</v>
       </c>
-      <c r="I35" s="13">
-        <v>0</v>
-      </c>
-      <c r="J35" s="13">
-        <v>0</v>
-      </c>
-      <c r="K35" s="13">
-        <v>0</v>
-      </c>
-      <c r="L35" s="80">
-        <v>1</v>
-      </c>
-      <c r="M35" s="80">
-        <v>1</v>
-      </c>
-      <c r="N35" s="80">
-        <v>1</v>
-      </c>
-      <c r="O35" s="80">
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="63">
+        <v>1</v>
+      </c>
+      <c r="M35" s="63">
+        <v>1</v>
+      </c>
+      <c r="N35" s="63">
+        <v>1</v>
+      </c>
+      <c r="O35" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="71" t="s">
-        <v>142</v>
+      <c r="B36" s="56" t="s">
+        <v>122</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -7167,44 +8701,44 @@
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" s="13">
-        <v>0</v>
-      </c>
-      <c r="J36" s="13">
-        <v>0</v>
-      </c>
-      <c r="K36" s="13">
-        <v>0</v>
-      </c>
-      <c r="L36" s="82">
-        <v>1</v>
-      </c>
-      <c r="M36" s="82">
-        <v>1</v>
-      </c>
-      <c r="N36" s="82">
-        <v>1</v>
-      </c>
-      <c r="O36" s="82">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="65">
+        <v>1</v>
+      </c>
+      <c r="M36" s="65">
+        <v>1</v>
+      </c>
+      <c r="N36" s="65">
+        <v>1</v>
+      </c>
+      <c r="O36" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="28"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="71" t="s">
-        <v>132</v>
+      <c r="B38" s="56" t="s">
+        <v>112</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -7247,8 +8781,8 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="71" t="s">
-        <v>133</v>
+      <c r="B39" s="56" t="s">
+        <v>113</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -7291,8 +8825,8 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="71" t="s">
-        <v>134</v>
+      <c r="B40" s="56" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -7335,8 +8869,8 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="71" t="s">
-        <v>135</v>
+      <c r="B41" s="56" t="s">
+        <v>115</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -7379,8 +8913,8 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="71" t="s">
-        <v>136</v>
+      <c r="B42" s="56" t="s">
+        <v>116</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -7423,8 +8957,8 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="71" t="s">
-        <v>137</v>
+      <c r="B43" s="56" t="s">
+        <v>117</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -7467,8 +9001,8 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="71" t="s">
-        <v>138</v>
+      <c r="B44" s="56" t="s">
+        <v>118</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -7511,8 +9045,8 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="28" t="s">
-        <v>139</v>
+      <c r="B45" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -7555,8 +9089,8 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="28" t="s">
-        <v>140</v>
+      <c r="B46" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -7599,8 +9133,8 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="28" t="s">
-        <v>141</v>
+      <c r="B47" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -7644,230 +9178,230 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="81">
+      <c r="C48" s="64">
         <f t="shared" ref="C48:O48" si="1">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G48" s="81">
+      <c r="G48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H48" s="81">
+      <c r="H48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I48" s="81">
+      <c r="I48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J48" s="81">
+      <c r="J48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K48" s="81">
+      <c r="K48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="L48" s="81">
+      <c r="L48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="M48" s="81">
+      <c r="M48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N48" s="81">
+      <c r="N48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O48" s="81">
+      <c r="O48" s="64">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="29">
-        <v>0</v>
-      </c>
-      <c r="D49" s="29">
-        <v>0</v>
-      </c>
-      <c r="E49" s="81">
+      <c r="B49" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="64">
         <f t="shared" ref="E49:O49" si="2">frac_wheat</f>
         <v>0.12</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G49" s="81">
+      <c r="G49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="H49" s="81">
+      <c r="H49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="I49" s="81">
+      <c r="I49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="J49" s="81">
+      <c r="J49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K49" s="81">
+      <c r="K49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L49" s="81">
+      <c r="L49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="M49" s="81">
+      <c r="M49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="N49" s="81">
+      <c r="N49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="O49" s="81">
+      <c r="O49" s="64">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="50" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="29">
-        <v>0</v>
-      </c>
-      <c r="D50" s="29">
-        <v>0</v>
-      </c>
-      <c r="E50" s="81">
+      <c r="B50" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0</v>
+      </c>
+      <c r="E50" s="64">
         <f t="shared" ref="E50:O50" si="3">frac_maize</f>
         <v>0.05</v>
       </c>
-      <c r="F50" s="81">
+      <c r="F50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G50" s="81">
+      <c r="G50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H50" s="81">
+      <c r="H50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="I50" s="81">
+      <c r="I50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J50" s="81">
+      <c r="J50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="K50" s="81">
+      <c r="K50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="L50" s="81">
+      <c r="L50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="M50" s="81">
+      <c r="M50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="N50" s="81">
+      <c r="N50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O50" s="81">
+      <c r="O50" s="64">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="29">
-        <v>0</v>
-      </c>
-      <c r="D51" s="29">
-        <v>0</v>
-      </c>
-      <c r="E51" s="81">
+      <c r="B51" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0</v>
+      </c>
+      <c r="E51" s="64">
         <f t="shared" ref="E51:O51" si="4">frac_rice</f>
         <v>0.8</v>
       </c>
-      <c r="F51" s="81">
+      <c r="F51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="G51" s="81">
+      <c r="G51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="H51" s="81">
+      <c r="H51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="I51" s="81">
+      <c r="I51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J51" s="81">
+      <c r="J51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="K51" s="81">
+      <c r="K51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="L51" s="81">
+      <c r="L51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="M51" s="81">
+      <c r="M51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="N51" s="81">
+      <c r="N51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O51" s="81">
+      <c r="O51" s="64">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="28" t="s">
-        <v>55</v>
+      <c r="B52" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -7875,3514 +9409,42 @@
       <c r="D52" s="2">
         <v>0</v>
       </c>
-      <c r="E52" s="12">
-        <v>1</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1</v>
-      </c>
-      <c r="G52" s="12">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12">
-        <v>1</v>
-      </c>
-      <c r="I52" s="12">
-        <v>1</v>
-      </c>
-      <c r="J52" s="12">
-        <v>1</v>
-      </c>
-      <c r="K52" s="12">
-        <v>1</v>
-      </c>
-      <c r="L52" s="12">
-        <v>1</v>
-      </c>
-      <c r="M52" s="12">
-        <v>1</v>
-      </c>
-      <c r="N52" s="12">
-        <v>1</v>
-      </c>
-      <c r="O52" s="12">
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10">
+        <v>1</v>
+      </c>
+      <c r="K52" s="10">
+        <v>1</v>
+      </c>
+      <c r="L52" s="10">
+        <v>1</v>
+      </c>
+      <c r="M52" s="10">
+        <v>1</v>
+      </c>
+      <c r="N52" s="10">
+        <v>1</v>
+      </c>
+      <c r="O52" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="71"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="100">
-        <v>0</v>
-      </c>
-      <c r="C2" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D2" s="87">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="101">
-        <v>0</v>
-      </c>
-      <c r="C3" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D3" s="88">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="101">
-        <v>0</v>
-      </c>
-      <c r="C4" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D4" s="88">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="100">
-        <v>0</v>
-      </c>
-      <c r="C5" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D5" s="88">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="101">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D6" s="88">
-        <f>SUM('Programs family planning'!E2:E10)</f>
-        <v>0.82100000000000006</v>
-      </c>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="101">
-        <v>0</v>
-      </c>
-      <c r="C7" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="88">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="101">
-        <v>0</v>
-      </c>
-      <c r="C8" s="100">
-        <v>0.8</v>
-      </c>
-      <c r="D8" s="88">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="101">
-        <v>0</v>
-      </c>
-      <c r="C9" s="100">
-        <v>0.12</v>
-      </c>
-      <c r="D9" s="88">
-        <v>0.19</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="101">
-        <v>0</v>
-      </c>
-      <c r="C10" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D10" s="87">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="101">
-        <v>0</v>
-      </c>
-      <c r="C11" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D11" s="87">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="101">
-        <v>0</v>
-      </c>
-      <c r="C12" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D12" s="87">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="101">
-        <v>0</v>
-      </c>
-      <c r="C13" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D13" s="87">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="101">
-        <v>0</v>
-      </c>
-      <c r="C14" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D14" s="87">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="101">
-        <v>0</v>
-      </c>
-      <c r="C15" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D15" s="87">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="101">
-        <v>0</v>
-      </c>
-      <c r="C16" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D16" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="101">
-        <v>0</v>
-      </c>
-      <c r="C17" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D17" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="101">
-        <v>0</v>
-      </c>
-      <c r="C18" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D18" s="87">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="101">
-        <v>0</v>
-      </c>
-      <c r="C19" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D19" s="87">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="101">
-        <v>0</v>
-      </c>
-      <c r="C20" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D20" s="87">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="101">
-        <v>0</v>
-      </c>
-      <c r="C21" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D21" s="87">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="101">
-        <v>0</v>
-      </c>
-      <c r="C22" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D22" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="101">
-        <v>0</v>
-      </c>
-      <c r="C23" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D23" s="87">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="101">
-        <v>0</v>
-      </c>
-      <c r="C24" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D24" s="87">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="102">
-        <v>0</v>
-      </c>
-      <c r="C25" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D25" s="89">
-        <v>1.78</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="100">
-        <v>0</v>
-      </c>
-      <c r="C26" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D26" s="87">
-        <v>1.78</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="100">
-        <v>0</v>
-      </c>
-      <c r="C27" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D27" s="88">
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="100">
-        <v>0</v>
-      </c>
-      <c r="C28" s="100">
-        <v>0.05</v>
-      </c>
-      <c r="D28" s="88">
-        <v>0.13</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="100">
-        <v>0</v>
-      </c>
-      <c r="C29" s="100">
-        <v>0.8</v>
-      </c>
-      <c r="D29" s="88">
-        <v>0.74</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="100">
-        <v>0</v>
-      </c>
-      <c r="C30" s="100">
-        <v>0.12</v>
-      </c>
-      <c r="D30" s="88">
-        <v>0.18</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="100">
-        <v>0.2</v>
-      </c>
-      <c r="C31" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D31" s="88">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="101">
-        <v>0</v>
-      </c>
-      <c r="C32" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D32" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B33" s="101">
-        <v>0</v>
-      </c>
-      <c r="C33" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D33" s="88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="102">
-        <v>0</v>
-      </c>
-      <c r="C34" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D34" s="89">
-        <v>2.99</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="100">
-        <v>0</v>
-      </c>
-      <c r="C35" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D35" s="87">
-        <v>2.99</v>
-      </c>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="101">
-        <v>0</v>
-      </c>
-      <c r="C36" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D36" s="88">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="100">
-        <v>0</v>
-      </c>
-      <c r="C37" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D37" s="87">
-        <v>48</v>
-      </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="103">
-        <v>0</v>
-      </c>
-      <c r="C38" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D38" s="90">
-        <v>50</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="101">
-        <v>0</v>
-      </c>
-      <c r="C39" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D39" s="88">
-        <v>51</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" s="103">
-        <v>0</v>
-      </c>
-      <c r="C40" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D40" s="90">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B41" s="101">
-        <v>0</v>
-      </c>
-      <c r="C41" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D41" s="88">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="100">
-        <v>0</v>
-      </c>
-      <c r="C42" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D42" s="86">
-        <f>30*AVERAGE('Incidence of conditions'!B5:F5)</f>
-        <v>10.046400000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="100">
-        <v>0.61</v>
-      </c>
-      <c r="C43" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D43" s="86">
-        <f>179.97*AVERAGE('Incidence of conditions'!B6:F6)</f>
-        <v>19.933477200000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="100">
-        <v>0.621</v>
-      </c>
-      <c r="C44" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D44" s="87">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="101">
-        <v>0.4</v>
-      </c>
-      <c r="C45" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D45" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="101">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="C46" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D46" s="87">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="101">
-        <v>0.69</v>
-      </c>
-      <c r="C47" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D47" s="87">
-        <v>50.26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="101">
-        <v>0.84</v>
-      </c>
-      <c r="C48" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D48" s="87">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="101">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C49" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D49" s="87">
-        <v>231.85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50" s="101">
-        <v>0</v>
-      </c>
-      <c r="C50" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D50" s="87">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" s="100">
-        <v>0</v>
-      </c>
-      <c r="C51" s="100">
-        <v>0.85</v>
-      </c>
-      <c r="D51" s="87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="100">
-        <v>0</v>
-      </c>
-      <c r="C52" s="100">
-        <v>0.95</v>
-      </c>
-      <c r="D52" s="85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="100">
-        <v>0</v>
-      </c>
-      <c r="C53" s="100">
-        <v>0.95</v>
-      </c>
-      <c r="D53" s="85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="100">
-        <v>0</v>
-      </c>
-      <c r="C54" s="100">
-        <v>0.95</v>
-      </c>
-      <c r="D54" s="85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D52">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57701AF1-AC9D-D445-9C09-730772E263E4}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="33.6640625" style="94" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="94" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="94"/>
-    <col min="5" max="5" width="17.5" style="94" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="94"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="99" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="99" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="97">
-        <v>0.9</v>
-      </c>
-      <c r="C2" s="96">
-        <v>0.09</v>
-      </c>
-      <c r="D2" s="94">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="94">
-        <f t="shared" ref="E2:E10" si="0">C2*D2</f>
-        <v>7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="97">
-        <v>1</v>
-      </c>
-      <c r="C3" s="96">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="94">
-        <v>1.9</v>
-      </c>
-      <c r="E3" s="94">
-        <f t="shared" si="0"/>
-        <v>3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" s="97">
-        <v>1</v>
-      </c>
-      <c r="C4" s="96">
-        <v>0.08</v>
-      </c>
-      <c r="D4" s="94">
-        <v>2</v>
-      </c>
-      <c r="E4" s="94">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="97">
-        <v>1</v>
-      </c>
-      <c r="C5" s="96">
-        <v>0.18</v>
-      </c>
-      <c r="D5" s="94">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="94">
-        <f t="shared" si="0"/>
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="97">
-        <v>1</v>
-      </c>
-      <c r="C6" s="96">
-        <v>0.02</v>
-      </c>
-      <c r="D6" s="94">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="94">
-        <f t="shared" si="0"/>
-        <v>1.3999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="97">
-        <v>0.93</v>
-      </c>
-      <c r="C7" s="96">
-        <v>0.45</v>
-      </c>
-      <c r="D7" s="94">
-        <v>0.9</v>
-      </c>
-      <c r="E7" s="94">
-        <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="96">
-        <v>0.03</v>
-      </c>
-      <c r="D8" s="94">
-        <v>0</v>
-      </c>
-      <c r="E8" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" s="97">
-        <v>0.5</v>
-      </c>
-      <c r="C9" s="96">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="94">
-        <v>0</v>
-      </c>
-      <c r="E9" s="94">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="97">
-        <v>0.98</v>
-      </c>
-      <c r="C10" s="96">
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="94">
-        <v>0.6</v>
-      </c>
-      <c r="E10" s="94">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="95"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="7" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="50">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C2" s="51">
-        <v>0</v>
-      </c>
-      <c r="D2" s="51">
-        <v>0</v>
-      </c>
-      <c r="E2" s="51">
-        <v>0</v>
-      </c>
-      <c r="F2" s="51">
-        <v>0</v>
-      </c>
-      <c r="G2" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="50">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="C3" s="51">
-        <v>0</v>
-      </c>
-      <c r="D3" s="51">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51">
-        <v>0</v>
-      </c>
-      <c r="F3" s="51">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="50">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C4" s="51">
-        <v>0</v>
-      </c>
-      <c r="D4" s="51">
-        <v>0</v>
-      </c>
-      <c r="E4" s="51">
-        <v>0</v>
-      </c>
-      <c r="F4" s="51">
-        <v>0</v>
-      </c>
-      <c r="G4" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="50">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="C5" s="51">
-        <v>0</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0</v>
-      </c>
-      <c r="E5" s="51">
-        <v>0</v>
-      </c>
-      <c r="F5" s="51">
-        <v>0</v>
-      </c>
-      <c r="G5" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="50">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="C6" s="51">
-        <v>0</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0</v>
-      </c>
-      <c r="E6" s="51">
-        <v>0</v>
-      </c>
-      <c r="F6" s="51">
-        <v>0</v>
-      </c>
-      <c r="G6" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="50">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="C7" s="51">
-        <v>0</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0</v>
-      </c>
-      <c r="E7" s="51">
-        <v>0</v>
-      </c>
-      <c r="F7" s="51">
-        <v>0</v>
-      </c>
-      <c r="G7" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="50">
-        <v>0.127</v>
-      </c>
-      <c r="C8" s="51">
-        <v>0</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0</v>
-      </c>
-      <c r="E8" s="51">
-        <v>0</v>
-      </c>
-      <c r="F8" s="51">
-        <v>0</v>
-      </c>
-      <c r="G8" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="50">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C9" s="51">
-        <v>0</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0</v>
-      </c>
-      <c r="E9" s="51">
-        <v>0</v>
-      </c>
-      <c r="F9" s="51">
-        <v>0</v>
-      </c>
-      <c r="G9" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="51">
-        <v>0</v>
-      </c>
-      <c r="C10" s="50">
-        <f>14.81% * 0.2</f>
-        <v>2.9620000000000004E-2</v>
-      </c>
-      <c r="D10" s="50">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="E10" s="50">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="F10" s="50">
-        <v>0.14810000000000001</v>
-      </c>
-      <c r="G10" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="51">
-        <v>0</v>
-      </c>
-      <c r="C11" s="50">
-        <v>0.2883</v>
-      </c>
-      <c r="D11" s="50">
-        <v>0.2883</v>
-      </c>
-      <c r="E11" s="50">
-        <v>0.2883</v>
-      </c>
-      <c r="F11" s="50">
-        <v>0.2883</v>
-      </c>
-      <c r="G11" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="51">
-        <v>0</v>
-      </c>
-      <c r="C12" s="50">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D12" s="50">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="E12" s="50">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F12" s="50">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G12" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="51">
-        <v>0</v>
-      </c>
-      <c r="C13" s="50">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="D13" s="50">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="E13" s="50">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="F13" s="50">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="G13" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="51">
-        <v>0</v>
-      </c>
-      <c r="C14" s="50">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="D14" s="50">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E14" s="50">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F14" s="50">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="G14" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="51">
-        <v>0</v>
-      </c>
-      <c r="C15" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="50">
-        <v>0.01</v>
-      </c>
-      <c r="G15" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="51">
-        <v>0</v>
-      </c>
-      <c r="C16" s="50">
-        <v>0</v>
-      </c>
-      <c r="D16" s="50">
-        <v>0</v>
-      </c>
-      <c r="E16" s="50">
-        <v>0</v>
-      </c>
-      <c r="F16" s="50">
-        <v>0</v>
-      </c>
-      <c r="G16" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="51">
-        <v>0</v>
-      </c>
-      <c r="C17" s="50">
-        <v>0.14510000000000001</v>
-      </c>
-      <c r="D17" s="50">
-        <v>0.14510000000000001</v>
-      </c>
-      <c r="E17" s="50">
-        <v>0.14510000000000001</v>
-      </c>
-      <c r="F17" s="50">
-        <v>0.14510000000000001</v>
-      </c>
-      <c r="G17" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="51">
-        <v>0</v>
-      </c>
-      <c r="C18" s="50">
-        <v>0.31130000000000002</v>
-      </c>
-      <c r="D18" s="50">
-        <v>0.31130000000000002</v>
-      </c>
-      <c r="E18" s="50">
-        <v>0.31130000000000002</v>
-      </c>
-      <c r="F18" s="50">
-        <v>0.31130000000000002</v>
-      </c>
-      <c r="G18" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="51">
-        <v>0</v>
-      </c>
-      <c r="C19" s="51">
-        <v>0</v>
-      </c>
-      <c r="D19" s="51">
-        <v>0</v>
-      </c>
-      <c r="E19" s="51">
-        <v>0</v>
-      </c>
-      <c r="F19" s="51">
-        <v>0</v>
-      </c>
-      <c r="G19" s="52">
-        <v>2.5899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="51">
-        <v>0</v>
-      </c>
-      <c r="C20" s="51">
-        <v>0</v>
-      </c>
-      <c r="D20" s="51">
-        <v>0</v>
-      </c>
-      <c r="E20" s="51">
-        <v>0</v>
-      </c>
-      <c r="F20" s="51">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52">
-        <v>7.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="51">
-        <v>0</v>
-      </c>
-      <c r="C21" s="51">
-        <v>0</v>
-      </c>
-      <c r="D21" s="51">
-        <v>0</v>
-      </c>
-      <c r="E21" s="51">
-        <v>0</v>
-      </c>
-      <c r="F21" s="51">
-        <v>0</v>
-      </c>
-      <c r="G21" s="52">
-        <v>0.25590000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="51">
-        <v>0</v>
-      </c>
-      <c r="C22" s="51">
-        <v>0</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0</v>
-      </c>
-      <c r="E22" s="51">
-        <v>0</v>
-      </c>
-      <c r="F22" s="51">
-        <v>0</v>
-      </c>
-      <c r="G22" s="52">
-        <v>0.1464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="51">
-        <v>0</v>
-      </c>
-      <c r="C23" s="51">
-        <v>0</v>
-      </c>
-      <c r="D23" s="51">
-        <v>0</v>
-      </c>
-      <c r="E23" s="51">
-        <v>0</v>
-      </c>
-      <c r="F23" s="51">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52">
-        <v>1.7600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="51">
-        <v>0</v>
-      </c>
-      <c r="C24" s="51">
-        <v>0</v>
-      </c>
-      <c r="D24" s="51">
-        <v>0</v>
-      </c>
-      <c r="E24" s="51">
-        <v>0</v>
-      </c>
-      <c r="F24" s="51">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52">
-        <v>1.8100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="51">
-        <v>0</v>
-      </c>
-      <c r="C25" s="51">
-        <v>0</v>
-      </c>
-      <c r="D25" s="51">
-        <v>0</v>
-      </c>
-      <c r="E25" s="51">
-        <v>0</v>
-      </c>
-      <c r="F25" s="51">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52">
-        <v>1.14E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="51">
-        <v>0</v>
-      </c>
-      <c r="C26" s="51">
-        <v>0</v>
-      </c>
-      <c r="D26" s="51">
-        <v>0</v>
-      </c>
-      <c r="E26" s="51">
-        <v>0</v>
-      </c>
-      <c r="F26" s="51">
-        <v>0</v>
-      </c>
-      <c r="G26" s="52">
-        <v>0.15129999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="51">
-        <v>0</v>
-      </c>
-      <c r="C27" s="51">
-        <v>0</v>
-      </c>
-      <c r="D27" s="51">
-        <v>0</v>
-      </c>
-      <c r="E27" s="51">
-        <v>0</v>
-      </c>
-      <c r="F27" s="51">
-        <v>0</v>
-      </c>
-      <c r="G27" s="52">
-        <v>0.36630000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="31" customWidth="1"/>
-    <col min="2" max="10" width="16.83203125" style="31" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="31" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="9">
-        <v>3095470</v>
-      </c>
-      <c r="C2" s="46">
-        <v>15402200</v>
-      </c>
-      <c r="D2" s="46">
-        <v>8785700</v>
-      </c>
-      <c r="E2" s="46">
-        <v>13889200</v>
-      </c>
-      <c r="F2" s="46">
-        <v>12671800</v>
-      </c>
-      <c r="G2" s="46">
-        <v>9362400</v>
-      </c>
-      <c r="H2" s="46">
-        <v>173766200</v>
-      </c>
-      <c r="I2" s="77">
-        <f t="shared" ref="I2:I15" si="0">D2+E2+F2+G2</f>
-        <v>44709100</v>
-      </c>
-      <c r="J2" s="47">
-        <f t="shared" ref="J2:J15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>3650590.4685349194</v>
-      </c>
-      <c r="K2" s="78">
-        <f t="shared" ref="K2:K15" si="2">D2/I2</f>
-        <v>0.19650809343064388</v>
-      </c>
-      <c r="L2" s="47">
-        <f>I2-J2</f>
-        <v>41058509.531465083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="9">
-        <v>3071259</v>
-      </c>
-      <c r="C3" s="46">
-        <v>15629400.000000002</v>
-      </c>
-      <c r="D3" s="46">
-        <v>8937400.0000000019</v>
-      </c>
-      <c r="E3" s="46">
-        <v>14228400.000000002</v>
-      </c>
-      <c r="F3" s="46">
-        <v>12949600</v>
-      </c>
-      <c r="G3" s="46">
-        <v>9576800</v>
-      </c>
-      <c r="H3" s="46">
-        <v>175848400</v>
-      </c>
-      <c r="I3" s="77">
-        <f t="shared" si="0"/>
-        <v>45692200</v>
-      </c>
-      <c r="J3" s="47">
-        <f t="shared" si="1"/>
-        <v>3622037.632993402</v>
-      </c>
-      <c r="K3" s="78">
-        <f t="shared" si="2"/>
-        <v>0.19560012431005733</v>
-      </c>
-      <c r="L3" s="47">
-        <f t="shared" ref="L3:L15" si="3">I3-J3</f>
-        <v>42070162.3670066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="9">
-        <v>3045241</v>
-      </c>
-      <c r="C4" s="46">
-        <v>15856600.000000002</v>
-      </c>
-      <c r="D4" s="46">
-        <v>9089100.0000000019</v>
-      </c>
-      <c r="E4" s="46">
-        <v>14567600.000000002</v>
-      </c>
-      <c r="F4" s="46">
-        <v>13227400</v>
-      </c>
-      <c r="G4" s="46">
-        <v>9791200.0000000019</v>
-      </c>
-      <c r="H4" s="46">
-        <v>177930600</v>
-      </c>
-      <c r="I4" s="77">
-        <f t="shared" si="0"/>
-        <v>46675300</v>
-      </c>
-      <c r="J4" s="47">
-        <f t="shared" si="1"/>
-        <v>3591353.7424015561</v>
-      </c>
-      <c r="K4" s="78">
-        <f t="shared" si="2"/>
-        <v>0.19473040344679096</v>
-      </c>
-      <c r="L4" s="47">
-        <f t="shared" si="3"/>
-        <v>43083946.257598445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3017266</v>
-      </c>
-      <c r="C5" s="46">
-        <v>16083800.000000004</v>
-      </c>
-      <c r="D5" s="46">
-        <v>9240800.0000000037</v>
-      </c>
-      <c r="E5" s="46">
-        <v>14906800.000000004</v>
-      </c>
-      <c r="F5" s="46">
-        <v>13505200</v>
-      </c>
-      <c r="G5" s="46">
-        <v>10005600.000000004</v>
-      </c>
-      <c r="H5" s="46">
-        <v>180012800</v>
-      </c>
-      <c r="I5" s="77">
-        <f t="shared" si="0"/>
-        <v>47658400.000000015</v>
-      </c>
-      <c r="J5" s="47">
-        <f t="shared" si="1"/>
-        <v>3558361.8967828737</v>
-      </c>
-      <c r="K5" s="78">
-        <f t="shared" si="2"/>
-        <v>0.19389656387960991</v>
-      </c>
-      <c r="L5" s="47">
-        <f t="shared" si="3"/>
-        <v>44100038.10321714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="9">
-        <v>2990677</v>
-      </c>
-      <c r="C6" s="46">
-        <v>16311000.000000004</v>
-      </c>
-      <c r="D6" s="46">
-        <v>9392500.0000000037</v>
-      </c>
-      <c r="E6" s="46">
-        <v>15246000.000000004</v>
-      </c>
-      <c r="F6" s="46">
-        <v>13783000</v>
-      </c>
-      <c r="G6" s="46">
-        <v>10220000.000000004</v>
-      </c>
-      <c r="H6" s="46">
-        <v>182095000</v>
-      </c>
-      <c r="I6" s="77">
-        <f t="shared" si="0"/>
-        <v>48641500.000000015</v>
-      </c>
-      <c r="J6" s="47">
-        <f t="shared" si="1"/>
-        <v>3527004.6069471212</v>
-      </c>
-      <c r="K6" s="78">
-        <f t="shared" si="2"/>
-        <v>0.1930964300031866</v>
-      </c>
-      <c r="L6" s="47">
-        <f t="shared" si="3"/>
-        <v>45114495.393052891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2962144</v>
-      </c>
-      <c r="C7" s="46">
-        <v>16190600.000000004</v>
-      </c>
-      <c r="D7" s="46">
-        <v>9004300.0000000037</v>
-      </c>
-      <c r="E7" s="46">
-        <v>15785700.000000004</v>
-      </c>
-      <c r="F7" s="46">
-        <v>13711700</v>
-      </c>
-      <c r="G7" s="46">
-        <v>10609600.000000004</v>
-      </c>
-      <c r="H7" s="46">
-        <v>183822800</v>
-      </c>
-      <c r="I7" s="77">
-        <f t="shared" si="0"/>
-        <v>49111300.000000015</v>
-      </c>
-      <c r="J7" s="47">
-        <f t="shared" si="1"/>
-        <v>3493354.6934158299</v>
-      </c>
-      <c r="K7" s="78">
-        <f t="shared" si="2"/>
-        <v>0.1833447699409301</v>
-      </c>
-      <c r="L7" s="47">
-        <f t="shared" si="3"/>
-        <v>45617945.306584187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2931643</v>
-      </c>
-      <c r="C8" s="46">
-        <v>16070200.000000004</v>
-      </c>
-      <c r="D8" s="46">
-        <v>8616100.0000000019</v>
-      </c>
-      <c r="E8" s="46">
-        <v>16325400.000000004</v>
-      </c>
-      <c r="F8" s="46">
-        <v>13640400</v>
-      </c>
-      <c r="G8" s="46">
-        <v>10999200.000000002</v>
-      </c>
-      <c r="H8" s="46">
-        <v>185550600</v>
-      </c>
-      <c r="I8" s="77">
-        <f t="shared" si="0"/>
-        <v>49581100.000000007</v>
-      </c>
-      <c r="J8" s="47">
-        <f t="shared" si="1"/>
-        <v>3457383.8521927581</v>
-      </c>
-      <c r="K8" s="78">
-        <f t="shared" si="2"/>
-        <v>0.17377791134121673</v>
-      </c>
-      <c r="L8" s="47">
-        <f t="shared" si="3"/>
-        <v>46123716.147807248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2899255</v>
-      </c>
-      <c r="C9" s="46">
-        <v>15949800.000000006</v>
-      </c>
-      <c r="D9" s="46">
-        <v>8227900.0000000019</v>
-      </c>
-      <c r="E9" s="46">
-        <v>16865100.000000004</v>
-      </c>
-      <c r="F9" s="46">
-        <v>13569100</v>
-      </c>
-      <c r="G9" s="46">
-        <v>11388800</v>
-      </c>
-      <c r="H9" s="46">
-        <v>187278400</v>
-      </c>
-      <c r="I9" s="77">
-        <f t="shared" si="0"/>
-        <v>50050900.000000007</v>
-      </c>
-      <c r="J9" s="47">
-        <f t="shared" si="1"/>
-        <v>3419187.609265219</v>
-      </c>
-      <c r="K9" s="78">
-        <f t="shared" si="2"/>
-        <v>0.16439065031797631</v>
-      </c>
-      <c r="L9" s="47">
-        <f t="shared" si="3"/>
-        <v>46631712.390734792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2865008</v>
-      </c>
-      <c r="C10" s="46">
-        <v>15829400.000000006</v>
-      </c>
-      <c r="D10" s="46">
-        <v>7839700.0000000019</v>
-      </c>
-      <c r="E10" s="46">
-        <v>17404800.000000004</v>
-      </c>
-      <c r="F10" s="46">
-        <v>13497800</v>
-      </c>
-      <c r="G10" s="46">
-        <v>11778400</v>
-      </c>
-      <c r="H10" s="46">
-        <v>189006200</v>
-      </c>
-      <c r="I10" s="77">
-        <f t="shared" si="0"/>
-        <v>50520700.000000007</v>
-      </c>
-      <c r="J10" s="47">
-        <f t="shared" si="1"/>
-        <v>3378798.9859621613</v>
-      </c>
-      <c r="K10" s="78">
-        <f t="shared" si="2"/>
-        <v>0.15517797655218554</v>
-      </c>
-      <c r="L10" s="47">
-        <f t="shared" si="3"/>
-        <v>47141901.014037848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2836142</v>
-      </c>
-      <c r="C11" s="46">
-        <v>15709000.000000006</v>
-      </c>
-      <c r="D11" s="46">
-        <v>7451500.0000000019</v>
-      </c>
-      <c r="E11" s="46">
-        <v>17944500</v>
-      </c>
-      <c r="F11" s="46">
-        <v>13426500</v>
-      </c>
-      <c r="G11" s="46">
-        <v>12168000</v>
-      </c>
-      <c r="H11" s="46">
-        <v>190734000</v>
-      </c>
-      <c r="I11" s="77">
-        <f t="shared" si="0"/>
-        <v>50990500</v>
-      </c>
-      <c r="J11" s="47">
-        <f t="shared" si="1"/>
-        <v>3344756.3544830228</v>
-      </c>
-      <c r="K11" s="78">
-        <f t="shared" si="2"/>
-        <v>0.1461350643747365</v>
-      </c>
-      <c r="L11" s="47">
-        <f t="shared" si="3"/>
-        <v>47645743.645516977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2805541</v>
-      </c>
-      <c r="C12" s="46">
-        <v>15358200.000000006</v>
-      </c>
-      <c r="D12" s="46">
-        <v>7411700.0000000019</v>
-      </c>
-      <c r="E12" s="46">
-        <v>17710400</v>
-      </c>
-      <c r="F12" s="46">
-        <v>13766300</v>
-      </c>
-      <c r="G12" s="46">
-        <v>12445000</v>
-      </c>
-      <c r="H12" s="46">
-        <v>192287600</v>
-      </c>
-      <c r="I12" s="77">
-        <f t="shared" si="0"/>
-        <v>51333400</v>
-      </c>
-      <c r="J12" s="47">
-        <f t="shared" si="1"/>
-        <v>3308667.5799422786</v>
-      </c>
-      <c r="K12" s="78">
-        <f t="shared" si="2"/>
-        <v>0.14438357872262508</v>
-      </c>
-      <c r="L12" s="47">
-        <f t="shared" si="3"/>
-        <v>48024732.420057721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2773236</v>
-      </c>
-      <c r="C13" s="46">
-        <v>15007400.000000007</v>
-      </c>
-      <c r="D13" s="46">
-        <v>7371900.0000000019</v>
-      </c>
-      <c r="E13" s="46">
-        <v>17476300</v>
-      </c>
-      <c r="F13" s="46">
-        <v>14106100</v>
-      </c>
-      <c r="G13" s="46">
-        <v>12722000</v>
-      </c>
-      <c r="H13" s="46">
-        <v>193841200</v>
-      </c>
-      <c r="I13" s="77">
-        <f t="shared" si="0"/>
-        <v>51676300</v>
-      </c>
-      <c r="J13" s="47">
-        <f t="shared" si="1"/>
-        <v>3270569.2216684073</v>
-      </c>
-      <c r="K13" s="78">
-        <f t="shared" si="2"/>
-        <v>0.14265533716616713</v>
-      </c>
-      <c r="L13" s="47">
-        <f t="shared" si="3"/>
-        <v>48405730.778331593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="9">
-        <v>2739273</v>
-      </c>
-      <c r="C14" s="46">
-        <v>14656600.000000007</v>
-      </c>
-      <c r="D14" s="46">
-        <v>7332100.0000000009</v>
-      </c>
-      <c r="E14" s="46">
-        <v>17242200</v>
-      </c>
-      <c r="F14" s="46">
-        <v>14445900</v>
-      </c>
-      <c r="G14" s="46">
-        <v>12999000</v>
-      </c>
-      <c r="H14" s="46">
-        <v>195394800</v>
-      </c>
-      <c r="I14" s="77">
-        <f t="shared" si="0"/>
-        <v>52019200</v>
-      </c>
-      <c r="J14" s="47">
-        <f t="shared" si="1"/>
-        <v>3230515.5289875376</v>
-      </c>
-      <c r="K14" s="78">
-        <f t="shared" si="2"/>
-        <v>0.14094988004429135</v>
-      </c>
-      <c r="L14" s="47">
-        <f t="shared" si="3"/>
-        <v>48788684.471012466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="9">
-        <v>2703670</v>
-      </c>
-      <c r="C15" s="46">
-        <v>14305800.000000007</v>
-      </c>
-      <c r="D15" s="46">
-        <v>7292300.0000000009</v>
-      </c>
-      <c r="E15" s="46">
-        <v>17008100</v>
-      </c>
-      <c r="F15" s="46">
-        <v>14785700</v>
-      </c>
-      <c r="G15" s="46">
-        <v>13276000</v>
-      </c>
-      <c r="H15" s="46">
-        <v>196948400</v>
-      </c>
-      <c r="I15" s="77">
-        <f t="shared" si="0"/>
-        <v>52362100</v>
-      </c>
-      <c r="J15" s="47">
-        <f t="shared" si="1"/>
-        <v>3188527.7298968509</v>
-      </c>
-      <c r="K15" s="78">
-        <f t="shared" si="2"/>
-        <v>0.139266759736527</v>
-      </c>
-      <c r="L15" s="47">
-        <f t="shared" si="3"/>
-        <v>49173572.270103149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:O17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="68">
-        <f>1-SUM(C3:C5)</f>
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="D2" s="68">
-        <f t="shared" ref="D2:G2" si="0">1-SUM(D3:D5)</f>
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="E2" s="68">
-        <f t="shared" si="0"/>
-        <v>0.49</v>
-      </c>
-      <c r="F2" s="68">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G2" s="68">
-        <f t="shared" si="0"/>
-        <v>0.25349999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="56">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D3" s="56">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E3" s="56">
-        <v>0.314</v>
-      </c>
-      <c r="F3" s="56">
-        <v>0.33899999999999997</v>
-      </c>
-      <c r="G3" s="56">
-        <v>0.33250000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="56">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D4" s="56">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="E4" s="56">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="F4" s="56">
-        <v>0.247</v>
-      </c>
-      <c r="G4" s="56">
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="56">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="D5" s="56">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="E5" s="56">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F5" s="56">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="G5" s="56">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="34"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="68">
-        <f t="shared" ref="C8:G8" si="1">1-SUM(C9:C11)</f>
-        <v>0.56800000000000006</v>
-      </c>
-      <c r="D8" s="68">
-        <f t="shared" si="1"/>
-        <v>0.56800000000000006</v>
-      </c>
-      <c r="E8" s="68">
-        <f t="shared" si="1"/>
-        <v>0.58650000000000002</v>
-      </c>
-      <c r="F8" s="68">
-        <f t="shared" si="1"/>
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="G8" s="68">
-        <f t="shared" si="1"/>
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="56">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D9" s="56">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="E9" s="56">
-        <v>0.23149999999999998</v>
-      </c>
-      <c r="F9" s="56">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="56">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="56">
-        <v>0.15</v>
-      </c>
-      <c r="D10" s="56">
-        <v>0.15</v>
-      </c>
-      <c r="E10" s="56">
-        <v>0.129</v>
-      </c>
-      <c r="F10" s="56">
-        <v>0.11</v>
-      </c>
-      <c r="G10" s="56">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="56">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D11" s="56">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E11" s="56">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="F11" s="56">
-        <v>4.0999999999999995E-2</v>
-      </c>
-      <c r="G11" s="56">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-    </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="69">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="69">
-        <v>0.74</v>
-      </c>
-      <c r="F14" s="69">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G14" s="69">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="H14" s="70">
-        <v>0.48149999999999998</v>
-      </c>
-      <c r="I14" s="70">
-        <v>0.48149999999999998</v>
-      </c>
-      <c r="J14" s="70">
-        <v>0.48149999999999998</v>
-      </c>
-      <c r="K14" s="70">
-        <v>0.48149999999999998</v>
-      </c>
-      <c r="L14" s="70">
-        <v>0.43469999999999998</v>
-      </c>
-      <c r="M14" s="70">
-        <v>0.43469999999999998</v>
-      </c>
-      <c r="N14" s="70">
-        <v>0.43469999999999998</v>
-      </c>
-      <c r="O14" s="70">
-        <v>0.43469999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="68">
-        <f t="shared" ref="C15:O15" si="2">iron_deficiency_anaemia*C14</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D15" s="68">
-        <f t="shared" si="2"/>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.31079999999999997</v>
-      </c>
-      <c r="F15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.17934</v>
-      </c>
-      <c r="H15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="I15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="J15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="K15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.20222999999999999</v>
-      </c>
-      <c r="L15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
-      </c>
-      <c r="M15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
-      </c>
-      <c r="N15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
-      </c>
-      <c r="O15" s="68">
-        <f t="shared" si="2"/>
-        <v>0.18257399999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="7" width="13.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="56">
-        <v>0.80299999999999994</v>
-      </c>
-      <c r="D2" s="56">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="E2" s="56">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F2" s="56">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="G2" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="56">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D3" s="56">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="E3" s="56">
-        <v>9.4E-2</v>
-      </c>
-      <c r="F3" s="56">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G3" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="56">
-        <v>0.107</v>
-      </c>
-      <c r="D4" s="56">
-        <v>0.37</v>
-      </c>
-      <c r="E4" s="56">
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="F4" s="56">
-        <v>0.879</v>
-      </c>
-      <c r="G4" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="68">
-        <f>1-SUM(C2:C4)</f>
-        <v>2.200000000000002E-2</v>
-      </c>
-      <c r="D5" s="68">
-        <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="E5" s="68">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999921E-2</v>
-      </c>
-      <c r="F5" s="68">
-        <f t="shared" si="0"/>
-        <v>6.899999999999995E-2</v>
-      </c>
-      <c r="G5" s="68">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1">
-        <v>2010</v>
-      </c>
-      <c r="D1">
-        <v>2011</v>
-      </c>
-      <c r="E1">
-        <v>2012</v>
-      </c>
-      <c r="F1">
-        <v>2013</v>
-      </c>
-      <c r="G1">
-        <v>2014</v>
-      </c>
-      <c r="H1">
-        <v>2015</v>
-      </c>
-      <c r="I1">
-        <v>2016</v>
-      </c>
-      <c r="J1">
-        <v>2017</v>
-      </c>
-      <c r="K1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="34"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="34"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="37.1640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="31"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="62" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="63">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="63">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="63">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="63">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="63">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="63">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="63">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="63">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="65">
-        <f>SUM(C2:C10)</f>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="63">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="63">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="63">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="63">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="65">
-        <f>SUM(C13:C16)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369C79AA-E332-6842-B41C-7B52485E2941}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="94" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="94" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="94" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="94" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="94"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="65" x14ac:dyDescent="0.15">
-      <c r="A1" s="107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="107"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="105">
-        <f>'Fertility risks'!C2</f>
-        <v>0.15</v>
-      </c>
-      <c r="D2" s="105">
-        <f>'Fertility risks'!C3</f>
-        <v>0.03</v>
-      </c>
-      <c r="E2" s="105">
-        <f>'Fertility risks'!C4</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="104"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="105">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="105">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="105">
-        <v>0.8</v>
-      </c>
-      <c r="F3" s="104"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D2" s="8">
-        <v>3.71</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="79">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C3" s="79">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D3" s="79">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E3" s="79">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="F3" s="79">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D4" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="E4" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="54">
-        <f>'Nutritional status distribution'!C10 * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="C5" s="54">
-        <f>'Nutritional status distribution'!D10 * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="D5" s="54">
-        <f>'Nutritional status distribution'!E10 * 2.6</f>
-        <v>0.33540000000000003</v>
-      </c>
-      <c r="E5" s="54">
-        <f>'Nutritional status distribution'!F10 * 2.6</f>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="F5" s="54">
-        <f>'Nutritional status distribution'!G10 * 2.6</f>
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="54">
-        <f>'Nutritional status distribution'!C11 * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C6" s="54">
-        <f>'Nutritional status distribution'!D11 * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="D6" s="54">
-        <f>'Nutritional status distribution'!E11 * 2.6</f>
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="E6" s="54">
-        <f>'Nutritional status distribution'!F11 * 2.6</f>
-        <v>0.10659999999999999</v>
-      </c>
-      <c r="F6" s="54">
-        <f>'Nutritional status distribution'!G11 * 2.6</f>
-        <v>5.4600000000000003E-2</v>
-      </c>
+      <c r="B53" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5E9B6A32-1CEB-534B-AE95-A154DB98B182}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F4C5A40D-73DC-164A-A40B-C85FB21CAE30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="961" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -4183,7 +4183,7 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -4565,7 +4565,7 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -5422,7 +5422,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6073,8 +6073,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6993,12 +6993,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF007600"/>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7027,19 +7027,24 @@
       <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="40">
+        <f>'Baseline year population inputs'!C39</f>
         <v>2.4300000000000002</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="40">
+        <f>'Baseline year population inputs'!C40</f>
         <v>2.4300000000000002</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="40">
+        <f>'Baseline year population inputs'!C41</f>
         <v>3.71</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="40">
+        <f>'Baseline year population inputs'!C42</f>
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="40">
+        <f>'Baseline year population inputs'!C43</f>
         <v>1.92</v>
       </c>
     </row>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F4C5A40D-73DC-164A-A40B-C85FB21CAE30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D55B6C65-5361-A74E-8DD2-46797FAF5C0F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -77,49 +77,6 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{E6FE9035-79F5-D348-97EE-F49116051B84}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Check on severe diarrhoea</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
@@ -157,7 +114,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -200,7 +157,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -355,18 +312,6 @@
     <t>Breastfeeding</t>
   </si>
   <si>
-    <t>exclusive</t>
-  </si>
-  <si>
-    <t>predominant</t>
-  </si>
-  <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -926,6 +871,18 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>Predominant</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -1979,9 +1936,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2029,6 +1983,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="726">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -4196,23 +4151,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>215</v>
+        <v>131</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="27">
         <v>0.36</v>
@@ -4220,7 +4175,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C4" s="26">
         <v>0.1</v>
@@ -4228,7 +4183,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="26">
         <v>0.35199999999999998</v>
@@ -4236,7 +4191,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C6" s="27">
         <v>0.5</v>
@@ -4244,7 +4199,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="27">
         <v>0.3</v>
@@ -4252,7 +4207,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="27">
         <v>0.1</v>
@@ -4263,14 +4218,14 @@
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C11" s="26">
         <v>0.3</v>
@@ -4278,7 +4233,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C12" s="26">
         <v>0.8</v>
@@ -4286,7 +4241,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" s="26">
         <v>0.12</v>
@@ -4294,7 +4249,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" s="26">
         <v>0.05</v>
@@ -4302,7 +4257,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="14" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C15" s="29">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4314,12 +4269,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C18" s="26">
         <v>0.29978973218277538</v>
@@ -4327,7 +4282,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C19" s="26">
         <v>0.52556568434139284</v>
@@ -4335,7 +4290,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20" s="26">
         <v>0.16210210664201097</v>
@@ -4343,7 +4298,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21" s="26">
         <v>1.2542476833820825E-2</v>
@@ -4352,19 +4307,19 @@
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="28">
         <v>176</v>
@@ -4372,23 +4327,23 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C26" s="26">
         <v>0.13</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="59">
+      <c r="B27" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="58">
         <v>25.36</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="75" t="s">
-        <v>126</v>
+      <c r="B28" s="74" t="s">
+        <v>122</v>
       </c>
       <c r="C28" s="28">
         <v>25.4</v>
@@ -4396,7 +4351,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C29" s="28">
         <v>34.68</v>
@@ -4406,7 +4361,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C30" s="28">
         <v>39.32</v>
@@ -4419,7 +4374,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D32" s="23"/>
     </row>
@@ -4453,7 +4408,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="29">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
@@ -4467,13 +4422,13 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C39" s="7">
         <v>2.4300000000000002</v>
@@ -4482,7 +4437,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C40" s="7">
         <v>2.4300000000000002</v>
@@ -4490,7 +4445,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C41" s="7">
         <v>3.71</v>
@@ -4498,7 +4453,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -4506,7 +4461,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C43" s="7">
         <v>1.92</v>
@@ -4514,12 +4469,12 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C46" s="27">
         <v>0.2</v>
@@ -4527,7 +4482,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C47" s="27">
         <v>0.42</v>
@@ -4535,7 +4490,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C48" s="27">
         <v>0.9</v>
@@ -4543,7 +4498,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C49" s="27">
         <v>0.1</v>
@@ -4571,194 +4526,194 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="67" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="67"/>
-    <col min="5" max="5" width="17.5" style="67" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="67"/>
+    <col min="1" max="1" width="33.6640625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="66" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="66"/>
+    <col min="5" max="5" width="17.5" style="66" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
-        <v>213</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>209</v>
       </c>
+      <c r="B1" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="70">
+      <c r="A2" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="69">
         <v>0.9</v>
       </c>
-      <c r="C2" s="69">
+      <c r="C2" s="68">
         <v>0.09</v>
       </c>
-      <c r="D2" s="67">
+      <c r="D2" s="66">
         <v>0.8</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="66">
         <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="70">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69">
+      <c r="A3" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="69">
+        <v>1</v>
+      </c>
+      <c r="C3" s="68">
         <v>0.02</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="66">
         <v>1.9</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="66">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="71" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="70">
-        <v>1</v>
-      </c>
-      <c r="C4" s="69">
+      <c r="A4" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="69">
+        <v>1</v>
+      </c>
+      <c r="C4" s="68">
         <v>0.08</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="66">
         <v>2</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="66">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="71" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="70">
-        <v>1</v>
-      </c>
-      <c r="C5" s="69">
+      <c r="A5" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="69">
+        <v>1</v>
+      </c>
+      <c r="C5" s="68">
         <v>0.18</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="66">
         <v>0.7</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="66">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="70">
-        <v>1</v>
-      </c>
-      <c r="C6" s="69">
+      <c r="A6" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="69">
+        <v>1</v>
+      </c>
+      <c r="C6" s="68">
         <v>0.02</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="66">
         <v>0.7</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="66">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="70">
+      <c r="A7" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="69">
         <v>0.93</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="68">
         <v>0.45</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="66">
         <v>0.9</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="66">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="71" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="70">
+      <c r="A8" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="69">
         <v>0.5</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="68">
         <v>0.03</v>
       </c>
-      <c r="D8" s="67">
-        <v>0</v>
-      </c>
-      <c r="E8" s="67">
+      <c r="D8" s="66">
+        <v>0</v>
+      </c>
+      <c r="E8" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="70">
+      <c r="A9" s="70" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="69">
         <v>0.5</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="68">
         <v>0.11</v>
       </c>
-      <c r="D9" s="67">
-        <v>0</v>
-      </c>
-      <c r="E9" s="67">
+      <c r="D9" s="66">
+        <v>0</v>
+      </c>
+      <c r="E9" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10" s="70">
+      <c r="A10" s="70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="69">
         <v>0.98</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="68">
         <v>0.01</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="66">
         <v>0.6</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="66">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="68"/>
+      <c r="C11" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4768,14 +4723,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4786,7 +4741,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
@@ -4804,12 +4759,12 @@
         <v>5</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B2" s="36">
         <v>7.0000000000000001E-3</v>
@@ -4947,7 +4902,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="36">
         <v>0.127</v>
@@ -4993,7 +4948,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B10" s="37">
         <v>0</v>
@@ -5201,7 +5156,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B19" s="37">
         <v>0</v>
@@ -5224,7 +5179,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="35" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B20" s="37">
         <v>0</v>
@@ -5247,7 +5202,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" s="37">
         <v>0</v>
@@ -5270,7 +5225,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B22" s="37">
         <v>0</v>
@@ -5293,7 +5248,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23" s="37">
         <v>0</v>
@@ -5316,7 +5271,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24" s="37">
         <v>0</v>
@@ -5339,7 +5294,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25" s="37">
         <v>0</v>
@@ -5362,7 +5317,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" s="37">
         <v>0</v>
@@ -5385,7 +5340,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="35" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27" s="37">
         <v>0</v>
@@ -5410,7 +5365,6 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5439,37 +5393,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>146</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="K1" s="60" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>168</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5497,7 +5451,7 @@
       <c r="H2" s="32">
         <v>173766200</v>
       </c>
-      <c r="I2" s="61">
+      <c r="I2" s="60">
         <f t="shared" ref="I2:I15" si="0">D2+E2+F2+G2</f>
         <v>44709100</v>
       </c>
@@ -5505,7 +5459,7 @@
         <f t="shared" ref="J2:J15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
         <v>3650590.4685349194</v>
       </c>
-      <c r="K2" s="62">
+      <c r="K2" s="61">
         <f t="shared" ref="K2:K15" si="2">D2/I2</f>
         <v>0.19650809343064388</v>
       </c>
@@ -5539,7 +5493,7 @@
       <c r="H3" s="32">
         <v>175848400</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="60">
         <f t="shared" si="0"/>
         <v>45692200</v>
       </c>
@@ -5547,7 +5501,7 @@
         <f t="shared" si="1"/>
         <v>3622037.632993402</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="61">
         <f t="shared" si="2"/>
         <v>0.19560012431005733</v>
       </c>
@@ -5581,7 +5535,7 @@
       <c r="H4" s="32">
         <v>177930600</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="60">
         <f t="shared" si="0"/>
         <v>46675300</v>
       </c>
@@ -5589,7 +5543,7 @@
         <f t="shared" si="1"/>
         <v>3591353.7424015561</v>
       </c>
-      <c r="K4" s="62">
+      <c r="K4" s="61">
         <f t="shared" si="2"/>
         <v>0.19473040344679096</v>
       </c>
@@ -5623,7 +5577,7 @@
       <c r="H5" s="32">
         <v>180012800</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="60">
         <f t="shared" si="0"/>
         <v>47658400.000000015</v>
       </c>
@@ -5631,7 +5585,7 @@
         <f t="shared" si="1"/>
         <v>3558361.8967828737</v>
       </c>
-      <c r="K5" s="62">
+      <c r="K5" s="61">
         <f t="shared" si="2"/>
         <v>0.19389656387960991</v>
       </c>
@@ -5665,7 +5619,7 @@
       <c r="H6" s="32">
         <v>182095000</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="60">
         <f t="shared" si="0"/>
         <v>48641500.000000015</v>
       </c>
@@ -5673,7 +5627,7 @@
         <f t="shared" si="1"/>
         <v>3527004.6069471212</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="61">
         <f t="shared" si="2"/>
         <v>0.1930964300031866</v>
       </c>
@@ -5707,7 +5661,7 @@
       <c r="H7" s="32">
         <v>183822800</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="60">
         <f t="shared" si="0"/>
         <v>49111300.000000015</v>
       </c>
@@ -5715,7 +5669,7 @@
         <f t="shared" si="1"/>
         <v>3493354.6934158299</v>
       </c>
-      <c r="K7" s="62">
+      <c r="K7" s="61">
         <f t="shared" si="2"/>
         <v>0.1833447699409301</v>
       </c>
@@ -5749,7 +5703,7 @@
       <c r="H8" s="32">
         <v>185550600</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="60">
         <f t="shared" si="0"/>
         <v>49581100.000000007</v>
       </c>
@@ -5757,7 +5711,7 @@
         <f t="shared" si="1"/>
         <v>3457383.8521927581</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="61">
         <f t="shared" si="2"/>
         <v>0.17377791134121673</v>
       </c>
@@ -5791,7 +5745,7 @@
       <c r="H9" s="32">
         <v>187278400</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="60">
         <f t="shared" si="0"/>
         <v>50050900.000000007</v>
       </c>
@@ -5799,7 +5753,7 @@
         <f t="shared" si="1"/>
         <v>3419187.609265219</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="61">
         <f t="shared" si="2"/>
         <v>0.16439065031797631</v>
       </c>
@@ -5833,7 +5787,7 @@
       <c r="H10" s="32">
         <v>189006200</v>
       </c>
-      <c r="I10" s="61">
+      <c r="I10" s="60">
         <f t="shared" si="0"/>
         <v>50520700.000000007</v>
       </c>
@@ -5841,7 +5795,7 @@
         <f t="shared" si="1"/>
         <v>3378798.9859621613</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="61">
         <f t="shared" si="2"/>
         <v>0.15517797655218554</v>
       </c>
@@ -5875,7 +5829,7 @@
       <c r="H11" s="32">
         <v>190734000</v>
       </c>
-      <c r="I11" s="61">
+      <c r="I11" s="60">
         <f t="shared" si="0"/>
         <v>50990500</v>
       </c>
@@ -5883,7 +5837,7 @@
         <f t="shared" si="1"/>
         <v>3344756.3544830228</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="61">
         <f t="shared" si="2"/>
         <v>0.1461350643747365</v>
       </c>
@@ -5917,7 +5871,7 @@
       <c r="H12" s="32">
         <v>192287600</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="60">
         <f t="shared" si="0"/>
         <v>51333400</v>
       </c>
@@ -5925,7 +5879,7 @@
         <f t="shared" si="1"/>
         <v>3308667.5799422786</v>
       </c>
-      <c r="K12" s="62">
+      <c r="K12" s="61">
         <f t="shared" si="2"/>
         <v>0.14438357872262508</v>
       </c>
@@ -5959,7 +5913,7 @@
       <c r="H13" s="32">
         <v>193841200</v>
       </c>
-      <c r="I13" s="61">
+      <c r="I13" s="60">
         <f t="shared" si="0"/>
         <v>51676300</v>
       </c>
@@ -5967,7 +5921,7 @@
         <f t="shared" si="1"/>
         <v>3270569.2216684073</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="61">
         <f t="shared" si="2"/>
         <v>0.14265533716616713</v>
       </c>
@@ -6001,7 +5955,7 @@
       <c r="H14" s="32">
         <v>195394800</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="60">
         <f t="shared" si="0"/>
         <v>52019200</v>
       </c>
@@ -6009,7 +5963,7 @@
         <f t="shared" si="1"/>
         <v>3230515.5289875376</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="61">
         <f t="shared" si="2"/>
         <v>0.14094988004429135</v>
       </c>
@@ -6043,7 +5997,7 @@
       <c r="H15" s="32">
         <v>196948400</v>
       </c>
-      <c r="I15" s="61">
+      <c r="I15" s="60">
         <f t="shared" si="0"/>
         <v>52362100</v>
       </c>
@@ -6051,7 +6005,7 @@
         <f t="shared" si="1"/>
         <v>3188527.7298968509</v>
       </c>
-      <c r="K15" s="62">
+      <c r="K15" s="61">
         <f t="shared" si="2"/>
         <v>0.139266759736527</v>
       </c>
@@ -6073,7 +6027,7 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6085,7 +6039,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6108,28 +6062,28 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="53">
+        <v>152</v>
+      </c>
+      <c r="C2" s="52">
         <f>1-SUM(C3:C5)</f>
         <v>0.63400000000000001</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <f t="shared" ref="D2:G2" si="0">1-SUM(D3:D5)</f>
         <v>0.63400000000000001</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <f t="shared" si="0"/>
         <v>0.49</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <f t="shared" si="0"/>
         <v>0.25349999999999995</v>
       </c>
@@ -6137,7 +6091,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C3" s="42">
         <v>0.22600000000000001</v>
@@ -6158,7 +6112,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" s="42">
         <v>0.10199999999999999</v>
@@ -6179,7 +6133,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="42">
         <v>3.7999999999999999E-2</v>
@@ -6215,35 +6169,35 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="53">
+        <v>155</v>
+      </c>
+      <c r="C8" s="52">
         <f t="shared" ref="C8:G8" si="1">1-SUM(C9:C11)</f>
         <v>0.56800000000000006</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="52">
         <f t="shared" si="1"/>
         <v>0.56800000000000006</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="52">
         <f t="shared" si="1"/>
         <v>0.58650000000000002</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="52">
         <f t="shared" si="1"/>
         <v>0.54900000000000004</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="52">
         <f t="shared" si="1"/>
         <v>0.49</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C9" s="42">
         <v>0.23300000000000001</v>
@@ -6263,7 +6217,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" s="42">
         <v>0.15</v>
@@ -6283,7 +6237,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C11" s="42">
         <v>4.9000000000000002E-2</v>
@@ -6317,7 +6271,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>1</v>
@@ -6335,127 +6289,127 @@
         <v>5</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L13" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M13" s="34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="54">
+        <v>170</v>
+      </c>
+      <c r="C14" s="53">
         <v>0.1</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <v>0.1</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="53">
         <v>0.74</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="53">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="53">
         <v>0.42699999999999999</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="54">
         <v>0.48149999999999998</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="54">
         <v>0.48149999999999998</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="54">
         <v>0.48149999999999998</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="54">
         <v>0.48149999999999998</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="54">
         <v>0.43469999999999998</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="54">
         <v>0.43469999999999998</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="54">
         <v>0.43469999999999998</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="54">
         <v>0.43469999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="53">
+        <v>87</v>
+      </c>
+      <c r="C15" s="52">
         <f t="shared" ref="C15:O15" si="2">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="52">
         <f t="shared" si="2"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="52">
         <f t="shared" si="2"/>
         <v>0.31079999999999997</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="52">
         <f t="shared" si="2"/>
         <v>0.23100000000000001</v>
       </c>
-      <c r="G15" s="53">
+      <c r="G15" s="52">
         <f t="shared" si="2"/>
         <v>0.17934</v>
       </c>
-      <c r="H15" s="53">
+      <c r="H15" s="52">
         <f t="shared" si="2"/>
         <v>0.20222999999999999</v>
       </c>
-      <c r="I15" s="53">
+      <c r="I15" s="52">
         <f t="shared" si="2"/>
         <v>0.20222999999999999</v>
       </c>
-      <c r="J15" s="53">
+      <c r="J15" s="52">
         <f t="shared" si="2"/>
         <v>0.20222999999999999</v>
       </c>
-      <c r="K15" s="53">
+      <c r="K15" s="52">
         <f t="shared" si="2"/>
         <v>0.20222999999999999</v>
       </c>
-      <c r="L15" s="53">
+      <c r="L15" s="52">
         <f t="shared" si="2"/>
         <v>0.18257399999999999</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="52">
         <f t="shared" si="2"/>
         <v>0.18257399999999999</v>
       </c>
-      <c r="N15" s="53">
+      <c r="N15" s="52">
         <f t="shared" si="2"/>
         <v>0.18257399999999999</v>
       </c>
-      <c r="O15" s="53">
+      <c r="O15" s="52">
         <f t="shared" si="2"/>
         <v>0.18257399999999999</v>
       </c>
@@ -6489,7 +6443,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6500,7 +6454,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6525,8 +6479,8 @@
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>25</v>
+      <c r="B2" s="75" t="s">
+        <v>212</v>
       </c>
       <c r="C2" s="42">
         <v>0.80299999999999994</v>
@@ -6545,8 +6499,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="52" t="s">
-        <v>26</v>
+      <c r="B3" s="75" t="s">
+        <v>213</v>
       </c>
       <c r="C3" s="42">
         <v>6.8000000000000005E-2</v>
@@ -6565,8 +6519,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="52" t="s">
-        <v>27</v>
+      <c r="B4" s="75" t="s">
+        <v>214</v>
       </c>
       <c r="C4" s="42">
         <v>0.107</v>
@@ -6585,26 +6539,26 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="53">
+      <c r="B5" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="52">
         <f>1-SUM(C2:C4)</f>
         <v>2.200000000000002E-2</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="52">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="52">
         <f t="shared" si="0"/>
         <v>3.5999999999999921E-2</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="52">
         <f t="shared" si="0"/>
         <v>6.899999999999995E-2</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="52">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -6633,10 +6587,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -6668,10 +6622,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>191</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -6688,10 +6642,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -6708,10 +6662,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -6725,7 +6679,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -6739,7 +6693,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -6756,10 +6710,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -6772,8 +6726,8 @@
       <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="57" t="s">
-        <v>194</v>
+      <c r="B11" s="56" t="s">
+        <v>190</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -6787,10 +6741,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -6803,8 +6757,8 @@
       <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="57" t="s">
-        <v>197</v>
+      <c r="B14" s="56" t="s">
+        <v>193</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -6843,21 +6797,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>214</v>
+        <v>161</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>210</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C2" s="48">
         <v>0.15</v>
@@ -6865,7 +6819,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3" s="48">
         <v>0.03</v>
@@ -6873,7 +6827,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C4" s="48">
         <v>0</v>
@@ -6881,7 +6835,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="48">
         <v>0.19</v>
@@ -6889,7 +6843,7 @@
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="48">
         <v>0.39</v>
@@ -6897,7 +6851,7 @@
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="44" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" s="48">
         <v>0.19</v>
@@ -6905,7 +6859,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="44" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C8" s="48">
         <v>1E-3</v>
@@ -6913,7 +6867,7 @@
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C9" s="48">
         <v>7.0000000000000001E-3</v>
@@ -6921,7 +6875,7 @@
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="48">
         <v>0.04</v>
@@ -6929,7 +6883,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" s="50">
         <f>SUM(C2:C10)</f>
@@ -6942,10 +6896,10 @@
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="48">
         <v>0.34</v>
@@ -6953,7 +6907,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C14" s="48">
         <v>0.05</v>
@@ -6961,7 +6915,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="44" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C15" s="48">
         <v>7.0000000000000007E-2</v>
@@ -6969,7 +6923,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C16" s="48">
         <v>0.54</v>
@@ -6977,7 +6931,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" s="50">
         <f>SUM(C13:C16)</f>
@@ -7005,7 +6959,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7025,7 +6979,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B2" s="40">
         <f>'Baseline year population inputs'!C39</f>
@@ -7050,7 +7004,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B3" s="40">
         <f>frac_mam_1month * 2.6</f>
@@ -7075,7 +7029,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B4" s="40">
         <f>frac_sam_1month * 2.6</f>
@@ -7130,10 +7084,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -7151,36 +7105,36 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -7224,7 +7178,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -7268,7 +7222,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -7276,11 +7230,11 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -7314,7 +7268,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -7322,11 +7276,11 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="62">
         <f>food_insecure*(1-frac_malaria_risk)</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="62">
         <f>food_insecure*(1-frac_malaria_risk)</f>
         <v>0.32400000000000001</v>
       </c>
@@ -7360,7 +7314,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -7368,11 +7322,11 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="62">
         <f>food_insecure*frac_malaria_risk</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="62">
         <f>food_insecure*frac_malaria_risk</f>
         <v>3.5999999999999997E-2</v>
       </c>
@@ -7406,7 +7360,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -7414,15 +7368,15 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="62">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="62">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="62">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
@@ -7453,7 +7407,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -7461,15 +7415,15 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="62">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="62">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="62">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
@@ -7500,24 +7454,24 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -7548,7 +7502,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -7592,7 +7546,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
@@ -7636,9 +7590,9 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="66">
+        <v>195</v>
+      </c>
+      <c r="C12" s="65">
         <v>1</v>
       </c>
       <c r="D12" s="17">
@@ -7679,14 +7633,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
+      <c r="B13" s="55"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -7703,19 +7657,19 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="J14" s="63">
+      <c r="J14" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="62">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -7734,8 +7688,8 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="56" t="s">
-        <v>78</v>
+      <c r="B15" s="55" t="s">
+        <v>74</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -7752,19 +7706,19 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="63">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="63">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="63">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="63">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
@@ -7782,8 +7736,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="56" t="s">
-        <v>79</v>
+      <c r="B16" s="55" t="s">
+        <v>75</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -7800,19 +7754,19 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="62">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="62">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="J16" s="63">
+      <c r="J16" s="62">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="62">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
@@ -7831,7 +7785,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -7848,19 +7802,19 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="63">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="63">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="J17" s="64">
+      <c r="J17" s="63">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="63">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
@@ -7879,7 +7833,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -7896,19 +7850,19 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="63">
         <f t="shared" ref="H18:K19" si="0">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="63">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J18" s="64">
+      <c r="J18" s="63">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="63">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -7926,8 +7880,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="56" t="s">
-        <v>62</v>
+      <c r="B19" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -7944,19 +7898,19 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="64">
+      <c r="H19" s="63">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="63">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J19" s="64">
+      <c r="J19" s="63">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="63">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -7974,14 +7928,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="56"/>
+      <c r="B20" s="55"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -8010,23 +7964,23 @@
       <c r="K21" s="11">
         <v>0</v>
       </c>
-      <c r="L21" s="63">
+      <c r="L21" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*1*school_attendance</f>
         <v>0.114048</v>
       </c>
-      <c r="M21" s="63">
-        <v>0</v>
-      </c>
-      <c r="N21" s="63">
-        <v>0</v>
-      </c>
-      <c r="O21" s="63">
+      <c r="M21" s="62">
+        <v>0</v>
+      </c>
+      <c r="N21" s="62">
+        <v>0</v>
+      </c>
+      <c r="O21" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="56" t="s">
-        <v>64</v>
+      <c r="B22" s="55" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -8055,26 +8009,26 @@
       <c r="K22" s="11">
         <v>0</v>
       </c>
-      <c r="L22" s="63">
+      <c r="L22" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
         <v>0.1469664</v>
       </c>
-      <c r="M22" s="63">
+      <c r="M22" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="N22" s="63">
+      <c r="N22" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="56" t="s">
-        <v>65</v>
+      <c r="B23" s="55" t="s">
+        <v>61</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -8103,26 +8057,26 @@
       <c r="K23" s="11">
         <v>0</v>
       </c>
-      <c r="L23" s="63">
+      <c r="L23" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>6.2985600000000003E-2</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N23" s="63">
+      <c r="N23" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O23" s="63">
+      <c r="O23" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="56" t="s">
-        <v>66</v>
+      <c r="B24" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="2">
         <v>0</v>
@@ -8151,23 +8105,23 @@
       <c r="K24" s="11">
         <v>0</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L24" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*1*school_attendance</f>
         <v>0.20275200000000002</v>
       </c>
-      <c r="M24" s="63">
-        <v>0</v>
-      </c>
-      <c r="N24" s="63">
-        <v>0</v>
-      </c>
-      <c r="O24" s="63">
+      <c r="M24" s="62">
+        <v>0</v>
+      </c>
+      <c r="N24" s="62">
+        <v>0</v>
+      </c>
+      <c r="O24" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="56" t="s">
-        <v>67</v>
+      <c r="B25" s="55" t="s">
+        <v>63</v>
       </c>
       <c r="C25" s="2">
         <v>0</v>
@@ -8196,26 +8150,26 @@
       <c r="K25" s="11">
         <v>0</v>
       </c>
-      <c r="L25" s="63">
+      <c r="L25" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
         <v>0.18289152000000003</v>
       </c>
-      <c r="M25" s="63">
+      <c r="M25" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="N25" s="63">
+      <c r="N25" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="O25" s="63">
+      <c r="O25" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="56" t="s">
-        <v>68</v>
+      <c r="B26" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="C26" s="2">
         <v>0</v>
@@ -8244,26 +8198,26 @@
       <c r="K26" s="11">
         <v>0</v>
       </c>
-      <c r="L26" s="63">
+      <c r="L26" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
         <v>7.8382080000000007E-2</v>
       </c>
-      <c r="M26" s="63">
+      <c r="M26" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="N26" s="63">
+      <c r="N26" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="O26" s="63">
+      <c r="O26" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="56" t="s">
-        <v>69</v>
+      <c r="B27" s="55" t="s">
+        <v>65</v>
       </c>
       <c r="C27" s="2">
         <v>0</v>
@@ -8292,27 +8246,27 @@
       <c r="K27" s="11">
         <v>0</v>
       </c>
-      <c r="L27" s="63">
+      <c r="L27" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>0.11197440000000002</v>
       </c>
-      <c r="M27" s="63">
+      <c r="M27" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="N27" s="63">
+      <c r="N27" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="O27" s="63">
+      <c r="O27" s="62">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
-      <c r="B28" s="56" t="s">
-        <v>71</v>
+      <c r="B28" s="55" t="s">
+        <v>67</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -8341,23 +8295,23 @@
       <c r="K28" s="11">
         <v>0</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="62">
         <f>food_insecure*(frac_malaria_risk)*1*school_attendance</f>
         <v>1.2671999999999998E-2</v>
       </c>
-      <c r="M28" s="63">
-        <v>0</v>
-      </c>
-      <c r="N28" s="63">
-        <v>0</v>
-      </c>
-      <c r="O28" s="63">
+      <c r="M28" s="62">
+        <v>0</v>
+      </c>
+      <c r="N28" s="62">
+        <v>0</v>
+      </c>
+      <c r="O28" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="56" t="s">
-        <v>72</v>
+      <c r="B29" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -8386,26 +8340,26 @@
       <c r="K29" s="11">
         <v>0</v>
       </c>
-      <c r="L29" s="63">
+      <c r="L29" s="62">
         <f>food_insecure*(frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
         <v>1.63296E-2</v>
       </c>
-      <c r="M29" s="63">
+      <c r="M29" s="62">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="N29" s="63">
+      <c r="N29" s="62">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="O29" s="63">
+      <c r="O29" s="62">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="56" t="s">
-        <v>73</v>
+      <c r="B30" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -8434,26 +8388,26 @@
       <c r="K30" s="11">
         <v>0</v>
       </c>
-      <c r="L30" s="63">
+      <c r="L30" s="62">
         <f>food_insecure*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>6.9983999999999992E-3</v>
       </c>
-      <c r="M30" s="63">
+      <c r="M30" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N30" s="63">
+      <c r="N30" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O30" s="63">
+      <c r="O30" s="62">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="56" t="s">
-        <v>74</v>
+      <c r="B31" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -8482,23 +8436,23 @@
       <c r="K31" s="11">
         <v>0</v>
       </c>
-      <c r="L31" s="63">
+      <c r="L31" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*1*school_attendance</f>
         <v>2.2527999999999999E-2</v>
       </c>
-      <c r="M31" s="63">
-        <v>0</v>
-      </c>
-      <c r="N31" s="63">
-        <v>0</v>
-      </c>
-      <c r="O31" s="63">
+      <c r="M31" s="62">
+        <v>0</v>
+      </c>
+      <c r="N31" s="62">
+        <v>0</v>
+      </c>
+      <c r="O31" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="56" t="s">
-        <v>75</v>
+      <c r="B32" s="55" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="2">
         <v>0</v>
@@ -8527,26 +8481,26 @@
       <c r="K32" s="11">
         <v>0</v>
       </c>
-      <c r="L32" s="63">
+      <c r="L32" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
         <v>2.0321280000000001E-2</v>
       </c>
-      <c r="M32" s="63">
+      <c r="M32" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="N32" s="63">
+      <c r="N32" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="O32" s="63">
+      <c r="O32" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="56" t="s">
-        <v>76</v>
+      <c r="B33" s="55" t="s">
+        <v>72</v>
       </c>
       <c r="C33" s="2">
         <v>0</v>
@@ -8575,26 +8529,26 @@
       <c r="K33" s="11">
         <v>0</v>
       </c>
-      <c r="L33" s="63">
+      <c r="L33" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
         <v>8.7091200000000007E-3</v>
       </c>
-      <c r="M33" s="63">
+      <c r="M33" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="N33" s="63">
+      <c r="N33" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="O33" s="63">
+      <c r="O33" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="56" t="s">
-        <v>77</v>
+      <c r="B34" s="55" t="s">
+        <v>73</v>
       </c>
       <c r="C34" s="2">
         <v>0</v>
@@ -8623,26 +8577,26 @@
       <c r="K34" s="11">
         <v>0</v>
       </c>
-      <c r="L34" s="63">
+      <c r="L34" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>1.2441599999999999E-2</v>
       </c>
-      <c r="M34" s="63">
+      <c r="M34" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="N34" s="63">
+      <c r="N34" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="O34" s="63">
+      <c r="O34" s="62">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="56" t="s">
-        <v>90</v>
+      <c r="B35" s="55" t="s">
+        <v>86</v>
       </c>
       <c r="C35" s="2">
         <v>0</v>
@@ -8671,22 +8625,22 @@
       <c r="K35" s="11">
         <v>0</v>
       </c>
-      <c r="L35" s="63">
-        <v>1</v>
-      </c>
-      <c r="M35" s="63">
-        <v>1</v>
-      </c>
-      <c r="N35" s="63">
-        <v>1</v>
-      </c>
-      <c r="O35" s="63">
+      <c r="L35" s="62">
+        <v>1</v>
+      </c>
+      <c r="M35" s="62">
+        <v>1</v>
+      </c>
+      <c r="N35" s="62">
+        <v>1</v>
+      </c>
+      <c r="O35" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="56" t="s">
-        <v>122</v>
+      <c r="B36" s="55" t="s">
+        <v>118</v>
       </c>
       <c r="C36" s="2">
         <v>0</v>
@@ -8715,16 +8669,16 @@
       <c r="K36" s="11">
         <v>0</v>
       </c>
-      <c r="L36" s="65">
-        <v>1</v>
-      </c>
-      <c r="M36" s="65">
-        <v>1</v>
-      </c>
-      <c r="N36" s="65">
-        <v>1</v>
-      </c>
-      <c r="O36" s="65">
+      <c r="L36" s="64">
+        <v>1</v>
+      </c>
+      <c r="M36" s="64">
+        <v>1</v>
+      </c>
+      <c r="N36" s="64">
+        <v>1</v>
+      </c>
+      <c r="O36" s="64">
         <v>1</v>
       </c>
     </row>
@@ -8740,274 +8694,274 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="56" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="56" t="s">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="55" t="s">
         <v>114</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="56" t="s">
-        <v>118</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -9051,7 +9005,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2">
         <v>0</v>
@@ -9095,7 +9049,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -9139,7 +9093,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -9184,64 +9138,64 @@
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5"/>
       <c r="B48" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="64">
+        <v>35</v>
+      </c>
+      <c r="C48" s="63">
         <f t="shared" ref="C48:O48" si="1">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="D48" s="64">
+      <c r="D48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G48" s="64">
+      <c r="G48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H48" s="64">
+      <c r="H48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J48" s="64">
+      <c r="J48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K48" s="64">
+      <c r="K48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="L48" s="64">
+      <c r="L48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="M48" s="64">
+      <c r="M48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N48" s="64">
+      <c r="N48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O48" s="64">
+      <c r="O48" s="63">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C49" s="17">
         <v>0</v>
@@ -9249,54 +9203,54 @@
       <c r="D49" s="17">
         <v>0</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="63">
         <f t="shared" ref="E49:O49" si="2">frac_wheat</f>
         <v>0.12</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G49" s="64">
+      <c r="G49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="J49" s="64">
+      <c r="J49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K49" s="64">
+      <c r="K49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L49" s="64">
+      <c r="L49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="M49" s="64">
+      <c r="M49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="N49" s="64">
+      <c r="N49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="O49" s="64">
+      <c r="O49" s="63">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="50" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C50" s="17">
         <v>0</v>
@@ -9304,54 +9258,54 @@
       <c r="D50" s="17">
         <v>0</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="63">
         <f t="shared" ref="E50:O50" si="3">frac_maize</f>
         <v>0.05</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G50" s="64">
+      <c r="G50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="I50" s="64">
+      <c r="I50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="K50" s="64">
+      <c r="K50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="L50" s="64">
+      <c r="L50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="M50" s="64">
+      <c r="M50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="N50" s="64">
+      <c r="N50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O50" s="64">
+      <c r="O50" s="63">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="51" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C51" s="17">
         <v>0</v>
@@ -9359,54 +9313,54 @@
       <c r="D51" s="17">
         <v>0</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="63">
         <f t="shared" ref="E51:O51" si="4">frac_rice</f>
         <v>0.8</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="G51" s="64">
+      <c r="G51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="H51" s="64">
+      <c r="H51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="I51" s="64">
+      <c r="I51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J51" s="64">
+      <c r="J51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="K51" s="64">
+      <c r="K51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="L51" s="64">
+      <c r="L51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="M51" s="64">
+      <c r="M51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="N51" s="64">
+      <c r="N51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O51" s="64">
+      <c r="O51" s="63">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -9449,7 +9403,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="56"/>
+      <c r="B53" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D55B6C65-5361-A74E-8DD2-46797FAF5C0F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{50A48E2E-96A0-C347-8378-5EDD1535F14F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Programs family planning" sheetId="54" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="abortion">'Baseline year population inputs'!$C$26</definedName>
+    <definedName name="abortion">'Baseline year population inputs'!$C$29</definedName>
     <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$8</definedName>
     <definedName name="food_insecure">'Baseline year population inputs'!$C$3</definedName>
     <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$7</definedName>
@@ -49,18 +49,18 @@
     <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!$C$49</definedName>
     <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$11</definedName>
     <definedName name="frac_wheat">'Baseline year population inputs'!$C$13</definedName>
-    <definedName name="infant_mortality">'Baseline year population inputs'!$C$29</definedName>
+    <definedName name="infant_mortality">'Baseline year population inputs'!$C$26</definedName>
     <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$47</definedName>
-    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$25</definedName>
-    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$28</definedName>
+    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$28</definedName>
+    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$25</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$6</definedName>
     <definedName name="preterm_AGA">'Baseline year population inputs'!$C$34</definedName>
     <definedName name="preterm_SGA">'Baseline year population inputs'!$C$33</definedName>
     <definedName name="school_attendance">'Baseline year population inputs'!$C$5</definedName>
-    <definedName name="stillbirth">'Baseline year population inputs'!$C$27</definedName>
+    <definedName name="stillbirth">'Baseline year population inputs'!$C$30</definedName>
     <definedName name="term_AGA">'Baseline year population inputs'!$C$36</definedName>
     <definedName name="term_SGA">'Baseline year population inputs'!$C$35</definedName>
-    <definedName name="U5_mortality">'Baseline year population inputs'!$C$30</definedName>
+    <definedName name="U5_mortality">'Baseline year population inputs'!$C$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="215">
   <si>
     <t>year</t>
   </si>
@@ -609,9 +609,6 @@
     <t>Stillbirths (per 1,000 total births)</t>
   </si>
   <si>
-    <t>Maternal mortality (per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Fraction of subsistence farming</t>
   </si>
   <si>
@@ -813,15 +810,9 @@
     <t>Children 0-5 months</t>
   </si>
   <si>
-    <t>Maternal (deaths per 100,000 births)</t>
-  </si>
-  <si>
     <t>Under five (deaths per 1,000 births)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mortality </t>
-  </si>
-  <si>
     <t>Delayed cord clamping</t>
   </si>
   <si>
@@ -883,6 +874,12 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Maternal (deaths per 1,000 births)</t>
+  </si>
+  <si>
+    <t>Maternal mortality (per 1,000 live births)</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1810,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1948,13 +1945,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4138,8 +4130,8 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4151,13 +4143,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>211</v>
+        <v>130</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4167,7 +4159,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="27">
         <v>0.36</v>
@@ -4175,7 +4167,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="26">
         <v>0.1</v>
@@ -4183,7 +4175,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="26">
         <v>0.35199999999999998</v>
@@ -4191,7 +4183,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="27">
         <v>0.5</v>
@@ -4199,7 +4191,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="27">
         <v>0.3</v>
@@ -4207,7 +4199,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="27">
         <v>0.1</v>
@@ -4225,7 +4217,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="26">
         <v>0.3</v>
@@ -4233,7 +4225,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="26">
         <v>0.8</v>
@@ -4241,7 +4233,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="26">
         <v>0.12</v>
@@ -4249,7 +4241,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="26">
         <v>0.05</v>
@@ -4257,7 +4249,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="29">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4269,12 +4261,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="26">
         <v>0.29978973218277538</v>
@@ -4282,7 +4274,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="26">
         <v>0.52556568434139284</v>
@@ -4290,7 +4282,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="26">
         <v>0.16210210664201097</v>
@@ -4298,7 +4290,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="26">
         <v>1.2542476833820825E-2</v>
@@ -4307,7 +4299,7 @@
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4318,63 +4310,63 @@
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="22" t="s">
-        <v>124</v>
+      <c r="B25" s="71" t="s">
+        <v>122</v>
       </c>
       <c r="C25" s="28">
-        <v>176</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0.13</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="C26" s="28">
+        <v>34.68</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="58">
-        <v>25.36</v>
-      </c>
+      <c r="B27" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="28">
+        <v>39.32</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="74" t="s">
-        <v>122</v>
+      <c r="B28" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="C28" s="28">
-        <v>25.4</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="28">
-        <v>34.68</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="C29" s="26">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="22" t="s">
-        <v>120</v>
+      <c r="B30" s="71" t="s">
+        <v>123</v>
       </c>
       <c r="C30" s="28">
-        <v>39.32</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+        <v>25.36</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D32" s="23"/>
     </row>
@@ -4428,7 +4420,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="7">
         <v>2.4300000000000002</v>
@@ -4437,7 +4429,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" s="7">
         <v>2.4300000000000002</v>
@@ -4445,7 +4437,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="7">
         <v>3.71</v>
@@ -4453,7 +4445,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -4461,7 +4453,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" s="7">
         <v>1.92</v>
@@ -4469,12 +4461,12 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="27">
         <v>0.2</v>
@@ -4482,7 +4474,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="27">
         <v>0.42</v>
@@ -4490,7 +4482,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" s="27">
         <v>0.9</v>
@@ -4498,7 +4490,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C49" s="27">
         <v>0.1</v>
@@ -4521,199 +4513,199 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="66" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="66"/>
-    <col min="5" max="5" width="17.5" style="66" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="66"/>
+    <col min="1" max="1" width="33.6640625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="63" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="63"/>
+    <col min="5" max="5" width="17.5" style="63" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>209</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="71" t="s">
+      <c r="A1" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="B1" s="68" t="s">
         <v>205</v>
       </c>
+      <c r="C1" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="69">
+      <c r="A2" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="66">
         <v>0.9</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="65">
         <v>0.09</v>
       </c>
-      <c r="D2" s="66">
+      <c r="D2" s="63">
         <v>0.8</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="63">
         <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="69">
-        <v>1</v>
-      </c>
-      <c r="C3" s="68">
+      <c r="A3" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="66">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65">
         <v>0.02</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="63">
         <v>1.9</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="63">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="69">
-        <v>1</v>
-      </c>
-      <c r="C4" s="68">
+      <c r="A4" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="66">
+        <v>1</v>
+      </c>
+      <c r="C4" s="65">
         <v>0.08</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="63">
         <v>2</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="63">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="69">
-        <v>1</v>
-      </c>
-      <c r="C5" s="68">
+      <c r="A5" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="66">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
         <v>0.18</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="63">
         <v>0.7</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="63">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="B6" s="69">
-        <v>1</v>
-      </c>
-      <c r="C6" s="68">
+      <c r="A6" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="66">
+        <v>1</v>
+      </c>
+      <c r="C6" s="65">
         <v>0.02</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="63">
         <v>0.7</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="63">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="69">
+      <c r="A7" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="66">
         <v>0.93</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="65">
         <v>0.45</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="63">
         <v>0.9</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="63">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="69">
+      <c r="A8" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="66">
         <v>0.5</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="65">
         <v>0.03</v>
       </c>
-      <c r="D8" s="66">
-        <v>0</v>
-      </c>
-      <c r="E8" s="66">
+      <c r="D8" s="63">
+        <v>0</v>
+      </c>
+      <c r="E8" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="70" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="69">
+      <c r="A9" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="66">
         <v>0.5</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="65">
         <v>0.11</v>
       </c>
-      <c r="D9" s="66">
-        <v>0</v>
-      </c>
-      <c r="E9" s="66">
+      <c r="D9" s="63">
+        <v>0</v>
+      </c>
+      <c r="E9" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="70" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="69">
+      <c r="A10" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="66">
         <v>0.98</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <v>0.01</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="63">
         <v>0.6</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="63">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="67"/>
+      <c r="C11" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4729,7 +4721,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4741,7 +4733,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>1</v>
@@ -5376,7 +5368,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5393,10 +5385,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>50</v>
@@ -5411,16 +5403,16 @@
         <v>53</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>145</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K1" s="59" t="s">
         <v>168</v>
+      </c>
+      <c r="K1" s="57" t="s">
+        <v>167</v>
       </c>
       <c r="L1" s="34" t="s">
         <v>37</v>
@@ -5451,7 +5443,7 @@
       <c r="H2" s="32">
         <v>173766200</v>
       </c>
-      <c r="I2" s="60">
+      <c r="I2" s="33">
         <f t="shared" ref="I2:I15" si="0">D2+E2+F2+G2</f>
         <v>44709100</v>
       </c>
@@ -5459,7 +5451,7 @@
         <f t="shared" ref="J2:J15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
         <v>3650590.4685349194</v>
       </c>
-      <c r="K2" s="61">
+      <c r="K2" s="58">
         <f t="shared" ref="K2:K15" si="2">D2/I2</f>
         <v>0.19650809343064388</v>
       </c>
@@ -5493,7 +5485,7 @@
       <c r="H3" s="32">
         <v>175848400</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="33">
         <f t="shared" si="0"/>
         <v>45692200</v>
       </c>
@@ -5501,7 +5493,7 @@
         <f t="shared" si="1"/>
         <v>3622037.632993402</v>
       </c>
-      <c r="K3" s="61">
+      <c r="K3" s="58">
         <f t="shared" si="2"/>
         <v>0.19560012431005733</v>
       </c>
@@ -5535,7 +5527,7 @@
       <c r="H4" s="32">
         <v>177930600</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="33">
         <f t="shared" si="0"/>
         <v>46675300</v>
       </c>
@@ -5543,7 +5535,7 @@
         <f t="shared" si="1"/>
         <v>3591353.7424015561</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="58">
         <f t="shared" si="2"/>
         <v>0.19473040344679096</v>
       </c>
@@ -5577,7 +5569,7 @@
       <c r="H5" s="32">
         <v>180012800</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="33">
         <f t="shared" si="0"/>
         <v>47658400.000000015</v>
       </c>
@@ -5585,7 +5577,7 @@
         <f t="shared" si="1"/>
         <v>3558361.8967828737</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="58">
         <f t="shared" si="2"/>
         <v>0.19389656387960991</v>
       </c>
@@ -5619,7 +5611,7 @@
       <c r="H6" s="32">
         <v>182095000</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="33">
         <f t="shared" si="0"/>
         <v>48641500.000000015</v>
       </c>
@@ -5627,7 +5619,7 @@
         <f t="shared" si="1"/>
         <v>3527004.6069471212</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="58">
         <f t="shared" si="2"/>
         <v>0.1930964300031866</v>
       </c>
@@ -5661,7 +5653,7 @@
       <c r="H7" s="32">
         <v>183822800</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="33">
         <f t="shared" si="0"/>
         <v>49111300.000000015</v>
       </c>
@@ -5669,7 +5661,7 @@
         <f t="shared" si="1"/>
         <v>3493354.6934158299</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="58">
         <f t="shared" si="2"/>
         <v>0.1833447699409301</v>
       </c>
@@ -5703,7 +5695,7 @@
       <c r="H8" s="32">
         <v>185550600</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="33">
         <f t="shared" si="0"/>
         <v>49581100.000000007</v>
       </c>
@@ -5711,7 +5703,7 @@
         <f t="shared" si="1"/>
         <v>3457383.8521927581</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="58">
         <f t="shared" si="2"/>
         <v>0.17377791134121673</v>
       </c>
@@ -5745,7 +5737,7 @@
       <c r="H9" s="32">
         <v>187278400</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="33">
         <f t="shared" si="0"/>
         <v>50050900.000000007</v>
       </c>
@@ -5753,7 +5745,7 @@
         <f t="shared" si="1"/>
         <v>3419187.609265219</v>
       </c>
-      <c r="K9" s="61">
+      <c r="K9" s="58">
         <f t="shared" si="2"/>
         <v>0.16439065031797631</v>
       </c>
@@ -5787,7 +5779,7 @@
       <c r="H10" s="32">
         <v>189006200</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="33">
         <f t="shared" si="0"/>
         <v>50520700.000000007</v>
       </c>
@@ -5795,7 +5787,7 @@
         <f t="shared" si="1"/>
         <v>3378798.9859621613</v>
       </c>
-      <c r="K10" s="61">
+      <c r="K10" s="58">
         <f t="shared" si="2"/>
         <v>0.15517797655218554</v>
       </c>
@@ -5829,7 +5821,7 @@
       <c r="H11" s="32">
         <v>190734000</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="33">
         <f t="shared" si="0"/>
         <v>50990500</v>
       </c>
@@ -5837,7 +5829,7 @@
         <f t="shared" si="1"/>
         <v>3344756.3544830228</v>
       </c>
-      <c r="K11" s="61">
+      <c r="K11" s="58">
         <f t="shared" si="2"/>
         <v>0.1461350643747365</v>
       </c>
@@ -5871,7 +5863,7 @@
       <c r="H12" s="32">
         <v>192287600</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="33">
         <f t="shared" si="0"/>
         <v>51333400</v>
       </c>
@@ -5879,7 +5871,7 @@
         <f t="shared" si="1"/>
         <v>3308667.5799422786</v>
       </c>
-      <c r="K12" s="61">
+      <c r="K12" s="58">
         <f t="shared" si="2"/>
         <v>0.14438357872262508</v>
       </c>
@@ -5913,7 +5905,7 @@
       <c r="H13" s="32">
         <v>193841200</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="33">
         <f t="shared" si="0"/>
         <v>51676300</v>
       </c>
@@ -5921,7 +5913,7 @@
         <f t="shared" si="1"/>
         <v>3270569.2216684073</v>
       </c>
-      <c r="K13" s="61">
+      <c r="K13" s="58">
         <f t="shared" si="2"/>
         <v>0.14265533716616713</v>
       </c>
@@ -5955,7 +5947,7 @@
       <c r="H14" s="32">
         <v>195394800</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="33">
         <f t="shared" si="0"/>
         <v>52019200</v>
       </c>
@@ -5963,7 +5955,7 @@
         <f t="shared" si="1"/>
         <v>3230515.5289875376</v>
       </c>
-      <c r="K14" s="61">
+      <c r="K14" s="58">
         <f t="shared" si="2"/>
         <v>0.14094988004429135</v>
       </c>
@@ -5997,7 +5989,7 @@
       <c r="H15" s="32">
         <v>196948400</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="33">
         <f t="shared" si="0"/>
         <v>52362100</v>
       </c>
@@ -6005,7 +5997,7 @@
         <f t="shared" si="1"/>
         <v>3188527.7298968509</v>
       </c>
-      <c r="K15" s="61">
+      <c r="K15" s="58">
         <f t="shared" si="2"/>
         <v>0.139266759736527</v>
       </c>
@@ -6039,7 +6031,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6062,10 +6054,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="52">
         <f>1-SUM(C3:C5)</f>
@@ -6091,7 +6083,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="42">
         <v>0.22600000000000001</v>
@@ -6112,7 +6104,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="42">
         <v>0.10199999999999999</v>
@@ -6133,7 +6125,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="42">
         <v>3.7999999999999999E-2</v>
@@ -6169,10 +6161,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="52">
         <f t="shared" ref="C8:G8" si="1">1-SUM(C9:C11)</f>
@@ -6197,7 +6189,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C9" s="42">
         <v>0.23300000000000001</v>
@@ -6217,7 +6209,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="42">
         <v>0.15</v>
@@ -6237,7 +6229,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" s="42">
         <v>4.9000000000000002E-2</v>
@@ -6315,7 +6307,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="53">
         <v>0.1</v>
@@ -6454,7 +6446,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -6479,8 +6471,8 @@
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>212</v>
+      <c r="B2" s="72" t="s">
+        <v>209</v>
       </c>
       <c r="C2" s="42">
         <v>0.80299999999999994</v>
@@ -6499,8 +6491,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="75" t="s">
-        <v>213</v>
+      <c r="B3" s="72" t="s">
+        <v>210</v>
       </c>
       <c r="C3" s="42">
         <v>6.8000000000000005E-2</v>
@@ -6519,8 +6511,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="75" t="s">
-        <v>214</v>
+      <c r="B4" s="72" t="s">
+        <v>211</v>
       </c>
       <c r="C4" s="42">
         <v>0.107</v>
@@ -6539,8 +6531,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="75" t="s">
-        <v>215</v>
+      <c r="B5" s="72" t="s">
+        <v>212</v>
       </c>
       <c r="C5" s="52">
         <f>1-SUM(C2:C4)</f>
@@ -6576,7 +6568,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6587,10 +6579,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -6622,10 +6614,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -6642,10 +6634,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -6662,10 +6654,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -6679,7 +6671,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="20" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -6693,7 +6685,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="20" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -6705,15 +6697,12 @@
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="20"/>
-    </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
@@ -6727,7 +6716,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
@@ -6741,10 +6730,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>192</v>
+        <v>93</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>191</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -6757,8 +6746,8 @@
       <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B14" s="56" t="s">
-        <v>193</v>
+      <c r="B14" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -6797,18 +6786,18 @@
   <sheetData>
     <row r="1" spans="1:3" s="47" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>210</v>
+        <v>160</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>207</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>94</v>
@@ -6883,7 +6872,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="50">
         <f>SUM(C2:C10)</f>
@@ -6931,7 +6920,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="50">
         <f>SUM(C13:C16)</f>
@@ -7067,7 +7056,7 @@
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7230,11 +7219,11 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -7268,7 +7257,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -7276,11 +7265,11 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="59">
         <f>food_insecure*(1-frac_malaria_risk)</f>
         <v>0.32400000000000001</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="59">
         <f>food_insecure*(1-frac_malaria_risk)</f>
         <v>0.32400000000000001</v>
       </c>
@@ -7314,7 +7303,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -7322,11 +7311,11 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="59">
         <f>food_insecure*frac_malaria_risk</f>
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="59">
         <f>food_insecure*frac_malaria_risk</f>
         <v>3.5999999999999997E-2</v>
       </c>
@@ -7360,7 +7349,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -7368,15 +7357,15 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="59">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="59">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="59">
         <f>(1-frac_malaria_risk)</f>
         <v>0.9</v>
       </c>
@@ -7407,7 +7396,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -7415,15 +7404,15 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="59">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="59">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="59">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
@@ -7459,19 +7448,19 @@
       <c r="C9" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -7590,9 +7579,9 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="65">
+        <v>192</v>
+      </c>
+      <c r="C12" s="62">
         <v>1</v>
       </c>
       <c r="D12" s="17">
@@ -7657,19 +7646,19 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="I14" s="62">
+      <c r="I14" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="K14" s="62">
+      <c r="K14" s="59">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
@@ -7706,19 +7695,19 @@
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="60">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="60">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J15" s="60">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="60">
         <f>1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
@@ -7754,19 +7743,19 @@
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="59">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I16" s="62">
+      <c r="I16" s="59">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="59">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="K16" s="62">
+      <c r="K16" s="59">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
@@ -7802,19 +7791,19 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="60">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="60">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="J17" s="63">
+      <c r="J17" s="60">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="60">
         <f xml:space="preserve"> 1-frac_malaria_risk</f>
         <v>0.9</v>
       </c>
@@ -7850,19 +7839,19 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="60">
         <f t="shared" ref="H18:K19" si="0">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="60">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J18" s="63">
+      <c r="J18" s="60">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="60">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -7898,19 +7887,19 @@
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="60">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="60">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="J19" s="63">
+      <c r="J19" s="60">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="60">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -7964,17 +7953,17 @@
       <c r="K21" s="11">
         <v>0</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*1*school_attendance</f>
         <v>0.114048</v>
       </c>
-      <c r="M21" s="62">
-        <v>0</v>
-      </c>
-      <c r="N21" s="62">
-        <v>0</v>
-      </c>
-      <c r="O21" s="62">
+      <c r="M21" s="59">
+        <v>0</v>
+      </c>
+      <c r="N21" s="59">
+        <v>0</v>
+      </c>
+      <c r="O21" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8009,19 +7998,19 @@
       <c r="K22" s="11">
         <v>0</v>
       </c>
-      <c r="L22" s="62">
+      <c r="L22" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
         <v>0.1469664</v>
       </c>
-      <c r="M22" s="62">
+      <c r="M22" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="N22" s="62">
+      <c r="N22" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
-      <c r="O22" s="62">
+      <c r="O22" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
         <v>0.2268</v>
       </c>
@@ -8057,19 +8046,19 @@
       <c r="K23" s="11">
         <v>0</v>
       </c>
-      <c r="L23" s="62">
+      <c r="L23" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>6.2985600000000003E-2</v>
       </c>
-      <c r="M23" s="62">
+      <c r="M23" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N23" s="62">
+      <c r="N23" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O23" s="62">
+      <c r="O23" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
@@ -8105,17 +8094,17 @@
       <c r="K24" s="11">
         <v>0</v>
       </c>
-      <c r="L24" s="62">
+      <c r="L24" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*1*school_attendance</f>
         <v>0.20275200000000002</v>
       </c>
-      <c r="M24" s="62">
-        <v>0</v>
-      </c>
-      <c r="N24" s="62">
-        <v>0</v>
-      </c>
-      <c r="O24" s="62">
+      <c r="M24" s="59">
+        <v>0</v>
+      </c>
+      <c r="N24" s="59">
+        <v>0</v>
+      </c>
+      <c r="O24" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8150,19 +8139,19 @@
       <c r="K25" s="11">
         <v>0</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
         <v>0.18289152000000003</v>
       </c>
-      <c r="M25" s="62">
+      <c r="M25" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="N25" s="62">
+      <c r="N25" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
-      <c r="O25" s="62">
+      <c r="O25" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
         <v>0.28224000000000005</v>
       </c>
@@ -8198,19 +8187,19 @@
       <c r="K26" s="11">
         <v>0</v>
       </c>
-      <c r="L26" s="62">
+      <c r="L26" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
         <v>7.8382080000000007E-2</v>
       </c>
-      <c r="M26" s="62">
+      <c r="M26" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="N26" s="62">
+      <c r="N26" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
-      <c r="O26" s="62">
+      <c r="O26" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
         <v>0.12096000000000001</v>
       </c>
@@ -8246,19 +8235,19 @@
       <c r="K27" s="11">
         <v>0</v>
       </c>
-      <c r="L27" s="62">
+      <c r="L27" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>0.11197440000000002</v>
       </c>
-      <c r="M27" s="62">
+      <c r="M27" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="N27" s="62">
+      <c r="N27" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
-      <c r="O27" s="62">
+      <c r="O27" s="59">
         <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
         <v>0.17280000000000001</v>
       </c>
@@ -8295,17 +8284,17 @@
       <c r="K28" s="11">
         <v>0</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="59">
         <f>food_insecure*(frac_malaria_risk)*1*school_attendance</f>
         <v>1.2671999999999998E-2</v>
       </c>
-      <c r="M28" s="62">
-        <v>0</v>
-      </c>
-      <c r="N28" s="62">
-        <v>0</v>
-      </c>
-      <c r="O28" s="62">
+      <c r="M28" s="59">
+        <v>0</v>
+      </c>
+      <c r="N28" s="59">
+        <v>0</v>
+      </c>
+      <c r="O28" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8340,19 +8329,19 @@
       <c r="K29" s="11">
         <v>0</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="59">
         <f>food_insecure*(frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
         <v>1.63296E-2</v>
       </c>
-      <c r="M29" s="62">
+      <c r="M29" s="59">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="N29" s="62">
+      <c r="N29" s="59">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
-      <c r="O29" s="62">
+      <c r="O29" s="59">
         <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
         <v>2.5199999999999997E-2</v>
       </c>
@@ -8388,19 +8377,19 @@
       <c r="K30" s="11">
         <v>0</v>
       </c>
-      <c r="L30" s="62">
+      <c r="L30" s="59">
         <f>food_insecure*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>6.9983999999999992E-3</v>
       </c>
-      <c r="M30" s="62">
+      <c r="M30" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="N30" s="62">
+      <c r="N30" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="O30" s="62">
+      <c r="O30" s="59">
         <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
         <v>9.7199999999999995E-2</v>
       </c>
@@ -8436,17 +8425,17 @@
       <c r="K31" s="11">
         <v>0</v>
       </c>
-      <c r="L31" s="62">
+      <c r="L31" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*1*school_attendance</f>
         <v>2.2527999999999999E-2</v>
       </c>
-      <c r="M31" s="62">
-        <v>0</v>
-      </c>
-      <c r="N31" s="62">
-        <v>0</v>
-      </c>
-      <c r="O31" s="62">
+      <c r="M31" s="59">
+        <v>0</v>
+      </c>
+      <c r="N31" s="59">
+        <v>0</v>
+      </c>
+      <c r="O31" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8481,19 +8470,19 @@
       <c r="K32" s="11">
         <v>0</v>
       </c>
-      <c r="L32" s="62">
+      <c r="L32" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
         <v>2.0321280000000001E-2</v>
       </c>
-      <c r="M32" s="62">
+      <c r="M32" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="N32" s="62">
+      <c r="N32" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
-      <c r="O32" s="62">
+      <c r="O32" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
         <v>3.1359999999999999E-2</v>
       </c>
@@ -8529,19 +8518,19 @@
       <c r="K33" s="11">
         <v>0</v>
       </c>
-      <c r="L33" s="62">
+      <c r="L33" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
         <v>8.7091200000000007E-3</v>
       </c>
-      <c r="M33" s="62">
+      <c r="M33" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="N33" s="62">
+      <c r="N33" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
-      <c r="O33" s="62">
+      <c r="O33" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
         <v>1.3440000000000001E-2</v>
       </c>
@@ -8577,19 +8566,19 @@
       <c r="K34" s="11">
         <v>0</v>
       </c>
-      <c r="L34" s="62">
+      <c r="L34" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
         <v>1.2441599999999999E-2</v>
       </c>
-      <c r="M34" s="62">
+      <c r="M34" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="N34" s="62">
+      <c r="N34" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="O34" s="62">
+      <c r="O34" s="59">
         <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
         <v>1.9199999999999998E-2</v>
       </c>
@@ -8625,16 +8614,16 @@
       <c r="K35" s="11">
         <v>0</v>
       </c>
-      <c r="L35" s="62">
-        <v>1</v>
-      </c>
-      <c r="M35" s="62">
-        <v>1</v>
-      </c>
-      <c r="N35" s="62">
-        <v>1</v>
-      </c>
-      <c r="O35" s="62">
+      <c r="L35" s="59">
+        <v>1</v>
+      </c>
+      <c r="M35" s="59">
+        <v>1</v>
+      </c>
+      <c r="N35" s="59">
+        <v>1</v>
+      </c>
+      <c r="O35" s="59">
         <v>1</v>
       </c>
     </row>
@@ -8669,16 +8658,16 @@
       <c r="K36" s="11">
         <v>0</v>
       </c>
-      <c r="L36" s="64">
-        <v>1</v>
-      </c>
-      <c r="M36" s="64">
-        <v>1</v>
-      </c>
-      <c r="N36" s="64">
-        <v>1</v>
-      </c>
-      <c r="O36" s="64">
+      <c r="L36" s="61">
+        <v>1</v>
+      </c>
+      <c r="M36" s="61">
+        <v>1</v>
+      </c>
+      <c r="N36" s="61">
+        <v>1</v>
+      </c>
+      <c r="O36" s="61">
         <v>1</v>
       </c>
     </row>
@@ -9140,55 +9129,55 @@
       <c r="B48" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="63">
+      <c r="C48" s="60">
         <f t="shared" ref="C48:O48" si="1">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="D48" s="63">
+      <c r="D48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E48" s="63">
+      <c r="E48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F48" s="63">
+      <c r="F48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="H48" s="63">
+      <c r="H48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I48" s="63">
+      <c r="I48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="J48" s="63">
+      <c r="J48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K48" s="63">
+      <c r="K48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="L48" s="63">
+      <c r="L48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="M48" s="63">
+      <c r="M48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="N48" s="63">
+      <c r="N48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="O48" s="63">
+      <c r="O48" s="60">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
@@ -9203,47 +9192,47 @@
       <c r="D49" s="17">
         <v>0</v>
       </c>
-      <c r="E49" s="63">
+      <c r="E49" s="60">
         <f t="shared" ref="E49:O49" si="2">frac_wheat</f>
         <v>0.12</v>
       </c>
-      <c r="F49" s="63">
+      <c r="F49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G49" s="63">
+      <c r="G49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="H49" s="63">
+      <c r="H49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="I49" s="63">
+      <c r="I49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="J49" s="63">
+      <c r="J49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K49" s="63">
+      <c r="K49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L49" s="63">
+      <c r="L49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="M49" s="63">
+      <c r="M49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="N49" s="63">
+      <c r="N49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="O49" s="63">
+      <c r="O49" s="60">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
@@ -9258,47 +9247,47 @@
       <c r="D50" s="17">
         <v>0</v>
       </c>
-      <c r="E50" s="63">
+      <c r="E50" s="60">
         <f t="shared" ref="E50:O50" si="3">frac_maize</f>
         <v>0.05</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G50" s="63">
+      <c r="G50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="H50" s="63">
+      <c r="H50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="I50" s="63">
+      <c r="I50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J50" s="63">
+      <c r="J50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="K50" s="63">
+      <c r="K50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="L50" s="63">
+      <c r="L50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="M50" s="63">
+      <c r="M50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="N50" s="63">
+      <c r="N50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="O50" s="63">
+      <c r="O50" s="60">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
@@ -9313,47 +9302,47 @@
       <c r="D51" s="17">
         <v>0</v>
       </c>
-      <c r="E51" s="63">
+      <c r="E51" s="60">
         <f t="shared" ref="E51:O51" si="4">frac_rice</f>
         <v>0.8</v>
       </c>
-      <c r="F51" s="63">
+      <c r="F51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="G51" s="63">
+      <c r="G51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="H51" s="63">
+      <c r="H51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="I51" s="63">
+      <c r="I51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J51" s="63">
+      <c r="J51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="K51" s="63">
+      <c r="K51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="L51" s="63">
+      <c r="L51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="M51" s="63">
+      <c r="M51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="N51" s="63">
+      <c r="N51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O51" s="63">
+      <c r="O51" s="60">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{50A48E2E-96A0-C347-8378-5EDD1535F14F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{36EAB655-899C-6B4E-962F-BE91711EA83D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4840" yWindow="-20400" windowWidth="25600" windowHeight="15540" tabRatio="961" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -4130,8 +4130,8 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6019,8 +6019,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6060,24 +6060,24 @@
         <v>151</v>
       </c>
       <c r="C2" s="52">
-        <f>1-SUM(C3:C5)</f>
-        <v>0.63400000000000001</v>
+        <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE)</f>
+        <v>0.53200836191885958</v>
       </c>
       <c r="D2" s="52">
-        <f t="shared" ref="D2:G2" si="0">1-SUM(D3:D5)</f>
-        <v>0.63400000000000001</v>
+        <f t="shared" ref="D2:G2" si="0">1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE)</f>
+        <v>0.53200836191885958</v>
       </c>
       <c r="E2" s="52">
         <f t="shared" si="0"/>
-        <v>0.49</v>
+        <v>0.44274864978114037</v>
       </c>
       <c r="F2" s="52">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.24285617786005109</v>
       </c>
       <c r="G2" s="52">
         <f t="shared" si="0"/>
-        <v>0.25349999999999995</v>
+        <v>0.2168920625348294</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6085,20 +6085,25 @@
       <c r="B3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="42">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="D3" s="42">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E3" s="42">
-        <v>0.314</v>
-      </c>
-      <c r="F3" s="42">
-        <v>0.33899999999999997</v>
-      </c>
-      <c r="G3" s="42">
-        <v>0.33250000000000002</v>
+      <c r="C3" s="52">
+        <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5)</f>
+        <v>0.3279916380811404</v>
+      </c>
+      <c r="D3" s="52">
+        <f t="shared" ref="D3:G3" si="1">_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5)</f>
+        <v>0.3279916380811404</v>
+      </c>
+      <c r="E3" s="52">
+        <f t="shared" si="1"/>
+        <v>0.36125135021885962</v>
+      </c>
+      <c r="F3" s="52">
+        <f t="shared" si="1"/>
+        <v>0.3761438221399489</v>
+      </c>
+      <c r="G3" s="52">
+        <f t="shared" si="1"/>
+        <v>0.36910793746517057</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6167,44 +6172,49 @@
         <v>154</v>
       </c>
       <c r="C8" s="52">
-        <f t="shared" ref="C8:G8" si="1">1-SUM(C9:C11)</f>
-        <v>0.56800000000000006</v>
+        <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE)</f>
+        <v>0.43848891822683433</v>
       </c>
       <c r="D8" s="52">
-        <f t="shared" si="1"/>
-        <v>0.56800000000000006</v>
+        <f t="shared" ref="D8:G8" si="2">1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE)</f>
+        <v>0.43848891822683433</v>
       </c>
       <c r="E8" s="52">
-        <f t="shared" si="1"/>
-        <v>0.58650000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.46325746477389407</v>
       </c>
       <c r="F8" s="52">
-        <f t="shared" si="1"/>
-        <v>0.54900000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.51282536329943151</v>
       </c>
       <c r="G8" s="52">
-        <f t="shared" si="1"/>
-        <v>0.49</v>
+        <f t="shared" si="2"/>
+        <v>0.55784394006702964</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="42">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="D9" s="42">
-        <v>0.23300000000000001</v>
-      </c>
-      <c r="E9" s="42">
-        <v>0.23149999999999998</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="G9" s="42">
-        <v>0.38400000000000001</v>
+      <c r="C9" s="52">
+        <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11)</f>
+        <v>0.36251108177316566</v>
+      </c>
+      <c r="D9" s="52">
+        <f t="shared" ref="D9:G9" si="3">_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11)</f>
+        <v>0.36251108177316566</v>
+      </c>
+      <c r="E9" s="52">
+        <f t="shared" si="3"/>
+        <v>0.35474253522610594</v>
+      </c>
+      <c r="F9" s="52">
+        <f t="shared" si="3"/>
+        <v>0.33617463670056846</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" si="3"/>
+        <v>0.31615605993297041</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6354,55 +6364,55 @@
         <v>87</v>
       </c>
       <c r="C15" s="52">
-        <f t="shared" ref="C15:O15" si="2">iron_deficiency_anaemia*C14</f>
+        <f t="shared" ref="C15:O15" si="4">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="D15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="E15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.31079999999999997</v>
       </c>
       <c r="F15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.23100000000000001</v>
       </c>
       <c r="G15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.17934</v>
       </c>
       <c r="H15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20222999999999999</v>
       </c>
       <c r="I15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20222999999999999</v>
       </c>
       <c r="J15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20222999999999999</v>
       </c>
       <c r="K15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.20222999999999999</v>
       </c>
       <c r="L15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18257399999999999</v>
       </c>
       <c r="M15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18257399999999999</v>
       </c>
       <c r="N15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18257399999999999</v>
       </c>
       <c r="O15" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.18257399999999999</v>
       </c>
     </row>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/applications/master/data/national/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{36EAB655-899C-6B4E-962F-BE91711EA83D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C8C53AB1-FE9C-834D-9746-34B55C4FDC57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="-20400" windowWidth="25600" windowHeight="15540" tabRatio="961" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,17 @@
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="Fertility risks" sheetId="42" r:id="rId7"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId8"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId9"/>
-    <sheet name="Programs family planning" sheetId="54" r:id="rId10"/>
+    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId8"/>
+    <sheet name="IYCF cost" sheetId="57" r:id="rId9"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
+    <sheet name="Reference programs" sheetId="59" r:id="rId11"/>
+    <sheet name="IYCF packages" sheetId="55" r:id="rId12"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId13"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
+    <sheet name="Programs family planning" sheetId="54" r:id="rId15"/>
   </sheets>
   <definedNames>
+    <definedName name="abortion" localSheetId="11">'Baseline year population inputs'!$C$26</definedName>
     <definedName name="abortion">'Baseline year population inputs'!$C$29</definedName>
     <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$8</definedName>
     <definedName name="food_insecure">'Baseline year population inputs'!$C$3</definedName>
@@ -57,6 +63,7 @@
     <definedName name="preterm_AGA">'Baseline year population inputs'!$C$34</definedName>
     <definedName name="preterm_SGA">'Baseline year population inputs'!$C$33</definedName>
     <definedName name="school_attendance">'Baseline year population inputs'!$C$5</definedName>
+    <definedName name="stillbirth" localSheetId="11">'Baseline year population inputs'!$C$27</definedName>
     <definedName name="stillbirth">'Baseline year population inputs'!$C$30</definedName>
     <definedName name="term_AGA">'Baseline year population inputs'!$C$36</definedName>
     <definedName name="term_SGA">'Baseline year population inputs'!$C$35</definedName>
@@ -72,6 +79,260 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{0F3D7585-AEE5-E942-9F79-E97E7B1F04C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Only have IFAS</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E06AC39A-4136-7746-A8F8-FB3A8167FF72}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.5*unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{AFCB412D-7279-764A-80D8-14D46A4E6FBF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.5* unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{441B7DF5-20BC-1E4B-897D-77225B26BECE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Totally fictional</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one intervention cannot exceed 1-cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one program cannot exceed cov of another</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If user wants this, it must be checked for </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>all populations</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -114,7 +375,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -157,7 +418,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -235,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="236">
   <si>
     <t>year</t>
   </si>
@@ -880,6 +1141,69 @@
   </si>
   <si>
     <t>Maternal mortality (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>IYCF 3</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>IYCF 2</t>
+  </si>
+  <si>
+    <t>IYCF 1</t>
+  </si>
+  <si>
+    <t>Mass media</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Health facility</t>
+  </si>
+  <si>
+    <t>Target population</t>
+  </si>
+  <si>
+    <t>IYCF package</t>
+  </si>
+  <si>
+    <t>Calculated in model</t>
+  </si>
+  <si>
+    <t>Iron fortification of wheat flour</t>
+  </si>
+  <si>
+    <t>Iron fortification of rice</t>
+  </si>
+  <si>
+    <t>Iron fortification of maize</t>
+  </si>
+  <si>
+    <t>unit cost</t>
+  </si>
+  <si>
+    <t>saturation coverage of target population</t>
+  </si>
+  <si>
+    <t>baseline coverage</t>
+  </si>
+  <si>
+    <t>Unit costs by delivery modality and target population</t>
+  </si>
+  <si>
+    <t>Lipid-based nutrition supplements, Lipid-based nutrition supplements (malaria area)</t>
+  </si>
+  <si>
+    <t>Threshold dependency</t>
+  </si>
+  <si>
+    <t>Exclusion dependency</t>
   </si>
 </sst>
 </file>
@@ -892,11 +1216,18 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1018,6 +1349,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1045,7 +1402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1081,903 +1438,1006 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="726">
+  <cellStyleXfs count="727">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="726" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="726" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="726" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="726">
+  <cellStyles count="727">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2703,6 +3163,7 @@
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="725" xr:uid="{C4319F0F-8966-3441-8D44-6E4833EF1C8F}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{C189AE08-A6FC-9442-A2AC-6A65FE674060}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4506,6 +4967,3160 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3709DAA-7BE5-6D41-BA4B-D86E9C571FF9}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="53" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" style="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="80"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="80"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="80"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="80"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="80"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="80"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="80"/>
+      <c r="C41" s="80"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="80"/>
+      <c r="C42" s="80"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC88371-B962-4B4C-A5B4-EAF9442C2DF9}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" style="63" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="80"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="80"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="80"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="80"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="80"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="80"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="80"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="80"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="80"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="80"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA2E456-F1D6-2946-9CF2-AA41D316F6C1}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17" style="63" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="86"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="77"/>
+      <c r="B3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="77"/>
+      <c r="B4" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="77"/>
+      <c r="B6" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="77"/>
+      <c r="B7" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="80"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="77"/>
+      <c r="B10" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="78"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="77"/>
+      <c r="B11" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="77"/>
+      <c r="B12" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="78"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="77"/>
+      <c r="B13" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="77"/>
+      <c r="B14" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="80"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="81"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="77"/>
+      <c r="B17" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="77"/>
+      <c r="B18" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="77"/>
+      <c r="B19" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="78"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="77"/>
+      <c r="B20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="78"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="77"/>
+      <c r="B21" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="40">
+        <f>'Baseline year population inputs'!C39</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C2" s="40">
+        <f>'Baseline year population inputs'!C40</f>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D2" s="40">
+        <f>'Baseline year population inputs'!C41</f>
+        <v>3.71</v>
+      </c>
+      <c r="E2" s="40">
+        <f>'Baseline year population inputs'!C42</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="40">
+        <f>'Baseline year population inputs'!C43</f>
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="40">
+        <f>frac_mam_1month * 2.6</f>
+        <v>0.39</v>
+      </c>
+      <c r="C3" s="40">
+        <f>frac_mam_1_5months * 2.6</f>
+        <v>0.39</v>
+      </c>
+      <c r="D3" s="40">
+        <f>frac_mam_6_11months * 2.6</f>
+        <v>0.33540000000000003</v>
+      </c>
+      <c r="E3" s="40">
+        <f>frac_mam_12_23months * 2.6</f>
+        <v>0.28600000000000003</v>
+      </c>
+      <c r="F3" s="40">
+        <f>frac_mam_24_59months * 2.6</f>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="40">
+        <f>frac_sam_1month * 2.6</f>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="C4" s="40">
+        <f>frac_sam_1_5months * 2.6</f>
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="D4" s="40">
+        <f>frac_sam_6_11months * 2.6</f>
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="E4" s="40">
+        <f>frac_sam_12_23months * 2.6</f>
+        <v>0.10659999999999999</v>
+      </c>
+      <c r="F4" s="40">
+        <f>frac_sam_24_59months * 2.6</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:O53"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="F4" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F5" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="59">
+        <f>food_insecure*frac_malaria_risk</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F6" s="59">
+        <f>food_insecure*frac_malaria_risk</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="59">
+        <f>(1-frac_malaria_risk)</f>
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="59">
+        <f>(1-frac_malaria_risk)</f>
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="59">
+        <f>(1-frac_malaria_risk)</f>
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="59">
+        <f>frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="59">
+        <f>frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="59">
+        <f>frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="E9" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="F9" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="G9" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="62">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="55"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="I14" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="J14" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="K14" s="59">
+        <f>food_insecure</f>
+        <v>0.36</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="60">
+        <f>1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="I15" s="60">
+        <f>1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="J15" s="60">
+        <f>1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="K15" s="60">
+        <f>1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="59">
+        <f>frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="I16" s="59">
+        <f>frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="59">
+        <f>frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="59">
+        <f>frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="60">
+        <f xml:space="preserve"> 1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="I17" s="60">
+        <f xml:space="preserve"> 1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="J17" s="60">
+        <f xml:space="preserve"> 1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="K17" s="60">
+        <f xml:space="preserve"> 1-frac_malaria_risk</f>
+        <v>0.9</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="60">
+        <f t="shared" ref="H18:K19" si="0">frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="I18" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="60">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="55"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*1*school_attendance</f>
+        <v>0.114048</v>
+      </c>
+      <c r="M21" s="59">
+        <v>0</v>
+      </c>
+      <c r="N21" s="59">
+        <v>0</v>
+      </c>
+      <c r="O21" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0</v>
+      </c>
+      <c r="L22" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
+        <v>0.1469664</v>
+      </c>
+      <c r="M22" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
+        <v>0.2268</v>
+      </c>
+      <c r="N22" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
+        <v>0.2268</v>
+      </c>
+      <c r="O22" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
+        <v>0.2268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
+        <v>6.2985600000000003E-2</v>
+      </c>
+      <c r="M23" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="N23" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="O23" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0</v>
+      </c>
+      <c r="L24" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*1*school_attendance</f>
+        <v>0.20275200000000002</v>
+      </c>
+      <c r="M24" s="59">
+        <v>0</v>
+      </c>
+      <c r="N24" s="59">
+        <v>0</v>
+      </c>
+      <c r="O24" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
+        <v>0.18289152000000003</v>
+      </c>
+      <c r="M25" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
+        <v>0.28224000000000005</v>
+      </c>
+      <c r="N25" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
+        <v>0.28224000000000005</v>
+      </c>
+      <c r="O25" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
+        <v>0.28224000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0</v>
+      </c>
+      <c r="L26" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
+        <v>7.8382080000000007E-2</v>
+      </c>
+      <c r="M26" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
+        <v>0.12096000000000001</v>
+      </c>
+      <c r="N26" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
+        <v>0.12096000000000001</v>
+      </c>
+      <c r="O26" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
+        <v>0.12096000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
+        <v>0.11197440000000002</v>
+      </c>
+      <c r="M27" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="N27" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="O27" s="59">
+        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
+        <v>0.17280000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0</v>
+      </c>
+      <c r="L28" s="59">
+        <f>food_insecure*(frac_malaria_risk)*1*school_attendance</f>
+        <v>1.2671999999999998E-2</v>
+      </c>
+      <c r="M28" s="59">
+        <v>0</v>
+      </c>
+      <c r="N28" s="59">
+        <v>0</v>
+      </c>
+      <c r="O28" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="59">
+        <f>food_insecure*(frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
+        <v>1.63296E-2</v>
+      </c>
+      <c r="M29" s="59">
+        <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
+        <v>2.5199999999999997E-2</v>
+      </c>
+      <c r="N29" s="59">
+        <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
+        <v>2.5199999999999997E-2</v>
+      </c>
+      <c r="O29" s="59">
+        <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
+        <v>2.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="59">
+        <f>food_insecure*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
+        <v>6.9983999999999992E-3</v>
+      </c>
+      <c r="M30" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="N30" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="O30" s="59">
+        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
+        <v>9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*1*school_attendance</f>
+        <v>2.2527999999999999E-2</v>
+      </c>
+      <c r="M31" s="59">
+        <v>0</v>
+      </c>
+      <c r="N31" s="59">
+        <v>0</v>
+      </c>
+      <c r="O31" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
+        <v>2.0321280000000001E-2</v>
+      </c>
+      <c r="M32" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
+        <v>3.1359999999999999E-2</v>
+      </c>
+      <c r="N32" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
+        <v>3.1359999999999999E-2</v>
+      </c>
+      <c r="O32" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
+        <v>3.1359999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
+        <v>8.7091200000000007E-3</v>
+      </c>
+      <c r="M33" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="N33" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
+        <v>1.3440000000000001E-2</v>
+      </c>
+      <c r="O33" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
+        <v>1.3440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
+        <v>1.2441599999999999E-2</v>
+      </c>
+      <c r="M34" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="N34" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="O34" s="59">
+        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
+        <v>1.9199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="59">
+        <v>1</v>
+      </c>
+      <c r="M35" s="59">
+        <v>1</v>
+      </c>
+      <c r="N35" s="59">
+        <v>1</v>
+      </c>
+      <c r="O35" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="61">
+        <v>1</v>
+      </c>
+      <c r="M36" s="61">
+        <v>1</v>
+      </c>
+      <c r="N36" s="61">
+        <v>1</v>
+      </c>
+      <c r="O36" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="16"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="60">
+        <f t="shared" ref="C48:O48" si="1">frac_malaria_risk</f>
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="F48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="G48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="I48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="L48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="M48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="N48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="O48" s="60">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0</v>
+      </c>
+      <c r="D49" s="17">
+        <v>0</v>
+      </c>
+      <c r="E49" s="60">
+        <f t="shared" ref="E49:O49" si="2">frac_wheat</f>
+        <v>0.12</v>
+      </c>
+      <c r="F49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="H49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="I49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="J49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="K49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="L49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="M49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="N49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="O49" s="60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0</v>
+      </c>
+      <c r="D50" s="17">
+        <v>0</v>
+      </c>
+      <c r="E50" s="60">
+        <f t="shared" ref="E50:O50" si="3">frac_maize</f>
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="G50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="H50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="I50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="J50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="K50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="L50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="M50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="N50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="O50" s="60">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+      <c r="D51" s="17">
+        <v>0</v>
+      </c>
+      <c r="E51" s="60">
+        <f t="shared" ref="E51:O51" si="4">frac_rice</f>
+        <v>0.8</v>
+      </c>
+      <c r="F51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="G51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="H51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="I51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="J51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="K51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="L51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="M51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="N51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="O51" s="60">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+      <c r="J52" s="10">
+        <v>1</v>
+      </c>
+      <c r="K52" s="10">
+        <v>1</v>
+      </c>
+      <c r="L52" s="10">
+        <v>1</v>
+      </c>
+      <c r="M52" s="10">
+        <v>1</v>
+      </c>
+      <c r="N52" s="10">
+        <v>1</v>
+      </c>
+      <c r="O52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57701AF1-AC9D-D445-9C09-730772E263E4}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -5354,7 +8969,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -6019,7 +9634,7 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6944,111 +10559,804 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22549FF9-D8F2-7743-94EE-9F6E518F0245}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56" style="88" customWidth="1"/>
+    <col min="2" max="2" width="20" style="64" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="63" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="63" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="63"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="97" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="90">
+        <v>0</v>
+      </c>
+      <c r="C2" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="91">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="40">
-        <f>'Baseline year population inputs'!C39</f>
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="C2" s="40">
-        <f>'Baseline year population inputs'!C40</f>
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D2" s="40">
-        <f>'Baseline year population inputs'!C41</f>
-        <v>3.71</v>
-      </c>
-      <c r="E2" s="40">
-        <f>'Baseline year population inputs'!C42</f>
-        <v>3</v>
-      </c>
-      <c r="F2" s="40">
-        <f>'Baseline year population inputs'!C43</f>
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="40">
-        <f>frac_mam_1month * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="C3" s="40">
-        <f>frac_mam_1_5months * 2.6</f>
-        <v>0.39</v>
-      </c>
-      <c r="D3" s="40">
-        <f>frac_mam_6_11months * 2.6</f>
-        <v>0.33540000000000003</v>
-      </c>
-      <c r="E3" s="40">
-        <f>frac_mam_12_23months * 2.6</f>
-        <v>0.28600000000000003</v>
-      </c>
-      <c r="F3" s="40">
-        <f>frac_mam_24_59months * 2.6</f>
-        <v>0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="40">
-        <f>frac_sam_1month * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="C4" s="40">
-        <f>frac_sam_1_5months * 2.6</f>
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="D4" s="40">
-        <f>frac_sam_6_11months * 2.6</f>
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="E4" s="40">
-        <f>frac_sam_12_23months * 2.6</f>
-        <v>0.10659999999999999</v>
-      </c>
-      <c r="F4" s="40">
-        <f>frac_sam_24_59months * 2.6</f>
-        <v>5.4600000000000003E-2</v>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="90">
+        <v>0</v>
+      </c>
+      <c r="C3" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="91">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="96"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="90">
+        <v>0</v>
+      </c>
+      <c r="C4" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="91">
+        <v>1</v>
+      </c>
+      <c r="E4" s="72"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="90">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="91">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="E5" s="72"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="92">
+        <f>SUM('Programs family planning'!E2:E10)</f>
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="E6" s="95"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="90">
+        <v>0</v>
+      </c>
+      <c r="C7" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="91">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="94"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="90">
+        <v>0</v>
+      </c>
+      <c r="C8" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="91">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="94"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="90">
+        <v>0</v>
+      </c>
+      <c r="C9" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="91">
+        <v>0.19</v>
+      </c>
+      <c r="E9" s="94"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="90">
+        <v>0</v>
+      </c>
+      <c r="C10" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="91">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="90">
+        <v>0</v>
+      </c>
+      <c r="C11" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="91">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="90">
+        <v>0</v>
+      </c>
+      <c r="C12" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="91">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="90">
+        <v>0</v>
+      </c>
+      <c r="C13" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="91">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="90">
+        <v>0</v>
+      </c>
+      <c r="C14" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="91">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="90">
+        <v>0</v>
+      </c>
+      <c r="C15" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="91">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="90">
+        <v>0</v>
+      </c>
+      <c r="C16" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="91">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="90">
+        <v>0</v>
+      </c>
+      <c r="C17" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="91">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="90">
+        <v>0</v>
+      </c>
+      <c r="C18" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="91">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="90">
+        <v>0</v>
+      </c>
+      <c r="C19" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="91">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="90">
+        <v>0</v>
+      </c>
+      <c r="C20" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="91">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="90">
+        <v>0</v>
+      </c>
+      <c r="C21" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D21" s="91">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="90">
+        <v>0</v>
+      </c>
+      <c r="C22" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D22" s="91">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="90">
+        <v>0</v>
+      </c>
+      <c r="C23" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="91">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="90">
+        <v>0</v>
+      </c>
+      <c r="C24" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="91">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="90">
+        <v>0</v>
+      </c>
+      <c r="C25" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="91">
+        <v>1.78</v>
+      </c>
+      <c r="E25" s="72"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="90">
+        <v>0</v>
+      </c>
+      <c r="C26" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D26" s="91">
+        <v>1.78</v>
+      </c>
+      <c r="E26" s="72"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="90">
+        <v>0</v>
+      </c>
+      <c r="C27" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="72"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="90">
+        <v>0</v>
+      </c>
+      <c r="C28" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="91">
+        <v>0.13</v>
+      </c>
+      <c r="E28" s="72"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="90">
+        <v>0</v>
+      </c>
+      <c r="C29" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="91">
+        <v>0.74</v>
+      </c>
+      <c r="E29" s="72"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="90">
+        <v>0</v>
+      </c>
+      <c r="C30" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="91">
+        <v>0.18</v>
+      </c>
+      <c r="E30" s="72"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="90">
+        <v>0.2</v>
+      </c>
+      <c r="C31" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="91">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="90">
+        <v>0</v>
+      </c>
+      <c r="C32" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D32" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="90">
+        <v>0</v>
+      </c>
+      <c r="C33" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D33" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="90">
+        <v>0</v>
+      </c>
+      <c r="C34" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="91">
+        <v>2.99</v>
+      </c>
+      <c r="E34" s="72"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="90">
+        <v>0</v>
+      </c>
+      <c r="C35" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D35" s="91">
+        <v>2.99</v>
+      </c>
+      <c r="E35" s="72"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="90">
+        <v>0</v>
+      </c>
+      <c r="C36" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="91">
+        <v>1</v>
+      </c>
+      <c r="E36" s="72"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="90">
+        <v>0</v>
+      </c>
+      <c r="C37" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="91">
+        <v>48</v>
+      </c>
+      <c r="E37" s="72"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="90">
+        <v>0</v>
+      </c>
+      <c r="C38" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D38" s="91">
+        <v>50</v>
+      </c>
+      <c r="E38" s="93"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" s="90">
+        <v>0</v>
+      </c>
+      <c r="C39" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D39" s="91">
+        <v>51</v>
+      </c>
+      <c r="E39" s="72"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="90">
+        <v>0</v>
+      </c>
+      <c r="C40" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D40" s="91">
+        <v>1</v>
+      </c>
+      <c r="E40" s="72"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="90">
+        <v>0</v>
+      </c>
+      <c r="C41" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D41" s="91">
+        <v>1</v>
+      </c>
+      <c r="E41" s="72"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="90">
+        <v>0</v>
+      </c>
+      <c r="C42" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D42" s="92">
+        <f>30*AVERAGE('Incidence of conditions'!B3:F3)</f>
+        <v>10.046400000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="90">
+        <v>0</v>
+      </c>
+      <c r="C43" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D43" s="92">
+        <f>179.97*AVERAGE('Incidence of conditions'!B4:F4)</f>
+        <v>19.933477200000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="90">
+        <v>0</v>
+      </c>
+      <c r="C44" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D44" s="91">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="90">
+        <v>0</v>
+      </c>
+      <c r="C45" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D45" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="90">
+        <v>0</v>
+      </c>
+      <c r="C46" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D46" s="91">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="90">
+        <v>0</v>
+      </c>
+      <c r="C47" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D47" s="91">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="90">
+        <v>0</v>
+      </c>
+      <c r="C48" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D48" s="91">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="90">
+        <v>0</v>
+      </c>
+      <c r="C49" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D49" s="91">
+        <v>231.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="90">
+        <v>0</v>
+      </c>
+      <c r="C50" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D50" s="91">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="90">
+        <v>0</v>
+      </c>
+      <c r="C51" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D51" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="90">
+        <v>0</v>
+      </c>
+      <c r="C52" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D52" s="89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="90">
+        <v>0</v>
+      </c>
+      <c r="C53" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D53" s="89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="90">
+        <v>0</v>
+      </c>
+      <c r="C54" s="90">
+        <v>0.95</v>
+      </c>
+      <c r="D54" s="89" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7059,2354 +11367,131 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36538F24-64B7-8D4B-91C5-47DA6C823CAD}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
+    <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="100" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D2" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E2" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D3" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E3" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C4" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D4" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E4" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C5" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D5" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E5" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="F4" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="F5" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)</f>
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="59">
-        <f>food_insecure*frac_malaria_risk</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="F6" s="59">
-        <f>food_insecure*frac_malaria_risk</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="59">
-        <f>(1-frac_malaria_risk)</f>
-        <v>0.9</v>
-      </c>
-      <c r="F7" s="59">
-        <f>(1-frac_malaria_risk)</f>
-        <v>0.9</v>
-      </c>
-      <c r="G7" s="59">
-        <f>(1-frac_malaria_risk)</f>
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="59">
-        <f>frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="F8" s="59">
-        <f>frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="G8" s="59">
-        <f>frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="E9" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="F9" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="G9" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="17">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1</v>
-      </c>
-      <c r="E11" s="17">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C12" s="62">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="55"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="I14" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="J14" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="K14" s="59">
-        <f>food_insecure</f>
-        <v>0.36</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="60">
-        <f>1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="I15" s="60">
-        <f>1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="J15" s="60">
-        <f>1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="K15" s="60">
-        <f>1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="59">
-        <f>frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="I16" s="59">
-        <f>frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="J16" s="59">
-        <f>frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="59">
-        <f>frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="60">
-        <f xml:space="preserve"> 1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="I17" s="60">
-        <f xml:space="preserve"> 1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="J17" s="60">
-        <f xml:space="preserve"> 1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="K17" s="60">
-        <f xml:space="preserve"> 1-frac_malaria_risk</f>
-        <v>0.9</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="60">
-        <f t="shared" ref="H18:K19" si="0">frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="60">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J18" s="60">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="60">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="60">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="60">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="60">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="60">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="55"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*1*school_attendance</f>
-        <v>0.114048</v>
-      </c>
-      <c r="M21" s="59">
-        <v>0</v>
-      </c>
-      <c r="N21" s="59">
-        <v>0</v>
-      </c>
-      <c r="O21" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
-        <v>0.1469664</v>
-      </c>
-      <c r="M22" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
-        <v>0.2268</v>
-      </c>
-      <c r="N22" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
-        <v>0.2268</v>
-      </c>
-      <c r="O22" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.7)</f>
-        <v>0.2268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
-        <v>6.2985600000000003E-2</v>
-      </c>
-      <c r="M23" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="N23" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="O23" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11">
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*1*school_attendance</f>
-        <v>0.20275200000000002</v>
-      </c>
-      <c r="M24" s="59">
-        <v>0</v>
-      </c>
-      <c r="N24" s="59">
-        <v>0</v>
-      </c>
-      <c r="O24" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
-        <v>0.18289152000000003</v>
-      </c>
-      <c r="M25" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
-        <v>0.28224000000000005</v>
-      </c>
-      <c r="N25" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
-        <v>0.28224000000000005</v>
-      </c>
-      <c r="O25" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.49)</f>
-        <v>0.28224000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
-        <v>0</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
-      </c>
-      <c r="L26" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
-        <v>7.8382080000000007E-2</v>
-      </c>
-      <c r="M26" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
-        <v>0.12096000000000001</v>
-      </c>
-      <c r="N26" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
-        <v>0.12096000000000001</v>
-      </c>
-      <c r="O26" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.21)</f>
-        <v>0.12096000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
-      </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
-        <v>0.11197440000000002</v>
-      </c>
-      <c r="M27" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
-        <v>0.17280000000000001</v>
-      </c>
-      <c r="N27" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
-        <v>0.17280000000000001</v>
-      </c>
-      <c r="O27" s="59">
-        <f>(1-food_insecure)*(1-frac_malaria_risk)*(0.3)</f>
-        <v>0.17280000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
-        <v>0</v>
-      </c>
-      <c r="J28" s="11">
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="59">
-        <f>food_insecure*(frac_malaria_risk)*1*school_attendance</f>
-        <v>1.2671999999999998E-2</v>
-      </c>
-      <c r="M28" s="59">
-        <v>0</v>
-      </c>
-      <c r="N28" s="59">
-        <v>0</v>
-      </c>
-      <c r="O28" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="59">
-        <f>food_insecure*(frac_malaria_risk)*(0.7)*(1-school_attendance)</f>
-        <v>1.63296E-2</v>
-      </c>
-      <c r="M29" s="59">
-        <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
-      </c>
-      <c r="N29" s="59">
-        <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
-      </c>
-      <c r="O29" s="59">
-        <f>food_insecure*(frac_malaria_risk)*(0.7)</f>
-        <v>2.5199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="59">
-        <f>food_insecure*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
-        <v>6.9983999999999992E-3</v>
-      </c>
-      <c r="M30" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="N30" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="O30" s="59">
-        <f>food_insecure*(1-frac_malaria_risk)*(0.3)</f>
-        <v>9.7199999999999995E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*1*school_attendance</f>
-        <v>2.2527999999999999E-2</v>
-      </c>
-      <c r="M31" s="59">
-        <v>0</v>
-      </c>
-      <c r="N31" s="59">
-        <v>0</v>
-      </c>
-      <c r="O31" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0</v>
-      </c>
-      <c r="L32" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)*(1-school_attendance)</f>
-        <v>2.0321280000000001E-2</v>
-      </c>
-      <c r="M32" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
-      </c>
-      <c r="N32" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
-      </c>
-      <c r="O32" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.49)</f>
-        <v>3.1359999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)*(1-school_attendance)</f>
-        <v>8.7091200000000007E-3</v>
-      </c>
-      <c r="M33" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
-      </c>
-      <c r="N33" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
-      </c>
-      <c r="O33" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.21)</f>
-        <v>1.3440000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)*(1-school_attendance)</f>
-        <v>1.2441599999999999E-2</v>
-      </c>
-      <c r="M34" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="N34" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="O34" s="59">
-        <f>(1-food_insecure)*(frac_malaria_risk)*(0.3)</f>
-        <v>1.9199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="11">
-        <v>0</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0</v>
-      </c>
-      <c r="L35" s="59">
-        <v>1</v>
-      </c>
-      <c r="M35" s="59">
-        <v>1</v>
-      </c>
-      <c r="N35" s="59">
-        <v>1</v>
-      </c>
-      <c r="O35" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="61">
-        <v>1</v>
-      </c>
-      <c r="M36" s="61">
-        <v>1</v>
-      </c>
-      <c r="N36" s="61">
-        <v>1</v>
-      </c>
-      <c r="O36" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="16"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="L38" s="2">
-        <v>1</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="L39" s="2">
-        <v>1</v>
-      </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
-        <v>1</v>
-      </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1</v>
-      </c>
-      <c r="L40" s="2">
-        <v>1</v>
-      </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1</v>
-      </c>
-      <c r="L41" s="2">
-        <v>1</v>
-      </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42" s="2">
-        <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="60">
-        <f t="shared" ref="C48:O48" si="1">frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="D48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="F48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="G48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="I48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="L48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="M48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="N48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="O48" s="60">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="17">
-        <v>0</v>
-      </c>
-      <c r="D49" s="17">
-        <v>0</v>
-      </c>
-      <c r="E49" s="60">
-        <f t="shared" ref="E49:O49" si="2">frac_wheat</f>
-        <v>0.12</v>
-      </c>
-      <c r="F49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="G49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="H49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="I49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="J49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="K49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="L49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="M49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="N49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-      <c r="O49" s="60">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="17">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17">
-        <v>0</v>
-      </c>
-      <c r="E50" s="60">
-        <f t="shared" ref="E50:O50" si="3">frac_maize</f>
+      <c r="C6" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D6" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E6" s="91">
         <v>0.05</v>
       </c>
-      <c r="F50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="G50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="H50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="I50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="J50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="K50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="L50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="M50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="N50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O50" s="60">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="17">
-        <v>0</v>
-      </c>
-      <c r="D51" s="17">
-        <v>0</v>
-      </c>
-      <c r="E51" s="60">
-        <f t="shared" ref="E51:O51" si="4">frac_rice</f>
-        <v>0.8</v>
-      </c>
-      <c r="F51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="G51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="H51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="I51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="J51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="K51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="L51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="M51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="N51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="O51" s="60">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
-        <v>1</v>
-      </c>
-      <c r="F52" s="10">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10">
-        <v>1</v>
-      </c>
-      <c r="H52" s="10">
-        <v>1</v>
-      </c>
-      <c r="I52" s="10">
-        <v>1</v>
-      </c>
-      <c r="J52" s="10">
-        <v>1</v>
-      </c>
-      <c r="K52" s="10">
-        <v>1</v>
-      </c>
-      <c r="L52" s="10">
-        <v>1</v>
-      </c>
-      <c r="M52" s="10">
-        <v>1</v>
-      </c>
-      <c r="N52" s="10">
-        <v>1</v>
-      </c>
-      <c r="O52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="55"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="101"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C8C53AB1-FE9C-834D-9746-34B55C4FDC57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{88397023-1374-D345-8AE6-47E90C37A391}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="-20380" windowWidth="25180" windowHeight="20380" firstSheet="3" activeTab="8" xr2:uid="{8134AA81-6886-574D-B0B8-2D6ABE96B998}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,17 @@
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="Fertility risks" sheetId="42" r:id="rId7"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId8"/>
-    <sheet name="IYCF cost" sheetId="57" r:id="rId9"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId10"/>
-    <sheet name="Reference programs" sheetId="59" r:id="rId11"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId12"/>
+    <sheet name="IYCF packages" sheetId="55" r:id="rId8"/>
+    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
+    <sheet name="IYCF cost" sheetId="57" r:id="rId10"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId11"/>
+    <sheet name="Reference programs" sheetId="59" r:id="rId12"/>
     <sheet name="Incidence of conditions" sheetId="7" r:id="rId13"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
     <sheet name="Programs family planning" sheetId="54" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="abortion" localSheetId="11">'Baseline year population inputs'!$C$26</definedName>
+    <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$26</definedName>
     <definedName name="abortion">'Baseline year population inputs'!$C$29</definedName>
     <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$8</definedName>
     <definedName name="food_insecure">'Baseline year population inputs'!$C$3</definedName>
@@ -63,7 +64,7 @@
     <definedName name="preterm_AGA">'Baseline year population inputs'!$C$34</definedName>
     <definedName name="preterm_SGA">'Baseline year population inputs'!$C$33</definedName>
     <definedName name="school_attendance">'Baseline year population inputs'!$C$5</definedName>
-    <definedName name="stillbirth" localSheetId="11">'Baseline year population inputs'!$C$27</definedName>
+    <definedName name="stillbirth" localSheetId="7">'Baseline year population inputs'!$C$27</definedName>
     <definedName name="stillbirth">'Baseline year population inputs'!$C$30</definedName>
     <definedName name="term_AGA">'Baseline year population inputs'!$C$36</definedName>
     <definedName name="term_SGA">'Baseline year population inputs'!$C$35</definedName>
@@ -79,6 +80,59 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If user wants this, it must be checked for </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>all populations</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -117,11 +171,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{B5BA2B1F-1220-A74E-AAD5-1179315D509D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Would like to put formula in here to define cost outside of code</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -221,7 +308,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -272,59 +359,6 @@
           </rPr>
           <t xml:space="preserve">
 When one program cannot exceed cov of another</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-If user wants this, it must be checked for </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>all populations</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> b/c they are all targetted at once.</t>
         </r>
       </text>
     </comment>
@@ -4591,9 +4625,10 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4967,6 +5002,139 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36538F24-64B7-8D4B-91C5-47DA6C823CAD}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="100" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A1" s="105" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D2" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E2" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="102"/>
+      <c r="B3" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D3" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E3" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D4" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E4" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D5" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E5" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="91">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D6" s="91">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="101"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3709DAA-7BE5-6D41-BA4B-D86E9C571FF9}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -4974,8 +5142,9 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5335,7 +5504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC88371-B962-4B4C-A5B4-EAF9442C2DF9}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -5345,6 +5514,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5430,225 +5600,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA2E456-F1D6-2946-9CF2-AA41D316F6C1}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17" style="63" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="63" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="63"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="87" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="87" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="86"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="77"/>
-      <c r="B3" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="78"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="78"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="78"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="80"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="85" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
-      <c r="B10" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="78"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="78"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="78"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="78"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="80"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="81"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="78"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="78"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="78"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="78"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="73"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5662,6 +5613,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -5777,6 +5729,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8130,6 +8083,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8339,6 +8293,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8985,6 +8940,7 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9637,6 +9593,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10062,6 +10019,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10195,6 +10153,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10400,6 +10359,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10559,14 +10519,237 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA2E456-F1D6-2946-9CF2-AA41D316F6C1}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17" style="63" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="63" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="63" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="63"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="86"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="77"/>
+      <c r="B3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="78"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="77"/>
+      <c r="B4" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="78"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="77"/>
+      <c r="B5" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="78"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="77"/>
+      <c r="B6" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="77"/>
+      <c r="B7" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="80"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="77"/>
+      <c r="B10" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="78"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="77"/>
+      <c r="B11" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="78"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="77"/>
+      <c r="B12" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="78"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="77"/>
+      <c r="B13" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="78"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="77"/>
+      <c r="B14" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="80"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="81"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="77"/>
+      <c r="B17" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="78"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="77"/>
+      <c r="B18" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="77"/>
+      <c r="B19" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="78"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="77"/>
+      <c r="B20" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="78"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="77"/>
+      <c r="B21" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="75"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22549FF9-D8F2-7743-94EE-9F6E518F0245}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="1">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11364,134 +11547,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36538F24-64B7-8D4B-91C5-47DA6C823CAD}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.6640625" style="100" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="100"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="C1" s="104" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="104" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="91">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D2" s="91">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E2" s="91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="91">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D3" s="91">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E3" s="91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="91">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D4" s="91">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E4" s="91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="91">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D5" s="91">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E5" s="91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="91">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D6" s="91">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E6" s="91">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="101"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{88397023-1374-D345-8AE6-47E90C37A391}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B0F13736-C708-704F-8083-5AD93E37C709}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="5840" yWindow="-20380" windowWidth="25180" windowHeight="20380" firstSheet="3" activeTab="8" xr2:uid="{8134AA81-6886-574D-B0B8-2D6ABE96B998}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13480" tabRatio="961" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -138,7 +137,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{0F3D7585-AEE5-E942-9F79-E97E7B1F04C5}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,39 +170,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{B5BA2B1F-1220-A74E-AAD5-1179315D509D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Would like to put formula in here to define cost outside of code</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -214,7 +180,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{E06AC39A-4136-7746-A8F8-FB3A8167FF72}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{AFCB412D-7279-764A-80D8-14D46A4E6FBF}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{441B7DF5-20BC-1E4B-897D-77225B26BECE}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +280,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -338,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1900-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +338,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -415,7 +381,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{6D533BF5-12E4-3646-87A2-3E3EBC745FE1}">
+    <comment ref="L36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +425,7 @@
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1AFE157B-E3FD-BD45-977A-B0B0435761C1}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -492,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1400-000001000000}">
+    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -530,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="235">
   <si>
     <t>year</t>
   </si>
@@ -1205,9 +1171,6 @@
   </si>
   <si>
     <t>IYCF package</t>
-  </si>
-  <si>
-    <t>Calculated in model</t>
   </si>
   <si>
     <t>Iron fortification of wheat flour</t>
@@ -1250,7 +1213,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1409,6 +1372,12 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1436,7 +1405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1516,17 +1485,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="727">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2257,7 +2215,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2430,21 +2388,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="726" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2470,6 +2425,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="25" fillId="4" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="25" fillId="4" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="727">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -3196,8 +3153,8 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725" xr:uid="{C4319F0F-8966-3441-8D44-6E4833EF1C8F}"/>
-    <cellStyle name="Normal 3" xfId="726" xr:uid="{C189AE08-A6FC-9442-A2AC-6A65FE674060}"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4628,7 +4585,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5002,7 +4958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36538F24-64B7-8D4B-91C5-47DA6C823CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5011,122 +4967,119 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="100" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="100"/>
+    <col min="1" max="1" width="18.6640625" style="97" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>232</v>
-      </c>
-      <c r="B1" s="104" t="s">
+      <c r="A1" s="102" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="104" t="s">
+      <c r="C1" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="101" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="91">
+      <c r="C2" s="88">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D2" s="91">
+      <c r="D2" s="88">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="88">
         <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="91">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="88">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="88">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E3" s="91">
+      <c r="E3" s="88">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="102" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="91">
+      <c r="C4" s="88">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="88">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E4" s="91">
+      <c r="E4" s="88">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="88">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="88">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E5" s="91">
+      <c r="E5" s="88">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="102"/>
-      <c r="B6" s="102" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="88">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="88">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="88">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="101"/>
+      <c r="C9" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5135,7 +5088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3709DAA-7BE5-6D41-BA4B-D86E9C571FF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5144,11 +5097,10 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53" style="85" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86" style="63" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="63" customWidth="1"/>
     <col min="4" max="16384" width="11.5" style="63"/>
@@ -5159,343 +5111,343 @@
         <v>88</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="80"/>
+      <c r="C23" s="79"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="88" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="80" t="s">
+      <c r="A26" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="80"/>
+      <c r="C26" s="79"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="79"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="B28" s="80" t="s">
+      <c r="A28" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="80"/>
+      <c r="C28" s="79"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80" t="s">
+      <c r="B31" s="79"/>
+      <c r="C31" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="80"/>
+      <c r="B32" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="79"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="80"/>
+      <c r="C35" s="79"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="80" t="s">
+      <c r="C36" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5505,7 +5457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC88371-B962-4B4C-A5B4-EAF9442C2DF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5514,7 +5466,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5528,74 +5479,74 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="79"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="79"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="79"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="80"/>
+      <c r="A13" s="79"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="80"/>
+      <c r="A14" s="79"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="80"/>
+      <c r="A15" s="79"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="80"/>
+      <c r="A16" s="79"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="80"/>
+      <c r="A17" s="79"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="80"/>
+      <c r="A18" s="79"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="80"/>
+      <c r="A19" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5604,7 +5555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5613,7 +5564,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -5720,7 +5670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5729,7 +5679,6 @@
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8074,7 +8023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57701AF1-AC9D-D445-9C09-730772E263E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8083,7 +8032,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8284,7 +8232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8293,7 +8241,6 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8931,7 +8878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8940,7 +8887,6 @@
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9593,7 +9539,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10019,7 +9964,6 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10153,7 +10097,6 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10359,7 +10302,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10519,16 +10461,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA2E456-F1D6-2946-9CF2-AA41D316F6C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10539,72 +10480,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="83" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="84" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>219</v>
       </c>
       <c r="B2" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="103" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="77"/>
       <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="103" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="77"/>
       <c r="B4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="103" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="77"/>
       <c r="B5" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="103" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="77"/>
       <c r="B6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="103" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="77"/>
@@ -10613,58 +10569,73 @@
       </c>
       <c r="C7" s="75"/>
       <c r="D7" s="74"/>
-      <c r="E7" s="80"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="83" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="104" t="str">
+        <f>IF(E$14="","",E$14)</f>
+        <v>x</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="77"/>
       <c r="B10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="103" t="str">
+        <f>IF(E$14="","",E$14)</f>
+        <v>x</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="77"/>
       <c r="B11" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="103" t="str">
+        <f>IF(E$14="","",E$14)</f>
+        <v>x</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="77"/>
       <c r="B12" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="103" t="str">
+        <f>IF(E$14="","",E$14)</f>
+        <v>x</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="77"/>
       <c r="B13" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="103" t="str">
+        <f>IF(E$14="","",E$14)</f>
+        <v>x</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="77"/>
@@ -10673,18 +10644,23 @@
       </c>
       <c r="C14" s="75"/>
       <c r="D14" s="74"/>
-      <c r="E14" s="80"/>
+      <c r="E14" s="79" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="81" t="s">
         <v>216</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="73"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="104" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="77"/>
@@ -10692,8 +10668,11 @@
         <v>1</v>
       </c>
       <c r="C17" s="73"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="103" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="77"/>
@@ -10701,8 +10680,11 @@
         <v>2</v>
       </c>
       <c r="C18" s="73"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="103" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="77"/>
@@ -10710,8 +10692,11 @@
         <v>3</v>
       </c>
       <c r="C19" s="73"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="103" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="77"/>
@@ -10719,8 +10704,11 @@
         <v>4</v>
       </c>
       <c r="C20" s="73"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="103" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="77"/>
@@ -10739,22 +10727,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22549FF9-D8F2-7743-94EE-9F6E518F0245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="1">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56" style="88" customWidth="1"/>
+    <col min="1" max="1" width="56" style="85" customWidth="1"/>
     <col min="2" max="2" width="20" style="64" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="63" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="63" customWidth="1"/>
@@ -10762,784 +10747,787 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="98" t="s">
+      <c r="B1" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="C1" s="95" t="s">
         <v>229</v>
       </c>
+      <c r="D1" s="94" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="90">
-        <v>0</v>
-      </c>
-      <c r="C2" s="90">
+      <c r="B2" s="87">
+        <v>0</v>
+      </c>
+      <c r="C2" s="87">
         <v>0.95</v>
       </c>
-      <c r="D2" s="91">
+      <c r="D2" s="88">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="90">
-        <v>0</v>
-      </c>
-      <c r="C3" s="90">
+      <c r="B3" s="87">
+        <v>0</v>
+      </c>
+      <c r="C3" s="87">
         <v>0.95</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="88">
         <v>0.8</v>
       </c>
-      <c r="E3" s="96"/>
+      <c r="E3" s="93"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="90">
-        <v>0</v>
-      </c>
-      <c r="C4" s="90">
+      <c r="B4" s="87">
+        <v>0</v>
+      </c>
+      <c r="C4" s="87">
         <v>0.95</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="88">
         <v>1</v>
       </c>
       <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="87">
         <v>0.1</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="87">
         <v>0.95</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="88">
         <f>180</f>
         <v>180</v>
       </c>
       <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="87">
         <v>0.5</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="87">
         <v>0.95</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="89">
         <f>SUM('Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
-      <c r="E6" s="95"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="90">
-        <v>0</v>
-      </c>
-      <c r="C7" s="90">
+      <c r="B7" s="87">
+        <v>0</v>
+      </c>
+      <c r="C7" s="87">
         <v>0.95</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="88">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="94"/>
+      <c r="E7" s="91"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="90">
-        <v>0</v>
-      </c>
-      <c r="C8" s="90">
+      <c r="B8" s="87">
+        <v>0</v>
+      </c>
+      <c r="C8" s="87">
         <v>0.95</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="88">
         <v>0.75</v>
       </c>
-      <c r="E8" s="94"/>
+      <c r="E8" s="91"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="90">
-        <v>0</v>
-      </c>
-      <c r="C9" s="90">
+      <c r="B9" s="87">
+        <v>0</v>
+      </c>
+      <c r="C9" s="87">
         <v>0.95</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="88">
         <v>0.19</v>
       </c>
-      <c r="E9" s="94"/>
+      <c r="E9" s="91"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="90">
-        <v>0</v>
-      </c>
-      <c r="C10" s="90">
+      <c r="B10" s="87">
+        <v>0</v>
+      </c>
+      <c r="C10" s="87">
         <v>0.95</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="88">
         <v>0.73</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="90">
-        <v>0</v>
-      </c>
-      <c r="C11" s="90">
+      <c r="B11" s="87">
+        <v>0</v>
+      </c>
+      <c r="C11" s="87">
         <v>0.95</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="88">
         <v>0.73</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="90">
-        <v>0</v>
-      </c>
-      <c r="C12" s="90">
+      <c r="B12" s="87">
+        <v>0</v>
+      </c>
+      <c r="C12" s="87">
         <v>0.95</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="88">
         <v>1.78</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="90">
-        <v>0</v>
-      </c>
-      <c r="C13" s="90">
+      <c r="B13" s="87">
+        <v>0</v>
+      </c>
+      <c r="C13" s="87">
         <v>0.95</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="88">
         <v>1.78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="90">
-        <v>0</v>
-      </c>
-      <c r="C14" s="90">
+      <c r="B14" s="87">
+        <v>0</v>
+      </c>
+      <c r="C14" s="87">
         <v>0.95</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="88">
         <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="90">
-        <v>0</v>
-      </c>
-      <c r="C15" s="90">
+      <c r="B15" s="87">
+        <v>0</v>
+      </c>
+      <c r="C15" s="87">
         <v>0.95</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="88">
         <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="90">
-        <v>0</v>
-      </c>
-      <c r="C16" s="90">
+      <c r="B16" s="87">
+        <v>0</v>
+      </c>
+      <c r="C16" s="87">
         <v>0.95</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="88">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="90">
-        <v>0</v>
-      </c>
-      <c r="C17" s="90">
+      <c r="B17" s="87">
+        <v>0</v>
+      </c>
+      <c r="C17" s="87">
         <v>0.95</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="88">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="90">
-        <v>0</v>
-      </c>
-      <c r="C18" s="90">
+      <c r="B18" s="87">
+        <v>0</v>
+      </c>
+      <c r="C18" s="87">
         <v>0.95</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="88">
         <v>0.73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="90">
-        <v>0</v>
-      </c>
-      <c r="C19" s="90">
+      <c r="B19" s="87">
+        <v>0</v>
+      </c>
+      <c r="C19" s="87">
         <v>0.95</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="88">
         <v>0.73</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="90">
-        <v>0</v>
-      </c>
-      <c r="C20" s="90">
+      <c r="B20" s="87">
+        <v>0</v>
+      </c>
+      <c r="C20" s="87">
         <v>0.95</v>
       </c>
-      <c r="D20" s="91">
+      <c r="D20" s="88">
         <v>1.78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="90">
-        <v>0</v>
-      </c>
-      <c r="C21" s="90">
+      <c r="B21" s="87">
+        <v>0</v>
+      </c>
+      <c r="C21" s="87">
         <v>0.95</v>
       </c>
-      <c r="D21" s="91">
+      <c r="D21" s="88">
         <v>1.78</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="90">
-        <v>0</v>
-      </c>
-      <c r="C22" s="90">
+      <c r="B22" s="87">
+        <v>0</v>
+      </c>
+      <c r="C22" s="87">
         <v>0.95</v>
       </c>
-      <c r="D22" s="91">
+      <c r="D22" s="88">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="90">
-        <v>0</v>
-      </c>
-      <c r="C23" s="90">
+      <c r="B23" s="87">
+        <v>0</v>
+      </c>
+      <c r="C23" s="87">
         <v>0.95</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="88">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="90">
-        <v>0</v>
-      </c>
-      <c r="C24" s="90">
+      <c r="B24" s="87">
+        <v>0</v>
+      </c>
+      <c r="C24" s="87">
         <v>0.95</v>
       </c>
-      <c r="D24" s="91">
+      <c r="D24" s="88">
         <v>2.06</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="90">
-        <v>0</v>
-      </c>
-      <c r="C25" s="90">
+      <c r="B25" s="87">
+        <v>0</v>
+      </c>
+      <c r="C25" s="87">
         <v>0.95</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="88">
         <v>1.78</v>
       </c>
       <c r="E25" s="72"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="90">
-        <v>0</v>
-      </c>
-      <c r="C26" s="90">
+      <c r="B26" s="87">
+        <v>0</v>
+      </c>
+      <c r="C26" s="87">
         <v>0.95</v>
       </c>
-      <c r="D26" s="91">
+      <c r="D26" s="88">
         <v>1.78</v>
       </c>
       <c r="E26" s="72"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="90">
-        <v>0</v>
-      </c>
-      <c r="C27" s="90">
+      <c r="B27" s="87">
+        <v>0</v>
+      </c>
+      <c r="C27" s="87">
         <v>0.95</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="88">
         <v>0.25</v>
       </c>
       <c r="E27" s="72"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="88" t="s">
-        <v>228</v>
-      </c>
-      <c r="B28" s="90">
-        <v>0</v>
-      </c>
-      <c r="C28" s="90">
+      <c r="A28" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="87">
+        <v>0</v>
+      </c>
+      <c r="C28" s="87">
         <v>0.95</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="88">
         <v>0.13</v>
       </c>
       <c r="E28" s="72"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="88" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="90">
-        <v>0</v>
-      </c>
-      <c r="C29" s="90">
+      <c r="A29" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="87">
+        <v>0</v>
+      </c>
+      <c r="C29" s="87">
         <v>0.95</v>
       </c>
-      <c r="D29" s="91">
+      <c r="D29" s="88">
         <v>0.74</v>
       </c>
       <c r="E29" s="72"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="88" t="s">
-        <v>226</v>
-      </c>
-      <c r="B30" s="90">
-        <v>0</v>
-      </c>
-      <c r="C30" s="90">
+      <c r="A30" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="87">
+        <v>0</v>
+      </c>
+      <c r="C30" s="87">
         <v>0.95</v>
       </c>
-      <c r="D30" s="91">
+      <c r="D30" s="88">
         <v>0.18</v>
       </c>
       <c r="E30" s="72"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="87">
         <v>0.2</v>
       </c>
-      <c r="C31" s="90">
+      <c r="C31" s="87">
         <v>0.95</v>
       </c>
-      <c r="D31" s="91">
+      <c r="D31" s="88">
         <v>2.61</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="88" t="s">
+      <c r="A32" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="90">
-        <v>0</v>
-      </c>
-      <c r="C32" s="90">
+      <c r="B32" s="87">
+        <v>0</v>
+      </c>
+      <c r="C32" s="87">
         <v>0.95</v>
       </c>
-      <c r="D32" s="91">
+      <c r="D32" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="90">
-        <v>0</v>
-      </c>
-      <c r="C33" s="90">
+      <c r="B33" s="87">
+        <v>0</v>
+      </c>
+      <c r="C33" s="87">
         <v>0.95</v>
       </c>
-      <c r="D33" s="91">
+      <c r="D33" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="90">
-        <v>0</v>
-      </c>
-      <c r="C34" s="90">
+      <c r="B34" s="87">
+        <v>0</v>
+      </c>
+      <c r="C34" s="87">
         <v>0.95</v>
       </c>
-      <c r="D34" s="91">
+      <c r="D34" s="88">
         <v>2.99</v>
       </c>
       <c r="E34" s="72"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="90">
-        <v>0</v>
-      </c>
-      <c r="C35" s="90">
+      <c r="B35" s="87">
+        <v>0</v>
+      </c>
+      <c r="C35" s="87">
         <v>0.95</v>
       </c>
-      <c r="D35" s="91">
+      <c r="D35" s="88">
         <v>2.99</v>
       </c>
       <c r="E35" s="72"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="90">
-        <v>0</v>
-      </c>
-      <c r="C36" s="90">
+      <c r="B36" s="87">
+        <v>0</v>
+      </c>
+      <c r="C36" s="87">
         <v>0.95</v>
       </c>
-      <c r="D36" s="91">
+      <c r="D36" s="88">
         <v>1</v>
       </c>
       <c r="E36" s="72"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="88" t="s">
+      <c r="A37" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="90">
-        <v>0</v>
-      </c>
-      <c r="C37" s="90">
+      <c r="B37" s="87">
+        <v>0</v>
+      </c>
+      <c r="C37" s="87">
         <v>0.95</v>
       </c>
-      <c r="D37" s="91">
+      <c r="D37" s="88">
         <v>48</v>
       </c>
       <c r="E37" s="72"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="B38" s="90">
-        <v>0</v>
-      </c>
-      <c r="C38" s="90">
+      <c r="B38" s="87">
+        <v>0</v>
+      </c>
+      <c r="C38" s="87">
         <v>0.95</v>
       </c>
-      <c r="D38" s="91">
+      <c r="D38" s="88">
         <v>50</v>
       </c>
-      <c r="E38" s="93"/>
+      <c r="E38" s="90"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="B39" s="90">
-        <v>0</v>
-      </c>
-      <c r="C39" s="90">
+      <c r="B39" s="87">
+        <v>0</v>
+      </c>
+      <c r="C39" s="87">
         <v>0.95</v>
       </c>
-      <c r="D39" s="91">
+      <c r="D39" s="88">
         <v>51</v>
       </c>
       <c r="E39" s="72"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="88" t="s">
+      <c r="A40" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="B40" s="90">
-        <v>0</v>
-      </c>
-      <c r="C40" s="90">
+      <c r="B40" s="87">
+        <v>0</v>
+      </c>
+      <c r="C40" s="87">
         <v>0.95</v>
       </c>
-      <c r="D40" s="91">
+      <c r="D40" s="88">
         <v>1</v>
       </c>
       <c r="E40" s="72"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="90">
-        <v>0</v>
-      </c>
-      <c r="C41" s="90">
+      <c r="B41" s="87">
+        <v>0</v>
+      </c>
+      <c r="C41" s="87">
         <v>0.95</v>
       </c>
-      <c r="D41" s="91">
+      <c r="D41" s="88">
         <v>1</v>
       </c>
       <c r="E41" s="72"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="90">
-        <v>0</v>
-      </c>
-      <c r="C42" s="90">
+      <c r="B42" s="87">
+        <v>0</v>
+      </c>
+      <c r="C42" s="87">
         <v>0.95</v>
       </c>
-      <c r="D42" s="92">
+      <c r="D42" s="89">
         <f>30*AVERAGE('Incidence of conditions'!B3:F3)</f>
         <v>10.046400000000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="88" t="s">
+      <c r="A43" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="90">
-        <v>0</v>
-      </c>
-      <c r="C43" s="90">
+      <c r="B43" s="87">
+        <v>0</v>
+      </c>
+      <c r="C43" s="87">
         <v>0.95</v>
       </c>
-      <c r="D43" s="92">
+      <c r="D43" s="89">
         <f>179.97*AVERAGE('Incidence of conditions'!B4:F4)</f>
         <v>19.933477200000002</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="90">
-        <v>0</v>
-      </c>
-      <c r="C44" s="90">
+      <c r="B44" s="87">
+        <v>0</v>
+      </c>
+      <c r="C44" s="87">
         <v>0.95</v>
       </c>
-      <c r="D44" s="91">
+      <c r="D44" s="88">
         <v>0.35</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="88" t="s">
+      <c r="A45" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="90">
-        <v>0</v>
-      </c>
-      <c r="C45" s="90">
+      <c r="B45" s="87">
+        <v>0</v>
+      </c>
+      <c r="C45" s="87">
         <v>0.95</v>
       </c>
-      <c r="D45" s="91">
+      <c r="D45" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="88" t="s">
+      <c r="A46" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="90">
-        <v>0</v>
-      </c>
-      <c r="C46" s="90">
+      <c r="B46" s="87">
+        <v>0</v>
+      </c>
+      <c r="C46" s="87">
         <v>0.95</v>
       </c>
-      <c r="D46" s="91">
+      <c r="D46" s="88">
         <v>2.8</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="90">
-        <v>0</v>
-      </c>
-      <c r="C47" s="90">
+      <c r="B47" s="87">
+        <v>0</v>
+      </c>
+      <c r="C47" s="87">
         <v>0.95</v>
       </c>
-      <c r="D47" s="91">
+      <c r="D47" s="88">
         <v>50.26</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="88" t="s">
+      <c r="A48" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="90">
-        <v>0</v>
-      </c>
-      <c r="C48" s="90">
+      <c r="B48" s="87">
+        <v>0</v>
+      </c>
+      <c r="C48" s="87">
         <v>0.95</v>
       </c>
-      <c r="D48" s="91">
+      <c r="D48" s="88">
         <v>36.1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="B49" s="90">
-        <v>0</v>
-      </c>
-      <c r="C49" s="90">
+      <c r="B49" s="87">
+        <v>0</v>
+      </c>
+      <c r="C49" s="87">
         <v>0.95</v>
       </c>
-      <c r="D49" s="91">
+      <c r="D49" s="88">
         <v>231.85</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="90">
-        <v>0</v>
-      </c>
-      <c r="C50" s="90">
+      <c r="B50" s="87">
+        <v>0</v>
+      </c>
+      <c r="C50" s="87">
         <v>0.95</v>
       </c>
-      <c r="D50" s="91">
+      <c r="D50" s="88">
         <v>1.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="90">
-        <v>0</v>
-      </c>
-      <c r="C51" s="90">
+      <c r="B51" s="87">
+        <v>0</v>
+      </c>
+      <c r="C51" s="87">
         <v>0.95</v>
       </c>
-      <c r="D51" s="91">
+      <c r="D51" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="88" t="s">
+      <c r="A52" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="B52" s="90">
-        <v>0</v>
-      </c>
-      <c r="C52" s="90">
+      <c r="B52" s="87">
+        <v>0</v>
+      </c>
+      <c r="C52" s="87">
         <v>0.95</v>
       </c>
-      <c r="D52" s="89" t="s">
-        <v>225</v>
+      <c r="D52" s="86">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
+        <v>1.22</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="90">
-        <v>0</v>
-      </c>
-      <c r="C53" s="90">
+      <c r="B53" s="87">
+        <v>0</v>
+      </c>
+      <c r="C53" s="87">
         <v>0.95</v>
       </c>
-      <c r="D53" s="89" t="s">
-        <v>225</v>
+      <c r="D53" s="86">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
+        <v>1.4700000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="90">
-        <v>0</v>
-      </c>
-      <c r="C54" s="90">
+      <c r="B54" s="87">
+        <v>0</v>
+      </c>
+      <c r="C54" s="87">
         <v>0.95</v>
       </c>
-      <c r="D54" s="89" t="s">
-        <v>225</v>
+      <c r="D54" s="86">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{625A1986-44A9-0D45-8419-8BE553C349B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C12B0DB6-A500-FE4C-9E38-42AA5E0C23DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35620" yWindow="-20300" windowWidth="27100" windowHeight="18820" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35620" yWindow="-20300" windowWidth="27100" windowHeight="18820" tabRatio="961" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="217">
   <si>
     <t>year</t>
   </si>
@@ -4514,7 +4514,7 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
@@ -5024,10 +5024,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5051,39 +5051,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="82" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="82" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>161</v>
       </c>
       <c r="C4" s="76"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="76"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="52"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
@@ -5105,9 +5099,6 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6536,47 +6527,47 @@
         <v>0</v>
       </c>
       <c r="E29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" ref="E29:O29" si="1">frac_maize</f>
         <v>0.05</v>
       </c>
       <c r="F29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="G29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="H29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="J29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="K29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="L29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="M29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="N29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="O29" s="56">
-        <f>frac_maize</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6591,47 +6582,47 @@
         <v>0</v>
       </c>
       <c r="E30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" ref="E30:O30" si="2">frac_rice</f>
         <v>0.8</v>
       </c>
       <c r="F30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="G30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="H30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="I30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="J30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="K30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="L30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="M30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="N30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="O30" s="56">
-        <f>frac_rice</f>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
@@ -6646,47 +6637,47 @@
         <v>0</v>
       </c>
       <c r="E31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" ref="E31:O31" si="3">frac_wheat</f>
         <v>0.12</v>
       </c>
       <c r="F31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="G31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="H31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="I31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="J31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="K31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="L31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="M31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="N31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="O31" s="56">
-        <f>frac_wheat</f>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
     </row>
@@ -6739,55 +6730,55 @@
         <v>35</v>
       </c>
       <c r="C33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" ref="C33:O33" si="4">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
       <c r="D33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="E33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="F33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="G33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="H33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="I33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="J33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="K33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="L33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="M33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="N33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="O33" s="56">
-        <f>frac_malaria_risk</f>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C12B0DB6-A500-FE4C-9E38-42AA5E0C23DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7557F005-97FD-CC47-9CFF-9F0C34B14CF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35620" yWindow="-20300" windowWidth="27100" windowHeight="18820" tabRatio="961" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31260" yWindow="-20060" windowWidth="27100" windowHeight="18820" tabRatio="961" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,19 @@
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
     <sheet name="Fertility risks" sheetId="42" r:id="rId7"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="IYCF cost" sheetId="57" r:id="rId10"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId11"/>
-    <sheet name="Reference programs" sheetId="59" r:id="rId12"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId13"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
-    <sheet name="Programs family planning" sheetId="54" r:id="rId15"/>
+    <sheet name="Treatment of SAM" sheetId="60" r:id="rId9"/>
+    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId10"/>
+    <sheet name="IYCF cost" sheetId="57" r:id="rId11"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
+    <sheet name="Reference programs" sheetId="59" r:id="rId13"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId14"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId15"/>
+    <sheet name="Programs family planning" sheetId="54" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$26</definedName>
     <definedName name="abortion">'Baseline year population inputs'!$C$29</definedName>
+    <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
     <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$8</definedName>
     <definedName name="food_insecure">'Baseline year population inputs'!$C$3</definedName>
     <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$7</definedName>
@@ -57,6 +59,7 @@
     <definedName name="frac_wheat">'Baseline year population inputs'!$C$13</definedName>
     <definedName name="infant_mortality">'Baseline year population inputs'!$C$26</definedName>
     <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$47</definedName>
+    <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
     <definedName name="maternal_mortality">'Baseline year population inputs'!$C$28</definedName>
     <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$25</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$6</definedName>
@@ -132,6 +135,49 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{FE58E1C7-CE8A-D54E-AB98-874E3A6FBFD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>No idea what the added costs should be for community based delivery, so doesn't account for this currently</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -231,7 +277,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -289,7 +335,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -332,13 +378,13 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{E6EC9594-3F7C-C445-8380-01CE49FD40BB}">
+    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{E6EC9594-3F7C-C445-8380-01CE49FD40BB}">
       <text>
         <r>
           <rPr>
@@ -408,7 +454,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
@@ -486,7 +532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="222">
   <si>
     <t>year</t>
   </si>
@@ -692,9 +738,6 @@
     <t>SAM</t>
   </si>
   <si>
-    <t>Treatment of MAM</t>
-  </si>
-  <si>
     <t>Treatment of SAM</t>
   </si>
   <si>
@@ -1137,6 +1180,24 @@
   </si>
   <si>
     <t>IFAS: retailer</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Management of MAM</t>
+  </si>
+  <si>
+    <t>Community-based</t>
+  </si>
+  <si>
+    <t>Delivery mode</t>
+  </si>
+  <si>
+    <t>Add extension</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1210,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1314,6 +1375,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2151,7 +2218,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2355,10 +2422,11 @@
     <xf numFmtId="166" fontId="25" fillId="4" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="727">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -4527,13 +4595,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>189</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4543,7 +4611,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="24">
         <v>0.36</v>
@@ -4551,7 +4619,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="23">
         <v>0.1</v>
@@ -4559,7 +4627,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="23">
         <v>0.35199999999999998</v>
@@ -4567,7 +4635,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="24">
         <v>0.5</v>
@@ -4575,7 +4643,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="24">
         <v>0.3</v>
@@ -4583,7 +4651,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="24">
         <v>0.1</v>
@@ -4601,7 +4669,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="23">
         <v>0.3</v>
@@ -4609,7 +4677,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="23">
         <v>0.8</v>
@@ -4617,7 +4685,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="23">
         <v>0.12</v>
@@ -4625,7 +4693,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="23">
         <v>0.05</v>
@@ -4633,7 +4701,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="26">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4645,12 +4713,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="23">
         <v>0.29978973218277538</v>
@@ -4658,7 +4726,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C19" s="23">
         <v>0.52556568434139284</v>
@@ -4666,7 +4734,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="23">
         <v>0.16210210664201097</v>
@@ -4674,7 +4742,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="23">
         <v>1.2542476833820825E-2</v>
@@ -4683,19 +4751,19 @@
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="25">
         <v>25.4</v>
@@ -4703,7 +4771,7 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="25">
         <v>34.68</v>
@@ -4713,7 +4781,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="25">
         <v>39.32</v>
@@ -4723,7 +4791,7 @@
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="25">
         <v>1.76</v>
@@ -4731,7 +4799,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" s="23">
         <v>0.13</v>
@@ -4739,7 +4807,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" s="25">
         <v>25.36</v>
@@ -4750,7 +4818,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" s="20"/>
     </row>
@@ -4798,13 +4866,13 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39" s="7">
         <v>2.4300000000000002</v>
@@ -4813,7 +4881,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C40" s="7">
         <v>2.4300000000000002</v>
@@ -4821,7 +4889,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="7">
         <v>3.71</v>
@@ -4829,7 +4897,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -4837,7 +4905,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C43" s="7">
         <v>1.92</v>
@@ -4845,12 +4913,12 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="24">
         <v>0.2</v>
@@ -4858,7 +4926,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" s="24">
         <v>0.42</v>
@@ -4866,7 +4934,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="24">
         <v>0.9</v>
@@ -4874,7 +4942,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="24">
         <v>0.1</v>
@@ -4890,6 +4958,565 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56" style="82" customWidth="1"/>
+    <col min="2" max="2" width="20" style="61" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="60" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="60" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="83">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="83">
+        <v>0</v>
+      </c>
+      <c r="C3" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="84">
+        <v>0.8</v>
+      </c>
+      <c r="E3" s="89"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="83">
+        <v>0</v>
+      </c>
+      <c r="C4" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="84">
+        <v>1</v>
+      </c>
+      <c r="E4" s="69"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="84">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="E5" s="69"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="85">
+        <f>SUM('Programs family planning'!E2:E10)</f>
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="E6" s="88"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="83">
+        <v>0</v>
+      </c>
+      <c r="C7" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="84">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7" s="87"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="83">
+        <v>0</v>
+      </c>
+      <c r="C8" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="87"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="83">
+        <v>0</v>
+      </c>
+      <c r="C9" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="84">
+        <v>0.19</v>
+      </c>
+      <c r="E9" s="87"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="83">
+        <v>0</v>
+      </c>
+      <c r="C10" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="84">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="83">
+        <v>0</v>
+      </c>
+      <c r="C11" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="84">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="83">
+        <v>0</v>
+      </c>
+      <c r="C12" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="84">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="83">
+        <v>0</v>
+      </c>
+      <c r="C13" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="84">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="83">
+        <v>0</v>
+      </c>
+      <c r="C14" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="84">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="83">
+        <v>0</v>
+      </c>
+      <c r="C15" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="84">
+        <v>1.78</v>
+      </c>
+      <c r="E15" s="69"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="83">
+        <v>0</v>
+      </c>
+      <c r="C16" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="69"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="83">
+        <v>0</v>
+      </c>
+      <c r="C17" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="102">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="83">
+        <v>0</v>
+      </c>
+      <c r="C18" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="102">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
+        <v>1.4700000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="83">
+        <v>0</v>
+      </c>
+      <c r="C19" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="102">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="83">
+        <v>0</v>
+      </c>
+      <c r="C20" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="84">
+        <v>50</v>
+      </c>
+      <c r="E20" s="69"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D21" s="84">
+        <v>2.61</v>
+      </c>
+      <c r="E21" s="69"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="83">
+        <v>0</v>
+      </c>
+      <c r="C22" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D22" s="84">
+        <v>1</v>
+      </c>
+      <c r="E22" s="69"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="83">
+        <v>0</v>
+      </c>
+      <c r="C23" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="84">
+        <v>1</v>
+      </c>
+      <c r="E23" s="86"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="83">
+        <v>0</v>
+      </c>
+      <c r="C24" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="84">
+        <v>1</v>
+      </c>
+      <c r="E24" s="69"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="83">
+        <v>0</v>
+      </c>
+      <c r="C25" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="84">
+        <v>2.99</v>
+      </c>
+      <c r="E25" s="69"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="83">
+        <v>0</v>
+      </c>
+      <c r="C26" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D26" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="83">
+        <v>0</v>
+      </c>
+      <c r="C27" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="83">
+        <v>0</v>
+      </c>
+      <c r="C28" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="85">
+        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
+        <v>9.9684000000000008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="83">
+        <v>0</v>
+      </c>
+      <c r="C29" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="84">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="83">
+        <v>0</v>
+      </c>
+      <c r="C30" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="83">
+        <v>0</v>
+      </c>
+      <c r="C31" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="84">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="83">
+        <v>0</v>
+      </c>
+      <c r="C32" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D32" s="84">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="83">
+        <v>0</v>
+      </c>
+      <c r="C33" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D33" s="84">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="83">
+        <v>0</v>
+      </c>
+      <c r="C34" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="84">
+        <v>231.85</v>
+      </c>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="83">
+        <v>0</v>
+      </c>
+      <c r="C35" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D35" s="84">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="83">
+        <v>0</v>
+      </c>
+      <c r="C36" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="61"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D36">
+    <sortCondition ref="A2:A36"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -4908,24 +5535,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="98" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="95" t="s">
         <v>32</v>
@@ -5019,14 +5646,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5040,13 +5667,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5063,16 +5690,16 @@
         <v>59</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="76"/>
     </row>
@@ -5107,7 +5734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -5126,12 +5753,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -5146,27 +5773,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -5205,7 +5832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -5213,7 +5840,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5240,7 +5867,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="37">
         <f>'Baseline year population inputs'!C39</f>
@@ -5320,15 +5947,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5348,7 +5975,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5443,7 +6070,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="59">
         <v>1</v>
@@ -5487,7 +6114,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="56">
         <v>0</v>
@@ -5533,7 +6160,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="56">
         <v>0</v>
@@ -5580,7 +6207,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="56">
         <v>1</v>
@@ -5676,16 +6303,20 @@
         <v>0</v>
       </c>
       <c r="D8" s="56">
-        <v>1</v>
+        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <v>0.3</v>
       </c>
       <c r="E8" s="56">
-        <v>1</v>
+        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <v>0.3</v>
       </c>
       <c r="F8" s="56">
-        <v>1</v>
+        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <v>0.3</v>
       </c>
       <c r="G8" s="56">
-        <v>1</v>
+        <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
+        <v>0.3</v>
       </c>
       <c r="H8" s="57">
         <v>0</v>
@@ -5712,15 +6343,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C9" s="56">
         <v>0</v>
       </c>
       <c r="D9" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="56">
         <v>1</v>
@@ -5756,15 +6387,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14" t="s">
-        <v>28</v>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="C10" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="56">
         <v>1</v>
@@ -5801,14 +6432,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="52" t="s">
-        <v>98</v>
+      <c r="B11" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="56">
         <v>1</v>
@@ -5845,90 +6476,91 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="56">
-        <v>0</v>
-      </c>
-      <c r="D12" s="56">
-        <v>0</v>
-      </c>
-      <c r="E12" s="56">
-        <v>1</v>
-      </c>
-      <c r="F12" s="56">
-        <v>1</v>
-      </c>
-      <c r="G12" s="56">
-        <v>1</v>
-      </c>
-      <c r="H12" s="57">
-        <v>0</v>
-      </c>
-      <c r="I12" s="57">
-        <v>0</v>
-      </c>
-      <c r="J12" s="57">
-        <v>0</v>
-      </c>
-      <c r="K12" s="57">
-        <v>0</v>
-      </c>
-      <c r="L12" s="57">
-        <v>0</v>
-      </c>
-      <c r="M12" s="57">
-        <v>0</v>
-      </c>
-      <c r="N12" s="57">
-        <v>0</v>
-      </c>
-      <c r="O12" s="57">
-        <v>0</v>
-      </c>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="52"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="57">
-        <v>0</v>
-      </c>
-      <c r="D14" s="57">
-        <v>0</v>
-      </c>
-      <c r="E14" s="57">
-        <v>0</v>
-      </c>
-      <c r="F14" s="57">
-        <v>0</v>
-      </c>
-      <c r="G14" s="57">
-        <v>0</v>
-      </c>
-      <c r="H14" s="56">
+      <c r="C13" s="57">
+        <v>0</v>
+      </c>
+      <c r="D13" s="57">
+        <v>0</v>
+      </c>
+      <c r="E13" s="57">
+        <v>0</v>
+      </c>
+      <c r="F13" s="57">
+        <v>0</v>
+      </c>
+      <c r="G13" s="57">
+        <v>0</v>
+      </c>
+      <c r="H13" s="56">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="I14" s="56">
+      <c r="I13" s="56">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J13" s="56">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K13" s="56">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
+      <c r="L13" s="57">
+        <v>0</v>
+      </c>
+      <c r="M13" s="57">
+        <v>0</v>
+      </c>
+      <c r="N13" s="57">
+        <v>0</v>
+      </c>
+      <c r="O13" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="57">
+        <v>0</v>
+      </c>
+      <c r="D14" s="57">
+        <v>0</v>
+      </c>
+      <c r="E14" s="57">
+        <v>0</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0</v>
+      </c>
+      <c r="G14" s="57">
+        <v>0</v>
+      </c>
+      <c r="H14" s="56">
+        <v>1</v>
+      </c>
+      <c r="I14" s="56">
+        <v>1</v>
+      </c>
+      <c r="J14" s="56">
+        <v>1</v>
+      </c>
+      <c r="K14" s="56">
+        <v>1</v>
+      </c>
       <c r="L14" s="57">
         <v>0</v>
       </c>
@@ -5944,8 +6576,8 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="14" t="s">
-        <v>99</v>
+      <c r="B15" s="52" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="57">
         <v>0</v>
@@ -5963,66 +6595,69 @@
         <v>0</v>
       </c>
       <c r="H15" s="56">
-        <v>1</v>
-      </c>
-      <c r="I15" s="56">
-        <v>1</v>
-      </c>
-      <c r="J15" s="56">
-        <v>1</v>
-      </c>
-      <c r="K15" s="56">
-        <v>1</v>
-      </c>
-      <c r="L15" s="57">
-        <v>0</v>
-      </c>
-      <c r="M15" s="57">
-        <v>0</v>
-      </c>
-      <c r="N15" s="57">
-        <v>0</v>
-      </c>
-      <c r="O15" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="57">
-        <v>0</v>
-      </c>
-      <c r="D16" s="57">
-        <v>0</v>
-      </c>
-      <c r="E16" s="57">
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0</v>
-      </c>
-      <c r="G16" s="57">
-        <v>0</v>
-      </c>
-      <c r="H16" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I15" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J15" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K15" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
+      <c r="L15" s="57">
+        <v>0</v>
+      </c>
+      <c r="M15" s="57">
+        <v>0</v>
+      </c>
+      <c r="N15" s="57">
+        <v>0</v>
+      </c>
+      <c r="O15" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="57">
+        <v>0</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0</v>
+      </c>
+      <c r="E16" s="57">
+        <v>0</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0</v>
+      </c>
+      <c r="G16" s="57">
+        <v>0</v>
+      </c>
+      <c r="H16" s="56">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="56">
+        <f t="shared" ref="I16:K16" si="0" xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="L16" s="57">
         <v>0</v>
       </c>
@@ -6036,9 +6671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="14" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C17" s="57">
         <v>0</v>
@@ -6056,19 +6691,15 @@
         <v>0</v>
       </c>
       <c r="H17" s="56">
-        <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="I17" s="56">
-        <f t="shared" ref="I17:K17" si="0" xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="J17" s="56">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K17" s="56">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L17" s="57">
@@ -6086,149 +6717,149 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="57">
+        <v>0</v>
+      </c>
+      <c r="D18" s="57">
+        <v>0</v>
+      </c>
+      <c r="E18" s="57">
+        <v>0</v>
+      </c>
+      <c r="F18" s="57">
+        <v>0</v>
+      </c>
+      <c r="G18" s="57">
+        <v>0</v>
+      </c>
+      <c r="H18" s="56">
+        <v>1</v>
+      </c>
+      <c r="I18" s="56">
+        <v>1</v>
+      </c>
+      <c r="J18" s="56">
+        <v>1</v>
+      </c>
+      <c r="K18" s="56">
+        <v>1</v>
+      </c>
+      <c r="L18" s="57">
+        <v>0</v>
+      </c>
+      <c r="M18" s="57">
+        <v>0</v>
+      </c>
+      <c r="N18" s="57">
+        <v>0</v>
+      </c>
+      <c r="O18" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="57">
+        <v>0</v>
+      </c>
+      <c r="D19" s="57">
+        <v>0</v>
+      </c>
+      <c r="E19" s="57">
+        <v>0</v>
+      </c>
+      <c r="F19" s="57">
+        <v>0</v>
+      </c>
+      <c r="G19" s="57">
+        <v>0</v>
+      </c>
+      <c r="H19" s="56">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="56">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="56">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="56">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="57">
+        <v>0</v>
+      </c>
+      <c r="M19" s="57">
+        <v>0</v>
+      </c>
+      <c r="N19" s="57">
+        <v>0</v>
+      </c>
+      <c r="O19" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="52"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="57">
-        <v>0</v>
-      </c>
-      <c r="D18" s="57">
-        <v>0</v>
-      </c>
-      <c r="E18" s="57">
-        <v>0</v>
-      </c>
-      <c r="F18" s="57">
-        <v>0</v>
-      </c>
-      <c r="G18" s="57">
-        <v>0</v>
-      </c>
-      <c r="H18" s="56">
-        <v>1</v>
-      </c>
-      <c r="I18" s="56">
-        <v>1</v>
-      </c>
-      <c r="J18" s="56">
-        <v>1</v>
-      </c>
-      <c r="K18" s="56">
-        <v>1</v>
-      </c>
-      <c r="L18" s="57">
-        <v>0</v>
-      </c>
-      <c r="M18" s="57">
-        <v>0</v>
-      </c>
-      <c r="N18" s="57">
-        <v>0</v>
-      </c>
-      <c r="O18" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="57">
-        <v>0</v>
-      </c>
-      <c r="D19" s="57">
-        <v>0</v>
-      </c>
-      <c r="E19" s="57">
-        <v>0</v>
-      </c>
-      <c r="F19" s="57">
-        <v>0</v>
-      </c>
-      <c r="G19" s="57">
-        <v>0</v>
-      </c>
-      <c r="H19" s="56">
-        <v>1</v>
-      </c>
-      <c r="I19" s="56">
-        <v>1</v>
-      </c>
-      <c r="J19" s="56">
-        <v>1</v>
-      </c>
-      <c r="K19" s="56">
-        <v>1</v>
-      </c>
-      <c r="L19" s="57">
-        <v>0</v>
-      </c>
-      <c r="M19" s="57">
-        <v>0</v>
-      </c>
-      <c r="N19" s="57">
-        <v>0</v>
-      </c>
-      <c r="O19" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="57">
-        <v>0</v>
-      </c>
-      <c r="D20" s="57">
-        <v>0</v>
-      </c>
-      <c r="E20" s="57">
-        <v>0</v>
-      </c>
-      <c r="F20" s="57">
-        <v>0</v>
-      </c>
-      <c r="G20" s="57">
-        <v>0</v>
-      </c>
-      <c r="H20" s="56">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="56">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="56">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="56">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="57">
-        <v>0</v>
-      </c>
-      <c r="M20" s="57">
-        <v>0</v>
-      </c>
-      <c r="N20" s="57">
-        <v>0</v>
-      </c>
-      <c r="O20" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="52"/>
+      <c r="C21" s="57">
+        <v>0</v>
+      </c>
+      <c r="D21" s="57">
+        <v>0</v>
+      </c>
+      <c r="E21" s="57">
+        <v>0</v>
+      </c>
+      <c r="F21" s="57">
+        <v>0</v>
+      </c>
+      <c r="G21" s="57">
+        <v>0</v>
+      </c>
+      <c r="H21" s="57">
+        <v>0</v>
+      </c>
+      <c r="I21" s="57">
+        <v>0</v>
+      </c>
+      <c r="J21" s="57">
+        <v>0</v>
+      </c>
+      <c r="K21" s="57">
+        <v>0</v>
+      </c>
+      <c r="L21" s="58">
+        <v>1</v>
+      </c>
+      <c r="M21" s="58">
+        <v>1</v>
+      </c>
+      <c r="N21" s="58">
+        <v>1</v>
+      </c>
+      <c r="O21" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="104" t="s">
-        <v>102</v>
+      <c r="B22" s="103" t="s">
+        <v>69</v>
       </c>
       <c r="C22" s="57">
         <v>0</v>
@@ -6257,22 +6888,22 @@
       <c r="K22" s="57">
         <v>0</v>
       </c>
-      <c r="L22" s="58">
-        <v>1</v>
-      </c>
-      <c r="M22" s="58">
-        <v>1</v>
-      </c>
-      <c r="N22" s="58">
-        <v>1</v>
-      </c>
-      <c r="O22" s="58">
+      <c r="L22" s="56">
+        <v>1</v>
+      </c>
+      <c r="M22" s="56">
+        <v>1</v>
+      </c>
+      <c r="N22" s="56">
+        <v>1</v>
+      </c>
+      <c r="O22" s="56">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="104" t="s">
-        <v>70</v>
+      <c r="B23" s="103" t="s">
+        <v>213</v>
       </c>
       <c r="C23" s="57">
         <v>0</v>
@@ -6302,278 +6933,289 @@
         <v>0</v>
       </c>
       <c r="L23" s="56">
-        <v>1</v>
-      </c>
-      <c r="M23" s="56">
-        <v>1</v>
-      </c>
-      <c r="N23" s="56">
-        <v>1</v>
-      </c>
-      <c r="O23" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="57">
-        <v>0</v>
-      </c>
-      <c r="D24" s="57">
-        <v>0</v>
-      </c>
-      <c r="E24" s="57">
-        <v>0</v>
-      </c>
-      <c r="F24" s="57">
-        <v>0</v>
-      </c>
-      <c r="G24" s="57">
-        <v>0</v>
-      </c>
-      <c r="H24" s="57">
-        <v>0</v>
-      </c>
-      <c r="I24" s="57">
-        <v>0</v>
-      </c>
-      <c r="J24" s="57">
-        <v>0</v>
-      </c>
-      <c r="K24" s="57">
-        <v>0</v>
-      </c>
-      <c r="L24" s="56">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.36650879999999997</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M23" s="56">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="N24" s="56">
+      <c r="N23" s="56">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="O24" s="56">
+      <c r="O23" s="56">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="104" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="57">
-        <v>0</v>
-      </c>
-      <c r="D25" s="57">
-        <v>0</v>
-      </c>
-      <c r="E25" s="57">
-        <v>0</v>
-      </c>
-      <c r="F25" s="57">
-        <v>0</v>
-      </c>
-      <c r="G25" s="57">
-        <v>0</v>
-      </c>
-      <c r="H25" s="57">
-        <v>0</v>
-      </c>
-      <c r="I25" s="57">
-        <v>0</v>
-      </c>
-      <c r="J25" s="57">
-        <v>0</v>
-      </c>
-      <c r="K25" s="57">
-        <v>0</v>
-      </c>
-      <c r="L25" s="56">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="57">
+        <v>0</v>
+      </c>
+      <c r="D24" s="57">
+        <v>0</v>
+      </c>
+      <c r="E24" s="57">
+        <v>0</v>
+      </c>
+      <c r="F24" s="57">
+        <v>0</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0</v>
+      </c>
+      <c r="H24" s="57">
+        <v>0</v>
+      </c>
+      <c r="I24" s="57">
+        <v>0</v>
+      </c>
+      <c r="J24" s="57">
+        <v>0</v>
+      </c>
+      <c r="K24" s="57">
+        <v>0</v>
+      </c>
+      <c r="L24" s="56">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.1570752</v>
       </c>
-      <c r="M25" s="56">
+      <c r="M24" s="56">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
-      <c r="N25" s="56">
+      <c r="N24" s="56">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
-      <c r="O25" s="56">
+      <c r="O24" s="56">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="57">
-        <v>0</v>
-      </c>
-      <c r="D26" s="57">
-        <v>0</v>
-      </c>
-      <c r="E26" s="57">
-        <v>0</v>
-      </c>
-      <c r="F26" s="57">
-        <v>0</v>
-      </c>
-      <c r="G26" s="57">
-        <v>0</v>
-      </c>
-      <c r="H26" s="57">
-        <v>0</v>
-      </c>
-      <c r="I26" s="57">
-        <v>0</v>
-      </c>
-      <c r="J26" s="57">
-        <v>0</v>
-      </c>
-      <c r="K26" s="57">
-        <v>0</v>
-      </c>
-      <c r="L26" s="56">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="57">
+        <v>0</v>
+      </c>
+      <c r="D25" s="57">
+        <v>0</v>
+      </c>
+      <c r="E25" s="57">
+        <v>0</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0</v>
+      </c>
+      <c r="G25" s="57">
+        <v>0</v>
+      </c>
+      <c r="H25" s="57">
+        <v>0</v>
+      </c>
+      <c r="I25" s="57">
+        <v>0</v>
+      </c>
+      <c r="J25" s="57">
+        <v>0</v>
+      </c>
+      <c r="K25" s="57">
+        <v>0</v>
+      </c>
+      <c r="L25" s="56">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.12441600000000001</v>
       </c>
-      <c r="M26" s="56">
+      <c r="M25" s="56">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
-      <c r="N26" s="56">
+      <c r="N25" s="56">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
-      <c r="O26" s="56">
+      <c r="O25" s="56">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="104" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="57">
-        <v>0</v>
-      </c>
-      <c r="D27" s="57">
-        <v>0</v>
-      </c>
-      <c r="E27" s="57">
-        <v>0</v>
-      </c>
-      <c r="F27" s="57">
-        <v>0</v>
-      </c>
-      <c r="G27" s="57">
-        <v>0</v>
-      </c>
-      <c r="H27" s="57">
-        <v>0</v>
-      </c>
-      <c r="I27" s="57">
-        <v>0</v>
-      </c>
-      <c r="J27" s="57">
-        <v>0</v>
-      </c>
-      <c r="K27" s="57">
-        <v>0</v>
-      </c>
-      <c r="L27" s="56">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="57">
+        <v>0</v>
+      </c>
+      <c r="D26" s="57">
+        <v>0</v>
+      </c>
+      <c r="E26" s="57">
+        <v>0</v>
+      </c>
+      <c r="F26" s="57">
+        <v>0</v>
+      </c>
+      <c r="G26" s="57">
+        <v>0</v>
+      </c>
+      <c r="H26" s="57">
+        <v>0</v>
+      </c>
+      <c r="I26" s="57">
+        <v>0</v>
+      </c>
+      <c r="J26" s="57">
+        <v>0</v>
+      </c>
+      <c r="K26" s="57">
+        <v>0</v>
+      </c>
+      <c r="L26" s="56">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0.35199999999999998</v>
       </c>
-      <c r="M27" s="56">
-        <v>0</v>
-      </c>
-      <c r="N27" s="56">
-        <v>0</v>
-      </c>
-      <c r="O27" s="56">
-        <v>0</v>
-      </c>
+      <c r="M26" s="56">
+        <v>0</v>
+      </c>
+      <c r="N26" s="56">
+        <v>0</v>
+      </c>
+      <c r="O26" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="14"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="56">
-        <v>0</v>
-      </c>
-      <c r="D29" s="56">
-        <v>0</v>
-      </c>
-      <c r="E29" s="56">
-        <f t="shared" ref="E29:O29" si="1">frac_maize</f>
+      <c r="C28" s="56">
+        <v>0</v>
+      </c>
+      <c r="D28" s="56">
+        <v>0</v>
+      </c>
+      <c r="E28" s="56">
+        <f t="shared" ref="E28:O28" si="1">frac_maize</f>
         <v>0.05</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="M29" s="56">
+      <c r="M28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="N29" s="56">
+      <c r="N28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="O29" s="56">
+      <c r="O28" s="56">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
     </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="56">
+        <v>0</v>
+      </c>
+      <c r="D29" s="56">
+        <v>0</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" ref="E29:O29" si="2">frac_rice</f>
+        <v>0.8</v>
+      </c>
+      <c r="F29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="H29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="I29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="J29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="L29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="N29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="O29" s="56">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="56">
         <v>0</v>
@@ -6582,53 +7224,53 @@
         <v>0</v>
       </c>
       <c r="E30" s="56">
-        <f t="shared" ref="E30:O30" si="2">frac_rice</f>
-        <v>0.8</v>
+        <f t="shared" ref="E30:O30" si="3">frac_wheat</f>
+        <v>0.12</v>
       </c>
       <c r="F30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="G30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="H30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="I30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="J30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="K30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="L30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="M30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="N30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
       <c r="O30" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
+        <f t="shared" si="3"/>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C31" s="56">
         <v>0</v>
@@ -6637,154 +7279,144 @@
         <v>0</v>
       </c>
       <c r="E31" s="56">
-        <f t="shared" ref="E31:O31" si="3">frac_wheat</f>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="H31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="I31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="J31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="K31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="L31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="M31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="N31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="O31" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C32" s="56">
-        <v>0</v>
+        <f t="shared" ref="C32:O32" si="4">frac_malaria_risk</f>
+        <v>0.1</v>
       </c>
       <c r="D32" s="56">
-        <v>0</v>
-      </c>
-      <c r="E32" s="56">
-        <v>1</v>
-      </c>
-      <c r="F32" s="56">
-        <v>1</v>
-      </c>
-      <c r="G32" s="56">
-        <v>1</v>
-      </c>
-      <c r="H32" s="56">
-        <v>1</v>
-      </c>
-      <c r="I32" s="56">
-        <v>1</v>
-      </c>
-      <c r="J32" s="56">
-        <v>1</v>
-      </c>
-      <c r="K32" s="56">
-        <v>1</v>
-      </c>
-      <c r="L32" s="56">
-        <v>1</v>
-      </c>
-      <c r="M32" s="56">
-        <v>1</v>
-      </c>
-      <c r="N32" s="56">
-        <v>1</v>
-      </c>
-      <c r="O32" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="56">
-        <f t="shared" ref="C33:O33" si="4">frac_malaria_risk</f>
-        <v>0.1</v>
-      </c>
-      <c r="D33" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="M33" s="56">
+      <c r="M32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O32" s="56">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="56">
+        <v>1</v>
+      </c>
+      <c r="D33" s="56">
+        <v>1</v>
+      </c>
+      <c r="E33" s="56">
+        <v>1</v>
+      </c>
+      <c r="F33" s="56">
+        <v>1</v>
+      </c>
+      <c r="G33" s="56">
+        <v>1</v>
+      </c>
+      <c r="H33" s="56">
+        <v>1</v>
+      </c>
+      <c r="I33" s="56">
+        <v>1</v>
+      </c>
+      <c r="J33" s="56">
+        <v>1</v>
+      </c>
+      <c r="K33" s="56">
+        <v>1</v>
+      </c>
+      <c r="L33" s="56">
+        <v>1</v>
+      </c>
+      <c r="M33" s="56">
+        <v>1</v>
+      </c>
+      <c r="N33" s="56">
+        <v>1</v>
+      </c>
+      <c r="O33" s="56">
+        <v>1</v>
+      </c>
+    </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
       <c r="B34" s="52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C34" s="56">
         <v>1</v>
@@ -6826,10 +7458,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="56">
         <v>1</v>
@@ -6873,7 +7504,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36" s="56">
         <v>1</v>
@@ -6959,56 +7590,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="56">
-        <v>1</v>
-      </c>
-      <c r="D38" s="56">
-        <v>1</v>
-      </c>
-      <c r="E38" s="56">
-        <v>1</v>
-      </c>
-      <c r="F38" s="56">
-        <v>1</v>
-      </c>
-      <c r="G38" s="56">
-        <v>1</v>
-      </c>
-      <c r="H38" s="56">
-        <v>1</v>
-      </c>
-      <c r="I38" s="56">
-        <v>1</v>
-      </c>
-      <c r="J38" s="56">
-        <v>1</v>
-      </c>
-      <c r="K38" s="56">
-        <v>1</v>
-      </c>
-      <c r="L38" s="56">
-        <v>1</v>
-      </c>
-      <c r="M38" s="56">
-        <v>1</v>
-      </c>
-      <c r="N38" s="56">
-        <v>1</v>
-      </c>
-      <c r="O38" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="52"/>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="52"/>
     </row>
   </sheetData>
-  <sortState ref="B2:O12">
-    <sortCondition ref="B2:B12"/>
+  <sortState ref="B2:O11">
+    <sortCondition ref="B2:B11"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7016,7 +7603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -7038,24 +7625,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="63">
         <v>0.9</v>
@@ -7073,7 +7660,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B3" s="63">
         <v>1</v>
@@ -7091,7 +7678,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" s="63">
         <v>1</v>
@@ -7109,7 +7696,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="63">
         <v>1</v>
@@ -7127,7 +7714,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B6" s="63">
         <v>1</v>
@@ -7145,7 +7732,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="63">
         <v>0.93</v>
@@ -7163,7 +7750,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="63">
         <v>0.5</v>
@@ -7181,7 +7768,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="63">
         <v>0.5</v>
@@ -7199,7 +7786,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" s="63">
         <v>0.98</v>
@@ -7244,7 +7831,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
@@ -7267,7 +7854,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="33">
         <v>7.0000000000000001E-3</v>
@@ -7451,7 +8038,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="34">
         <v>0</v>
@@ -7896,10 +8483,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>128</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>50</v>
@@ -7914,16 +8501,16 @@
         <v>53</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" s="31" t="s">
         <v>37</v>
@@ -8542,7 +9129,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -8565,10 +9152,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="49">
         <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE)</f>
@@ -8594,7 +9181,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="49">
         <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5)</f>
@@ -8620,7 +9207,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="39">
         <v>0.10199999999999999</v>
@@ -8641,7 +9228,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="39">
         <v>3.7999999999999999E-2</v>
@@ -8677,10 +9264,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="49">
         <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE)</f>
@@ -8705,7 +9292,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="49">
         <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11)</f>
@@ -8730,7 +9317,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="39">
         <v>0.15</v>
@@ -8750,7 +9337,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="39">
         <v>4.9000000000000002E-2</v>
@@ -8784,7 +9371,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1</v>
@@ -8828,7 +9415,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="50">
         <v>0.1</v>
@@ -8872,7 +9459,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="49">
         <f t="shared" ref="C15:O15" si="4">iron_deficiency_anaemia*C14</f>
@@ -8967,7 +9554,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -8993,7 +9580,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="39">
         <v>0.80299999999999994</v>
@@ -9013,7 +9600,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="39">
         <v>6.8000000000000005E-2</v>
@@ -9033,7 +9620,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="39">
         <v>0.107</v>
@@ -9053,7 +9640,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="49">
         <f>1-SUM(C2:C4)</f>
@@ -9100,10 +9687,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -9135,10 +9722,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9155,10 +9742,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9175,10 +9762,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -9206,7 +9793,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -9220,10 +9807,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -9237,7 +9824,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -9251,10 +9838,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -9268,7 +9855,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9294,7 +9881,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9307,21 +9894,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="45">
         <v>0.15</v>
@@ -9329,7 +9916,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="45">
         <v>0.03</v>
@@ -9337,7 +9924,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="45">
         <v>0</v>
@@ -9345,7 +9932,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="45">
         <v>0.19</v>
@@ -9353,7 +9940,7 @@
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="45">
         <v>0.39</v>
@@ -9361,7 +9948,7 @@
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="45">
         <v>0.19</v>
@@ -9369,7 +9956,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="45">
         <v>1E-3</v>
@@ -9377,7 +9964,7 @@
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" s="45">
         <v>7.0000000000000001E-3</v>
@@ -9385,7 +9972,7 @@
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="45">
         <v>0.04</v>
@@ -9393,7 +9980,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="47">
         <f>SUM(C2:C10)</f>
@@ -9406,10 +9993,10 @@
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>87</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>88</v>
       </c>
       <c r="C13" s="45">
         <v>0.34</v>
@@ -9417,7 +10004,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="45">
         <v>0.05</v>
@@ -9425,7 +10012,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="45">
         <v>7.0000000000000007E-2</v>
@@ -9433,7 +10020,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="45">
         <v>0.54</v>
@@ -9441,7 +10028,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="47">
         <f>SUM(C13:C16)</f>
@@ -9462,7 +10049,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9475,33 +10062,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E1" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="99" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -9559,7 +10146,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="74"/>
       <c r="B7" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="71"/>
@@ -9567,7 +10154,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>32</v>
@@ -9585,10 +10172,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="99" t="str">
         <f>IF(E$14="","",E$14)</f>
@@ -9634,17 +10221,17 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
       <c r="B14" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="71"/>
       <c r="E14" s="76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" s="73" t="s">
         <v>32</v>
@@ -9707,7 +10294,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
       <c r="B21" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="72"/>
       <c r="D21" s="71"/>
@@ -9721,574 +10308,63 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE4650B-7A35-4B48-AEF2-692F4EBB38C8}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56" style="82" customWidth="1"/>
-    <col min="2" max="2" width="20" style="61" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="60" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="60" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="60"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="90" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="83">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D2" s="84">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="83">
-        <v>0</v>
-      </c>
-      <c r="C3" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D3" s="84">
-        <v>0.8</v>
-      </c>
-      <c r="E3" s="89"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="83">
-        <v>0</v>
-      </c>
-      <c r="C4" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D4" s="84">
-        <v>1</v>
-      </c>
-      <c r="E4" s="69"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="83">
-        <v>0.1</v>
-      </c>
-      <c r="C5" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="84">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="E5" s="69"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="83">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="85">
-        <f>SUM('Programs family planning'!E2:E10)</f>
-        <v>0.82100000000000006</v>
-      </c>
-      <c r="E6" s="88"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="83">
-        <v>0</v>
-      </c>
-      <c r="C7" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="84">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E7" s="87"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="83">
-        <v>0</v>
-      </c>
-      <c r="C8" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="84">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="87"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="83">
-        <v>0</v>
-      </c>
-      <c r="C9" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D9" s="84">
-        <v>0.19</v>
-      </c>
-      <c r="E9" s="87"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="83">
-        <v>0</v>
-      </c>
-      <c r="C10" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D10" s="84">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="83">
-        <v>0</v>
-      </c>
-      <c r="C11" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D11" s="84">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="52" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="104" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="83">
-        <v>0</v>
-      </c>
-      <c r="C12" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D12" s="84">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="83">
-        <v>0</v>
-      </c>
-      <c r="C13" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D13" s="84">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="83">
-        <v>0</v>
-      </c>
-      <c r="C14" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D14" s="84">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="83">
-        <v>0</v>
-      </c>
-      <c r="C15" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="84">
-        <v>1.78</v>
-      </c>
-      <c r="E15" s="69"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="83">
-        <v>0</v>
-      </c>
-      <c r="C16" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D16" s="84">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="69"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" s="83">
-        <v>0</v>
-      </c>
-      <c r="C17" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D17" s="102">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="82" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" s="83">
-        <v>0</v>
-      </c>
-      <c r="C18" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D18" s="102">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
-        <v>1.4700000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="83">
-        <v>0</v>
-      </c>
-      <c r="C19" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="102">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="83">
-        <v>0</v>
-      </c>
-      <c r="C20" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D20" s="84">
-        <v>50</v>
-      </c>
-      <c r="E20" s="69"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="83">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D21" s="84">
-        <v>2.61</v>
-      </c>
-      <c r="E21" s="69"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="83">
-        <v>0</v>
-      </c>
-      <c r="C22" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D22" s="84">
-        <v>1</v>
-      </c>
-      <c r="E22" s="69"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="83">
-        <v>0</v>
-      </c>
-      <c r="C23" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D23" s="84">
-        <v>1</v>
-      </c>
-      <c r="E23" s="86"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="83">
-        <v>0</v>
-      </c>
-      <c r="C24" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D24" s="84">
-        <v>1</v>
-      </c>
-      <c r="E24" s="69"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="83">
-        <v>0</v>
-      </c>
-      <c r="C25" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D25" s="84">
-        <v>2.99</v>
-      </c>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="83">
-        <v>0</v>
-      </c>
-      <c r="C26" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D26" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="83">
-        <v>0</v>
-      </c>
-      <c r="C27" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D27" s="84">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="82" t="s">
+      <c r="C1" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="83">
-        <v>0</v>
-      </c>
-      <c r="C28" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D28" s="85">
-        <f>30*AVERAGE('Incidence of conditions'!B3:F3)</f>
-        <v>10.046400000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="83">
-        <v>0</v>
-      </c>
-      <c r="C29" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D29" s="85">
-        <f>179.97*AVERAGE('Incidence of conditions'!B4:F4)</f>
-        <v>19.933477200000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="83">
-        <v>0</v>
-      </c>
-      <c r="C30" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D30" s="84">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="83">
-        <v>0</v>
-      </c>
-      <c r="C31" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D31" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="83">
-        <v>0</v>
-      </c>
-      <c r="C32" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D32" s="84">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="83">
-        <v>0</v>
-      </c>
-      <c r="C33" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D33" s="84">
-        <v>50.26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="83">
-        <v>0</v>
-      </c>
-      <c r="C34" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D34" s="84">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="83">
-        <v>0</v>
-      </c>
-      <c r="C35" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D35" s="103">
-        <v>231.85</v>
-      </c>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="83">
-        <v>0</v>
-      </c>
-      <c r="C36" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D36" s="103">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="83">
-        <v>0</v>
-      </c>
-      <c r="C37" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D37" s="103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="61"/>
+      <c r="C2" s="73" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="76"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="105" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="76"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D54">
-    <sortCondition ref="A2:A54"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/master/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7557F005-97FD-CC47-9CFF-9F0C34B14CF3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BD04A38-77C5-2C4B-B409-6DB023E1111D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31260" yWindow="-20060" windowWidth="27100" windowHeight="18820" tabRatio="961" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="-20740" windowWidth="27100" windowHeight="18820" tabRatio="961" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{FE58E1C7-CE8A-D54E-AB98-874E3A6FBFD4}">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{FE58E1C7-CE8A-D54E-AB98-874E3A6FBFD4}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +417,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0" shapeId="0" xr:uid="{E6EC9594-3F7C-C445-8380-01CE49FD40BB}">
+    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{E6EC9594-3F7C-C445-8380-01CE49FD40BB}">
       <text>
         <r>
           <rPr>
@@ -532,7 +532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="223">
   <si>
     <t>year</t>
   </si>
@@ -636,9 +636,6 @@
     <t>Broad population group</t>
   </si>
   <si>
-    <t>Iron and folic acid supplementation for pregnant women</t>
-  </si>
-  <si>
     <t>Long-lasting insecticide-treated bednets</t>
   </si>
   <si>
@@ -1170,18 +1167,6 @@
     <t>Exclusion dependency</t>
   </si>
   <si>
-    <t>IFAS: school</t>
-  </si>
-  <si>
-    <t>IFAS: community</t>
-  </si>
-  <si>
-    <t>IFAS: hospital</t>
-  </si>
-  <si>
-    <t>IFAS: retailer</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -1198,6 +1183,24 @@
   </si>
   <si>
     <t>Add extension</t>
+  </si>
+  <si>
+    <t>IFAS for pregnant women (community)</t>
+  </si>
+  <si>
+    <t>IFAS (community)</t>
+  </si>
+  <si>
+    <t>IFAS (hospital)</t>
+  </si>
+  <si>
+    <t>IFAS (retailer)</t>
+  </si>
+  <si>
+    <t>IFAS (school)</t>
+  </si>
+  <si>
+    <t>IFAS for pregnant women (hospital)</t>
   </si>
 </sst>
 </file>
@@ -4595,23 +4598,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>188</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="24">
         <v>0.36</v>
@@ -4619,7 +4622,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" s="23">
         <v>0.1</v>
@@ -4627,7 +4630,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="23">
         <v>0.35199999999999998</v>
@@ -4635,7 +4638,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="24">
         <v>0.5</v>
@@ -4643,7 +4646,7 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="24">
         <v>0.3</v>
@@ -4651,7 +4654,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="24">
         <v>0.1</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="23">
         <v>0.3</v>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="23">
         <v>0.8</v>
@@ -4685,7 +4688,7 @@
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="23">
         <v>0.12</v>
@@ -4693,7 +4696,7 @@
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="23">
         <v>0.05</v>
@@ -4701,7 +4704,7 @@
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="26">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
@@ -4713,12 +4716,12 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="23">
         <v>0.29978973218277538</v>
@@ -4726,7 +4729,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="23">
         <v>0.52556568434139284</v>
@@ -4734,7 +4737,7 @@
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="23">
         <v>0.16210210664201097</v>
@@ -4742,7 +4745,7 @@
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="23">
         <v>1.2542476833820825E-2</v>
@@ -4751,19 +4754,19 @@
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="25">
         <v>25.4</v>
@@ -4771,7 +4774,7 @@
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="25">
         <v>34.68</v>
@@ -4781,7 +4784,7 @@
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="25">
         <v>39.32</v>
@@ -4791,7 +4794,7 @@
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C28" s="25">
         <v>1.76</v>
@@ -4799,7 +4802,7 @@
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="23">
         <v>0.13</v>
@@ -4807,7 +4810,7 @@
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="25">
         <v>25.36</v>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="20"/>
     </row>
@@ -4866,13 +4869,13 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" s="7">
         <v>2.4300000000000002</v>
@@ -4881,7 +4884,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="7">
         <v>2.4300000000000002</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="7">
         <v>3.71</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
@@ -4905,7 +4908,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="7">
         <v>1.92</v>
@@ -4913,12 +4916,12 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C46" s="24">
         <v>0.2</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="24">
         <v>0.42</v>
@@ -4934,7 +4937,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="24">
         <v>0.9</v>
@@ -4942,7 +4945,7 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" s="24">
         <v>0.1</v>
@@ -4962,10 +4965,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4979,16 +4982,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5007,7 +5010,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="83">
         <v>0</v>
@@ -5022,7 +5025,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="83">
         <v>0</v>
@@ -5037,7 +5040,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="83">
         <v>0.1</v>
@@ -5053,7 +5056,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="83">
         <v>0.5</v>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="83">
         <v>0</v>
@@ -5084,7 +5087,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="83">
         <v>0</v>
@@ -5099,7 +5102,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="83">
         <v>0</v>
@@ -5113,8 +5116,8 @@
       <c r="E9" s="87"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="52" t="s">
-        <v>213</v>
+      <c r="A10" s="103" t="s">
+        <v>218</v>
       </c>
       <c r="B10" s="83">
         <v>0</v>
@@ -5127,8 +5130,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="52" t="s">
-        <v>214</v>
+      <c r="A11" s="103" t="s">
+        <v>219</v>
       </c>
       <c r="B11" s="83">
         <v>0</v>
@@ -5141,8 +5144,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="52" t="s">
-        <v>215</v>
+      <c r="A12" s="103" t="s">
+        <v>220</v>
       </c>
       <c r="B12" s="83">
         <v>0</v>
@@ -5155,8 +5158,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52" t="s">
-        <v>212</v>
+      <c r="A13" s="103" t="s">
+        <v>221</v>
       </c>
       <c r="B13" s="83">
         <v>0</v>
@@ -5169,8 +5172,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="82" t="s">
-        <v>58</v>
+      <c r="A14" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="B14" s="83">
         <v>0</v>
@@ -5179,12 +5182,12 @@
         <v>0.95</v>
       </c>
       <c r="D14" s="84">
-        <v>2.06</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="82" t="s">
-        <v>34</v>
+      <c r="A15" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="B15" s="83">
         <v>0</v>
@@ -5195,11 +5198,10 @@
       <c r="D15" s="84">
         <v>1.78</v>
       </c>
-      <c r="E15" s="69"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="82" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B16" s="83">
         <v>0</v>
@@ -5208,13 +5210,13 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="84">
-        <v>0.25</v>
+        <v>2.06</v>
       </c>
       <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="82" t="s">
-        <v>200</v>
+        <v>47</v>
       </c>
       <c r="B17" s="83">
         <v>0</v>
@@ -5222,10 +5224,10 @@
       <c r="C17" s="83">
         <v>0.95</v>
       </c>
-      <c r="D17" s="102">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
-        <v>1.22</v>
-      </c>
+      <c r="D17" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="82" t="s">
@@ -5238,28 +5240,28 @@
         <v>0.95</v>
       </c>
       <c r="D18" s="102">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="83">
+        <v>0</v>
+      </c>
+      <c r="C19" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="102">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
         <v>1.4700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="83">
-        <v>0</v>
-      </c>
-      <c r="C19" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="102">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="82" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B20" s="83">
         <v>0</v>
@@ -5267,38 +5269,38 @@
       <c r="C20" s="83">
         <v>0.95</v>
       </c>
-      <c r="D20" s="84">
-        <v>50</v>
-      </c>
-      <c r="E20" s="69"/>
+      <c r="D20" s="102">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="82" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B21" s="83">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="83">
         <v>0.95</v>
       </c>
       <c r="D21" s="84">
-        <v>2.61</v>
+        <v>50</v>
       </c>
       <c r="E21" s="69"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="82" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="B22" s="83">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C22" s="83">
         <v>0.95</v>
       </c>
       <c r="D22" s="84">
-        <v>1</v>
+        <v>2.61</v>
       </c>
       <c r="E22" s="69"/>
     </row>
@@ -5315,11 +5317,11 @@
       <c r="D23" s="84">
         <v>1</v>
       </c>
-      <c r="E23" s="86"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="82" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="B24" s="83">
         <v>0</v>
@@ -5330,11 +5332,11 @@
       <c r="D24" s="84">
         <v>1</v>
       </c>
-      <c r="E24" s="69"/>
+      <c r="E24" s="86"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="82" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B25" s="83">
         <v>0</v>
@@ -5343,13 +5345,13 @@
         <v>0.95</v>
       </c>
       <c r="D25" s="84">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="82" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B26" s="83">
         <v>0</v>
@@ -5358,12 +5360,13 @@
         <v>0.95</v>
       </c>
       <c r="D26" s="84">
-        <v>1</v>
-      </c>
+        <v>2.99</v>
+      </c>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="82" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B27" s="83">
         <v>0</v>
@@ -5372,12 +5375,12 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="84">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="82" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B28" s="83">
         <v>0</v>
@@ -5385,28 +5388,28 @@
       <c r="C28" s="83">
         <v>0.95</v>
       </c>
-      <c r="D28" s="85">
+      <c r="D28" s="84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="83">
+        <v>0</v>
+      </c>
+      <c r="C29" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="85">
         <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
         <v>9.9684000000000008</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="83">
-        <v>0</v>
-      </c>
-      <c r="C29" s="83">
-        <v>0.95</v>
-      </c>
-      <c r="D29" s="84">
-        <v>0.35</v>
-      </c>
-    </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="82" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B30" s="83">
         <v>0</v>
@@ -5415,7 +5418,7 @@
         <v>0.95</v>
       </c>
       <c r="D30" s="84">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5429,7 +5432,7 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="84">
-        <v>2.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5443,12 +5446,12 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="84">
-        <v>50.26</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B33" s="83">
         <v>0</v>
@@ -5457,12 +5460,12 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="84">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="83">
         <v>0</v>
@@ -5471,13 +5474,12 @@
         <v>0.95</v>
       </c>
       <c r="D34" s="84">
-        <v>231.85</v>
-      </c>
-      <c r="F34" s="60"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="82" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B35" s="83">
         <v>0</v>
@@ -5486,12 +5488,13 @@
         <v>0.95</v>
       </c>
       <c r="D35" s="84">
-        <v>1.5</v>
-      </c>
+        <v>231.85</v>
+      </c>
+      <c r="F35" s="60"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="82" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B36" s="83">
         <v>0</v>
@@ -5500,15 +5503,29 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="84">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="61"/>
+      <c r="A37" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="83">
+        <v>0</v>
+      </c>
+      <c r="C37" s="83">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="61"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D36">
-    <sortCondition ref="A2:A36"/>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5535,24 +5552,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" s="97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E1" s="97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="95" t="s">
         <v>32</v>
@@ -5651,10 +5668,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5667,44 +5684,50 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
-        <v>34</v>
+      <c r="A2" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>160</v>
       </c>
       <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="82" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="B4" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="76"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="C4" s="76"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
+      <c r="B5" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="76"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
@@ -5726,6 +5749,9 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="52"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5753,47 +5779,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
@@ -5867,7 +5893,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="37">
         <f>'Baseline year population inputs'!C39</f>
@@ -5892,7 +5918,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="37">
         <f>frac_mam_1month * 2.6</f>
@@ -5917,7 +5943,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="37">
         <f>frac_sam_1month * 2.6</f>
@@ -5952,10 +5978,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5975,7 +6001,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -5993,28 +6019,28 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="L1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6022,7 +6048,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="56">
         <v>0</v>
@@ -6070,7 +6096,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" s="59">
         <v>1</v>
@@ -6114,7 +6140,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="56">
         <v>0</v>
@@ -6160,7 +6186,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="56">
         <v>0</v>
@@ -6207,7 +6233,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="56">
         <v>1</v>
@@ -6251,7 +6277,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="56">
         <v>0</v>
@@ -6297,7 +6323,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="56">
         <v>0</v>
@@ -6389,7 +6415,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="56">
         <v>1</v>
@@ -6433,7 +6459,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="56">
         <v>0</v>
@@ -6532,7 +6558,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="57">
         <v>0</v>
@@ -6576,8 +6602,8 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="52" t="s">
-        <v>58</v>
+      <c r="B15" s="14" t="s">
+        <v>217</v>
       </c>
       <c r="C15" s="57">
         <v>0</v>
@@ -6595,112 +6621,117 @@
         <v>0</v>
       </c>
       <c r="H15" s="56">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="56">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="56">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="56">
+        <f xml:space="preserve"> 1</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="57">
+        <v>0</v>
+      </c>
+      <c r="M15" s="57">
+        <v>0</v>
+      </c>
+      <c r="N15" s="57">
+        <v>0</v>
+      </c>
+      <c r="O15" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="57">
+        <v>0</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0</v>
+      </c>
+      <c r="E16" s="57">
+        <v>0</v>
+      </c>
+      <c r="F16" s="57">
+        <v>0</v>
+      </c>
+      <c r="G16" s="57">
+        <v>0</v>
+      </c>
+      <c r="H16" s="56">
+        <f>frac_PW_health_facility</f>
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="56">
+        <f>frac_PW_health_facility</f>
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="56">
+        <f>frac_PW_health_facility</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="56">
+        <f>frac_PW_health_facility</f>
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="57">
+        <v>0</v>
+      </c>
+      <c r="M16" s="57">
+        <v>0</v>
+      </c>
+      <c r="N16" s="57">
+        <v>0</v>
+      </c>
+      <c r="O16" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="57">
+        <v>0</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0</v>
+      </c>
+      <c r="G17" s="57">
+        <v>0</v>
+      </c>
+      <c r="H17" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I17" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J17" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K17" s="56">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
-      </c>
-      <c r="L15" s="57">
-        <v>0</v>
-      </c>
-      <c r="M15" s="57">
-        <v>0</v>
-      </c>
-      <c r="N15" s="57">
-        <v>0</v>
-      </c>
-      <c r="O15" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="57">
-        <v>0</v>
-      </c>
-      <c r="D16" s="57">
-        <v>0</v>
-      </c>
-      <c r="E16" s="57">
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0</v>
-      </c>
-      <c r="G16" s="57">
-        <v>0</v>
-      </c>
-      <c r="H16" s="56">
-        <f xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="56">
-        <f t="shared" ref="I16:K16" si="0" xml:space="preserve"> 1</f>
-        <v>1</v>
-      </c>
-      <c r="J16" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L16" s="57">
-        <v>0</v>
-      </c>
-      <c r="M16" s="57">
-        <v>0</v>
-      </c>
-      <c r="N16" s="57">
-        <v>0</v>
-      </c>
-      <c r="O16" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="57">
-        <v>0</v>
-      </c>
-      <c r="D17" s="57">
-        <v>0</v>
-      </c>
-      <c r="E17" s="57">
-        <v>0</v>
-      </c>
-      <c r="F17" s="57">
-        <v>0</v>
-      </c>
-      <c r="G17" s="57">
-        <v>0</v>
-      </c>
-      <c r="H17" s="56">
-        <v>1</v>
-      </c>
-      <c r="I17" s="56">
-        <v>1</v>
-      </c>
-      <c r="J17" s="56">
-        <v>1</v>
-      </c>
-      <c r="K17" s="56">
-        <v>1</v>
       </c>
       <c r="L17" s="57">
         <v>0</v>
@@ -6760,8 +6791,8 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="52" t="s">
-        <v>60</v>
+      <c r="B19" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C19" s="57">
         <v>0</v>
@@ -6779,87 +6810,87 @@
         <v>0</v>
       </c>
       <c r="H19" s="56">
+        <v>1</v>
+      </c>
+      <c r="I19" s="56">
+        <v>1</v>
+      </c>
+      <c r="J19" s="56">
+        <v>1</v>
+      </c>
+      <c r="K19" s="56">
+        <v>1</v>
+      </c>
+      <c r="L19" s="57">
+        <v>0</v>
+      </c>
+      <c r="M19" s="57">
+        <v>0</v>
+      </c>
+      <c r="N19" s="57">
+        <v>0</v>
+      </c>
+      <c r="O19" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="57">
+        <v>0</v>
+      </c>
+      <c r="D20" s="57">
+        <v>0</v>
+      </c>
+      <c r="E20" s="57">
+        <v>0</v>
+      </c>
+      <c r="F20" s="57">
+        <v>0</v>
+      </c>
+      <c r="G20" s="57">
+        <v>0</v>
+      </c>
+      <c r="H20" s="56">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I20" s="56">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J20" s="56">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K19" s="56">
+      <c r="K20" s="56">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L19" s="57">
-        <v>0</v>
-      </c>
-      <c r="M19" s="57">
-        <v>0</v>
-      </c>
-      <c r="N19" s="57">
-        <v>0</v>
-      </c>
-      <c r="O19" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="52"/>
+      <c r="L20" s="57">
+        <v>0</v>
+      </c>
+      <c r="M20" s="57">
+        <v>0</v>
+      </c>
+      <c r="N20" s="57">
+        <v>0</v>
+      </c>
+      <c r="O20" s="57">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="57">
-        <v>0</v>
-      </c>
-      <c r="D21" s="57">
-        <v>0</v>
-      </c>
-      <c r="E21" s="57">
-        <v>0</v>
-      </c>
-      <c r="F21" s="57">
-        <v>0</v>
-      </c>
-      <c r="G21" s="57">
-        <v>0</v>
-      </c>
-      <c r="H21" s="57">
-        <v>0</v>
-      </c>
-      <c r="I21" s="57">
-        <v>0</v>
-      </c>
-      <c r="J21" s="57">
-        <v>0</v>
-      </c>
-      <c r="K21" s="57">
-        <v>0</v>
-      </c>
-      <c r="L21" s="58">
-        <v>1</v>
-      </c>
-      <c r="M21" s="58">
-        <v>1</v>
-      </c>
-      <c r="N21" s="58">
-        <v>1</v>
-      </c>
-      <c r="O21" s="58">
-        <v>1</v>
-      </c>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="101" t="s">
+        <v>37</v>
+      </c>
       <c r="B22" s="103" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C22" s="57">
         <v>0</v>
@@ -6888,22 +6919,22 @@
       <c r="K22" s="57">
         <v>0</v>
       </c>
-      <c r="L22" s="56">
-        <v>1</v>
-      </c>
-      <c r="M22" s="56">
-        <v>1</v>
-      </c>
-      <c r="N22" s="56">
-        <v>1</v>
-      </c>
-      <c r="O22" s="56">
+      <c r="L22" s="58">
+        <v>1</v>
+      </c>
+      <c r="M22" s="58">
+        <v>1</v>
+      </c>
+      <c r="N22" s="58">
+        <v>1</v>
+      </c>
+      <c r="O22" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="103" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="C23" s="57">
         <v>0</v>
@@ -6933,289 +6964,278 @@
         <v>0</v>
       </c>
       <c r="L23" s="56">
+        <v>1</v>
+      </c>
+      <c r="M23" s="56">
+        <v>1</v>
+      </c>
+      <c r="N23" s="56">
+        <v>1</v>
+      </c>
+      <c r="O23" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="57">
+        <v>0</v>
+      </c>
+      <c r="D24" s="57">
+        <v>0</v>
+      </c>
+      <c r="E24" s="57">
+        <v>0</v>
+      </c>
+      <c r="F24" s="57">
+        <v>0</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0</v>
+      </c>
+      <c r="H24" s="57">
+        <v>0</v>
+      </c>
+      <c r="I24" s="57">
+        <v>0</v>
+      </c>
+      <c r="J24" s="57">
+        <v>0</v>
+      </c>
+      <c r="K24" s="57">
+        <v>0</v>
+      </c>
+      <c r="L24" s="56">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.36650879999999997</v>
       </c>
-      <c r="M23" s="56">
+      <c r="M24" s="56">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="N23" s="56">
+      <c r="N24" s="56">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="O23" s="56">
+      <c r="O24" s="56">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="103" t="s">
-        <v>214</v>
-      </c>
-      <c r="C24" s="57">
-        <v>0</v>
-      </c>
-      <c r="D24" s="57">
-        <v>0</v>
-      </c>
-      <c r="E24" s="57">
-        <v>0</v>
-      </c>
-      <c r="F24" s="57">
-        <v>0</v>
-      </c>
-      <c r="G24" s="57">
-        <v>0</v>
-      </c>
-      <c r="H24" s="57">
-        <v>0</v>
-      </c>
-      <c r="I24" s="57">
-        <v>0</v>
-      </c>
-      <c r="J24" s="57">
-        <v>0</v>
-      </c>
-      <c r="K24" s="57">
-        <v>0</v>
-      </c>
-      <c r="L24" s="56">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="57">
+        <v>0</v>
+      </c>
+      <c r="D25" s="57">
+        <v>0</v>
+      </c>
+      <c r="E25" s="57">
+        <v>0</v>
+      </c>
+      <c r="F25" s="57">
+        <v>0</v>
+      </c>
+      <c r="G25" s="57">
+        <v>0</v>
+      </c>
+      <c r="H25" s="57">
+        <v>0</v>
+      </c>
+      <c r="I25" s="57">
+        <v>0</v>
+      </c>
+      <c r="J25" s="57">
+        <v>0</v>
+      </c>
+      <c r="K25" s="57">
+        <v>0</v>
+      </c>
+      <c r="L25" s="56">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.1570752</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M25" s="56">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
-      <c r="N24" s="56">
+      <c r="N25" s="56">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
-      <c r="O24" s="56">
+      <c r="O25" s="56">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="103" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="57">
-        <v>0</v>
-      </c>
-      <c r="D25" s="57">
-        <v>0</v>
-      </c>
-      <c r="E25" s="57">
-        <v>0</v>
-      </c>
-      <c r="F25" s="57">
-        <v>0</v>
-      </c>
-      <c r="G25" s="57">
-        <v>0</v>
-      </c>
-      <c r="H25" s="57">
-        <v>0</v>
-      </c>
-      <c r="I25" s="57">
-        <v>0</v>
-      </c>
-      <c r="J25" s="57">
-        <v>0</v>
-      </c>
-      <c r="K25" s="57">
-        <v>0</v>
-      </c>
-      <c r="L25" s="56">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="103" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="57">
+        <v>0</v>
+      </c>
+      <c r="D26" s="57">
+        <v>0</v>
+      </c>
+      <c r="E26" s="57">
+        <v>0</v>
+      </c>
+      <c r="F26" s="57">
+        <v>0</v>
+      </c>
+      <c r="G26" s="57">
+        <v>0</v>
+      </c>
+      <c r="H26" s="57">
+        <v>0</v>
+      </c>
+      <c r="I26" s="57">
+        <v>0</v>
+      </c>
+      <c r="J26" s="57">
+        <v>0</v>
+      </c>
+      <c r="K26" s="57">
+        <v>0</v>
+      </c>
+      <c r="L26" s="56">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.12441600000000001</v>
       </c>
-      <c r="M25" s="56">
+      <c r="M26" s="56">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
-      <c r="N25" s="56">
+      <c r="N26" s="56">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
-      <c r="O25" s="56">
+      <c r="O26" s="56">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="57">
-        <v>0</v>
-      </c>
-      <c r="D26" s="57">
-        <v>0</v>
-      </c>
-      <c r="E26" s="57">
-        <v>0</v>
-      </c>
-      <c r="F26" s="57">
-        <v>0</v>
-      </c>
-      <c r="G26" s="57">
-        <v>0</v>
-      </c>
-      <c r="H26" s="57">
-        <v>0</v>
-      </c>
-      <c r="I26" s="57">
-        <v>0</v>
-      </c>
-      <c r="J26" s="57">
-        <v>0</v>
-      </c>
-      <c r="K26" s="57">
-        <v>0</v>
-      </c>
-      <c r="L26" s="56">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="57">
+        <v>0</v>
+      </c>
+      <c r="D27" s="57">
+        <v>0</v>
+      </c>
+      <c r="E27" s="57">
+        <v>0</v>
+      </c>
+      <c r="F27" s="57">
+        <v>0</v>
+      </c>
+      <c r="G27" s="57">
+        <v>0</v>
+      </c>
+      <c r="H27" s="57">
+        <v>0</v>
+      </c>
+      <c r="I27" s="57">
+        <v>0</v>
+      </c>
+      <c r="J27" s="57">
+        <v>0</v>
+      </c>
+      <c r="K27" s="57">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0.35199999999999998</v>
       </c>
-      <c r="M26" s="56">
-        <v>0</v>
-      </c>
-      <c r="N26" s="56">
-        <v>0</v>
-      </c>
-      <c r="O26" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="14"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="M27" s="56">
+        <v>0</v>
+      </c>
+      <c r="N27" s="56">
+        <v>0</v>
+      </c>
+      <c r="O27" s="56">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="56">
-        <v>0</v>
-      </c>
-      <c r="D28" s="56">
-        <v>0</v>
-      </c>
-      <c r="E28" s="56">
-        <f t="shared" ref="E28:O28" si="1">frac_maize</f>
+      <c r="B28" s="14"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="56">
+        <v>0</v>
+      </c>
+      <c r="D29" s="56">
+        <v>0</v>
+      </c>
+      <c r="E29" s="56">
+        <f t="shared" ref="E29:O29" si="0">frac_maize</f>
         <v>0.05</v>
       </c>
-      <c r="F28" s="56">
-        <f t="shared" si="1"/>
+      <c r="F29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G28" s="56">
-        <f t="shared" si="1"/>
+      <c r="G29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H28" s="56">
-        <f t="shared" si="1"/>
+      <c r="H29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="I28" s="56">
-        <f t="shared" si="1"/>
+      <c r="I29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J28" s="56">
-        <f t="shared" si="1"/>
+      <c r="J29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K28" s="56">
-        <f t="shared" si="1"/>
+      <c r="K29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L28" s="56">
-        <f t="shared" si="1"/>
+      <c r="L29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M28" s="56">
-        <f t="shared" si="1"/>
+      <c r="M29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="N28" s="56">
-        <f t="shared" si="1"/>
+      <c r="N29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="O28" s="56">
-        <f t="shared" si="1"/>
+      <c r="O29" s="56">
+        <f t="shared" si="0"/>
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="56">
-        <v>0</v>
-      </c>
-      <c r="D29" s="56">
-        <v>0</v>
-      </c>
-      <c r="E29" s="56">
-        <f t="shared" ref="E29:O29" si="2">frac_rice</f>
-        <v>0.8</v>
-      </c>
-      <c r="F29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="G29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="H29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="I29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="J29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="K29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="L29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="M29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="N29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="O29" s="56">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="56">
         <v>0</v>
@@ -7224,53 +7244,53 @@
         <v>0</v>
       </c>
       <c r="E30" s="56">
-        <f t="shared" ref="E30:O30" si="3">frac_wheat</f>
-        <v>0.12</v>
+        <f t="shared" ref="E30:O30" si="1">frac_rice</f>
+        <v>0.8</v>
       </c>
       <c r="F30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="G30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="H30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="I30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="J30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="K30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="L30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="M30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="N30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="O30" s="56">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C31" s="56">
         <v>0</v>
@@ -7279,142 +7299,152 @@
         <v>0</v>
       </c>
       <c r="E31" s="56">
-        <v>1</v>
+        <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
+        <v>0.12</v>
       </c>
       <c r="F31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="G31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="H31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="I31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="J31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="K31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="L31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="M31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="N31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="O31" s="56">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C32" s="56">
-        <f t="shared" ref="C32:O32" si="4">frac_malaria_risk</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="56">
+        <v>0</v>
+      </c>
+      <c r="E32" s="56">
+        <v>1</v>
+      </c>
+      <c r="F32" s="56">
+        <v>1</v>
+      </c>
+      <c r="G32" s="56">
+        <v>1</v>
+      </c>
+      <c r="H32" s="56">
+        <v>1</v>
+      </c>
+      <c r="I32" s="56">
+        <v>1</v>
+      </c>
+      <c r="J32" s="56">
+        <v>1</v>
+      </c>
+      <c r="K32" s="56">
+        <v>1</v>
+      </c>
+      <c r="L32" s="56">
+        <v>1</v>
+      </c>
+      <c r="M32" s="56">
+        <v>1</v>
+      </c>
+      <c r="N32" s="56">
+        <v>1</v>
+      </c>
+      <c r="O32" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="56">
+        <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="D32" s="56">
-        <f t="shared" si="4"/>
+      <c r="D33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="E32" s="56">
-        <f t="shared" si="4"/>
+      <c r="E33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="F32" s="56">
-        <f t="shared" si="4"/>
+      <c r="F33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="G32" s="56">
-        <f t="shared" si="4"/>
+      <c r="G33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="H32" s="56">
-        <f t="shared" si="4"/>
+      <c r="H33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="I32" s="56">
-        <f t="shared" si="4"/>
+      <c r="I33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="J32" s="56">
-        <f t="shared" si="4"/>
+      <c r="J33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="K32" s="56">
-        <f t="shared" si="4"/>
+      <c r="K33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="L32" s="56">
-        <f t="shared" si="4"/>
+      <c r="L33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="M32" s="56">
-        <f t="shared" si="4"/>
+      <c r="M33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="N32" s="56">
-        <f t="shared" si="4"/>
+      <c r="N33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="O32" s="56">
-        <f t="shared" si="4"/>
+      <c r="O33" s="56">
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="56">
-        <v>1</v>
-      </c>
-      <c r="D33" s="56">
-        <v>1</v>
-      </c>
-      <c r="E33" s="56">
-        <v>1</v>
-      </c>
-      <c r="F33" s="56">
-        <v>1</v>
-      </c>
-      <c r="G33" s="56">
-        <v>1</v>
-      </c>
-      <c r="H33" s="56">
-        <v>1</v>
-      </c>
-      <c r="I33" s="56">
-        <v>1</v>
-      </c>
-      <c r="J33" s="56">
-        <v>1</v>
-      </c>
-      <c r="K33" s="56">
-        <v>1</v>
-      </c>
-      <c r="L33" s="56">
-        <v>1</v>
-      </c>
-      <c r="M33" s="56">
-        <v>1</v>
-      </c>
-      <c r="N33" s="56">
-        <v>1</v>
-      </c>
-      <c r="O33" s="56">
-        <v>1</v>
-      </c>
-    </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
       <c r="B34" s="52" t="s">
         <v>94</v>
       </c>
@@ -7458,7 +7488,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5"/>
       <c r="B35" s="52" t="s">
         <v>93</v>
       </c>
@@ -7504,7 +7535,7 @@
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" s="56">
         <v>1</v>
@@ -7548,7 +7579,7 @@
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="56">
         <v>1</v>
@@ -7590,12 +7621,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="52"/>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="56">
+        <v>1</v>
+      </c>
+      <c r="D38" s="56">
+        <v>1</v>
+      </c>
+      <c r="E38" s="56">
+        <v>1</v>
+      </c>
+      <c r="F38" s="56">
+        <v>1</v>
+      </c>
+      <c r="G38" s="56">
+        <v>1</v>
+      </c>
+      <c r="H38" s="56">
+        <v>1</v>
+      </c>
+      <c r="I38" s="56">
+        <v>1</v>
+      </c>
+      <c r="J38" s="56">
+        <v>1</v>
+      </c>
+      <c r="K38" s="56">
+        <v>1</v>
+      </c>
+      <c r="L38" s="56">
+        <v>1</v>
+      </c>
+      <c r="M38" s="56">
+        <v>1</v>
+      </c>
+      <c r="N38" s="56">
+        <v>1</v>
+      </c>
+      <c r="O38" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="52"/>
     </row>
   </sheetData>
-  <sortState ref="B2:O11">
-    <sortCondition ref="B2:B11"/>
+  <sortState ref="B13:O20">
+    <sortCondition ref="B13:B20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7625,24 +7700,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="63">
         <v>0.9</v>
@@ -7660,7 +7735,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="63">
         <v>1</v>
@@ -7678,7 +7753,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="63">
         <v>1</v>
@@ -7696,7 +7771,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="63">
         <v>1</v>
@@ -7714,7 +7789,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="63">
         <v>1</v>
@@ -7732,7 +7807,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="63">
         <v>0.93</v>
@@ -7750,7 +7825,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="63">
         <v>0.5</v>
@@ -7768,7 +7843,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="63">
         <v>0.5</v>
@@ -7786,7 +7861,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B10" s="63">
         <v>0.98</v>
@@ -7831,7 +7906,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>1</v>
@@ -7854,7 +7929,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="33">
         <v>7.0000000000000001E-3</v>
@@ -8038,7 +8113,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="34">
         <v>0</v>
@@ -8246,7 +8321,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="34">
         <v>0</v>
@@ -8269,7 +8344,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="34">
         <v>0</v>
@@ -8292,7 +8367,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="34">
         <v>0</v>
@@ -8315,7 +8390,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="34">
         <v>0</v>
@@ -8338,7 +8413,7 @@
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="34">
         <v>0</v>
@@ -8361,7 +8436,7 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="34">
         <v>0</v>
@@ -8384,7 +8459,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="34">
         <v>0</v>
@@ -8407,7 +8482,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="34">
         <v>0</v>
@@ -8430,7 +8505,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="34">
         <v>0</v>
@@ -8483,37 +8558,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>128</v>
-      </c>
       <c r="J1" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K1" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9129,7 +9204,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -9152,10 +9227,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="49">
         <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE)</f>
@@ -9181,7 +9256,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="49">
         <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5)</f>
@@ -9207,7 +9282,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="39">
         <v>0.10199999999999999</v>
@@ -9228,7 +9303,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="39">
         <v>3.7999999999999999E-2</v>
@@ -9264,10 +9339,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="49">
         <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE)</f>
@@ -9292,7 +9367,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="49">
         <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11)</f>
@@ -9317,7 +9392,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="39">
         <v>0.15</v>
@@ -9337,7 +9412,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="39">
         <v>4.9000000000000002E-2</v>
@@ -9371,7 +9446,7 @@
     </row>
     <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>1</v>
@@ -9389,33 +9464,33 @@
         <v>5</v>
       </c>
       <c r="H13" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="31" t="s">
+      <c r="J13" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="31" t="s">
+      <c r="K13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="31" t="s">
-        <v>57</v>
-      </c>
       <c r="L13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="31" t="s">
+      <c r="N13" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="O13" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="50">
         <v>0.1</v>
@@ -9459,7 +9534,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="49">
         <f t="shared" ref="C15:O15" si="4">iron_deficiency_anaemia*C14</f>
@@ -9554,7 +9629,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -9580,7 +9655,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C2" s="39">
         <v>0.80299999999999994</v>
@@ -9600,7 +9675,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="39">
         <v>6.8000000000000005E-2</v>
@@ -9620,7 +9695,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="69" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="39">
         <v>0.107</v>
@@ -9640,7 +9715,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="49">
         <f>1-SUM(C2:C4)</f>
@@ -9687,10 +9762,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -9722,10 +9797,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9742,10 +9817,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9762,10 +9837,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -9793,7 +9868,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -9807,10 +9882,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -9824,7 +9899,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -9838,10 +9913,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -9855,7 +9930,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9894,21 +9969,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="45">
         <v>0.15</v>
@@ -9916,7 +9991,7 @@
     </row>
     <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="45">
         <v>0.03</v>
@@ -9924,7 +9999,7 @@
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="45">
         <v>0</v>
@@ -9932,7 +10007,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="45">
         <v>0.19</v>
@@ -9940,7 +10015,7 @@
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="45">
         <v>0.39</v>
@@ -9948,7 +10023,7 @@
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="45">
         <v>0.19</v>
@@ -9956,7 +10031,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="45">
         <v>1E-3</v>
@@ -9964,7 +10039,7 @@
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="45">
         <v>7.0000000000000001E-3</v>
@@ -9972,7 +10047,7 @@
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="45">
         <v>0.04</v>
@@ -9980,7 +10055,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="47">
         <f>SUM(C2:C10)</f>
@@ -9993,10 +10068,10 @@
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="41" t="s">
         <v>86</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>87</v>
       </c>
       <c r="C13" s="45">
         <v>0.34</v>
@@ -10004,7 +10079,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="45">
         <v>0.05</v>
@@ -10012,7 +10087,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="45">
         <v>7.0000000000000007E-2</v>
@@ -10020,7 +10095,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="45">
         <v>0.54</v>
@@ -10028,7 +10103,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="47">
         <f>SUM(C13:C16)</f>
@@ -10062,33 +10137,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E1" s="81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="73" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="99" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -10146,7 +10221,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="74"/>
       <c r="B7" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="71"/>
@@ -10154,7 +10229,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>32</v>
@@ -10172,10 +10247,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="99" t="str">
         <f>IF(E$14="","",E$14)</f>
@@ -10221,17 +10296,17 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
       <c r="B14" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="71"/>
       <c r="E14" s="76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B16" s="73" t="s">
         <v>32</v>
@@ -10294,7 +10369,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
       <c r="B21" s="73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="72"/>
       <c r="D21" s="71"/>
@@ -10314,7 +10389,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView zoomScale="175" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -10328,39 +10403,39 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="105" t="s">
         <v>216</v>
-      </c>
-      <c r="C1" s="105" t="s">
-        <v>217</v>
-      </c>
-      <c r="D1" s="105" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D2" s="76"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="105" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="73" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D3" s="76"/>
     </row>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/master/data/national/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\master\data\national\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BD04A38-77C5-2C4B-B409-6DB023E1111D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="-20740" windowWidth="27100" windowHeight="18820" tabRatio="961" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="-20740" windowWidth="27100" windowHeight="18820" tabRatio="961" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId2"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId3"/>
+    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
+    <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
@@ -31,46 +30,48 @@
     <sheet name="Programs family planning" sheetId="54" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$26</definedName>
-    <definedName name="abortion">'Baseline year population inputs'!$C$29</definedName>
+    <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$30</definedName>
+    <definedName name="abortion">'Baseline year population inputs'!$C$33</definedName>
     <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
-    <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$8</definedName>
-    <definedName name="food_insecure">'Baseline year population inputs'!$C$3</definedName>
-    <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$7</definedName>
-    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$46</definedName>
-    <definedName name="frac_maize">'Baseline year population inputs'!$C$14</definedName>
-    <definedName name="frac_malaria_risk">'Baseline year population inputs'!$C$4</definedName>
+    <definedName name="end_year">'Baseline year population inputs'!$C$4</definedName>
+    <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$12</definedName>
+    <definedName name="food_insecure">'Baseline year population inputs'!$C$7</definedName>
+    <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$11</definedName>
+    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$50</definedName>
+    <definedName name="frac_maize">'Baseline year population inputs'!$C$18</definedName>
+    <definedName name="frac_malaria_risk">'Baseline year population inputs'!$C$8</definedName>
     <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
     <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
     <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
     <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
     <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
-    <definedName name="frac_MAMtoSAM">'Baseline year population inputs'!$C$48</definedName>
-    <definedName name="frac_other_staples">'Baseline year population inputs'!$C$15</definedName>
-    <definedName name="frac_PW_health_facility">'Baseline year population inputs'!$C$6</definedName>
-    <definedName name="frac_rice">'Baseline year population inputs'!$C$12</definedName>
+    <definedName name="frac_MAMtoSAM">'Baseline year population inputs'!$C$52</definedName>
+    <definedName name="frac_other_staples">'Baseline year population inputs'!$C$19</definedName>
+    <definedName name="frac_PW_health_facility">'Baseline year population inputs'!$C$10</definedName>
+    <definedName name="frac_rice">'Baseline year population inputs'!$C$16</definedName>
     <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
     <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
     <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
     <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
     <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
-    <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!$C$49</definedName>
-    <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$11</definedName>
-    <definedName name="frac_wheat">'Baseline year population inputs'!$C$13</definedName>
-    <definedName name="infant_mortality">'Baseline year population inputs'!$C$26</definedName>
-    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$47</definedName>
+    <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!$C$53</definedName>
+    <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$15</definedName>
+    <definedName name="frac_wheat">'Baseline year population inputs'!$C$17</definedName>
+    <definedName name="infant_mortality">'Baseline year population inputs'!$C$30</definedName>
+    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$51</definedName>
     <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
-    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$28</definedName>
-    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$25</definedName>
-    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$6</definedName>
-    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$34</definedName>
-    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$33</definedName>
-    <definedName name="school_attendance">'Baseline year population inputs'!$C$5</definedName>
-    <definedName name="stillbirth" localSheetId="7">'Baseline year population inputs'!$C$27</definedName>
-    <definedName name="stillbirth">'Baseline year population inputs'!$C$30</definedName>
-    <definedName name="term_AGA">'Baseline year population inputs'!$C$36</definedName>
-    <definedName name="term_SGA">'Baseline year population inputs'!$C$35</definedName>
-    <definedName name="U5_mortality">'Baseline year population inputs'!$C$27</definedName>
+    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$32</definedName>
+    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$29</definedName>
+    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$10</definedName>
+    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$37</definedName>
+    <definedName name="school_attendance">'Baseline year population inputs'!$C$9</definedName>
+    <definedName name="start_year">'Baseline year population inputs'!$C$3</definedName>
+    <definedName name="stillbirth" localSheetId="7">'Baseline year population inputs'!$C$31</definedName>
+    <definedName name="stillbirth">'Baseline year population inputs'!$C$34</definedName>
+    <definedName name="term_AGA">'Baseline year population inputs'!$C$40</definedName>
+    <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
+    <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,12 +83,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{FE58E1C7-CE8A-D54E-AB98-874E3A6FBFD4}">
+    <comment ref="D29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,12 +179,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -249,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,12 +279,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,12 +337,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,12 +380,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="L22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L24" authorId="0" shapeId="0" xr:uid="{E6EC9594-3F7C-C445-8380-01CE49FD40BB}">
+    <comment ref="L24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,13 +456,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
+    <comment ref="D2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="226">
   <si>
     <t>year</t>
   </si>
@@ -1201,17 +1202,26 @@
   </si>
   <si>
     <t>IFAS for pregnant women (hospital)</t>
+  </si>
+  <si>
+    <t>Projection years</t>
+  </si>
+  <si>
+    <t>Start year</t>
+  </si>
+  <si>
+    <t>End year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1502,7 +1512,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2264,8 +2274,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2281,8 +2291,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2301,16 +2311,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2323,7 +2333,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2335,21 +2345,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2378,20 +2384,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2421,8 +2427,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="4" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="25" fillId="4" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="25" fillId="4" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="25" fillId="4" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2430,6 +2436,10 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="727">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -3156,11 +3166,80 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
-    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 2" xfId="725"/>
+    <cellStyle name="Normal 3" xfId="726"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
@@ -4579,380 +4658,410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:H12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="15"/>
+    <col min="1" max="1" width="27.6328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="14.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="64" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="104">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="105">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="9" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C7" s="24">
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C8" s="23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C9" s="23">
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C10" s="24">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C11" s="24">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C12" s="24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="12" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C15" s="23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="12" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C16" s="23">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="12" t="s">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C17" s="23">
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="12" t="s">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C18" s="23">
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C19" s="26">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>2.9999999999999957E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15" t="s">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="27" t="s">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C22" s="23">
         <v>0.29978973218277538</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="27" t="s">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C23" s="23">
         <v>0.52556568434139284</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="27" t="s">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C24" s="23">
         <v>0.16210210664201097</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="27" t="s">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C25" s="23">
         <v>1.2542476833820825E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15" t="s">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="68" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C29" s="25">
         <v>25.4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="19" t="s">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C30" s="25">
         <v>34.68</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="19" t="s">
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C31" s="25">
         <v>39.32</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="19" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C32" s="25">
         <v>1.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="19" t="s">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C33" s="23">
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="68" t="s">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C34" s="25">
         <v>25.36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="15" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="19" t="s">
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C37" s="23">
         <v>3.1E-2</v>
       </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="19" t="s">
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C38" s="23">
         <v>0.109</v>
       </c>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="19" t="s">
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C39" s="23">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="19" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C40" s="26">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="15" t="s">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="19" t="s">
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C43" s="7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="19" t="s">
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C44" s="7">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="19" t="s">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C45" s="7">
         <v>3.71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="19" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C46" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="19" t="s">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C47" s="7">
         <v>1.92</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15" t="s">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="9" t="s">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C50" s="24">
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="19" t="s">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C51" s="24">
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="19" t="s">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C52" s="24">
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="19" t="s">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C53" s="24">
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4961,7 +5070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4971,557 +5080,557 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" style="82" customWidth="1"/>
-    <col min="2" max="2" width="20" style="61" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="60" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="60" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="60"/>
+    <col min="1" max="1" width="56" style="80" customWidth="1"/>
+    <col min="2" max="2" width="20" style="59" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="14.453125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="90" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="88" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="83">
-        <v>0</v>
-      </c>
-      <c r="C2" s="83">
+      <c r="B2" s="81">
+        <v>0</v>
+      </c>
+      <c r="C2" s="81">
         <v>0.95</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="82">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="83">
-        <v>0</v>
-      </c>
-      <c r="C3" s="83">
+      <c r="B3" s="81">
+        <v>0</v>
+      </c>
+      <c r="C3" s="81">
         <v>0.95</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <v>0.8</v>
       </c>
-      <c r="E3" s="89"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="E3" s="87"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="83">
-        <v>0</v>
-      </c>
-      <c r="C4" s="83">
+      <c r="B4" s="81">
+        <v>0</v>
+      </c>
+      <c r="C4" s="81">
         <v>0.95</v>
       </c>
-      <c r="D4" s="84">
-        <v>1</v>
-      </c>
-      <c r="E4" s="69"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="82" t="s">
+      <c r="D4" s="82">
+        <v>1</v>
+      </c>
+      <c r="E4" s="67"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="81">
         <v>0.1</v>
       </c>
-      <c r="C5" s="83">
+      <c r="C5" s="81">
         <v>0.95</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="82">
         <f>180</f>
         <v>180</v>
       </c>
-      <c r="E5" s="69"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82" t="s">
+      <c r="E5" s="67"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="81">
         <v>0.5</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="81">
         <v>0.95</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="83">
         <f>SUM('Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
-      <c r="E6" s="88"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82" t="s">
+      <c r="E6" s="86"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="83">
-        <v>0</v>
-      </c>
-      <c r="C7" s="83">
+      <c r="B7" s="81">
+        <v>0</v>
+      </c>
+      <c r="C7" s="81">
         <v>0.95</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="82">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="87"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82" t="s">
+      <c r="E7" s="85"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="83">
-        <v>0</v>
-      </c>
-      <c r="C8" s="83">
+      <c r="B8" s="81">
+        <v>0</v>
+      </c>
+      <c r="C8" s="81">
         <v>0.95</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="82">
         <v>0.75</v>
       </c>
-      <c r="E8" s="87"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="82" t="s">
+      <c r="E8" s="85"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="83">
-        <v>0</v>
-      </c>
-      <c r="C9" s="83">
+      <c r="B9" s="81">
+        <v>0</v>
+      </c>
+      <c r="C9" s="81">
         <v>0.95</v>
       </c>
-      <c r="D9" s="84">
+      <c r="D9" s="82">
         <v>0.19</v>
       </c>
-      <c r="E9" s="87"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103" t="s">
+      <c r="E9" s="85"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="83">
-        <v>0</v>
-      </c>
-      <c r="C10" s="83">
+      <c r="B10" s="81">
+        <v>0</v>
+      </c>
+      <c r="C10" s="81">
         <v>0.95</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="82">
         <v>0.73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="103" t="s">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="83">
-        <v>0</v>
-      </c>
-      <c r="C11" s="83">
+      <c r="B11" s="81">
+        <v>0</v>
+      </c>
+      <c r="C11" s="81">
         <v>0.95</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <v>1.78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="103" t="s">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="B12" s="83">
-        <v>0</v>
-      </c>
-      <c r="C12" s="83">
+      <c r="B12" s="81">
+        <v>0</v>
+      </c>
+      <c r="C12" s="81">
         <v>0.95</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="82">
         <v>0.24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="83">
-        <v>0</v>
-      </c>
-      <c r="C13" s="83">
+      <c r="B13" s="81">
+        <v>0</v>
+      </c>
+      <c r="C13" s="81">
         <v>0.95</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="82">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="83">
-        <v>0</v>
-      </c>
-      <c r="C14" s="83">
+      <c r="B14" s="81">
+        <v>0</v>
+      </c>
+      <c r="C14" s="81">
         <v>0.95</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="82">
         <v>0.73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B15" s="83">
-        <v>0</v>
-      </c>
-      <c r="C15" s="83">
+      <c r="B15" s="81">
+        <v>0</v>
+      </c>
+      <c r="C15" s="81">
         <v>0.95</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="82">
         <v>1.78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="82" t="s">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="83">
-        <v>0</v>
-      </c>
-      <c r="C16" s="83">
+      <c r="B16" s="81">
+        <v>0</v>
+      </c>
+      <c r="C16" s="81">
         <v>0.95</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="82">
         <v>2.06</v>
       </c>
-      <c r="E16" s="69"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="82" t="s">
+      <c r="E16" s="67"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="83">
-        <v>0</v>
-      </c>
-      <c r="C17" s="83">
+      <c r="B17" s="81">
+        <v>0</v>
+      </c>
+      <c r="C17" s="81">
         <v>0.95</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="82">
         <v>0.25</v>
       </c>
-      <c r="E17" s="69"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="82" t="s">
+      <c r="E17" s="67"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="83">
-        <v>0</v>
-      </c>
-      <c r="C18" s="83">
+      <c r="B18" s="81">
+        <v>0</v>
+      </c>
+      <c r="C18" s="81">
         <v>0.95</v>
       </c>
-      <c r="D18" s="102">
+      <c r="D18" s="100">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
         <v>1.22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82" t="s">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="83">
-        <v>0</v>
-      </c>
-      <c r="C19" s="83">
+      <c r="B19" s="81">
+        <v>0</v>
+      </c>
+      <c r="C19" s="81">
         <v>0.95</v>
       </c>
-      <c r="D19" s="102">
+      <c r="D19" s="100">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
         <v>1.4700000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="82" t="s">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="83">
-        <v>0</v>
-      </c>
-      <c r="C20" s="83">
+      <c r="B20" s="81">
+        <v>0</v>
+      </c>
+      <c r="C20" s="81">
         <v>0.95</v>
       </c>
-      <c r="D20" s="102">
+      <c r="D20" s="100">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="82" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="83">
-        <v>0</v>
-      </c>
-      <c r="C21" s="83">
+      <c r="B21" s="81">
+        <v>0</v>
+      </c>
+      <c r="C21" s="81">
         <v>0.95</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="82">
         <v>50</v>
       </c>
-      <c r="E21" s="69"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="82" t="s">
+      <c r="E21" s="67"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="81">
         <v>0.2</v>
       </c>
-      <c r="C22" s="83">
+      <c r="C22" s="81">
         <v>0.95</v>
       </c>
-      <c r="D22" s="84">
+      <c r="D22" s="82">
         <v>2.61</v>
       </c>
-      <c r="E22" s="69"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82" t="s">
+      <c r="E22" s="67"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="83">
-        <v>0</v>
-      </c>
-      <c r="C23" s="83">
+      <c r="B23" s="81">
+        <v>0</v>
+      </c>
+      <c r="C23" s="81">
         <v>0.95</v>
       </c>
-      <c r="D23" s="84">
-        <v>1</v>
-      </c>
-      <c r="E23" s="69"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="82" t="s">
+      <c r="D23" s="82">
+        <v>1</v>
+      </c>
+      <c r="E23" s="67"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="83">
-        <v>0</v>
-      </c>
-      <c r="C24" s="83">
+      <c r="B24" s="81">
+        <v>0</v>
+      </c>
+      <c r="C24" s="81">
         <v>0.95</v>
       </c>
-      <c r="D24" s="84">
-        <v>1</v>
-      </c>
-      <c r="E24" s="86"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="82" t="s">
+      <c r="D24" s="82">
+        <v>1</v>
+      </c>
+      <c r="E24" s="84"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="83">
-        <v>0</v>
-      </c>
-      <c r="C25" s="83">
+      <c r="B25" s="81">
+        <v>0</v>
+      </c>
+      <c r="C25" s="81">
         <v>0.95</v>
       </c>
-      <c r="D25" s="84">
-        <v>1</v>
-      </c>
-      <c r="E25" s="69"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="82" t="s">
+      <c r="D25" s="82">
+        <v>1</v>
+      </c>
+      <c r="E25" s="67"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="83">
-        <v>0</v>
-      </c>
-      <c r="C26" s="83">
+      <c r="B26" s="81">
+        <v>0</v>
+      </c>
+      <c r="C26" s="81">
         <v>0.95</v>
       </c>
-      <c r="D26" s="84">
+      <c r="D26" s="82">
         <v>2.99</v>
       </c>
-      <c r="E26" s="69"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="82" t="s">
+      <c r="E26" s="67"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="83">
-        <v>0</v>
-      </c>
-      <c r="C27" s="83">
+      <c r="B27" s="81">
+        <v>0</v>
+      </c>
+      <c r="C27" s="81">
         <v>0.95</v>
       </c>
-      <c r="D27" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="82" t="s">
+      <c r="D27" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="83">
-        <v>0</v>
-      </c>
-      <c r="C28" s="83">
+      <c r="B28" s="81">
+        <v>0</v>
+      </c>
+      <c r="C28" s="81">
         <v>0.95</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D28" s="82">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="82" t="s">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="83">
-        <v>0</v>
-      </c>
-      <c r="C29" s="83">
+      <c r="B29" s="81">
+        <v>0</v>
+      </c>
+      <c r="C29" s="81">
         <v>0.95</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D29" s="83">
         <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
         <v>9.9684000000000008</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="82" t="s">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="83">
-        <v>0</v>
-      </c>
-      <c r="C30" s="83">
+      <c r="B30" s="81">
+        <v>0</v>
+      </c>
+      <c r="C30" s="81">
         <v>0.95</v>
       </c>
-      <c r="D30" s="84">
+      <c r="D30" s="82">
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="82" t="s">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="83">
-        <v>0</v>
-      </c>
-      <c r="C31" s="83">
+      <c r="B31" s="81">
+        <v>0</v>
+      </c>
+      <c r="C31" s="81">
         <v>0.95</v>
       </c>
-      <c r="D31" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="82" t="s">
+      <c r="D31" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="83">
-        <v>0</v>
-      </c>
-      <c r="C32" s="83">
+      <c r="B32" s="81">
+        <v>0</v>
+      </c>
+      <c r="C32" s="81">
         <v>0.95</v>
       </c>
-      <c r="D32" s="84">
+      <c r="D32" s="82">
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="82" t="s">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="83">
-        <v>0</v>
-      </c>
-      <c r="C33" s="83">
+      <c r="B33" s="81">
+        <v>0</v>
+      </c>
+      <c r="C33" s="81">
         <v>0.95</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="82">
         <v>50.26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="82" t="s">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="83">
-        <v>0</v>
-      </c>
-      <c r="C34" s="83">
+      <c r="B34" s="81">
+        <v>0</v>
+      </c>
+      <c r="C34" s="81">
         <v>0.95</v>
       </c>
-      <c r="D34" s="84">
+      <c r="D34" s="82">
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="82" t="s">
+    <row r="35" spans="1:6" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="83">
-        <v>0</v>
-      </c>
-      <c r="C35" s="83">
+      <c r="B35" s="81">
+        <v>0</v>
+      </c>
+      <c r="C35" s="81">
         <v>0.95</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="82">
         <v>231.85</v>
       </c>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="82" t="s">
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="83">
-        <v>0</v>
-      </c>
-      <c r="C36" s="83">
+      <c r="B36" s="81">
+        <v>0</v>
+      </c>
+      <c r="C36" s="81">
         <v>0.95</v>
       </c>
-      <c r="D36" s="84">
+      <c r="D36" s="82">
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="82" t="s">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="83">
-        <v>0</v>
-      </c>
-      <c r="C37" s="83">
+      <c r="B37" s="81">
+        <v>0</v>
+      </c>
+      <c r="C37" s="81">
         <v>0.95</v>
       </c>
-      <c r="D37" s="84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="61"/>
+      <c r="D37" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="59"/>
     </row>
   </sheetData>
   <sortState ref="A2:D37">
@@ -5534,7 +5643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5544,118 +5653,118 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="93" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="93"/>
+    <col min="1" max="1" width="18.6328125" style="91" customWidth="1"/>
+    <col min="2" max="16384" width="10.81640625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="95" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="84">
+      <c r="C2" s="82">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D2" s="84">
+      <c r="D2" s="82">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E2" s="84">
+      <c r="E2" s="82">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="84">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="82">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D3" s="84">
+      <c r="D3" s="82">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E3" s="84">
+      <c r="E3" s="82">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="93"/>
+      <c r="B4" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="82">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="82">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="82">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="82">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="82">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="82">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="93"/>
+      <c r="B6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="82">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="82">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="82">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="94"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5664,7 +5773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5674,83 +5783,83 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" style="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="60" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="60"/>
+    <col min="1" max="1" width="53" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.453125" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="76"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="76"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="82" t="s">
+      <c r="C3" s="74"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="76"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="82" t="s">
+      <c r="C4" s="74"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C5" s="76"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" s="74"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
     </row>
   </sheetData>
@@ -5761,7 +5870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5771,86 +5880,86 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="60" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="60"/>
+    <col min="1" max="1" width="30.1796875" style="58" customWidth="1"/>
+    <col min="2" max="16384" width="11.453125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="76" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="74" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="74"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5859,7 +5968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5869,9 +5978,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5891,32 +6000,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="37">
-        <f>'Baseline year population inputs'!C39</f>
+        <f>'Baseline year population inputs'!C43</f>
         <v>2.4300000000000002</v>
       </c>
       <c r="C2" s="37">
-        <f>'Baseline year population inputs'!C40</f>
+        <f>'Baseline year population inputs'!C44</f>
         <v>2.4300000000000002</v>
       </c>
       <c r="D2" s="37">
-        <f>'Baseline year population inputs'!C41</f>
+        <f>'Baseline year population inputs'!C45</f>
         <v>3.71</v>
       </c>
       <c r="E2" s="37">
-        <f>'Baseline year population inputs'!C42</f>
+        <f>'Baseline year population inputs'!C46</f>
         <v>3</v>
       </c>
       <c r="F2" s="37">
-        <f>'Baseline year population inputs'!C43</f>
+        <f>'Baseline year population inputs'!C47</f>
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5941,7 +6050,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5974,29 +6083,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6043,1129 +6152,1129 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="56">
-        <v>0</v>
-      </c>
-      <c r="D2" s="56">
+      <c r="C2" s="54">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="H2" s="57">
-        <v>0</v>
-      </c>
-      <c r="I2" s="57">
-        <v>0</v>
-      </c>
-      <c r="J2" s="57">
-        <v>0</v>
-      </c>
-      <c r="K2" s="57">
-        <v>0</v>
-      </c>
-      <c r="L2" s="57">
-        <v>0</v>
-      </c>
-      <c r="M2" s="57">
-        <v>0</v>
-      </c>
-      <c r="N2" s="57">
-        <v>0</v>
-      </c>
-      <c r="O2" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="55">
+        <v>0</v>
+      </c>
+      <c r="I2" s="55">
+        <v>0</v>
+      </c>
+      <c r="J2" s="55">
+        <v>0</v>
+      </c>
+      <c r="K2" s="55">
+        <v>0</v>
+      </c>
+      <c r="L2" s="55">
+        <v>0</v>
+      </c>
+      <c r="M2" s="55">
+        <v>0</v>
+      </c>
+      <c r="N2" s="55">
+        <v>0</v>
+      </c>
+      <c r="O2" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="59">
-        <v>1</v>
-      </c>
-      <c r="D3" s="56">
-        <v>0</v>
-      </c>
-      <c r="E3" s="56">
-        <v>0</v>
-      </c>
-      <c r="F3" s="56">
-        <v>0</v>
-      </c>
-      <c r="G3" s="56">
-        <v>0</v>
-      </c>
-      <c r="H3" s="57">
-        <v>0</v>
-      </c>
-      <c r="I3" s="57">
-        <v>0</v>
-      </c>
-      <c r="J3" s="57">
-        <v>0</v>
-      </c>
-      <c r="K3" s="57">
-        <v>0</v>
-      </c>
-      <c r="L3" s="57">
-        <v>0</v>
-      </c>
-      <c r="M3" s="57">
-        <v>0</v>
-      </c>
-      <c r="N3" s="57">
-        <v>0</v>
-      </c>
-      <c r="O3" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="57">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0</v>
+      </c>
+      <c r="E3" s="54">
+        <v>0</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0</v>
+      </c>
+      <c r="G3" s="54">
+        <v>0</v>
+      </c>
+      <c r="H3" s="55">
+        <v>0</v>
+      </c>
+      <c r="I3" s="55">
+        <v>0</v>
+      </c>
+      <c r="J3" s="55">
+        <v>0</v>
+      </c>
+      <c r="K3" s="55">
+        <v>0</v>
+      </c>
+      <c r="L3" s="55">
+        <v>0</v>
+      </c>
+      <c r="M3" s="55">
+        <v>0</v>
+      </c>
+      <c r="N3" s="55">
+        <v>0</v>
+      </c>
+      <c r="O3" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="56">
-        <v>0</v>
-      </c>
-      <c r="D4" s="56">
-        <v>0</v>
-      </c>
-      <c r="E4" s="56">
+      <c r="C4" s="54">
+        <v>0</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="G4" s="56">
-        <v>0</v>
-      </c>
-      <c r="H4" s="57">
-        <v>0</v>
-      </c>
-      <c r="I4" s="57">
-        <v>0</v>
-      </c>
-      <c r="J4" s="57">
-        <v>0</v>
-      </c>
-      <c r="K4" s="57">
-        <v>0</v>
-      </c>
-      <c r="L4" s="57">
-        <v>0</v>
-      </c>
-      <c r="M4" s="57">
-        <v>0</v>
-      </c>
-      <c r="N4" s="57">
-        <v>0</v>
-      </c>
-      <c r="O4" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4" s="54">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55">
+        <v>0</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0</v>
+      </c>
+      <c r="K4" s="55">
+        <v>0</v>
+      </c>
+      <c r="L4" s="55">
+        <v>0</v>
+      </c>
+      <c r="M4" s="55">
+        <v>0</v>
+      </c>
+      <c r="N4" s="55">
+        <v>0</v>
+      </c>
+      <c r="O4" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="56">
-        <v>0</v>
-      </c>
-      <c r="D5" s="56">
-        <v>0</v>
-      </c>
-      <c r="E5" s="56">
+      <c r="C5" s="54">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+      <c r="E5" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H5" s="57">
-        <v>0</v>
-      </c>
-      <c r="I5" s="57">
-        <v>0</v>
-      </c>
-      <c r="J5" s="57">
-        <v>0</v>
-      </c>
-      <c r="K5" s="57">
-        <v>0</v>
-      </c>
-      <c r="L5" s="57">
-        <v>0</v>
-      </c>
-      <c r="M5" s="57">
-        <v>0</v>
-      </c>
-      <c r="N5" s="57">
-        <v>0</v>
-      </c>
-      <c r="O5" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0</v>
+      </c>
+      <c r="K5" s="55">
+        <v>0</v>
+      </c>
+      <c r="L5" s="55">
+        <v>0</v>
+      </c>
+      <c r="M5" s="55">
+        <v>0</v>
+      </c>
+      <c r="N5" s="55">
+        <v>0</v>
+      </c>
+      <c r="O5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="56">
-        <v>1</v>
-      </c>
-      <c r="D6" s="56">
-        <v>1</v>
-      </c>
-      <c r="E6" s="56">
-        <v>1</v>
-      </c>
-      <c r="F6" s="56">
-        <v>1</v>
-      </c>
-      <c r="G6" s="56">
-        <v>1</v>
-      </c>
-      <c r="H6" s="57">
-        <v>0</v>
-      </c>
-      <c r="I6" s="57">
-        <v>0</v>
-      </c>
-      <c r="J6" s="57">
-        <v>0</v>
-      </c>
-      <c r="K6" s="57">
-        <v>0</v>
-      </c>
-      <c r="L6" s="57">
-        <v>0</v>
-      </c>
-      <c r="M6" s="57">
-        <v>0</v>
-      </c>
-      <c r="N6" s="57">
-        <v>0</v>
-      </c>
-      <c r="O6" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="54">
+        <v>1</v>
+      </c>
+      <c r="D6" s="54">
+        <v>1</v>
+      </c>
+      <c r="E6" s="54">
+        <v>1</v>
+      </c>
+      <c r="F6" s="54">
+        <v>1</v>
+      </c>
+      <c r="G6" s="54">
+        <v>1</v>
+      </c>
+      <c r="H6" s="55">
+        <v>0</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0</v>
+      </c>
+      <c r="K6" s="55">
+        <v>0</v>
+      </c>
+      <c r="L6" s="55">
+        <v>0</v>
+      </c>
+      <c r="M6" s="55">
+        <v>0</v>
+      </c>
+      <c r="N6" s="55">
+        <v>0</v>
+      </c>
+      <c r="O6" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="56">
-        <v>0</v>
-      </c>
-      <c r="D7" s="56">
-        <v>0</v>
-      </c>
-      <c r="E7" s="56">
+      <c r="C7" s="54">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+      <c r="E7" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="G7" s="56">
-        <v>0</v>
-      </c>
-      <c r="H7" s="57">
-        <v>0</v>
-      </c>
-      <c r="I7" s="57">
-        <v>0</v>
-      </c>
-      <c r="J7" s="57">
-        <v>0</v>
-      </c>
-      <c r="K7" s="57">
-        <v>0</v>
-      </c>
-      <c r="L7" s="57">
-        <v>0</v>
-      </c>
-      <c r="M7" s="57">
-        <v>0</v>
-      </c>
-      <c r="N7" s="57">
-        <v>0</v>
-      </c>
-      <c r="O7" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7" s="54">
+        <v>0</v>
+      </c>
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0</v>
+      </c>
+      <c r="K7" s="55">
+        <v>0</v>
+      </c>
+      <c r="L7" s="55">
+        <v>0</v>
+      </c>
+      <c r="M7" s="55">
+        <v>0</v>
+      </c>
+      <c r="N7" s="55">
+        <v>0</v>
+      </c>
+      <c r="O7" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="56">
-        <v>0</v>
-      </c>
-      <c r="D8" s="56">
+      <c r="C8" s="54">
+        <v>0</v>
+      </c>
+      <c r="D8" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.3</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.3</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.3</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0.3</v>
       </c>
-      <c r="H8" s="57">
-        <v>0</v>
-      </c>
-      <c r="I8" s="57">
-        <v>0</v>
-      </c>
-      <c r="J8" s="57">
-        <v>0</v>
-      </c>
-      <c r="K8" s="57">
-        <v>0</v>
-      </c>
-      <c r="L8" s="57">
-        <v>0</v>
-      </c>
-      <c r="M8" s="57">
-        <v>0</v>
-      </c>
-      <c r="N8" s="57">
-        <v>0</v>
-      </c>
-      <c r="O8" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="55">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
+        <v>0</v>
+      </c>
+      <c r="K8" s="55">
+        <v>0</v>
+      </c>
+      <c r="L8" s="55">
+        <v>0</v>
+      </c>
+      <c r="M8" s="55">
+        <v>0</v>
+      </c>
+      <c r="N8" s="55">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="56">
-        <v>0</v>
-      </c>
-      <c r="D9" s="56">
-        <v>0</v>
-      </c>
-      <c r="E9" s="56">
-        <v>1</v>
-      </c>
-      <c r="F9" s="56">
-        <v>1</v>
-      </c>
-      <c r="G9" s="56">
-        <v>1</v>
-      </c>
-      <c r="H9" s="57">
-        <v>0</v>
-      </c>
-      <c r="I9" s="57">
-        <v>0</v>
-      </c>
-      <c r="J9" s="57">
-        <v>0</v>
-      </c>
-      <c r="K9" s="57">
-        <v>0</v>
-      </c>
-      <c r="L9" s="57">
-        <v>0</v>
-      </c>
-      <c r="M9" s="57">
-        <v>0</v>
-      </c>
-      <c r="N9" s="57">
-        <v>0</v>
-      </c>
-      <c r="O9" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="54">
+        <v>0</v>
+      </c>
+      <c r="D9" s="54">
+        <v>0</v>
+      </c>
+      <c r="E9" s="54">
+        <v>1</v>
+      </c>
+      <c r="F9" s="54">
+        <v>1</v>
+      </c>
+      <c r="G9" s="54">
+        <v>1</v>
+      </c>
+      <c r="H9" s="55">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0</v>
+      </c>
+      <c r="K9" s="55">
+        <v>0</v>
+      </c>
+      <c r="L9" s="55">
+        <v>0</v>
+      </c>
+      <c r="M9" s="55">
+        <v>0</v>
+      </c>
+      <c r="N9" s="55">
+        <v>0</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="56">
-        <v>1</v>
-      </c>
-      <c r="D10" s="56">
-        <v>1</v>
-      </c>
-      <c r="E10" s="56">
-        <v>1</v>
-      </c>
-      <c r="F10" s="56">
-        <v>1</v>
-      </c>
-      <c r="G10" s="56">
-        <v>1</v>
-      </c>
-      <c r="H10" s="57">
-        <v>0</v>
-      </c>
-      <c r="I10" s="57">
-        <v>0</v>
-      </c>
-      <c r="J10" s="57">
-        <v>0</v>
-      </c>
-      <c r="K10" s="57">
-        <v>0</v>
-      </c>
-      <c r="L10" s="57">
-        <v>0</v>
-      </c>
-      <c r="M10" s="57">
-        <v>0</v>
-      </c>
-      <c r="N10" s="57">
-        <v>0</v>
-      </c>
-      <c r="O10" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="54">
+        <v>1</v>
+      </c>
+      <c r="D10" s="54">
+        <v>1</v>
+      </c>
+      <c r="E10" s="54">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="54">
+        <v>1</v>
+      </c>
+      <c r="H10" s="55">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0</v>
+      </c>
+      <c r="K10" s="55">
+        <v>0</v>
+      </c>
+      <c r="L10" s="55">
+        <v>0</v>
+      </c>
+      <c r="M10" s="55">
+        <v>0</v>
+      </c>
+      <c r="N10" s="55">
+        <v>0</v>
+      </c>
+      <c r="O10" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="56">
-        <v>0</v>
-      </c>
-      <c r="D11" s="56">
-        <v>0</v>
-      </c>
-      <c r="E11" s="56">
-        <v>1</v>
-      </c>
-      <c r="F11" s="56">
-        <v>1</v>
-      </c>
-      <c r="G11" s="56">
-        <v>1</v>
-      </c>
-      <c r="H11" s="57">
-        <v>0</v>
-      </c>
-      <c r="I11" s="57">
-        <v>0</v>
-      </c>
-      <c r="J11" s="57">
-        <v>0</v>
-      </c>
-      <c r="K11" s="57">
-        <v>0</v>
-      </c>
-      <c r="L11" s="57">
-        <v>0</v>
-      </c>
-      <c r="M11" s="57">
-        <v>0</v>
-      </c>
-      <c r="N11" s="57">
-        <v>0</v>
-      </c>
-      <c r="O11" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="54">
+        <v>0</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="54">
+        <v>1</v>
+      </c>
+      <c r="F11" s="54">
+        <v>1</v>
+      </c>
+      <c r="G11" s="54">
+        <v>1</v>
+      </c>
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0</v>
+      </c>
+      <c r="K11" s="55">
+        <v>0</v>
+      </c>
+      <c r="L11" s="55">
+        <v>0</v>
+      </c>
+      <c r="M11" s="55">
+        <v>0</v>
+      </c>
+      <c r="N11" s="55">
+        <v>0</v>
+      </c>
+      <c r="O11" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="52"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="57">
-        <v>0</v>
-      </c>
-      <c r="D13" s="57">
-        <v>0</v>
-      </c>
-      <c r="E13" s="57">
-        <v>0</v>
-      </c>
-      <c r="F13" s="57">
-        <v>0</v>
-      </c>
-      <c r="G13" s="57">
-        <v>0</v>
-      </c>
-      <c r="H13" s="56">
+      <c r="C13" s="55">
+        <v>0</v>
+      </c>
+      <c r="D13" s="55">
+        <v>0</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0</v>
+      </c>
+      <c r="G13" s="55">
+        <v>0</v>
+      </c>
+      <c r="H13" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="K13" s="56">
+      <c r="K13" s="54">
         <f>food_insecure</f>
         <v>0.36</v>
       </c>
-      <c r="L13" s="57">
-        <v>0</v>
-      </c>
-      <c r="M13" s="57">
-        <v>0</v>
-      </c>
-      <c r="N13" s="57">
-        <v>0</v>
-      </c>
-      <c r="O13" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="55">
+        <v>0</v>
+      </c>
+      <c r="M13" s="55">
+        <v>0</v>
+      </c>
+      <c r="N13" s="55">
+        <v>0</v>
+      </c>
+      <c r="O13" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="57">
-        <v>0</v>
-      </c>
-      <c r="D14" s="57">
-        <v>0</v>
-      </c>
-      <c r="E14" s="57">
-        <v>0</v>
-      </c>
-      <c r="F14" s="57">
-        <v>0</v>
-      </c>
-      <c r="G14" s="57">
-        <v>0</v>
-      </c>
-      <c r="H14" s="56">
-        <v>1</v>
-      </c>
-      <c r="I14" s="56">
-        <v>1</v>
-      </c>
-      <c r="J14" s="56">
-        <v>1</v>
-      </c>
-      <c r="K14" s="56">
-        <v>1</v>
-      </c>
-      <c r="L14" s="57">
-        <v>0</v>
-      </c>
-      <c r="M14" s="57">
-        <v>0</v>
-      </c>
-      <c r="N14" s="57">
-        <v>0</v>
-      </c>
-      <c r="O14" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="55">
+        <v>0</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
+        <v>1</v>
+      </c>
+      <c r="I14" s="54">
+        <v>1</v>
+      </c>
+      <c r="J14" s="54">
+        <v>1</v>
+      </c>
+      <c r="K14" s="54">
+        <v>1</v>
+      </c>
+      <c r="L14" s="55">
+        <v>0</v>
+      </c>
+      <c r="M14" s="55">
+        <v>0</v>
+      </c>
+      <c r="N14" s="55">
+        <v>0</v>
+      </c>
+      <c r="O14" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="57">
-        <v>0</v>
-      </c>
-      <c r="D15" s="57">
-        <v>0</v>
-      </c>
-      <c r="E15" s="57">
-        <v>0</v>
-      </c>
-      <c r="F15" s="57">
-        <v>0</v>
-      </c>
-      <c r="G15" s="57">
-        <v>0</v>
-      </c>
-      <c r="H15" s="56">
+      <c r="C15" s="55">
+        <v>0</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="I15" s="56">
+      <c r="I15" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="L15" s="57">
-        <v>0</v>
-      </c>
-      <c r="M15" s="57">
-        <v>0</v>
-      </c>
-      <c r="N15" s="57">
-        <v>0</v>
-      </c>
-      <c r="O15" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="55">
+        <v>0</v>
+      </c>
+      <c r="M15" s="55">
+        <v>0</v>
+      </c>
+      <c r="N15" s="55">
+        <v>0</v>
+      </c>
+      <c r="O15" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="57">
-        <v>0</v>
-      </c>
-      <c r="D16" s="57">
-        <v>0</v>
-      </c>
-      <c r="E16" s="57">
-        <v>0</v>
-      </c>
-      <c r="F16" s="57">
-        <v>0</v>
-      </c>
-      <c r="G16" s="57">
-        <v>0</v>
-      </c>
-      <c r="H16" s="56">
+      <c r="C16" s="55">
+        <v>0</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
         <f>frac_PW_health_facility</f>
         <v>0.5</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="54">
         <f>frac_PW_health_facility</f>
         <v>0.5</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="54">
         <f>frac_PW_health_facility</f>
         <v>0.5</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="54">
         <f>frac_PW_health_facility</f>
         <v>0.5</v>
       </c>
-      <c r="L16" s="57">
-        <v>0</v>
-      </c>
-      <c r="M16" s="57">
-        <v>0</v>
-      </c>
-      <c r="N16" s="57">
-        <v>0</v>
-      </c>
-      <c r="O16" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="55">
+        <v>0</v>
+      </c>
+      <c r="M16" s="55">
+        <v>0</v>
+      </c>
+      <c r="N16" s="55">
+        <v>0</v>
+      </c>
+      <c r="O16" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="57">
-        <v>0</v>
-      </c>
-      <c r="D17" s="57">
-        <v>0</v>
-      </c>
-      <c r="E17" s="57">
-        <v>0</v>
-      </c>
-      <c r="F17" s="57">
-        <v>0</v>
-      </c>
-      <c r="G17" s="57">
-        <v>0</v>
-      </c>
-      <c r="H17" s="56">
+      <c r="C17" s="55">
+        <v>0</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="55">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="I17" s="56">
+      <c r="I17" s="54">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="J17" s="56">
+      <c r="J17" s="54">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="54">
         <f>frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="L17" s="57">
-        <v>0</v>
-      </c>
-      <c r="M17" s="57">
-        <v>0</v>
-      </c>
-      <c r="N17" s="57">
-        <v>0</v>
-      </c>
-      <c r="O17" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L17" s="55">
+        <v>0</v>
+      </c>
+      <c r="M17" s="55">
+        <v>0</v>
+      </c>
+      <c r="N17" s="55">
+        <v>0</v>
+      </c>
+      <c r="O17" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="57">
-        <v>0</v>
-      </c>
-      <c r="D18" s="57">
-        <v>0</v>
-      </c>
-      <c r="E18" s="57">
-        <v>0</v>
-      </c>
-      <c r="F18" s="57">
-        <v>0</v>
-      </c>
-      <c r="G18" s="57">
-        <v>0</v>
-      </c>
-      <c r="H18" s="56">
-        <v>1</v>
-      </c>
-      <c r="I18" s="56">
-        <v>1</v>
-      </c>
-      <c r="J18" s="56">
-        <v>1</v>
-      </c>
-      <c r="K18" s="56">
-        <v>1</v>
-      </c>
-      <c r="L18" s="57">
-        <v>0</v>
-      </c>
-      <c r="M18" s="57">
-        <v>0</v>
-      </c>
-      <c r="N18" s="57">
-        <v>0</v>
-      </c>
-      <c r="O18" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="55">
+        <v>0</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="55">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
+        <v>1</v>
+      </c>
+      <c r="I18" s="54">
+        <v>1</v>
+      </c>
+      <c r="J18" s="54">
+        <v>1</v>
+      </c>
+      <c r="K18" s="54">
+        <v>1</v>
+      </c>
+      <c r="L18" s="55">
+        <v>0</v>
+      </c>
+      <c r="M18" s="55">
+        <v>0</v>
+      </c>
+      <c r="N18" s="55">
+        <v>0</v>
+      </c>
+      <c r="O18" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="57">
-        <v>0</v>
-      </c>
-      <c r="D19" s="57">
-        <v>0</v>
-      </c>
-      <c r="E19" s="57">
-        <v>0</v>
-      </c>
-      <c r="F19" s="57">
-        <v>0</v>
-      </c>
-      <c r="G19" s="57">
-        <v>0</v>
-      </c>
-      <c r="H19" s="56">
-        <v>1</v>
-      </c>
-      <c r="I19" s="56">
-        <v>1</v>
-      </c>
-      <c r="J19" s="56">
-        <v>1</v>
-      </c>
-      <c r="K19" s="56">
-        <v>1</v>
-      </c>
-      <c r="L19" s="57">
-        <v>0</v>
-      </c>
-      <c r="M19" s="57">
-        <v>0</v>
-      </c>
-      <c r="N19" s="57">
-        <v>0</v>
-      </c>
-      <c r="O19" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="55">
+        <v>0</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54">
+        <v>1</v>
+      </c>
+      <c r="J19" s="54">
+        <v>1</v>
+      </c>
+      <c r="K19" s="54">
+        <v>1</v>
+      </c>
+      <c r="L19" s="55">
+        <v>0</v>
+      </c>
+      <c r="M19" s="55">
+        <v>0</v>
+      </c>
+      <c r="N19" s="55">
+        <v>0</v>
+      </c>
+      <c r="O19" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="57">
-        <v>0</v>
-      </c>
-      <c r="D20" s="57">
-        <v>0</v>
-      </c>
-      <c r="E20" s="57">
-        <v>0</v>
-      </c>
-      <c r="F20" s="57">
-        <v>0</v>
-      </c>
-      <c r="G20" s="57">
-        <v>0</v>
-      </c>
-      <c r="H20" s="56">
+      <c r="C20" s="55">
+        <v>0</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0</v>
+      </c>
+      <c r="E20" s="55">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L20" s="57">
-        <v>0</v>
-      </c>
-      <c r="M20" s="57">
-        <v>0</v>
-      </c>
-      <c r="N20" s="57">
-        <v>0</v>
-      </c>
-      <c r="O20" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="55">
+        <v>0</v>
+      </c>
+      <c r="M20" s="55">
+        <v>0</v>
+      </c>
+      <c r="N20" s="55">
+        <v>0</v>
+      </c>
+      <c r="O20" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="52"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="101" t="s">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="57">
-        <v>0</v>
-      </c>
-      <c r="D22" s="57">
-        <v>0</v>
-      </c>
-      <c r="E22" s="57">
-        <v>0</v>
-      </c>
-      <c r="F22" s="57">
-        <v>0</v>
-      </c>
-      <c r="G22" s="57">
-        <v>0</v>
-      </c>
-      <c r="H22" s="57">
-        <v>0</v>
-      </c>
-      <c r="I22" s="57">
-        <v>0</v>
-      </c>
-      <c r="J22" s="57">
-        <v>0</v>
-      </c>
-      <c r="K22" s="57">
-        <v>0</v>
-      </c>
-      <c r="L22" s="58">
-        <v>1</v>
-      </c>
-      <c r="M22" s="58">
-        <v>1</v>
-      </c>
-      <c r="N22" s="58">
-        <v>1</v>
-      </c>
-      <c r="O22" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="103" t="s">
+      <c r="C22" s="55">
+        <v>0</v>
+      </c>
+      <c r="D22" s="55">
+        <v>0</v>
+      </c>
+      <c r="E22" s="55">
+        <v>0</v>
+      </c>
+      <c r="F22" s="55">
+        <v>0</v>
+      </c>
+      <c r="G22" s="55">
+        <v>0</v>
+      </c>
+      <c r="H22" s="55">
+        <v>0</v>
+      </c>
+      <c r="I22" s="55">
+        <v>0</v>
+      </c>
+      <c r="J22" s="55">
+        <v>0</v>
+      </c>
+      <c r="K22" s="55">
+        <v>0</v>
+      </c>
+      <c r="L22" s="56">
+        <v>1</v>
+      </c>
+      <c r="M22" s="56">
+        <v>1</v>
+      </c>
+      <c r="N22" s="56">
+        <v>1</v>
+      </c>
+      <c r="O22" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="57">
-        <v>0</v>
-      </c>
-      <c r="D23" s="57">
-        <v>0</v>
-      </c>
-      <c r="E23" s="57">
-        <v>0</v>
-      </c>
-      <c r="F23" s="57">
-        <v>0</v>
-      </c>
-      <c r="G23" s="57">
-        <v>0</v>
-      </c>
-      <c r="H23" s="57">
-        <v>0</v>
-      </c>
-      <c r="I23" s="57">
-        <v>0</v>
-      </c>
-      <c r="J23" s="57">
-        <v>0</v>
-      </c>
-      <c r="K23" s="57">
-        <v>0</v>
-      </c>
-      <c r="L23" s="56">
-        <v>1</v>
-      </c>
-      <c r="M23" s="56">
-        <v>1</v>
-      </c>
-      <c r="N23" s="56">
-        <v>1</v>
-      </c>
-      <c r="O23" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="103" t="s">
+      <c r="C23" s="55">
+        <v>0</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0</v>
+      </c>
+      <c r="G23" s="55">
+        <v>0</v>
+      </c>
+      <c r="H23" s="55">
+        <v>0</v>
+      </c>
+      <c r="I23" s="55">
+        <v>0</v>
+      </c>
+      <c r="J23" s="55">
+        <v>0</v>
+      </c>
+      <c r="K23" s="55">
+        <v>0</v>
+      </c>
+      <c r="L23" s="54">
+        <v>1</v>
+      </c>
+      <c r="M23" s="54">
+        <v>1</v>
+      </c>
+      <c r="N23" s="54">
+        <v>1</v>
+      </c>
+      <c r="O23" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="101" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="57">
-        <v>0</v>
-      </c>
-      <c r="D24" s="57">
-        <v>0</v>
-      </c>
-      <c r="E24" s="57">
-        <v>0</v>
-      </c>
-      <c r="F24" s="57">
-        <v>0</v>
-      </c>
-      <c r="G24" s="57">
-        <v>0</v>
-      </c>
-      <c r="H24" s="57">
-        <v>0</v>
-      </c>
-      <c r="I24" s="57">
-        <v>0</v>
-      </c>
-      <c r="J24" s="57">
-        <v>0</v>
-      </c>
-      <c r="K24" s="57">
-        <v>0</v>
-      </c>
-      <c r="L24" s="56">
+      <c r="C24" s="55">
+        <v>0</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0</v>
+      </c>
+      <c r="E24" s="55">
+        <v>0</v>
+      </c>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="55">
+        <v>0</v>
+      </c>
+      <c r="H24" s="55">
+        <v>0</v>
+      </c>
+      <c r="I24" s="55">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55">
+        <v>0</v>
+      </c>
+      <c r="K24" s="55">
+        <v>0</v>
+      </c>
+      <c r="L24" s="54">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.36650879999999997</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="N24" s="56">
+      <c r="N24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
-      <c r="O24" s="56">
+      <c r="O24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.56559999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="103" t="s">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="57">
-        <v>0</v>
-      </c>
-      <c r="D25" s="57">
-        <v>0</v>
-      </c>
-      <c r="E25" s="57">
-        <v>0</v>
-      </c>
-      <c r="F25" s="57">
-        <v>0</v>
-      </c>
-      <c r="G25" s="57">
-        <v>0</v>
-      </c>
-      <c r="H25" s="57">
-        <v>0</v>
-      </c>
-      <c r="I25" s="57">
-        <v>0</v>
-      </c>
-      <c r="J25" s="57">
-        <v>0</v>
-      </c>
-      <c r="K25" s="57">
-        <v>0</v>
-      </c>
-      <c r="L25" s="56">
+      <c r="C25" s="55">
+        <v>0</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="55">
+        <v>0</v>
+      </c>
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0</v>
+      </c>
+      <c r="J25" s="55">
+        <v>0</v>
+      </c>
+      <c r="K25" s="55">
+        <v>0</v>
+      </c>
+      <c r="L25" s="54">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.1570752</v>
       </c>
-      <c r="M25" s="56">
+      <c r="M25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
-      <c r="N25" s="56">
+      <c r="N25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
-      <c r="O25" s="56">
+      <c r="O25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.2424</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="103" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="57">
-        <v>0</v>
-      </c>
-      <c r="D26" s="57">
-        <v>0</v>
-      </c>
-      <c r="E26" s="57">
-        <v>0</v>
-      </c>
-      <c r="F26" s="57">
-        <v>0</v>
-      </c>
-      <c r="G26" s="57">
-        <v>0</v>
-      </c>
-      <c r="H26" s="57">
-        <v>0</v>
-      </c>
-      <c r="I26" s="57">
-        <v>0</v>
-      </c>
-      <c r="J26" s="57">
-        <v>0</v>
-      </c>
-      <c r="K26" s="57">
-        <v>0</v>
-      </c>
-      <c r="L26" s="56">
+      <c r="C26" s="55">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
+      <c r="F26" s="55">
+        <v>0</v>
+      </c>
+      <c r="G26" s="55">
+        <v>0</v>
+      </c>
+      <c r="H26" s="55">
+        <v>0</v>
+      </c>
+      <c r="I26" s="55">
+        <v>0</v>
+      </c>
+      <c r="J26" s="55">
+        <v>0</v>
+      </c>
+      <c r="K26" s="55">
+        <v>0</v>
+      </c>
+      <c r="L26" s="54">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.12441600000000001</v>
       </c>
-      <c r="M26" s="56">
+      <c r="M26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
-      <c r="N26" s="56">
+      <c r="N26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
-      <c r="O26" s="56">
+      <c r="O26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.192</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="103" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="57">
-        <v>0</v>
-      </c>
-      <c r="D27" s="57">
-        <v>0</v>
-      </c>
-      <c r="E27" s="57">
-        <v>0</v>
-      </c>
-      <c r="F27" s="57">
-        <v>0</v>
-      </c>
-      <c r="G27" s="57">
-        <v>0</v>
-      </c>
-      <c r="H27" s="57">
-        <v>0</v>
-      </c>
-      <c r="I27" s="57">
-        <v>0</v>
-      </c>
-      <c r="J27" s="57">
-        <v>0</v>
-      </c>
-      <c r="K27" s="57">
-        <v>0</v>
-      </c>
-      <c r="L27" s="56">
+      <c r="C27" s="55">
+        <v>0</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0</v>
+      </c>
+      <c r="E27" s="55">
+        <v>0</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
+        <v>0</v>
+      </c>
+      <c r="H27" s="55">
+        <v>0</v>
+      </c>
+      <c r="I27" s="55">
+        <v>0</v>
+      </c>
+      <c r="J27" s="55">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="54">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0.35199999999999998</v>
       </c>
-      <c r="M27" s="56">
-        <v>0</v>
-      </c>
-      <c r="N27" s="56">
-        <v>0</v>
-      </c>
-      <c r="O27" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="54">
+        <v>0</v>
+      </c>
+      <c r="N27" s="54">
+        <v>0</v>
+      </c>
+      <c r="O27" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7175,497 +7284,497 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="56">
-        <v>0</v>
-      </c>
-      <c r="D29" s="56">
-        <v>0</v>
-      </c>
-      <c r="E29" s="56">
+      <c r="C29" s="54">
+        <v>0</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0</v>
+      </c>
+      <c r="E29" s="54">
         <f t="shared" ref="E29:O29" si="0">frac_maize</f>
         <v>0.05</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="I29" s="56">
+      <c r="I29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J29" s="56">
+      <c r="J29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K29" s="56">
+      <c r="K29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L29" s="56">
+      <c r="L29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M29" s="56">
+      <c r="M29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="N29" s="56">
+      <c r="N29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="O29" s="56">
+      <c r="O29" s="54">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="56">
-        <v>0</v>
-      </c>
-      <c r="D30" s="56">
-        <v>0</v>
-      </c>
-      <c r="E30" s="56">
+      <c r="C30" s="54">
+        <v>0</v>
+      </c>
+      <c r="D30" s="54">
+        <v>0</v>
+      </c>
+      <c r="E30" s="54">
         <f t="shared" ref="E30:O30" si="1">frac_rice</f>
         <v>0.8</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="I30" s="56">
+      <c r="I30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="J30" s="56">
+      <c r="J30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="K30" s="56">
+      <c r="K30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="L30" s="56">
+      <c r="L30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="M30" s="56">
+      <c r="M30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="N30" s="56">
+      <c r="N30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="O30" s="56">
+      <c r="O30" s="54">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="56">
-        <v>0</v>
-      </c>
-      <c r="D31" s="56">
-        <v>0</v>
-      </c>
-      <c r="E31" s="56">
+      <c r="C31" s="54">
+        <v>0</v>
+      </c>
+      <c r="D31" s="54">
+        <v>0</v>
+      </c>
+      <c r="E31" s="54">
         <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
         <v>0.12</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="H31" s="56">
+      <c r="H31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="I31" s="56">
+      <c r="I31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="K31" s="56">
+      <c r="K31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="L31" s="56">
+      <c r="L31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="M31" s="56">
+      <c r="M31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="N31" s="56">
+      <c r="N31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
-      <c r="O31" s="56">
+      <c r="O31" s="54">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="56">
-        <v>0</v>
-      </c>
-      <c r="D32" s="56">
-        <v>0</v>
-      </c>
-      <c r="E32" s="56">
-        <v>1</v>
-      </c>
-      <c r="F32" s="56">
-        <v>1</v>
-      </c>
-      <c r="G32" s="56">
-        <v>1</v>
-      </c>
-      <c r="H32" s="56">
-        <v>1</v>
-      </c>
-      <c r="I32" s="56">
-        <v>1</v>
-      </c>
-      <c r="J32" s="56">
-        <v>1</v>
-      </c>
-      <c r="K32" s="56">
-        <v>1</v>
-      </c>
-      <c r="L32" s="56">
-        <v>1</v>
-      </c>
-      <c r="M32" s="56">
-        <v>1</v>
-      </c>
-      <c r="N32" s="56">
-        <v>1</v>
-      </c>
-      <c r="O32" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="54">
+        <v>0</v>
+      </c>
+      <c r="D32" s="54">
+        <v>0</v>
+      </c>
+      <c r="E32" s="54">
+        <v>1</v>
+      </c>
+      <c r="F32" s="54">
+        <v>1</v>
+      </c>
+      <c r="G32" s="54">
+        <v>1</v>
+      </c>
+      <c r="H32" s="54">
+        <v>1</v>
+      </c>
+      <c r="I32" s="54">
+        <v>1</v>
+      </c>
+      <c r="J32" s="54">
+        <v>1</v>
+      </c>
+      <c r="K32" s="54">
+        <v>1</v>
+      </c>
+      <c r="L32" s="54">
+        <v>1</v>
+      </c>
+      <c r="M32" s="54">
+        <v>1</v>
+      </c>
+      <c r="N32" s="54">
+        <v>1</v>
+      </c>
+      <c r="O32" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="56">
+      <c r="C33" s="54">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
         <v>0.1</v>
       </c>
-      <c r="D33" s="56">
+      <c r="D33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="E33" s="56">
+      <c r="E33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="K33" s="56">
+      <c r="K33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="L33" s="56">
+      <c r="L33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="M33" s="56">
+      <c r="M33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="N33" s="56">
+      <c r="N33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="O33" s="56">
+      <c r="O33" s="54">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="56">
-        <v>1</v>
-      </c>
-      <c r="D34" s="56">
-        <v>1</v>
-      </c>
-      <c r="E34" s="56">
-        <v>1</v>
-      </c>
-      <c r="F34" s="56">
-        <v>1</v>
-      </c>
-      <c r="G34" s="56">
-        <v>1</v>
-      </c>
-      <c r="H34" s="56">
-        <v>1</v>
-      </c>
-      <c r="I34" s="56">
-        <v>1</v>
-      </c>
-      <c r="J34" s="56">
-        <v>1</v>
-      </c>
-      <c r="K34" s="56">
-        <v>1</v>
-      </c>
-      <c r="L34" s="56">
-        <v>1</v>
-      </c>
-      <c r="M34" s="56">
-        <v>1</v>
-      </c>
-      <c r="N34" s="56">
-        <v>1</v>
-      </c>
-      <c r="O34" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="54">
+        <v>1</v>
+      </c>
+      <c r="D34" s="54">
+        <v>1</v>
+      </c>
+      <c r="E34" s="54">
+        <v>1</v>
+      </c>
+      <c r="F34" s="54">
+        <v>1</v>
+      </c>
+      <c r="G34" s="54">
+        <v>1</v>
+      </c>
+      <c r="H34" s="54">
+        <v>1</v>
+      </c>
+      <c r="I34" s="54">
+        <v>1</v>
+      </c>
+      <c r="J34" s="54">
+        <v>1</v>
+      </c>
+      <c r="K34" s="54">
+        <v>1</v>
+      </c>
+      <c r="L34" s="54">
+        <v>1</v>
+      </c>
+      <c r="M34" s="54">
+        <v>1</v>
+      </c>
+      <c r="N34" s="54">
+        <v>1</v>
+      </c>
+      <c r="O34" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="56">
-        <v>1</v>
-      </c>
-      <c r="D35" s="56">
-        <v>1</v>
-      </c>
-      <c r="E35" s="56">
-        <v>1</v>
-      </c>
-      <c r="F35" s="56">
-        <v>1</v>
-      </c>
-      <c r="G35" s="56">
-        <v>1</v>
-      </c>
-      <c r="H35" s="56">
-        <v>1</v>
-      </c>
-      <c r="I35" s="56">
-        <v>1</v>
-      </c>
-      <c r="J35" s="56">
-        <v>1</v>
-      </c>
-      <c r="K35" s="56">
-        <v>1</v>
-      </c>
-      <c r="L35" s="56">
-        <v>1</v>
-      </c>
-      <c r="M35" s="56">
-        <v>1</v>
-      </c>
-      <c r="N35" s="56">
-        <v>1</v>
-      </c>
-      <c r="O35" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="54">
+        <v>1</v>
+      </c>
+      <c r="D35" s="54">
+        <v>1</v>
+      </c>
+      <c r="E35" s="54">
+        <v>1</v>
+      </c>
+      <c r="F35" s="54">
+        <v>1</v>
+      </c>
+      <c r="G35" s="54">
+        <v>1</v>
+      </c>
+      <c r="H35" s="54">
+        <v>1</v>
+      </c>
+      <c r="I35" s="54">
+        <v>1</v>
+      </c>
+      <c r="J35" s="54">
+        <v>1</v>
+      </c>
+      <c r="K35" s="54">
+        <v>1</v>
+      </c>
+      <c r="L35" s="54">
+        <v>1</v>
+      </c>
+      <c r="M35" s="54">
+        <v>1</v>
+      </c>
+      <c r="N35" s="54">
+        <v>1</v>
+      </c>
+      <c r="O35" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="56">
-        <v>1</v>
-      </c>
-      <c r="D36" s="56">
-        <v>1</v>
-      </c>
-      <c r="E36" s="56">
-        <v>1</v>
-      </c>
-      <c r="F36" s="56">
-        <v>1</v>
-      </c>
-      <c r="G36" s="56">
-        <v>1</v>
-      </c>
-      <c r="H36" s="56">
-        <v>1</v>
-      </c>
-      <c r="I36" s="56">
-        <v>1</v>
-      </c>
-      <c r="J36" s="56">
-        <v>1</v>
-      </c>
-      <c r="K36" s="56">
-        <v>1</v>
-      </c>
-      <c r="L36" s="56">
-        <v>1</v>
-      </c>
-      <c r="M36" s="56">
-        <v>1</v>
-      </c>
-      <c r="N36" s="56">
-        <v>1</v>
-      </c>
-      <c r="O36" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="54">
+        <v>1</v>
+      </c>
+      <c r="D36" s="54">
+        <v>1</v>
+      </c>
+      <c r="E36" s="54">
+        <v>1</v>
+      </c>
+      <c r="F36" s="54">
+        <v>1</v>
+      </c>
+      <c r="G36" s="54">
+        <v>1</v>
+      </c>
+      <c r="H36" s="54">
+        <v>1</v>
+      </c>
+      <c r="I36" s="54">
+        <v>1</v>
+      </c>
+      <c r="J36" s="54">
+        <v>1</v>
+      </c>
+      <c r="K36" s="54">
+        <v>1</v>
+      </c>
+      <c r="L36" s="54">
+        <v>1</v>
+      </c>
+      <c r="M36" s="54">
+        <v>1</v>
+      </c>
+      <c r="N36" s="54">
+        <v>1</v>
+      </c>
+      <c r="O36" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="56">
-        <v>1</v>
-      </c>
-      <c r="D37" s="56">
-        <v>1</v>
-      </c>
-      <c r="E37" s="56">
-        <v>1</v>
-      </c>
-      <c r="F37" s="56">
-        <v>1</v>
-      </c>
-      <c r="G37" s="56">
-        <v>1</v>
-      </c>
-      <c r="H37" s="56">
-        <v>1</v>
-      </c>
-      <c r="I37" s="56">
-        <v>1</v>
-      </c>
-      <c r="J37" s="56">
-        <v>1</v>
-      </c>
-      <c r="K37" s="56">
-        <v>1</v>
-      </c>
-      <c r="L37" s="56">
-        <v>1</v>
-      </c>
-      <c r="M37" s="56">
-        <v>1</v>
-      </c>
-      <c r="N37" s="56">
-        <v>1</v>
-      </c>
-      <c r="O37" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="54">
+        <v>1</v>
+      </c>
+      <c r="D37" s="54">
+        <v>1</v>
+      </c>
+      <c r="E37" s="54">
+        <v>1</v>
+      </c>
+      <c r="F37" s="54">
+        <v>1</v>
+      </c>
+      <c r="G37" s="54">
+        <v>1</v>
+      </c>
+      <c r="H37" s="54">
+        <v>1</v>
+      </c>
+      <c r="I37" s="54">
+        <v>1</v>
+      </c>
+      <c r="J37" s="54">
+        <v>1</v>
+      </c>
+      <c r="K37" s="54">
+        <v>1</v>
+      </c>
+      <c r="L37" s="54">
+        <v>1</v>
+      </c>
+      <c r="M37" s="54">
+        <v>1</v>
+      </c>
+      <c r="N37" s="54">
+        <v>1</v>
+      </c>
+      <c r="O37" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="56">
-        <v>1</v>
-      </c>
-      <c r="D38" s="56">
-        <v>1</v>
-      </c>
-      <c r="E38" s="56">
-        <v>1</v>
-      </c>
-      <c r="F38" s="56">
-        <v>1</v>
-      </c>
-      <c r="G38" s="56">
-        <v>1</v>
-      </c>
-      <c r="H38" s="56">
-        <v>1</v>
-      </c>
-      <c r="I38" s="56">
-        <v>1</v>
-      </c>
-      <c r="J38" s="56">
-        <v>1</v>
-      </c>
-      <c r="K38" s="56">
-        <v>1</v>
-      </c>
-      <c r="L38" s="56">
-        <v>1</v>
-      </c>
-      <c r="M38" s="56">
-        <v>1</v>
-      </c>
-      <c r="N38" s="56">
-        <v>1</v>
-      </c>
-      <c r="O38" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="54">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54">
+        <v>1</v>
+      </c>
+      <c r="E38" s="54">
+        <v>1</v>
+      </c>
+      <c r="F38" s="54">
+        <v>1</v>
+      </c>
+      <c r="G38" s="54">
+        <v>1</v>
+      </c>
+      <c r="H38" s="54">
+        <v>1</v>
+      </c>
+      <c r="I38" s="54">
+        <v>1</v>
+      </c>
+      <c r="J38" s="54">
+        <v>1</v>
+      </c>
+      <c r="K38" s="54">
+        <v>1</v>
+      </c>
+      <c r="L38" s="54">
+        <v>1</v>
+      </c>
+      <c r="M38" s="54">
+        <v>1</v>
+      </c>
+      <c r="N38" s="54">
+        <v>1</v>
+      </c>
+      <c r="O38" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52"/>
     </row>
   </sheetData>
@@ -7679,7 +7788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7689,196 +7798,196 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="60" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="60"/>
-    <col min="5" max="5" width="17.5" style="60" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="60"/>
+    <col min="1" max="1" width="33.6328125" style="58" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="58" customWidth="1"/>
+    <col min="3" max="4" width="11.453125" style="58"/>
+    <col min="5" max="5" width="17.453125" style="58" customWidth="1"/>
+    <col min="6" max="16384" width="11.453125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="63">
+      <c r="B2" s="61">
         <v>0.9</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="60">
         <v>0.09</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="58">
         <v>0.8</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="58">
         <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="63">
-        <v>1</v>
-      </c>
-      <c r="C3" s="62">
+      <c r="B3" s="61">
+        <v>1</v>
+      </c>
+      <c r="C3" s="60">
         <v>0.02</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="58">
         <v>1.9</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="58">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="63">
-        <v>1</v>
-      </c>
-      <c r="C4" s="62">
+      <c r="B4" s="61">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60">
         <v>0.08</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="58">
         <v>2</v>
       </c>
-      <c r="E4" s="60">
+      <c r="E4" s="58">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="63">
-        <v>1</v>
-      </c>
-      <c r="C5" s="62">
+      <c r="B5" s="61">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60">
         <v>0.18</v>
       </c>
-      <c r="D5" s="60">
+      <c r="D5" s="58">
         <v>0.7</v>
       </c>
-      <c r="E5" s="60">
+      <c r="E5" s="58">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="64" t="s">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="63">
-        <v>1</v>
-      </c>
-      <c r="C6" s="62">
+      <c r="B6" s="61">
+        <v>1</v>
+      </c>
+      <c r="C6" s="60">
         <v>0.02</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="58">
         <v>0.7</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="58">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="61">
         <v>0.93</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="60">
         <v>0.45</v>
       </c>
-      <c r="D7" s="60">
+      <c r="D7" s="58">
         <v>0.9</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="58">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="63">
+      <c r="B8" s="61">
         <v>0.5</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="60">
         <v>0.03</v>
       </c>
-      <c r="D8" s="60">
-        <v>0</v>
-      </c>
-      <c r="E8" s="60">
+      <c r="D8" s="58">
+        <v>0</v>
+      </c>
+      <c r="E8" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9" s="61">
         <v>0.5</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="60">
         <v>0.11</v>
       </c>
-      <c r="D9" s="60">
-        <v>0</v>
-      </c>
-      <c r="E9" s="60">
+      <c r="D9" s="58">
+        <v>0</v>
+      </c>
+      <c r="E9" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10" s="61">
         <v>0.98</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="60">
         <v>0.01</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="58">
         <v>0.6</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="61"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7888,7 +7997,1418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF007600"/>
+  </sheetPr>
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.453125" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.81640625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="14.453125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <f>start_year</f>
+        <v>2017</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3095470</v>
+      </c>
+      <c r="C2" s="29">
+        <v>15402200</v>
+      </c>
+      <c r="D2" s="29">
+        <v>8785700</v>
+      </c>
+      <c r="E2" s="29">
+        <v>13889200</v>
+      </c>
+      <c r="F2" s="29">
+        <v>12671800</v>
+      </c>
+      <c r="G2" s="29">
+        <v>9362400</v>
+      </c>
+      <c r="H2" s="29">
+        <v>173766200</v>
+      </c>
+      <c r="I2" s="30">
+        <f t="shared" ref="I2:I15" si="0">D2+E2+F2+G2</f>
+        <v>44709100</v>
+      </c>
+      <c r="J2" s="30">
+        <f t="shared" ref="J2:J15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
+        <v>3650590.4685349194</v>
+      </c>
+      <c r="K2" s="30">
+        <f t="shared" ref="K2:K15" si="2">D2/I2</f>
+        <v>0.19650809343064388</v>
+      </c>
+      <c r="L2" s="30">
+        <f>I2-J2</f>
+        <v>41058509.531465083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f>IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
+        <v>2018</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3071259</v>
+      </c>
+      <c r="C3" s="29">
+        <v>15629400.000000002</v>
+      </c>
+      <c r="D3" s="29">
+        <v>8937400.0000000019</v>
+      </c>
+      <c r="E3" s="29">
+        <v>14228400.000000002</v>
+      </c>
+      <c r="F3" s="29">
+        <v>12949600</v>
+      </c>
+      <c r="G3" s="29">
+        <v>9576800</v>
+      </c>
+      <c r="H3" s="29">
+        <v>175848400</v>
+      </c>
+      <c r="I3" s="30">
+        <f t="shared" si="0"/>
+        <v>45692200</v>
+      </c>
+      <c r="J3" s="30">
+        <f t="shared" si="1"/>
+        <v>3622037.632993402</v>
+      </c>
+      <c r="K3" s="30">
+        <f t="shared" si="2"/>
+        <v>0.19560012431005733</v>
+      </c>
+      <c r="L3" s="30">
+        <f t="shared" ref="L3:L15" si="3">I3-J3</f>
+        <v>42070162.3670066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f>IF($A$2+ROW(A4)-2&lt;=end_year,A3+1,"")</f>
+        <v>2019</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3045241</v>
+      </c>
+      <c r="C4" s="29">
+        <v>15856600.000000002</v>
+      </c>
+      <c r="D4" s="29">
+        <v>9089100.0000000019</v>
+      </c>
+      <c r="E4" s="29">
+        <v>14567600.000000002</v>
+      </c>
+      <c r="F4" s="29">
+        <v>13227400</v>
+      </c>
+      <c r="G4" s="29">
+        <v>9791200.0000000019</v>
+      </c>
+      <c r="H4" s="29">
+        <v>177930600</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" si="0"/>
+        <v>46675300</v>
+      </c>
+      <c r="J4" s="30">
+        <f t="shared" si="1"/>
+        <v>3591353.7424015561</v>
+      </c>
+      <c r="K4" s="30">
+        <f t="shared" si="2"/>
+        <v>0.19473040344679096</v>
+      </c>
+      <c r="L4" s="30">
+        <f t="shared" si="3"/>
+        <v>43083946.257598445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f>IF($A$2+ROW(A5)-2&lt;=end_year,A4+1,"")</f>
+        <v>2020</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3017266</v>
+      </c>
+      <c r="C5" s="29">
+        <v>16083800.000000004</v>
+      </c>
+      <c r="D5" s="29">
+        <v>9240800.0000000037</v>
+      </c>
+      <c r="E5" s="29">
+        <v>14906800.000000004</v>
+      </c>
+      <c r="F5" s="29">
+        <v>13505200</v>
+      </c>
+      <c r="G5" s="29">
+        <v>10005600.000000004</v>
+      </c>
+      <c r="H5" s="29">
+        <v>180012800</v>
+      </c>
+      <c r="I5" s="30">
+        <f t="shared" si="0"/>
+        <v>47658400.000000015</v>
+      </c>
+      <c r="J5" s="30">
+        <f t="shared" si="1"/>
+        <v>3558361.8967828737</v>
+      </c>
+      <c r="K5" s="30">
+        <f t="shared" si="2"/>
+        <v>0.19389656387960991</v>
+      </c>
+      <c r="L5" s="30">
+        <f t="shared" si="3"/>
+        <v>44100038.10321714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f>IF($A$2+ROW(A6)-2&lt;=end_year,A5+1,"")</f>
+        <v>2021</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2990677</v>
+      </c>
+      <c r="C6" s="29">
+        <v>16311000.000000004</v>
+      </c>
+      <c r="D6" s="29">
+        <v>9392500.0000000037</v>
+      </c>
+      <c r="E6" s="29">
+        <v>15246000.000000004</v>
+      </c>
+      <c r="F6" s="29">
+        <v>13783000</v>
+      </c>
+      <c r="G6" s="29">
+        <v>10220000.000000004</v>
+      </c>
+      <c r="H6" s="29">
+        <v>182095000</v>
+      </c>
+      <c r="I6" s="30">
+        <f t="shared" si="0"/>
+        <v>48641500.000000015</v>
+      </c>
+      <c r="J6" s="30">
+        <f t="shared" si="1"/>
+        <v>3527004.6069471212</v>
+      </c>
+      <c r="K6" s="30">
+        <f t="shared" si="2"/>
+        <v>0.1930964300031866</v>
+      </c>
+      <c r="L6" s="30">
+        <f t="shared" si="3"/>
+        <v>45114495.393052891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>IF($A$2+ROW(A7)-2&lt;=end_year,A6+1,"")</f>
+        <v>2022</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2962144</v>
+      </c>
+      <c r="C7" s="29">
+        <v>16190600.000000004</v>
+      </c>
+      <c r="D7" s="29">
+        <v>9004300.0000000037</v>
+      </c>
+      <c r="E7" s="29">
+        <v>15785700.000000004</v>
+      </c>
+      <c r="F7" s="29">
+        <v>13711700</v>
+      </c>
+      <c r="G7" s="29">
+        <v>10609600.000000004</v>
+      </c>
+      <c r="H7" s="29">
+        <v>183822800</v>
+      </c>
+      <c r="I7" s="30">
+        <f t="shared" si="0"/>
+        <v>49111300.000000015</v>
+      </c>
+      <c r="J7" s="30">
+        <f t="shared" si="1"/>
+        <v>3493354.6934158299</v>
+      </c>
+      <c r="K7" s="30">
+        <f t="shared" si="2"/>
+        <v>0.1833447699409301</v>
+      </c>
+      <c r="L7" s="30">
+        <f t="shared" si="3"/>
+        <v>45617945.306584187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f>IF($A$2+ROW(A8)-2&lt;=end_year,A7+1,"")</f>
+        <v>2023</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2931643</v>
+      </c>
+      <c r="C8" s="29">
+        <v>16070200.000000004</v>
+      </c>
+      <c r="D8" s="29">
+        <v>8616100.0000000019</v>
+      </c>
+      <c r="E8" s="29">
+        <v>16325400.000000004</v>
+      </c>
+      <c r="F8" s="29">
+        <v>13640400</v>
+      </c>
+      <c r="G8" s="29">
+        <v>10999200.000000002</v>
+      </c>
+      <c r="H8" s="29">
+        <v>185550600</v>
+      </c>
+      <c r="I8" s="30">
+        <f t="shared" si="0"/>
+        <v>49581100.000000007</v>
+      </c>
+      <c r="J8" s="30">
+        <f t="shared" si="1"/>
+        <v>3457383.8521927581</v>
+      </c>
+      <c r="K8" s="30">
+        <f t="shared" si="2"/>
+        <v>0.17377791134121673</v>
+      </c>
+      <c r="L8" s="30">
+        <f t="shared" si="3"/>
+        <v>46123716.147807248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f>IF($A$2+ROW(A9)-2&lt;=end_year,A8+1,"")</f>
+        <v>2024</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2899255</v>
+      </c>
+      <c r="C9" s="29">
+        <v>15949800.000000006</v>
+      </c>
+      <c r="D9" s="29">
+        <v>8227900.0000000019</v>
+      </c>
+      <c r="E9" s="29">
+        <v>16865100.000000004</v>
+      </c>
+      <c r="F9" s="29">
+        <v>13569100</v>
+      </c>
+      <c r="G9" s="29">
+        <v>11388800</v>
+      </c>
+      <c r="H9" s="29">
+        <v>187278400</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="0"/>
+        <v>50050900.000000007</v>
+      </c>
+      <c r="J9" s="30">
+        <f t="shared" si="1"/>
+        <v>3419187.609265219</v>
+      </c>
+      <c r="K9" s="30">
+        <f t="shared" si="2"/>
+        <v>0.16439065031797631</v>
+      </c>
+      <c r="L9" s="30">
+        <f t="shared" si="3"/>
+        <v>46631712.390734792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f>IF($A$2+ROW(A10)-2&lt;=end_year,A9+1,"")</f>
+        <v>2025</v>
+      </c>
+      <c r="B10" s="8">
+        <v>2865008</v>
+      </c>
+      <c r="C10" s="29">
+        <v>15829400.000000006</v>
+      </c>
+      <c r="D10" s="29">
+        <v>7839700.0000000019</v>
+      </c>
+      <c r="E10" s="29">
+        <v>17404800.000000004</v>
+      </c>
+      <c r="F10" s="29">
+        <v>13497800</v>
+      </c>
+      <c r="G10" s="29">
+        <v>11778400</v>
+      </c>
+      <c r="H10" s="29">
+        <v>189006200</v>
+      </c>
+      <c r="I10" s="30">
+        <f t="shared" si="0"/>
+        <v>50520700.000000007</v>
+      </c>
+      <c r="J10" s="30">
+        <f t="shared" si="1"/>
+        <v>3378798.9859621613</v>
+      </c>
+      <c r="K10" s="30">
+        <f t="shared" si="2"/>
+        <v>0.15517797655218554</v>
+      </c>
+      <c r="L10" s="30">
+        <f t="shared" si="3"/>
+        <v>47141901.014037848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f>IF($A$2+ROW(A11)-2&lt;=end_year,A10+1,"")</f>
+        <v>2026</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2836142</v>
+      </c>
+      <c r="C11" s="29">
+        <v>15709000.000000006</v>
+      </c>
+      <c r="D11" s="29">
+        <v>7451500.0000000019</v>
+      </c>
+      <c r="E11" s="29">
+        <v>17944500</v>
+      </c>
+      <c r="F11" s="29">
+        <v>13426500</v>
+      </c>
+      <c r="G11" s="29">
+        <v>12168000</v>
+      </c>
+      <c r="H11" s="29">
+        <v>190734000</v>
+      </c>
+      <c r="I11" s="30">
+        <f t="shared" si="0"/>
+        <v>50990500</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" si="1"/>
+        <v>3344756.3544830228</v>
+      </c>
+      <c r="K11" s="30">
+        <f t="shared" si="2"/>
+        <v>0.1461350643747365</v>
+      </c>
+      <c r="L11" s="30">
+        <f t="shared" si="3"/>
+        <v>47645743.645516977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f>IF($A$2+ROW(A12)-2&lt;=end_year,A11+1,"")</f>
+        <v>2027</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2805541</v>
+      </c>
+      <c r="C12" s="29">
+        <v>15358200.000000006</v>
+      </c>
+      <c r="D12" s="29">
+        <v>7411700.0000000019</v>
+      </c>
+      <c r="E12" s="29">
+        <v>17710400</v>
+      </c>
+      <c r="F12" s="29">
+        <v>13766300</v>
+      </c>
+      <c r="G12" s="29">
+        <v>12445000</v>
+      </c>
+      <c r="H12" s="29">
+        <v>192287600</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="0"/>
+        <v>51333400</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
+        <v>3308667.5799422786</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="2"/>
+        <v>0.14438357872262508</v>
+      </c>
+      <c r="L12" s="30">
+        <f t="shared" si="3"/>
+        <v>48024732.420057721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f>IF($A$2+ROW(A13)-2&lt;=end_year,A12+1,"")</f>
+        <v>2028</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2773236</v>
+      </c>
+      <c r="C13" s="29">
+        <v>15007400.000000007</v>
+      </c>
+      <c r="D13" s="29">
+        <v>7371900.0000000019</v>
+      </c>
+      <c r="E13" s="29">
+        <v>17476300</v>
+      </c>
+      <c r="F13" s="29">
+        <v>14106100</v>
+      </c>
+      <c r="G13" s="29">
+        <v>12722000</v>
+      </c>
+      <c r="H13" s="29">
+        <v>193841200</v>
+      </c>
+      <c r="I13" s="30">
+        <f t="shared" si="0"/>
+        <v>51676300</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="1"/>
+        <v>3270569.2216684073</v>
+      </c>
+      <c r="K13" s="30">
+        <f t="shared" si="2"/>
+        <v>0.14265533716616713</v>
+      </c>
+      <c r="L13" s="30">
+        <f t="shared" si="3"/>
+        <v>48405730.778331593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f>IF($A$2+ROW(A14)-2&lt;=end_year,A13+1,"")</f>
+        <v>2029</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2739273</v>
+      </c>
+      <c r="C14" s="29">
+        <v>14656600.000000007</v>
+      </c>
+      <c r="D14" s="29">
+        <v>7332100.0000000009</v>
+      </c>
+      <c r="E14" s="29">
+        <v>17242200</v>
+      </c>
+      <c r="F14" s="29">
+        <v>14445900</v>
+      </c>
+      <c r="G14" s="29">
+        <v>12999000</v>
+      </c>
+      <c r="H14" s="29">
+        <v>195394800</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="0"/>
+        <v>52019200</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="1"/>
+        <v>3230515.5289875376</v>
+      </c>
+      <c r="K14" s="30">
+        <f t="shared" si="2"/>
+        <v>0.14094988004429135</v>
+      </c>
+      <c r="L14" s="30">
+        <f t="shared" si="3"/>
+        <v>48788684.471012466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f>IF($A$2+ROW(A15)-2&lt;=end_year,A14+1,"")</f>
+        <v>2030</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2703670</v>
+      </c>
+      <c r="C15" s="29">
+        <v>14305800.000000007</v>
+      </c>
+      <c r="D15" s="29">
+        <v>7292300.0000000009</v>
+      </c>
+      <c r="E15" s="29">
+        <v>17008100</v>
+      </c>
+      <c r="F15" s="29">
+        <v>14785700</v>
+      </c>
+      <c r="G15" s="29">
+        <v>13276000</v>
+      </c>
+      <c r="H15" s="29">
+        <v>196948400</v>
+      </c>
+      <c r="I15" s="30">
+        <f t="shared" si="0"/>
+        <v>52362100</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" si="1"/>
+        <v>3188527.7298968509</v>
+      </c>
+      <c r="K15" s="30">
+        <f t="shared" si="2"/>
+        <v>0.139266759736527</v>
+      </c>
+      <c r="L15" s="30">
+        <f t="shared" si="3"/>
+        <v>49173572.270103149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="str">
+        <f>IF($A$2+ROW(A16)-2&lt;=end_year,A15+1,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30">
+        <f t="shared" ref="I16:I40" si="4">D16+E16+F16+G16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
+        <f t="shared" ref="J16:J40" si="5">(B16 + stillbirth*B16/(1000-stillbirth))/(1-abortion)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="e">
+        <f t="shared" ref="K16:K40" si="6">D16/I16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="30">
+        <f t="shared" ref="L16:L40" si="7">I16-J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="str">
+        <f>IF($A$2+ROW(A17)-2&lt;=end_year,A16+1,"")</f>
+        <v/>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L17" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="str">
+        <f>IF($A$2+ROW(A18)-2&lt;=end_year,A17+1,"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="str">
+        <f>IF($A$2+ROW(A19)-2&lt;=end_year,A18+1,"")</f>
+        <v/>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="str">
+        <f>IF($A$2+ROW(A20)-2&lt;=end_year,A19+1,"")</f>
+        <v/>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="str">
+        <f>IF($A$2+ROW(A21)-2&lt;=end_year,A20+1,"")</f>
+        <v/>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="str">
+        <f>IF($A$2+ROW(A22)-2&lt;=end_year,A21+1,"")</f>
+        <v/>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="str">
+        <f>IF($A$2+ROW(A23)-2&lt;=end_year,A22+1,"")</f>
+        <v/>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="str">
+        <f>IF($A$2+ROW(A24)-2&lt;=end_year,A23+1,"")</f>
+        <v/>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="str">
+        <f>IF($A$2+ROW(A25)-2&lt;=end_year,A24+1,"")</f>
+        <v/>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="str">
+        <f>IF($A$2+ROW(A26)-2&lt;=end_year,A25+1,"")</f>
+        <v/>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="str">
+        <f>IF($A$2+ROW(A27)-2&lt;=end_year,A26+1,"")</f>
+        <v/>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L27" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="str">
+        <f>IF($A$2+ROW(A28)-2&lt;=end_year,A27+1,"")</f>
+        <v/>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="str">
+        <f>IF($A$2+ROW(A29)-2&lt;=end_year,A28+1,"")</f>
+        <v/>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="str">
+        <f>IF($A$2+ROW(A30)-2&lt;=end_year,A29+1,"")</f>
+        <v/>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="str">
+        <f>IF($A$2+ROW(A31)-2&lt;=end_year,A30+1,"")</f>
+        <v/>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="str">
+        <f>IF($A$2+ROW(A32)-2&lt;=end_year,A31+1,"")</f>
+        <v/>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="str">
+        <f>IF($A$2+ROW(A33)-2&lt;=end_year,A32+1,"")</f>
+        <v/>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="str">
+        <f>IF($A$2+ROW(A34)-2&lt;=end_year,A33+1,"")</f>
+        <v/>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="str">
+        <f>IF($A$2+ROW(A35)-2&lt;=end_year,A34+1,"")</f>
+        <v/>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="str">
+        <f>IF($A$2+ROW(A36)-2&lt;=end_year,A35+1,"")</f>
+        <v/>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="str">
+        <f>IF($A$2+ROW(A37)-2&lt;=end_year,A36+1,"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="str">
+        <f>IF($A$2+ROW(A38)-2&lt;=end_year,A37+1,"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="str">
+        <f>IF($A$2+ROW(A39)-2&lt;=end_year,A38+1,"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="str">
+        <f>IF($A$2+ROW(A40)-2&lt;=end_year,A39+1,"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="30" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:J2 L2">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$A2=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:J40 L3:L40">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$A3=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$A2=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K40">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A3=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -7898,13 +9418,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>128</v>
       </c>
@@ -7927,7 +9447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>74</v>
       </c>
@@ -7950,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -7973,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -7996,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -8019,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -8042,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -8065,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -8088,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -8111,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>72</v>
       </c>
@@ -8135,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -8158,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -8181,7 +9701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -8204,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -8227,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -8250,7 +9770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -8273,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -8296,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -8319,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -8342,7 +9862,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -8365,7 +9885,7 @@
         <v>7.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -8388,7 +9908,7 @@
         <v>0.25590000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -8411,7 +9931,7 @@
         <v>0.1464</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -8434,7 +9954,7 @@
         <v>1.7600000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -8457,7 +9977,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -8480,7 +10000,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -8503,7 +10023,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -8533,660 +10053,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="8">
-        <v>3095470</v>
-      </c>
-      <c r="C2" s="29">
-        <v>15402200</v>
-      </c>
-      <c r="D2" s="29">
-        <v>8785700</v>
-      </c>
-      <c r="E2" s="29">
-        <v>13889200</v>
-      </c>
-      <c r="F2" s="29">
-        <v>12671800</v>
-      </c>
-      <c r="G2" s="29">
-        <v>9362400</v>
-      </c>
-      <c r="H2" s="29">
-        <v>173766200</v>
-      </c>
-      <c r="I2" s="30">
-        <f t="shared" ref="I2:I15" si="0">D2+E2+F2+G2</f>
-        <v>44709100</v>
-      </c>
-      <c r="J2" s="30">
-        <f t="shared" ref="J2:J15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>3650590.4685349194</v>
-      </c>
-      <c r="K2" s="55">
-        <f t="shared" ref="K2:K15" si="2">D2/I2</f>
-        <v>0.19650809343064388</v>
-      </c>
-      <c r="L2" s="30">
-        <f>I2-J2</f>
-        <v>41058509.531465083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3071259</v>
-      </c>
-      <c r="C3" s="29">
-        <v>15629400.000000002</v>
-      </c>
-      <c r="D3" s="29">
-        <v>8937400.0000000019</v>
-      </c>
-      <c r="E3" s="29">
-        <v>14228400.000000002</v>
-      </c>
-      <c r="F3" s="29">
-        <v>12949600</v>
-      </c>
-      <c r="G3" s="29">
-        <v>9576800</v>
-      </c>
-      <c r="H3" s="29">
-        <v>175848400</v>
-      </c>
-      <c r="I3" s="30">
-        <f t="shared" si="0"/>
-        <v>45692200</v>
-      </c>
-      <c r="J3" s="30">
-        <f t="shared" si="1"/>
-        <v>3622037.632993402</v>
-      </c>
-      <c r="K3" s="55">
-        <f t="shared" si="2"/>
-        <v>0.19560012431005733</v>
-      </c>
-      <c r="L3" s="30">
-        <f t="shared" ref="L3:L15" si="3">I3-J3</f>
-        <v>42070162.3670066</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="8">
-        <v>3045241</v>
-      </c>
-      <c r="C4" s="29">
-        <v>15856600.000000002</v>
-      </c>
-      <c r="D4" s="29">
-        <v>9089100.0000000019</v>
-      </c>
-      <c r="E4" s="29">
-        <v>14567600.000000002</v>
-      </c>
-      <c r="F4" s="29">
-        <v>13227400</v>
-      </c>
-      <c r="G4" s="29">
-        <v>9791200.0000000019</v>
-      </c>
-      <c r="H4" s="29">
-        <v>177930600</v>
-      </c>
-      <c r="I4" s="30">
-        <f t="shared" si="0"/>
-        <v>46675300</v>
-      </c>
-      <c r="J4" s="30">
-        <f t="shared" si="1"/>
-        <v>3591353.7424015561</v>
-      </c>
-      <c r="K4" s="55">
-        <f t="shared" si="2"/>
-        <v>0.19473040344679096</v>
-      </c>
-      <c r="L4" s="30">
-        <f t="shared" si="3"/>
-        <v>43083946.257598445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3017266</v>
-      </c>
-      <c r="C5" s="29">
-        <v>16083800.000000004</v>
-      </c>
-      <c r="D5" s="29">
-        <v>9240800.0000000037</v>
-      </c>
-      <c r="E5" s="29">
-        <v>14906800.000000004</v>
-      </c>
-      <c r="F5" s="29">
-        <v>13505200</v>
-      </c>
-      <c r="G5" s="29">
-        <v>10005600.000000004</v>
-      </c>
-      <c r="H5" s="29">
-        <v>180012800</v>
-      </c>
-      <c r="I5" s="30">
-        <f t="shared" si="0"/>
-        <v>47658400.000000015</v>
-      </c>
-      <c r="J5" s="30">
-        <f t="shared" si="1"/>
-        <v>3558361.8967828737</v>
-      </c>
-      <c r="K5" s="55">
-        <f t="shared" si="2"/>
-        <v>0.19389656387960991</v>
-      </c>
-      <c r="L5" s="30">
-        <f t="shared" si="3"/>
-        <v>44100038.10321714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="8">
-        <v>2990677</v>
-      </c>
-      <c r="C6" s="29">
-        <v>16311000.000000004</v>
-      </c>
-      <c r="D6" s="29">
-        <v>9392500.0000000037</v>
-      </c>
-      <c r="E6" s="29">
-        <v>15246000.000000004</v>
-      </c>
-      <c r="F6" s="29">
-        <v>13783000</v>
-      </c>
-      <c r="G6" s="29">
-        <v>10220000.000000004</v>
-      </c>
-      <c r="H6" s="29">
-        <v>182095000</v>
-      </c>
-      <c r="I6" s="30">
-        <f t="shared" si="0"/>
-        <v>48641500.000000015</v>
-      </c>
-      <c r="J6" s="30">
-        <f t="shared" si="1"/>
-        <v>3527004.6069471212</v>
-      </c>
-      <c r="K6" s="55">
-        <f t="shared" si="2"/>
-        <v>0.1930964300031866</v>
-      </c>
-      <c r="L6" s="30">
-        <f t="shared" si="3"/>
-        <v>45114495.393052891</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2962144</v>
-      </c>
-      <c r="C7" s="29">
-        <v>16190600.000000004</v>
-      </c>
-      <c r="D7" s="29">
-        <v>9004300.0000000037</v>
-      </c>
-      <c r="E7" s="29">
-        <v>15785700.000000004</v>
-      </c>
-      <c r="F7" s="29">
-        <v>13711700</v>
-      </c>
-      <c r="G7" s="29">
-        <v>10609600.000000004</v>
-      </c>
-      <c r="H7" s="29">
-        <v>183822800</v>
-      </c>
-      <c r="I7" s="30">
-        <f t="shared" si="0"/>
-        <v>49111300.000000015</v>
-      </c>
-      <c r="J7" s="30">
-        <f t="shared" si="1"/>
-        <v>3493354.6934158299</v>
-      </c>
-      <c r="K7" s="55">
-        <f t="shared" si="2"/>
-        <v>0.1833447699409301</v>
-      </c>
-      <c r="L7" s="30">
-        <f t="shared" si="3"/>
-        <v>45617945.306584187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2931643</v>
-      </c>
-      <c r="C8" s="29">
-        <v>16070200.000000004</v>
-      </c>
-      <c r="D8" s="29">
-        <v>8616100.0000000019</v>
-      </c>
-      <c r="E8" s="29">
-        <v>16325400.000000004</v>
-      </c>
-      <c r="F8" s="29">
-        <v>13640400</v>
-      </c>
-      <c r="G8" s="29">
-        <v>10999200.000000002</v>
-      </c>
-      <c r="H8" s="29">
-        <v>185550600</v>
-      </c>
-      <c r="I8" s="30">
-        <f t="shared" si="0"/>
-        <v>49581100.000000007</v>
-      </c>
-      <c r="J8" s="30">
-        <f t="shared" si="1"/>
-        <v>3457383.8521927581</v>
-      </c>
-      <c r="K8" s="55">
-        <f t="shared" si="2"/>
-        <v>0.17377791134121673</v>
-      </c>
-      <c r="L8" s="30">
-        <f t="shared" si="3"/>
-        <v>46123716.147807248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2899255</v>
-      </c>
-      <c r="C9" s="29">
-        <v>15949800.000000006</v>
-      </c>
-      <c r="D9" s="29">
-        <v>8227900.0000000019</v>
-      </c>
-      <c r="E9" s="29">
-        <v>16865100.000000004</v>
-      </c>
-      <c r="F9" s="29">
-        <v>13569100</v>
-      </c>
-      <c r="G9" s="29">
-        <v>11388800</v>
-      </c>
-      <c r="H9" s="29">
-        <v>187278400</v>
-      </c>
-      <c r="I9" s="30">
-        <f t="shared" si="0"/>
-        <v>50050900.000000007</v>
-      </c>
-      <c r="J9" s="30">
-        <f t="shared" si="1"/>
-        <v>3419187.609265219</v>
-      </c>
-      <c r="K9" s="55">
-        <f t="shared" si="2"/>
-        <v>0.16439065031797631</v>
-      </c>
-      <c r="L9" s="30">
-        <f t="shared" si="3"/>
-        <v>46631712.390734792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2865008</v>
-      </c>
-      <c r="C10" s="29">
-        <v>15829400.000000006</v>
-      </c>
-      <c r="D10" s="29">
-        <v>7839700.0000000019</v>
-      </c>
-      <c r="E10" s="29">
-        <v>17404800.000000004</v>
-      </c>
-      <c r="F10" s="29">
-        <v>13497800</v>
-      </c>
-      <c r="G10" s="29">
-        <v>11778400</v>
-      </c>
-      <c r="H10" s="29">
-        <v>189006200</v>
-      </c>
-      <c r="I10" s="30">
-        <f t="shared" si="0"/>
-        <v>50520700.000000007</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" si="1"/>
-        <v>3378798.9859621613</v>
-      </c>
-      <c r="K10" s="55">
-        <f t="shared" si="2"/>
-        <v>0.15517797655218554</v>
-      </c>
-      <c r="L10" s="30">
-        <f t="shared" si="3"/>
-        <v>47141901.014037848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2836142</v>
-      </c>
-      <c r="C11" s="29">
-        <v>15709000.000000006</v>
-      </c>
-      <c r="D11" s="29">
-        <v>7451500.0000000019</v>
-      </c>
-      <c r="E11" s="29">
-        <v>17944500</v>
-      </c>
-      <c r="F11" s="29">
-        <v>13426500</v>
-      </c>
-      <c r="G11" s="29">
-        <v>12168000</v>
-      </c>
-      <c r="H11" s="29">
-        <v>190734000</v>
-      </c>
-      <c r="I11" s="30">
-        <f t="shared" si="0"/>
-        <v>50990500</v>
-      </c>
-      <c r="J11" s="30">
-        <f t="shared" si="1"/>
-        <v>3344756.3544830228</v>
-      </c>
-      <c r="K11" s="55">
-        <f t="shared" si="2"/>
-        <v>0.1461350643747365</v>
-      </c>
-      <c r="L11" s="30">
-        <f t="shared" si="3"/>
-        <v>47645743.645516977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="8">
-        <v>2805541</v>
-      </c>
-      <c r="C12" s="29">
-        <v>15358200.000000006</v>
-      </c>
-      <c r="D12" s="29">
-        <v>7411700.0000000019</v>
-      </c>
-      <c r="E12" s="29">
-        <v>17710400</v>
-      </c>
-      <c r="F12" s="29">
-        <v>13766300</v>
-      </c>
-      <c r="G12" s="29">
-        <v>12445000</v>
-      </c>
-      <c r="H12" s="29">
-        <v>192287600</v>
-      </c>
-      <c r="I12" s="30">
-        <f t="shared" si="0"/>
-        <v>51333400</v>
-      </c>
-      <c r="J12" s="30">
-        <f t="shared" si="1"/>
-        <v>3308667.5799422786</v>
-      </c>
-      <c r="K12" s="55">
-        <f t="shared" si="2"/>
-        <v>0.14438357872262508</v>
-      </c>
-      <c r="L12" s="30">
-        <f t="shared" si="3"/>
-        <v>48024732.420057721</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="8">
-        <v>2773236</v>
-      </c>
-      <c r="C13" s="29">
-        <v>15007400.000000007</v>
-      </c>
-      <c r="D13" s="29">
-        <v>7371900.0000000019</v>
-      </c>
-      <c r="E13" s="29">
-        <v>17476300</v>
-      </c>
-      <c r="F13" s="29">
-        <v>14106100</v>
-      </c>
-      <c r="G13" s="29">
-        <v>12722000</v>
-      </c>
-      <c r="H13" s="29">
-        <v>193841200</v>
-      </c>
-      <c r="I13" s="30">
-        <f t="shared" si="0"/>
-        <v>51676300</v>
-      </c>
-      <c r="J13" s="30">
-        <f t="shared" si="1"/>
-        <v>3270569.2216684073</v>
-      </c>
-      <c r="K13" s="55">
-        <f t="shared" si="2"/>
-        <v>0.14265533716616713</v>
-      </c>
-      <c r="L13" s="30">
-        <f t="shared" si="3"/>
-        <v>48405730.778331593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="8">
-        <v>2739273</v>
-      </c>
-      <c r="C14" s="29">
-        <v>14656600.000000007</v>
-      </c>
-      <c r="D14" s="29">
-        <v>7332100.0000000009</v>
-      </c>
-      <c r="E14" s="29">
-        <v>17242200</v>
-      </c>
-      <c r="F14" s="29">
-        <v>14445900</v>
-      </c>
-      <c r="G14" s="29">
-        <v>12999000</v>
-      </c>
-      <c r="H14" s="29">
-        <v>195394800</v>
-      </c>
-      <c r="I14" s="30">
-        <f t="shared" si="0"/>
-        <v>52019200</v>
-      </c>
-      <c r="J14" s="30">
-        <f t="shared" si="1"/>
-        <v>3230515.5289875376</v>
-      </c>
-      <c r="K14" s="55">
-        <f t="shared" si="2"/>
-        <v>0.14094988004429135</v>
-      </c>
-      <c r="L14" s="30">
-        <f t="shared" si="3"/>
-        <v>48788684.471012466</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2703670</v>
-      </c>
-      <c r="C15" s="29">
-        <v>14305800.000000007</v>
-      </c>
-      <c r="D15" s="29">
-        <v>7292300.0000000009</v>
-      </c>
-      <c r="E15" s="29">
-        <v>17008100</v>
-      </c>
-      <c r="F15" s="29">
-        <v>14785700</v>
-      </c>
-      <c r="G15" s="29">
-        <v>13276000</v>
-      </c>
-      <c r="H15" s="29">
-        <v>196948400</v>
-      </c>
-      <c r="I15" s="30">
-        <f t="shared" si="0"/>
-        <v>52362100</v>
-      </c>
-      <c r="J15" s="30">
-        <f t="shared" si="1"/>
-        <v>3188527.7298968509</v>
-      </c>
-      <c r="K15" s="55">
-        <f t="shared" si="2"/>
-        <v>0.139266759736527</v>
-      </c>
-      <c r="L15" s="30">
-        <f t="shared" si="3"/>
-        <v>49173572.270103149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9196,13 +10064,13 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>153</v>
       </c>
@@ -9225,7 +10093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>131</v>
       </c>
@@ -9253,7 +10121,7 @@
         <v>0.2168920625348294</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
         <v>134</v>
@@ -9279,7 +10147,7 @@
         <v>0.36910793746517057</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
         <v>132</v>
@@ -9300,7 +10168,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
         <v>135</v>
@@ -9321,7 +10189,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -9329,7 +10197,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -9337,7 +10205,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>130</v>
       </c>
@@ -9365,7 +10233,7 @@
         <v>0.55784394006702964</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>137</v>
       </c>
@@ -9390,7 +10258,7 @@
         <v>0.31615605993297041</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>138</v>
       </c>
@@ -9410,7 +10278,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>139</v>
       </c>
@@ -9430,7 +10298,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9444,7 +10312,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>71</v>
       </c>
@@ -9488,7 +10356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>151</v>
       </c>
@@ -9532,7 +10400,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>69</v>
       </c>
@@ -9589,14 +10457,14 @@
         <v>0.18257399999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -9611,7 +10479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9621,13 +10489,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="2" max="7" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>129</v>
       </c>
@@ -9650,11 +10518,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="67" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="39">
@@ -9673,8 +10541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="69" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="67" t="s">
         <v>190</v>
       </c>
       <c r="C3" s="39">
@@ -9693,8 +10561,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="69" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="67" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="39">
@@ -9713,8 +10581,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="69" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="67" t="s">
         <v>192</v>
       </c>
       <c r="C5" s="49">
@@ -9744,7 +10612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9754,13 +10622,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -9795,7 +10663,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -9812,10 +10680,10 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -9832,10 +10700,10 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -9852,7 +10720,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -9866,7 +10734,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>167</v>
       </c>
@@ -9880,7 +10748,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -9897,7 +10765,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>169</v>
       </c>
@@ -9911,7 +10779,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>75</v>
       </c>
@@ -9928,7 +10796,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>193</v>
       </c>
@@ -9949,7 +10817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9959,26 +10827,26 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="15"/>
+    <col min="1" max="1" width="37.1796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.36328125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="65" t="s">
         <v>187</v>
       </c>
       <c r="C1" s="43" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>141</v>
       </c>
@@ -9989,7 +10857,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>77</v>
       </c>
@@ -9997,7 +10865,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>78</v>
       </c>
@@ -10005,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>79</v>
       </c>
@@ -10013,7 +10881,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
         <v>80</v>
       </c>
@@ -10021,7 +10889,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>81</v>
       </c>
@@ -10029,7 +10897,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41" t="s">
         <v>82</v>
       </c>
@@ -10037,7 +10905,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
         <v>83</v>
       </c>
@@ -10045,7 +10913,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>84</v>
       </c>
@@ -10053,7 +10921,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>148</v>
       </c>
@@ -10062,11 +10930,11 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>85</v>
       </c>
@@ -10077,7 +10945,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
         <v>87</v>
       </c>
@@ -10085,7 +10953,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
         <v>88</v>
       </c>
@@ -10093,7 +10961,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>89</v>
       </c>
@@ -10101,7 +10969,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="13" x14ac:dyDescent="0.25">
       <c r="B17" s="48" t="s">
         <v>148</v>
       </c>
@@ -10117,7 +10985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10127,253 +10995,253 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="60" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="60" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="60" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="60"/>
+    <col min="1" max="1" width="17" style="58" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="58" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" style="58" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="79" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="99" t="str">
+      <c r="E2" s="97" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="99" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="97" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="73" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="99" t="str">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="97" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="99" t="str">
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="97" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="73" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="99" t="str">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="97" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="73" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="76"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="80" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="74"/>
+    </row>
+    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="100" t="str">
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="98" t="str">
         <f>IF(E$14="","",E$14)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="76" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="99" t="str">
+      <c r="E10" s="97" t="str">
         <f>IF(E$14="","",E$14)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="73" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="99" t="str">
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="97" t="str">
         <f>IF(E$14="","",E$14)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="73" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="99" t="str">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="97" t="str">
         <f>IF(E$14="","",E$14)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="73" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="99" t="str">
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="97" t="str">
         <f>IF(E$14="","",E$14)</f>
         <v>x</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="73" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="76" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="74" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="A16" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="100" t="str">
+      <c r="C16" s="68"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="98" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="99" t="str">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="97" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="73" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="99" t="str">
+      <c r="C18" s="68"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="97" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="73" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="99" t="str">
+      <c r="C19" s="68"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="97" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="73" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="99" t="str">
+      <c r="C20" s="68"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="97" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
-      <c r="B21" s="73" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="72"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10383,7 +11251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE4650B-7A35-4B48-AEF2-692F4EBB38C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10393,51 +11261,51 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="105" t="s">
+    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="76"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="105" t="s">
+      <c r="D2" s="74"/>
+    </row>
+    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/applications/master/data/national/master_input.xlsx
+++ b/applications/master/data/national/master_input.xlsx
@@ -73,7 +73,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -8004,7 +8004,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K40"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8088,9 +8088,9 @@
         <f t="shared" ref="J2:J15" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
         <v>3650590.4685349194</v>
       </c>
-      <c r="K2" s="30">
-        <f t="shared" ref="K2:K15" si="2">D2/I2</f>
-        <v>0.19650809343064388</v>
+      <c r="K2" s="30" t="str">
+        <f>IFERROR("",D2/I2)</f>
+        <v/>
       </c>
       <c r="L2" s="30">
         <f>I2-J2</f>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <f>IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
+        <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
       </c>
       <c r="B3" s="8">
@@ -8131,18 +8131,18 @@
         <f t="shared" si="1"/>
         <v>3622037.632993402</v>
       </c>
-      <c r="K3" s="30">
-        <f t="shared" si="2"/>
-        <v>0.19560012431005733</v>
+      <c r="K3" s="30" t="str">
+        <f t="shared" ref="K3:K40" si="3">IFERROR("",D3/I3)</f>
+        <v/>
       </c>
       <c r="L3" s="30">
-        <f t="shared" ref="L3:L15" si="3">I3-J3</f>
+        <f t="shared" ref="L3:L15" si="4">I3-J3</f>
         <v>42070162.3670066</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <f>IF($A$2+ROW(A4)-2&lt;=end_year,A3+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
       <c r="B4" s="8">
@@ -8174,18 +8174,18 @@
         <f t="shared" si="1"/>
         <v>3591353.7424015561</v>
       </c>
-      <c r="K4" s="30">
-        <f t="shared" si="2"/>
-        <v>0.19473040344679096</v>
+      <c r="K4" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L4" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43083946.257598445</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <f>IF($A$2+ROW(A5)-2&lt;=end_year,A4+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
       <c r="B5" s="8">
@@ -8217,18 +8217,18 @@
         <f t="shared" si="1"/>
         <v>3558361.8967828737</v>
       </c>
-      <c r="K5" s="30">
-        <f t="shared" si="2"/>
-        <v>0.19389656387960991</v>
+      <c r="K5" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L5" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44100038.10321714</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <f>IF($A$2+ROW(A6)-2&lt;=end_year,A5+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
       <c r="B6" s="8">
@@ -8260,18 +8260,18 @@
         <f t="shared" si="1"/>
         <v>3527004.6069471212</v>
       </c>
-      <c r="K6" s="30">
-        <f t="shared" si="2"/>
-        <v>0.1930964300031866</v>
+      <c r="K6" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L6" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45114495.393052891</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <f>IF($A$2+ROW(A7)-2&lt;=end_year,A6+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
       <c r="B7" s="8">
@@ -8303,18 +8303,18 @@
         <f t="shared" si="1"/>
         <v>3493354.6934158299</v>
       </c>
-      <c r="K7" s="30">
-        <f t="shared" si="2"/>
-        <v>0.1833447699409301</v>
+      <c r="K7" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L7" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45617945.306584187</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <f>IF($A$2+ROW(A8)-2&lt;=end_year,A7+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
       <c r="B8" s="8">
@@ -8346,18 +8346,18 @@
         <f t="shared" si="1"/>
         <v>3457383.8521927581</v>
       </c>
-      <c r="K8" s="30">
-        <f t="shared" si="2"/>
-        <v>0.17377791134121673</v>
+      <c r="K8" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L8" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46123716.147807248</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <f>IF($A$2+ROW(A9)-2&lt;=end_year,A8+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B9" s="8">
@@ -8389,18 +8389,18 @@
         <f t="shared" si="1"/>
         <v>3419187.609265219</v>
       </c>
-      <c r="K9" s="30">
-        <f t="shared" si="2"/>
-        <v>0.16439065031797631</v>
+      <c r="K9" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L9" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46631712.390734792</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <f>IF($A$2+ROW(A10)-2&lt;=end_year,A9+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B10" s="8">
@@ -8432,18 +8432,18 @@
         <f t="shared" si="1"/>
         <v>3378798.9859621613</v>
       </c>
-      <c r="K10" s="30">
-        <f t="shared" si="2"/>
-        <v>0.15517797655218554</v>
+      <c r="K10" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L10" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47141901.014037848</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <f>IF($A$2+ROW(A11)-2&lt;=end_year,A10+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B11" s="8">
@@ -8475,18 +8475,18 @@
         <f t="shared" si="1"/>
         <v>3344756.3544830228</v>
       </c>
-      <c r="K11" s="30">
-        <f t="shared" si="2"/>
-        <v>0.1461350643747365</v>
+      <c r="K11" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L11" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47645743.645516977</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <f>IF($A$2+ROW(A12)-2&lt;=end_year,A11+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B12" s="8">
@@ -8518,18 +8518,18 @@
         <f t="shared" si="1"/>
         <v>3308667.5799422786</v>
       </c>
-      <c r="K12" s="30">
-        <f t="shared" si="2"/>
-        <v>0.14438357872262508</v>
+      <c r="K12" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L12" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48024732.420057721</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <f>IF($A$2+ROW(A13)-2&lt;=end_year,A12+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
       <c r="B13" s="8">
@@ -8561,18 +8561,18 @@
         <f t="shared" si="1"/>
         <v>3270569.2216684073</v>
       </c>
-      <c r="K13" s="30">
-        <f t="shared" si="2"/>
-        <v>0.14265533716616713</v>
+      <c r="K13" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L13" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48405730.778331593</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <f>IF($A$2+ROW(A14)-2&lt;=end_year,A13+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
       <c r="B14" s="8">
@@ -8604,18 +8604,18 @@
         <f t="shared" si="1"/>
         <v>3230515.5289875376</v>
       </c>
-      <c r="K14" s="30">
-        <f t="shared" si="2"/>
-        <v>0.14094988004429135</v>
+      <c r="K14" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L14" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48788684.471012466</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <f>IF($A$2+ROW(A15)-2&lt;=end_year,A14+1,"")</f>
+        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="B15" s="8">
@@ -8647,18 +8647,18 @@
         <f t="shared" si="1"/>
         <v>3188527.7298968509</v>
       </c>
-      <c r="K15" s="30">
-        <f t="shared" si="2"/>
-        <v>0.139266759736527</v>
+      <c r="K15" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L15" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49173572.270103149</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
-        <f>IF($A$2+ROW(A16)-2&lt;=end_year,A15+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B16" s="8"/>
@@ -8669,16 +8669,16 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30">
-        <f t="shared" ref="I16:I40" si="4">D16+E16+F16+G16</f>
+        <f t="shared" ref="I16:I40" si="5">D16+E16+F16+G16</f>
         <v>0</v>
       </c>
       <c r="J16" s="30">
-        <f t="shared" ref="J16:J40" si="5">(B16 + stillbirth*B16/(1000-stillbirth))/(1-abortion)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="30" t="e">
-        <f t="shared" ref="K16:K40" si="6">D16/I16</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="J16:J40" si="6">(B16 + stillbirth*B16/(1000-stillbirth))/(1-abortion)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L16" s="30">
         <f t="shared" ref="L16:L40" si="7">I16-J16</f>
@@ -8687,7 +8687,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
-        <f>IF($A$2+ROW(A17)-2&lt;=end_year,A16+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B17" s="8"/>
@@ -8698,16 +8698,16 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J17" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L17" s="30">
         <f t="shared" si="7"/>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
-        <f>IF($A$2+ROW(A18)-2&lt;=end_year,A17+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B18" s="8"/>
@@ -8727,16 +8727,16 @@
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L18" s="30">
         <f t="shared" si="7"/>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
-        <f>IF($A$2+ROW(A19)-2&lt;=end_year,A18+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B19" s="8"/>
@@ -8756,16 +8756,16 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J19" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L19" s="30">
         <f t="shared" si="7"/>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
-        <f>IF($A$2+ROW(A20)-2&lt;=end_year,A19+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B20" s="8"/>
@@ -8785,16 +8785,16 @@
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J20" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L20" s="30">
         <f t="shared" si="7"/>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
-        <f>IF($A$2+ROW(A21)-2&lt;=end_year,A20+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B21" s="8"/>
@@ -8814,16 +8814,16 @@
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L21" s="30">
         <f t="shared" si="7"/>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
-        <f>IF($A$2+ROW(A22)-2&lt;=end_year,A21+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B22" s="8"/>
@@ -8843,16 +8843,16 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J22" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L22" s="30">
         <f t="shared" si="7"/>
@@ -8861,7 +8861,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
-        <f>IF($A$2+ROW(A23)-2&lt;=end_year,A22+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B23" s="8"/>
@@ -8872,16 +8872,16 @@
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J23" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L23" s="30">
         <f t="shared" si="7"/>
@@ -8890,7 +8890,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
-        <f>IF($A$2+ROW(A24)-2&lt;=end_year,A23+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B24" s="8"/>
@@ -8901,16 +8901,16 @@
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J24" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L24" s="30">
         <f t="shared" si="7"/>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
-        <f>IF($A$2+ROW(A25)-2&lt;=end_year,A24+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B25" s="8"/>
@@ -8930,16 +8930,16 @@
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J25" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L25" s="30">
         <f t="shared" si="7"/>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
-        <f>IF($A$2+ROW(A26)-2&lt;=end_year,A25+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B26" s="8"/>
@@ -8959,16 +8959,16 @@
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J26" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L26" s="30">
         <f t="shared" si="7"/>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
-        <f>IF($A$2+ROW(A27)-2&lt;=end_year,A26+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B27" s="8"/>
@@ -8988,16 +8988,16 @@
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J27" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L27" s="30">
         <f t="shared" si="7"/>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
-        <f>IF($A$2+ROW(A28)-2&lt;=end_year,A27+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B28" s="8"/>
@@ -9017,16 +9017,16 @@
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J28" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L28" s="30">
         <f t="shared" si="7"/>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
-        <f>IF($A$2+ROW(A29)-2&lt;=end_year,A28+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B29" s="8"/>
@@ -9046,16 +9046,16 @@
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J29" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L29" s="30">
         <f t="shared" si="7"/>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
-        <f>IF($A$2+ROW(A30)-2&lt;=end_year,A29+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B30" s="8"/>
@@ -9075,16 +9075,16 @@
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L30" s="30">
         <f t="shared" si="7"/>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
-        <f>IF($A$2+ROW(A31)-2&lt;=end_year,A30+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B31" s="8"/>
@@ -9104,16 +9104,16 @@
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J31" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L31" s="30">
         <f t="shared" si="7"/>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
-        <f>IF($A$2+ROW(A32)-2&lt;=end_year,A31+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B32" s="8"/>
@@ -9133,16 +9133,16 @@
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J32" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L32" s="30">
         <f t="shared" si="7"/>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
-        <f>IF($A$2+ROW(A33)-2&lt;=end_year,A32+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B33" s="8"/>
@@ -9162,16 +9162,16 @@
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J33" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L33" s="30">
         <f t="shared" si="7"/>
@@ -9180,7 +9180,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
-        <f>IF($A$2+ROW(A34)-2&lt;=end_year,A33+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B34" s="8"/>
@@ -9191,16 +9191,16 @@
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J34" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L34" s="30">
         <f t="shared" si="7"/>
@@ -9209,7 +9209,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
-        <f>IF($A$2+ROW(A35)-2&lt;=end_year,A34+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B35" s="8"/>
@@ -9220,16 +9220,16 @@
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J35" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L35" s="30">
         <f t="shared" si="7"/>
@@ -9238,7 +9238,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
-        <f>IF($A$2+ROW(A36)-2&lt;=end_year,A35+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B36" s="8"/>
@@ -9249,16 +9249,16 @@
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J36" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L36" s="30">
         <f t="shared" si="7"/>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
-        <f>IF($A$2+ROW(A37)-2&lt;=end_year,A36+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B37" s="8"/>
@@ -9278,16 +9278,16 @@
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J37" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L37" s="30">
         <f t="shared" si="7"/>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
-        <f>IF($A$2+ROW(A38)-2&lt;=end_year,A37+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B38" s="8"/>
@@ -9307,16 +9307,16 @@
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J38" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L38" s="30">
         <f t="shared" si="7"/>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
-        <f>IF($A$2+ROW(A39)-2&lt;=end_year,A38+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B39" s="8"/>
@@ -9336,16 +9336,16 @@
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J39" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L39" s="30">
         <f t="shared" si="7"/>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
-        <f>IF($A$2+ROW(A40)-2&lt;=end_year,A39+1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B40" s="8"/>
@@ -9365,16 +9365,16 @@
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J40" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="30" t="e">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L40" s="30">
         <f t="shared" si="7"/>
@@ -9392,14 +9392,9 @@
       <formula>$A3=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
+  <conditionalFormatting sqref="K2:K40">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A2=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K40">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10061,7 +10056,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10100,25 +10095,25 @@
       <c r="B2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="49">
-        <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE)</f>
-        <v>0.53200836191885958</v>
-      </c>
-      <c r="D2" s="49">
-        <f t="shared" ref="D2:G2" si="0">1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE)</f>
-        <v>0.53200836191885958</v>
-      </c>
-      <c r="E2" s="49">
+      <c r="C2" s="49" t="str">
+        <f>IFERROR("",1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE))</f>
+        <v/>
+      </c>
+      <c r="D2" s="49" t="str">
+        <f t="shared" ref="D2:G2" si="0">IFERROR("",1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE))</f>
+        <v/>
+      </c>
+      <c r="E2" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>0.44274864978114037</v>
-      </c>
-      <c r="F2" s="49">
+        <v/>
+      </c>
+      <c r="F2" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>0.24285617786005109</v>
-      </c>
-      <c r="G2" s="49">
+        <v/>
+      </c>
+      <c r="G2" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>0.2168920625348294</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10126,25 +10121,25 @@
       <c r="B3" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="49">
-        <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5)</f>
-        <v>0.3279916380811404</v>
-      </c>
-      <c r="D3" s="49">
-        <f t="shared" ref="D3:G3" si="1">_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5)</f>
-        <v>0.3279916380811404</v>
-      </c>
-      <c r="E3" s="49">
+      <c r="C3" s="49" t="str">
+        <f>IFERROR("",_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5))</f>
+        <v/>
+      </c>
+      <c r="D3" s="49" t="str">
+        <f t="shared" ref="D3:G3" si="1">IFERROR("",_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5))</f>
+        <v/>
+      </c>
+      <c r="E3" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0.36125135021885962</v>
-      </c>
-      <c r="F3" s="49">
+        <v/>
+      </c>
+      <c r="F3" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0.3761438221399489</v>
-      </c>
-      <c r="G3" s="49">
+        <v/>
+      </c>
+      <c r="G3" s="49" t="str">
         <f t="shared" si="1"/>
-        <v>0.36910793746517057</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10212,50 +10207,50 @@
       <c r="B8" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="49">
-        <f>1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE)</f>
-        <v>0.43848891822683433</v>
-      </c>
-      <c r="D8" s="49">
-        <f t="shared" ref="D8:G8" si="2">1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE)</f>
-        <v>0.43848891822683433</v>
-      </c>
-      <c r="E8" s="49">
+      <c r="C8" s="49" t="str">
+        <f>IFERROR("",1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE))</f>
+        <v/>
+      </c>
+      <c r="D8" s="49" t="str">
+        <f t="shared" ref="D8:G8" si="2">IFERROR("",1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE))</f>
+        <v/>
+      </c>
+      <c r="E8" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>0.46325746477389407</v>
-      </c>
-      <c r="F8" s="49">
+        <v/>
+      </c>
+      <c r="F8" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>0.51282536329943151</v>
-      </c>
-      <c r="G8" s="49">
+        <v/>
+      </c>
+      <c r="G8" s="49" t="str">
         <f t="shared" si="2"/>
-        <v>0.55784394006702964</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="49">
-        <f>_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11)</f>
-        <v>0.36251108177316566</v>
-      </c>
-      <c r="D9" s="49">
-        <f t="shared" ref="D9:G9" si="3">_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11)</f>
-        <v>0.36251108177316566</v>
-      </c>
-      <c r="E9" s="49">
+      <c r="C9" s="49" t="str">
+        <f>IFERROR("",_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11))</f>
+        <v/>
+      </c>
+      <c r="D9" s="49" t="str">
+        <f t="shared" ref="D9:G9" si="3">IFERROR("",_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11))</f>
+        <v/>
+      </c>
+      <c r="E9" s="49" t="str">
         <f t="shared" si="3"/>
-        <v>0.35474253522610594</v>
-      </c>
-      <c r="F9" s="49">
+        <v/>
+      </c>
+      <c r="F9" s="49" t="str">
         <f t="shared" si="3"/>
-        <v>0.33617463670056846</v>
-      </c>
-      <c r="G9" s="49">
+        <v/>
+      </c>
+      <c r="G9" s="49" t="str">
         <f t="shared" si="3"/>
-        <v>0.31615605993297041</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
